--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FB069C-6D4F-4CE5-AE67-124620404CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB5541C-A288-4653-BE76-D946A7C3EA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="525" windowWidth="11070" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="795" windowWidth="11235" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
   <si>
     <t>FECHA</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>-59.016667</t>
+  </si>
+  <si>
+    <t>Concordia</t>
+  </si>
+  <si>
+    <t>vuelo de repatriación</t>
+  </si>
+  <si>
+    <t>-31.392222</t>
+  </si>
+  <si>
+    <t>-58.016944</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,6 +1759,35 @@
         <v>59</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB5541C-A288-4653-BE76-D946A7C3EA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC189288-15FE-42A1-BD82-4B2F8C8E7F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="795" windowWidth="11235" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entre_rios_casos!$A$1:$J$32</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
   <si>
     <t>FECHA</t>
   </si>
@@ -212,13 +223,37 @@
   </si>
   <si>
     <t>-58.016944</t>
+  </si>
+  <si>
+    <t>Chajarí</t>
+  </si>
+  <si>
+    <t>Federación</t>
+  </si>
+  <si>
+    <t>-30.766667</t>
+  </si>
+  <si>
+    <t>-57.983333</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>San Justo</t>
+  </si>
+  <si>
+    <t>-32.45</t>
+  </si>
+  <si>
+    <t>-58.4333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +387,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -695,10 +736,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1054,14 +1096,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -1139,7 +1182,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1387,28 +1430,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1416,39 +1453,39 @@
         <v>43923</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1456,27 +1493,27 @@
         <v>43924</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1493,172 +1530,172 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43926</v>
+        <v>43929</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43930</v>
+        <v>43936</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43936</v>
+        <v>43948</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43948</v>
+        <v>43951</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43951</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,33 +1703,42 @@
         <v>43953</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43953</v>
+        <v>43956</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>40</v>
@@ -1706,89 +1752,199 @@
         <v>43956</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43956</v>
+        <v>43963</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43963</v>
+        <v>43979</v>
       </c>
       <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B31">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>60</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J32" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC189288-15FE-42A1-BD82-4B2F8C8E7F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75974B8-8DF1-4DC1-B625-D7FC9AB0B4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
   <si>
     <t>FECHA</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>-58.4333</t>
+  </si>
+  <si>
+    <t>San Benito</t>
   </si>
 </sst>
 </file>
@@ -1096,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1436,7 @@
         <v>43923</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1453,7 +1456,7 @@
         <v>43923</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1473,7 +1476,7 @@
         <v>43924</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1493,7 +1496,7 @@
         <v>43924</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1513,7 +1516,7 @@
         <v>43926</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1533,7 +1536,7 @@
         <v>43929</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1562,7 +1565,7 @@
         <v>43930</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1594,7 +1597,7 @@
         <v>43936</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1614,7 +1617,7 @@
         <v>43948</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1643,7 +1646,7 @@
         <v>43951</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1663,7 +1666,7 @@
         <v>43951</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1683,7 +1686,7 @@
         <v>43953</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1703,7 +1706,7 @@
         <v>43953</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1723,7 +1726,7 @@
         <v>43956</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1752,7 +1755,7 @@
         <v>43956</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1781,7 +1784,7 @@
         <v>43963</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -1810,10 +1813,13 @@
         <v>43979</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>39</v>
@@ -1827,7 +1833,7 @@
         <v>43920</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -1856,7 +1862,7 @@
         <v>43930</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -1888,7 +1894,7 @@
         <v>43981</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>65</v>
@@ -1908,7 +1914,7 @@
         <v>43983</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -1928,7 +1934,7 @@
         <v>43983</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
@@ -1941,6 +1947,114 @@
       </c>
       <c r="J35" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75974B8-8DF1-4DC1-B625-D7FC9AB0B4C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0062E9E-0AC8-4365-9CE4-F2994E6BB1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
   <si>
     <t>FECHA</t>
   </si>
@@ -1099,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,6 +2057,210 @@
         <v>56</v>
       </c>
     </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J32" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0062E9E-0AC8-4365-9CE4-F2994E6BB1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F04221-B122-45BC-8603-212A09BE50A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="73">
   <si>
     <t>FECHA</t>
   </si>
@@ -1099,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A53" sqref="A49:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2258,6 +2258,40 @@
         <v>40</v>
       </c>
       <c r="J53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>51</v>
       </c>
     </row>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F04221-B122-45BC-8603-212A09BE50A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A880DF-F600-402A-97F5-1F2C08487FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
   <si>
     <t>FECHA</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>San Benito</t>
+  </si>
+  <si>
+    <t>-31.783333</t>
+  </si>
+  <si>
+    <t>-60.433333</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A49:A53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,11 +1827,11 @@
       <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>39</v>
+      <c r="I30" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A880DF-F600-402A-97F5-1F2C08487FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA73F05-5277-4F71-A1D5-0AB6A091E447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="75">
   <si>
     <t>FECHA</t>
   </si>
@@ -1105,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,6 +2301,40 @@
         <v>51</v>
       </c>
     </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43990</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43990</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J32" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA73F05-5277-4F71-A1D5-0AB6A091E447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C7A99-0B7C-433D-8251-7B7A915911E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="1005" windowWidth="13245" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:M57"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,13 +2309,13 @@
         <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2326,13 +2326,13 @@
         <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60C7A99-0B7C-433D-8251-7B7A915911E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB55477C-EE33-4A51-9591-E9598A8DD762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="1005" windowWidth="13245" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="78">
   <si>
     <t>FECHA</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>-60.433333</t>
+  </si>
+  <si>
+    <t>-30.783333</t>
+  </si>
+  <si>
+    <t>-57.916667</t>
+  </si>
+  <si>
+    <t>Villa del Rosario</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:J57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,6 +2008,9 @@
       <c r="A38" s="1">
         <v>43986</v>
       </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -2016,6 +2028,9 @@
       <c r="A39" s="1">
         <v>43986</v>
       </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
@@ -2033,6 +2048,9 @@
       <c r="A40" s="1">
         <v>43986</v>
       </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
@@ -2050,6 +2068,9 @@
       <c r="A41" s="1">
         <v>43986</v>
       </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
@@ -2067,6 +2088,9 @@
       <c r="A42" s="1">
         <v>43987</v>
       </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -2084,6 +2108,9 @@
       <c r="A43" s="1">
         <v>43987</v>
       </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
       <c r="C43" t="s">
         <v>25</v>
       </c>
@@ -2101,6 +2128,9 @@
       <c r="A44" s="1">
         <v>43987</v>
       </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
@@ -2118,6 +2148,9 @@
       <c r="A45" s="1">
         <v>43987</v>
       </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
       <c r="C45" t="s">
         <v>25</v>
       </c>
@@ -2135,6 +2168,9 @@
       <c r="A46" s="1">
         <v>43987</v>
       </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
       <c r="C46" t="s">
         <v>25</v>
       </c>
@@ -2152,6 +2188,9 @@
       <c r="A47" s="1">
         <v>43987</v>
       </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
       <c r="C47" t="s">
         <v>25</v>
       </c>
@@ -2169,6 +2208,9 @@
       <c r="A48" s="1">
         <v>43987</v>
       </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -2186,6 +2228,9 @@
       <c r="A49" s="1">
         <v>43988</v>
       </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
       <c r="C49" t="s">
         <v>25</v>
       </c>
@@ -2203,6 +2248,9 @@
       <c r="A50" s="1">
         <v>43988</v>
       </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
       <c r="C50" t="s">
         <v>25</v>
       </c>
@@ -2220,6 +2268,9 @@
       <c r="A51" s="1">
         <v>43988</v>
       </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
       <c r="C51" t="s">
         <v>25</v>
       </c>
@@ -2237,6 +2288,9 @@
       <c r="A52" s="1">
         <v>43988</v>
       </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
       <c r="C52" t="s">
         <v>25</v>
       </c>
@@ -2254,6 +2308,9 @@
       <c r="A53" s="1">
         <v>43988</v>
       </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -2271,6 +2328,9 @@
       <c r="A54" s="1">
         <v>43989</v>
       </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
@@ -2288,6 +2348,9 @@
       <c r="A55" s="1">
         <v>43989</v>
       </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
       <c r="C55" t="s">
         <v>12</v>
       </c>
@@ -2305,6 +2368,9 @@
       <c r="A56" s="1">
         <v>43990</v>
       </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -2322,6 +2388,9 @@
       <c r="A57" s="1">
         <v>43990</v>
       </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
       <c r="C57" t="s">
         <v>25</v>
       </c>
@@ -2333,6 +2402,166 @@
       </c>
       <c r="J57" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB55477C-EE33-4A51-9591-E9598A8DD762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A992BA-B745-4F18-823A-F9CE2EF71709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="615" windowWidth="8190" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entre_rios_casos!$A$1:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entre_rios_casos!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="77">
   <si>
     <t>FECHA</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Mujer</t>
-  </si>
-  <si>
-    <t>Chaco</t>
   </si>
   <si>
     <t>adulta mayor</t>
@@ -1114,15 +1111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64:J64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -1172,10 +1171,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1232,10 +1231,10 @@
         <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1243,19 +1242,22 @@
         <v>43915</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>38</v>
@@ -1269,42 +1271,42 @@
         <v>43915</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>41</v>
@@ -1318,21 +1320,12 @@
         <v>43916</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1347,13 +1340,19 @@
         <v>43916</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -1364,22 +1363,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43916</v>
+        <v>43920</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>44</v>
@@ -1393,36 +1395,36 @@
         <v>43920</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43920</v>
+        <v>43923</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1430,20 +1432,11 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,33 +1444,33 @@
         <v>43923</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>39</v>
@@ -1491,27 +1484,27 @@
         <v>43924</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43924</v>
+        <v>43926</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1520,84 +1513,84 @@
         <v>11</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43926</v>
+        <v>43929</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43930</v>
+        <v>43936</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s">
         <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -1609,45 +1602,45 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43936</v>
+        <v>43948</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43948</v>
+        <v>43951</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>39</v>
@@ -1656,18 +1649,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43951</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>40</v>
@@ -1678,22 +1671,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1701,27 +1694,27 @@
         <v>43953</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43953</v>
+        <v>43956</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1729,11 +1722,20 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
       <c r="I26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,187 +1743,178 @@
         <v>43956</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43956</v>
+        <v>43963</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43963</v>
+        <v>43979</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43979</v>
+        <v>43920</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43920</v>
+        <v>43930</v>
       </c>
       <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>61</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43930</v>
+        <v>43981</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1929,39 +1922,39 @@
         <v>43983</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1969,39 +1962,39 @@
         <v>43985</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
         <v>68</v>
       </c>
-      <c r="D36" t="s">
+      <c r="I36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,19 +2002,19 @@
         <v>43986</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2029,19 +2022,19 @@
         <v>43986</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2049,39 +2042,39 @@
         <v>43986</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2089,19 +2082,19 @@
         <v>43987</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2109,19 +2102,19 @@
         <v>43987</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2129,19 +2122,19 @@
         <v>43987</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2149,19 +2142,19 @@
         <v>43987</v>
       </c>
       <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2169,19 +2162,19 @@
         <v>43987</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2189,39 +2182,39 @@
         <v>43987</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2229,19 +2222,19 @@
         <v>43988</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2249,19 +2242,19 @@
         <v>43988</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2269,19 +2262,19 @@
         <v>43988</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2289,27 +2282,27 @@
         <v>43988</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2318,10 +2311,10 @@
         <v>12</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2329,7 +2322,7 @@
         <v>43989</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2338,30 +2331,30 @@
         <v>12</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2369,39 +2362,39 @@
         <v>43990</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2409,7 +2402,7 @@
         <v>43991</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2418,30 +2411,30 @@
         <v>12</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2449,19 +2442,19 @@
         <v>43992</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2469,10 +2462,10 @@
         <v>43992</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
@@ -2489,19 +2482,19 @@
         <v>43992</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2509,19 +2502,19 @@
         <v>43992</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D63" t="s">
-        <v>77</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>76</v>
+      <c r="J63" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2529,43 +2522,23 @@
         <v>43992</v>
       </c>
       <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
       <c r="D64" t="s">
-        <v>64</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43992</v>
-      </c>
-      <c r="B65">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>77</v>
-      </c>
-      <c r="I65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J32" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
+  <autoFilter ref="A1:J31" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A992BA-B745-4F18-823A-F9CE2EF71709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F90A11-E616-4F6D-8B61-B7A92C6016C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="615" windowWidth="8190" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
   <si>
     <t>FECHA</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Villa del Rosario</t>
+  </si>
+  <si>
+    <t>-30.983333</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +591,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -751,11 +766,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1111,25 +1141,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="2"/>
+    <col min="9" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1150,18 +1181,18 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>43903</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1170,38 +1201,38 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>43907</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>43910</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -1210,18 +1241,18 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>43910</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -1230,18 +1261,18 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>43915</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
       <c r="C6" t="s">
@@ -1259,18 +1290,18 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>43915</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -1279,100 +1310,100 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>43916</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43916</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>54</v>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>43920</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1383,25 +1414,25 @@
       <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>55</v>
+      <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>43920</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1412,38 +1443,38 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B13" s="3">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>43923</v>
       </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43923</v>
-      </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>14</v>
       </c>
       <c r="C14" t="s">
@@ -1452,18 +1483,18 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>43924</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>15</v>
       </c>
       <c r="C15" t="s">
@@ -1472,18 +1503,18 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>43924</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>16</v>
       </c>
       <c r="C16" t="s">
@@ -1492,18 +1523,18 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>43926</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>17</v>
       </c>
       <c r="C17" t="s">
@@ -1512,18 +1543,18 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>43929</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>18</v>
       </c>
       <c r="C18" t="s">
@@ -1541,18 +1572,18 @@
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>43930</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>19</v>
       </c>
       <c r="C19" t="s">
@@ -1573,18 +1604,18 @@
       <c r="H19" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>43936</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>20</v>
       </c>
       <c r="C20" t="s">
@@ -1593,18 +1624,18 @@
       <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>43948</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>21</v>
       </c>
       <c r="C21" t="s">
@@ -1622,18 +1653,18 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>43951</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>22</v>
       </c>
       <c r="C22" t="s">
@@ -1642,18 +1673,18 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>43951</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>23</v>
       </c>
       <c r="C23" t="s">
@@ -1662,18 +1693,18 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>43953</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>24</v>
       </c>
       <c r="C24" t="s">
@@ -1682,18 +1713,18 @@
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>43953</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>25</v>
       </c>
       <c r="C25" t="s">
@@ -1702,18 +1733,18 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>43956</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>26</v>
       </c>
       <c r="C26" t="s">
@@ -1731,18 +1762,18 @@
       <c r="G26" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>43956</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>27</v>
       </c>
       <c r="C27" t="s">
@@ -1760,18 +1791,18 @@
       <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>43963</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>28</v>
       </c>
       <c r="C28" t="s">
@@ -1789,18 +1820,18 @@
       <c r="G28" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>43979</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>29</v>
       </c>
       <c r="C29" t="s">
@@ -1809,18 +1840,18 @@
       <c r="D29" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>43920</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>30</v>
       </c>
       <c r="C30" t="s">
@@ -1838,18 +1869,18 @@
       <c r="G30" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>43930</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>31</v>
       </c>
       <c r="C31" t="s">
@@ -1870,18 +1901,18 @@
       <c r="H31" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>43981</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>32</v>
       </c>
       <c r="C32" t="s">
@@ -1890,18 +1921,18 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>43983</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>33</v>
       </c>
       <c r="C33" t="s">
@@ -1910,18 +1941,18 @@
       <c r="D33" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>43983</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>34</v>
       </c>
       <c r="C34" t="s">
@@ -1930,18 +1961,18 @@
       <c r="D34" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>43985</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>35</v>
       </c>
       <c r="C35" t="s">
@@ -1950,18 +1981,18 @@
       <c r="D35" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>43985</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="3">
         <v>36</v>
       </c>
       <c r="C36" t="s">
@@ -1970,18 +2001,18 @@
       <c r="D36" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>43986</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>37</v>
       </c>
       <c r="C37" t="s">
@@ -1990,18 +2021,18 @@
       <c r="D37" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>43986</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>38</v>
       </c>
       <c r="C38" t="s">
@@ -2010,18 +2041,18 @@
       <c r="D38" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>43986</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>39</v>
       </c>
       <c r="C39" t="s">
@@ -2030,18 +2061,18 @@
       <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>43986</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>40</v>
       </c>
       <c r="C40" t="s">
@@ -2050,18 +2081,18 @@
       <c r="D40" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <v>43987</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>41</v>
       </c>
       <c r="C41" t="s">
@@ -2070,18 +2101,18 @@
       <c r="D41" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <v>43987</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>42</v>
       </c>
       <c r="C42" t="s">
@@ -2090,18 +2121,18 @@
       <c r="D42" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>43987</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>43</v>
       </c>
       <c r="C43" t="s">
@@ -2110,18 +2141,18 @@
       <c r="D43" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>43987</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>44</v>
       </c>
       <c r="C44" t="s">
@@ -2130,18 +2161,18 @@
       <c r="D44" t="s">
         <v>24</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>43987</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>45</v>
       </c>
       <c r="C45" t="s">
@@ -2150,18 +2181,18 @@
       <c r="D45" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>43987</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>46</v>
       </c>
       <c r="C46" t="s">
@@ -2170,18 +2201,18 @@
       <c r="D46" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>43987</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>47</v>
       </c>
       <c r="C47" t="s">
@@ -2190,18 +2221,18 @@
       <c r="D47" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>43988</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>48</v>
       </c>
       <c r="C48" t="s">
@@ -2210,18 +2241,18 @@
       <c r="D48" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>43988</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>49</v>
       </c>
       <c r="C49" t="s">
@@ -2230,18 +2261,18 @@
       <c r="D49" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <v>43988</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>50</v>
       </c>
       <c r="C50" t="s">
@@ -2250,18 +2281,18 @@
       <c r="D50" t="s">
         <v>24</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <v>43988</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>51</v>
       </c>
       <c r="C51" t="s">
@@ -2270,18 +2301,18 @@
       <c r="D51" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <v>43988</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>52</v>
       </c>
       <c r="C52" t="s">
@@ -2290,18 +2321,18 @@
       <c r="D52" t="s">
         <v>12</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <v>43989</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>53</v>
       </c>
       <c r="C53" t="s">
@@ -2310,18 +2341,18 @@
       <c r="D53" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <v>43989</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>54</v>
       </c>
       <c r="C54" t="s">
@@ -2330,18 +2361,18 @@
       <c r="D54" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <v>43990</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>55</v>
       </c>
       <c r="C55" t="s">
@@ -2350,18 +2381,18 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>43990</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>56</v>
       </c>
       <c r="C56" t="s">
@@ -2370,18 +2401,18 @@
       <c r="D56" t="s">
         <v>31</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>43991</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>57</v>
       </c>
       <c r="C57" t="s">
@@ -2390,18 +2421,18 @@
       <c r="D57" t="s">
         <v>12</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>43991</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>58</v>
       </c>
       <c r="C58" t="s">
@@ -2410,18 +2441,18 @@
       <c r="D58" t="s">
         <v>12</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>43992</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>59</v>
       </c>
       <c r="C59" t="s">
@@ -2430,18 +2461,18 @@
       <c r="D59" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>43992</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>60</v>
       </c>
       <c r="C60" t="s">
@@ -2450,18 +2481,18 @@
       <c r="D60" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>43992</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>61</v>
       </c>
       <c r="C61" t="s">
@@ -2470,18 +2501,18 @@
       <c r="D61" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>43992</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>62</v>
       </c>
       <c r="C62" t="s">
@@ -2490,55 +2521,238 @@
       <c r="D62" t="s">
         <v>76</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>43992</v>
       </c>
-      <c r="B63">
-        <v>64</v>
+      <c r="B63" s="3">
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <v>43992</v>
       </c>
-      <c r="B64">
-        <v>63</v>
+      <c r="B64" s="3">
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
       </c>
       <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B65" s="3">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B66" s="3">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B67" s="3">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B68" s="3">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B69" s="3">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B70" s="3">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B71" s="3">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B72" s="3">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" t="s">
         <v>76</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B73" s="3">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J31" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J64">
+    <sortCondition ref="B13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F90A11-E616-4F6D-8B61-B7A92C6016C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A078D-B59A-4757-8013-7B68D78070CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="78">
   <si>
     <t>FECHA</t>
   </si>
@@ -1141,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,6 +2748,366 @@
         <v>75</v>
       </c>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B74" s="3">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B75" s="3">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B76" s="3">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43920</v>
+      </c>
+      <c r="B77" s="3">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B78" s="3">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B79" s="3">
+        <v>65</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B80" s="3">
+        <v>65</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B81" s="3">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B82" s="3">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B83" s="3">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B84" s="3">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B85" s="3">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B86" s="3">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B87" s="3">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B88" s="3">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B89" s="3">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B90" s="3">
+        <v>65</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B91" s="3">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J31" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J64">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A078D-B59A-4757-8013-7B68D78070CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE54579-C2E7-4370-B82A-37A3E4565A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="78">
   <si>
     <t>FECHA</t>
   </si>
@@ -1141,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="B76" s="3">
         <v>75</v>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43920</v>
+        <v>43995</v>
       </c>
       <c r="B77" s="3">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>59</v>
@@ -2830,10 +2830,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B78" s="3">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>26</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B79" s="3">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>26</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B80" s="3">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B81" s="3">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -2910,10 +2910,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B82" s="3">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B83" s="3">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B84" s="3">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B85" s="3">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
@@ -2990,10 +2990,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B86" s="3">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B87" s="3">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -3030,10 +3030,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B88" s="3">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B89" s="3">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B90" s="3">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="B91" s="3">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>26</v>
@@ -3105,6 +3105,26 @@
         <v>45</v>
       </c>
       <c r="J91" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B92" s="3">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>56</v>
       </c>
     </row>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE54579-C2E7-4370-B82A-37A3E4565A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC91CF6-6E1D-48CA-B047-BE15F5664D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10095" yWindow="0" windowWidth="10350" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="78">
   <si>
     <t>FECHA</t>
   </si>
@@ -1141,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,6 +3128,279 @@
         <v>56</v>
       </c>
     </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B92+1</f>
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" ref="B94:B105" si="0">B93+1</f>
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B101" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B102" s="3">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B103" s="3">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B104" s="3">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B105" s="3">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J31" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J64">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC91CF6-6E1D-48CA-B047-BE15F5664D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B303B3-34C1-41EB-8DF5-6A5FD99AA49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="0" windowWidth="10350" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="480" windowWidth="11970" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entre_rios_casos!$A$1:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entre_rios_casos!$A$1:$J$105</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="81">
   <si>
     <t>FECHA</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>-30.983333</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>-30.9</t>
+  </si>
+  <si>
+    <t>-57.933333</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115:J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1161,10 @@
     <col min="1" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1209,30 +1221,32 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>43907</v>
+      <c r="A3" s="8">
+        <v>43910</v>
       </c>
       <c r="B3" s="6">
+        <f t="shared" ref="B3:B34" si="0">B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43910</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -1252,7 +1266,8 @@
       <c r="A5" s="4">
         <v>43910</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -1270,134 +1285,125 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6</v>
+        <v>43920</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7</v>
+        <v>43923</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B8" s="3">
-        <v>8</v>
+        <v>43924</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9</v>
+        <v>43951</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10</v>
+        <v>43953</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B11" s="3">
-        <v>11</v>
+        <v>43956</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1406,13 +1412,13 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>39</v>
@@ -1423,39 +1429,32 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B12" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B13" s="3">
-        <v>13</v>
+        <v>43989</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1472,30 +1471,32 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B14" s="3">
-        <v>14</v>
+        <v>43989</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B15" s="3">
-        <v>15</v>
+        <v>43991</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1512,376 +1513,347 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B16" s="3">
-        <v>16</v>
+        <v>43991</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43926</v>
-      </c>
-      <c r="B17" s="3">
-        <v>17</v>
+        <v>43993</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43929</v>
-      </c>
-      <c r="B18" s="3">
-        <v>18</v>
+        <v>43993</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43930</v>
-      </c>
-      <c r="B19" s="3">
-        <v>19</v>
+        <v>43953</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43936</v>
-      </c>
-      <c r="B20" s="3">
-        <v>20</v>
+        <v>43956</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43948</v>
-      </c>
-      <c r="B21" s="3">
+        <v>43992</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B23" s="3">
-        <v>23</v>
-      </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B24" s="3">
-        <v>24</v>
+        <v>43995</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B25" s="3">
-        <v>25</v>
+        <v>43995</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43956</v>
-      </c>
-      <c r="B26" s="3">
+        <v>43995</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43956</v>
-      </c>
-      <c r="B27" s="3">
+        <v>43995</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43963</v>
-      </c>
-      <c r="B28" s="3">
-        <v>28</v>
+        <v>43995</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43979</v>
-      </c>
-      <c r="B29" s="3">
-        <v>29</v>
+        <v>43995</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B30" s="3">
-        <v>30</v>
+        <v>43995</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43930</v>
-      </c>
-      <c r="B31" s="3">
-        <v>31</v>
+        <v>43995</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
@@ -1889,18 +1861,6 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" t="s">
-        <v>30</v>
-      </c>
       <c r="I31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1910,850 +1870,929 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43981</v>
-      </c>
-      <c r="B32" s="3">
-        <v>32</v>
+        <v>43995</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B33" s="3">
-        <v>33</v>
+        <v>43995</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B34" s="3">
-        <v>34</v>
+        <v>43995</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43985</v>
-      </c>
-      <c r="B35" s="3">
-        <v>35</v>
+        <v>43995</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" ref="B35:B66" si="1">B34+1</f>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43985</v>
-      </c>
-      <c r="B36" s="3">
-        <v>36</v>
+        <v>43995</v>
+      </c>
+      <c r="B36" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B37" s="3">
-        <v>37</v>
+        <v>43995</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B38" s="3">
-        <v>38</v>
+        <v>43996</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B39" s="3">
-        <v>39</v>
+        <v>43998</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B40" s="3">
-        <v>40</v>
+        <v>43998</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B41" s="3">
-        <v>41</v>
+        <v>43998</v>
+      </c>
+      <c r="B41" s="6">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B42" s="3">
-        <v>42</v>
+        <v>43998</v>
+      </c>
+      <c r="B42" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B43" s="3">
-        <v>43</v>
+        <v>43998</v>
+      </c>
+      <c r="B43" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B44" s="3">
-        <v>44</v>
+        <v>43998</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B45" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B46" s="3">
-        <v>46</v>
+        <v>43998</v>
+      </c>
+      <c r="B46" s="6">
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B47" s="3">
-        <v>47</v>
+        <v>43999</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B48" s="3">
-        <v>48</v>
+        <v>43999</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B49" s="3">
-        <v>49</v>
+        <v>43999</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B50" s="3">
-        <v>50</v>
+        <v>43999</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B51" s="3">
-        <v>51</v>
+        <v>43916</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B52" s="3">
+        <v>43916</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>43989</v>
-      </c>
-      <c r="B53" s="3">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43989</v>
-      </c>
-      <c r="B54" s="3">
-        <v>54</v>
+        <v>43915</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43990</v>
-      </c>
-      <c r="B55" s="3">
-        <v>55</v>
+        <v>43923</v>
+      </c>
+      <c r="B55" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>43990</v>
-      </c>
-      <c r="B56" s="3">
-        <v>56</v>
+        <v>43924</v>
+      </c>
+      <c r="B56" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43991</v>
-      </c>
-      <c r="B57" s="3">
-        <v>57</v>
+        <v>43926</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43991</v>
-      </c>
-      <c r="B58" s="3">
-        <v>58</v>
+        <v>43948</v>
+      </c>
+      <c r="B58" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B59" s="3">
-        <v>59</v>
+        <v>43994</v>
+      </c>
+      <c r="B59" s="6">
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B60" s="3">
-        <v>60</v>
+        <v>43979</v>
+      </c>
+      <c r="B60" s="6">
+        <f t="shared" si="1"/>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B61" s="3">
-        <v>61</v>
+        <v>43983</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B62" s="3">
-        <v>62</v>
+        <v>43985</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B63" s="3">
-        <v>63</v>
+        <v>43985</v>
+      </c>
+      <c r="B63" s="6">
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B64" s="3">
-        <v>64</v>
+        <v>43993</v>
+      </c>
+      <c r="B64" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B65" s="3">
-        <v>65</v>
+        <v>43915</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B66" s="3">
-        <v>66</v>
+        <v>43951</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B67" s="3">
-        <v>67</v>
+        <v>43920</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" ref="B67:B98" si="2">B66+1</f>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>70</v>
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B68" s="3">
-        <v>68</v>
+        <v>43986</v>
+      </c>
+      <c r="B68" s="6">
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B69" s="3">
-        <v>69</v>
+        <v>43986</v>
+      </c>
+      <c r="B69" s="6">
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B70" s="3">
-        <v>70</v>
+        <v>43986</v>
+      </c>
+      <c r="B70" s="6">
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B71" s="3">
-        <v>71</v>
+        <v>43986</v>
+      </c>
+      <c r="B71" s="6">
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B72" s="3">
-        <v>72</v>
+        <v>43987</v>
+      </c>
+      <c r="B72" s="6">
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B73" s="3">
-        <v>73</v>
+        <v>43987</v>
+      </c>
+      <c r="B73" s="6">
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B74" s="3">
-        <v>74</v>
+        <v>43987</v>
+      </c>
+      <c r="B74" s="6">
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
@@ -2770,641 +2809,902 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B75" s="3">
-        <v>75</v>
+        <v>43987</v>
+      </c>
+      <c r="B75" s="6">
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B76" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B76" s="6">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B77" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B77" s="6">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B78" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B78" s="6">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B79" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B79" s="6">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B80" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B80" s="6">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B81" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B81" s="6">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B82" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B82" s="6">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B83" s="3">
+        <v>43993</v>
+      </c>
+      <c r="B83" s="6">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43995</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="6">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B85" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B85" s="6">
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B86" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B86" s="6">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B87" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B87" s="6">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B88" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B88" s="6">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B89" s="3">
+        <v>43998</v>
+      </c>
+      <c r="B89" s="6">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B90" s="3">
+        <v>43936</v>
+      </c>
+      <c r="B90" s="6">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B91" s="3">
+        <v>43990</v>
+      </c>
+      <c r="B91" s="6">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43996</v>
-      </c>
-      <c r="B92" s="3">
+        <v>43990</v>
+      </c>
+      <c r="B92" s="6">
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B93" s="3">
-        <f>B92+1</f>
+        <v>43992</v>
+      </c>
+      <c r="B93" s="6">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B94" s="3">
-        <f t="shared" ref="B94:B105" si="0">B93+1</f>
+        <v>43992</v>
+      </c>
+      <c r="B94" s="6">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B95" s="3">
-        <f t="shared" si="0"/>
+        <v>43995</v>
+      </c>
+      <c r="B95" s="6">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B96" s="3">
-        <f t="shared" si="0"/>
+        <v>43963</v>
+      </c>
+      <c r="B96" s="6">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>60</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B97" s="3">
-        <f t="shared" si="0"/>
+        <v>43981</v>
+      </c>
+      <c r="B97" s="6">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>60</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B98" s="3">
-        <f t="shared" si="0"/>
+        <v>43995</v>
+      </c>
+      <c r="B98" s="6">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B99" s="3">
-        <f t="shared" si="0"/>
+        <v>43916</v>
+      </c>
+      <c r="B99" s="6">
+        <f t="shared" ref="B99:B115" si="3">B98+1</f>
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B100" s="3">
-        <f t="shared" si="0"/>
+        <v>43929</v>
+      </c>
+      <c r="B100" s="6">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B101" s="3">
-        <f t="shared" si="0"/>
+        <v>43981</v>
+      </c>
+      <c r="B101" s="6">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B102" s="3">
-        <f t="shared" si="0"/>
+        <v>43983</v>
+      </c>
+      <c r="B102" s="6">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B103" s="3">
-        <f t="shared" si="0"/>
+        <v>43992</v>
+      </c>
+      <c r="B103" s="6">
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B104" s="3">
-        <f t="shared" si="0"/>
+        <v>43995</v>
+      </c>
+      <c r="B104" s="6">
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B105" s="3">
-        <f t="shared" si="0"/>
+        <v>43993</v>
+      </c>
+      <c r="B105" s="6">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B106" s="6">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B107" s="6">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B108" s="6">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B109" s="6">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B110" s="6">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" t="s">
+        <v>76</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B111" s="6">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
         <v>26</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D111" t="s">
         <v>27</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J111" s="1" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B112" s="6">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B113" s="6">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B114" s="6">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B115" s="6">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J31" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J64">
-    <sortCondition ref="B13"/>
+  <autoFilter ref="A1:J105" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J110">
+    <sortCondition ref="B46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B303B3-34C1-41EB-8DF5-6A5FD99AA49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4F39FD-A284-498E-BA4E-6D0B41D0A14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="480" windowWidth="11970" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entre_rios_casos" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entre_rios_casos!$A$1:$J$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entre_rios_casos!$A$1:$J$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$E$60</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="86">
   <si>
     <t>FECHA</t>
   </si>
@@ -274,6 +276,21 @@
   </si>
   <si>
     <t>-57.933333</t>
+  </si>
+  <si>
+    <t>Oro Verde</t>
+  </si>
+  <si>
+    <t>-31.816667</t>
+  </si>
+  <si>
+    <t>-60.516667</t>
+  </si>
+  <si>
+    <t>CANT</t>
+  </si>
+  <si>
+    <t>DIA</t>
   </si>
 </sst>
 </file>
@@ -788,11 +805,11 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1150,15 +1167,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115:J115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="11.42578125" style="8"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
@@ -1172,7 +1190,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1201,10 +1219,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>43903</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1221,11 +1239,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>43910</v>
       </c>
-      <c r="B3" s="6">
-        <f t="shared" ref="B3:B34" si="0">B2+1</f>
+      <c r="B3" s="8">
+        <f t="shared" ref="B3" si="0">B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1242,32 +1260,32 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>43910</v>
       </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
+      <c r="B4" s="8">
+        <f t="shared" ref="B4:B35" si="1">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
+        <v>43920</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -1275,6 +1293,15 @@
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>39</v>
@@ -1285,10 +1312,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
+        <v>43923</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -1296,15 +1323,6 @@
       </c>
       <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>39</v>
@@ -1315,10 +1333,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
+        <v>43924</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -1336,10 +1354,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
+        <v>43951</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -1357,10 +1375,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
+        <v>43953</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -1380,29 +1398,29 @@
       <c r="A10" s="4">
         <v>43953</v>
       </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
+      <c r="B10" s="8">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43956</v>
       </c>
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
+      <c r="B11" s="8">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -1429,31 +1447,40 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
+        <v>43956</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43989</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
+        <v>43988</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -1473,8 +1500,8 @@
       <c r="A14" s="4">
         <v>43989</v>
       </c>
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -1492,10 +1519,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43991</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
+        <v>43989</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -1515,8 +1542,8 @@
       <c r="A16" s="4">
         <v>43991</v>
       </c>
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -1534,10 +1561,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="0"/>
+        <v>43991</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -1555,10 +1582,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="0"/>
+        <v>43991</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -1576,10 +1603,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="0"/>
+        <v>43992</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -1597,115 +1624,94 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43956</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
+        <v>43993</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
+        <v>43993</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43930</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" si="0"/>
+        <v>43993</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43993</v>
       </c>
-      <c r="B23" s="6">
-        <f t="shared" si="0"/>
+      <c r="B23" s="8">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B24" s="6">
-        <f t="shared" si="0"/>
+        <v>43930</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -1714,6 +1720,18 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1723,10 +1741,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" si="0"/>
+        <v>43993</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -1746,8 +1764,8 @@
       <c r="A26" s="4">
         <v>43995</v>
       </c>
-      <c r="B26" s="6">
-        <f t="shared" si="0"/>
+      <c r="B26" s="8">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -1767,8 +1785,8 @@
       <c r="A27" s="4">
         <v>43995</v>
       </c>
-      <c r="B27" s="6">
-        <f t="shared" si="0"/>
+      <c r="B27" s="8">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -1788,8 +1806,8 @@
       <c r="A28" s="4">
         <v>43995</v>
       </c>
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
+      <c r="B28" s="8">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -1809,8 +1827,8 @@
       <c r="A29" s="4">
         <v>43995</v>
       </c>
-      <c r="B29" s="6">
-        <f t="shared" si="0"/>
+      <c r="B29" s="8">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -1830,8 +1848,8 @@
       <c r="A30" s="4">
         <v>43995</v>
       </c>
-      <c r="B30" s="6">
-        <f t="shared" si="0"/>
+      <c r="B30" s="8">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -1851,8 +1869,8 @@
       <c r="A31" s="4">
         <v>43995</v>
       </c>
-      <c r="B31" s="6">
-        <f t="shared" si="0"/>
+      <c r="B31" s="8">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -1872,8 +1890,8 @@
       <c r="A32" s="4">
         <v>43995</v>
       </c>
-      <c r="B32" s="6">
-        <f t="shared" si="0"/>
+      <c r="B32" s="8">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -1893,8 +1911,8 @@
       <c r="A33" s="4">
         <v>43995</v>
       </c>
-      <c r="B33" s="6">
-        <f t="shared" si="0"/>
+      <c r="B33" s="8">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -1914,8 +1932,8 @@
       <c r="A34" s="4">
         <v>43995</v>
       </c>
-      <c r="B34" s="6">
-        <f t="shared" si="0"/>
+      <c r="B34" s="8">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -1935,8 +1953,8 @@
       <c r="A35" s="4">
         <v>43995</v>
       </c>
-      <c r="B35" s="6">
-        <f t="shared" ref="B35:B66" si="1">B34+1</f>
+      <c r="B35" s="8">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -1956,8 +1974,8 @@
       <c r="A36" s="4">
         <v>43995</v>
       </c>
-      <c r="B36" s="6">
-        <f t="shared" si="1"/>
+      <c r="B36" s="8">
+        <f t="shared" ref="B36:B67" si="2">B35+1</f>
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -1977,8 +1995,8 @@
       <c r="A37" s="4">
         <v>43995</v>
       </c>
-      <c r="B37" s="6">
-        <f t="shared" si="1"/>
+      <c r="B37" s="8">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -1996,10 +2014,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43996</v>
-      </c>
-      <c r="B38" s="6">
-        <f t="shared" si="1"/>
+        <v>43995</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -2017,10 +2035,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B39" s="6">
-        <f t="shared" si="1"/>
+        <v>43995</v>
+      </c>
+      <c r="B39" s="8">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -2038,10 +2056,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B40" s="6">
-        <f t="shared" si="1"/>
+        <v>43996</v>
+      </c>
+      <c r="B40" s="8">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C40" t="s">
@@ -2061,8 +2079,8 @@
       <c r="A41" s="4">
         <v>43998</v>
       </c>
-      <c r="B41" s="6">
-        <f t="shared" si="1"/>
+      <c r="B41" s="8">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -2082,8 +2100,8 @@
       <c r="A42" s="4">
         <v>43998</v>
       </c>
-      <c r="B42" s="6">
-        <f t="shared" si="1"/>
+      <c r="B42" s="8">
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="C42" t="s">
@@ -2103,8 +2121,8 @@
       <c r="A43" s="4">
         <v>43998</v>
       </c>
-      <c r="B43" s="6">
-        <f t="shared" si="1"/>
+      <c r="B43" s="8">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="C43" t="s">
@@ -2124,8 +2142,8 @@
       <c r="A44" s="4">
         <v>43998</v>
       </c>
-      <c r="B44" s="6">
-        <f t="shared" si="1"/>
+      <c r="B44" s="8">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C44" t="s">
@@ -2145,8 +2163,8 @@
       <c r="A45" s="4">
         <v>43998</v>
       </c>
-      <c r="B45" s="6">
-        <f t="shared" si="1"/>
+      <c r="B45" s="8">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -2166,8 +2184,8 @@
       <c r="A46" s="4">
         <v>43998</v>
       </c>
-      <c r="B46" s="6">
-        <f t="shared" si="1"/>
+      <c r="B46" s="8">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -2185,10 +2203,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43999</v>
-      </c>
-      <c r="B47" s="6">
-        <f t="shared" si="1"/>
+        <v>43998</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -2206,10 +2224,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>43999</v>
-      </c>
-      <c r="B48" s="6">
-        <f t="shared" si="1"/>
+        <v>43998</v>
+      </c>
+      <c r="B48" s="8">
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C48" t="s">
@@ -2229,8 +2247,8 @@
       <c r="A49" s="4">
         <v>43999</v>
       </c>
-      <c r="B49" s="6">
-        <f t="shared" si="1"/>
+      <c r="B49" s="8">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C49" t="s">
@@ -2250,8 +2268,8 @@
       <c r="A50" s="4">
         <v>43999</v>
       </c>
-      <c r="B50" s="6">
-        <f t="shared" si="1"/>
+      <c r="B50" s="8">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C50" t="s">
@@ -2269,139 +2287,130 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B51" s="6">
-        <f t="shared" si="1"/>
+        <v>43999</v>
+      </c>
+      <c r="B51" s="8">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B52" s="6">
-        <f t="shared" si="1"/>
+        <v>43999</v>
+      </c>
+      <c r="B52" s="8">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>43907</v>
-      </c>
-      <c r="B53" s="6">
-        <f t="shared" si="1"/>
+      <c r="A53" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B53" s="8">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>11</v>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B54" s="6">
-        <f t="shared" si="1"/>
+        <v>43916</v>
+      </c>
+      <c r="B54" s="8">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B55" s="6">
-        <f t="shared" si="1"/>
+        <v>43916</v>
+      </c>
+      <c r="B55" s="8">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B56" s="6">
-        <f t="shared" si="1"/>
+      <c r="A56" s="5">
+        <v>43907</v>
+      </c>
+      <c r="B56" s="8">
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -2413,10 +2422,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>43926</v>
-      </c>
-      <c r="B57" s="6">
-        <f t="shared" si="1"/>
+        <v>43915</v>
+      </c>
+      <c r="B57" s="8">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="C57" t="s">
@@ -2424,6 +2433,15 @@
       </c>
       <c r="D57" t="s">
         <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>38</v>
@@ -2434,10 +2452,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>43948</v>
-      </c>
-      <c r="B58" s="6">
-        <f t="shared" si="1"/>
+        <v>43923</v>
+      </c>
+      <c r="B58" s="8">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C58" t="s">
@@ -2445,15 +2463,6 @@
       </c>
       <c r="D58" t="s">
         <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>38</v>
@@ -2464,10 +2473,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B59" s="6">
-        <f t="shared" si="1"/>
+        <v>43924</v>
+      </c>
+      <c r="B59" s="8">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="C59" t="s">
@@ -2485,292 +2494,292 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>43979</v>
-      </c>
-      <c r="B60" s="6">
-        <f t="shared" si="1"/>
+        <v>43926</v>
+      </c>
+      <c r="B60" s="8">
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B61" s="6">
-        <f t="shared" si="1"/>
+        <v>43948</v>
+      </c>
+      <c r="B61" s="8">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43985</v>
-      </c>
-      <c r="B62" s="6">
-        <f t="shared" si="1"/>
+        <v>43994</v>
+      </c>
+      <c r="B62" s="8">
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43985</v>
-      </c>
-      <c r="B63" s="6">
-        <f t="shared" si="1"/>
+        <v>43979</v>
+      </c>
+      <c r="B63" s="8">
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B64" s="6">
-        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="B64" s="8">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B65" s="6">
-        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="B65" s="8">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B66" s="6">
-        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="B66" s="8">
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B67" s="6">
-        <f t="shared" ref="B67:B98" si="2">B66+1</f>
+        <v>43983</v>
+      </c>
+      <c r="B67" s="8">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B68" s="6">
-        <f t="shared" si="2"/>
+        <v>43985</v>
+      </c>
+      <c r="B68" s="8">
+        <f t="shared" ref="B68:B99" si="3">B67+1</f>
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B69" s="6">
-        <f t="shared" si="2"/>
+        <v>43985</v>
+      </c>
+      <c r="B69" s="8">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B70" s="6">
-        <f t="shared" si="2"/>
+        <v>43993</v>
+      </c>
+      <c r="B70" s="8">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B71" s="6">
-        <f t="shared" si="2"/>
+        <v>43915</v>
+      </c>
+      <c r="B71" s="8">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B72" s="6">
-        <f t="shared" si="2"/>
+        <v>43951</v>
+      </c>
+      <c r="B72" s="8">
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B73" s="6">
-        <f t="shared" si="2"/>
+        <v>43920</v>
+      </c>
+      <c r="B73" s="8">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="C73" t="s">
@@ -2778,6 +2787,15 @@
       </c>
       <c r="D73" t="s">
         <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>44</v>
@@ -2788,10 +2806,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B74" s="6">
-        <f t="shared" si="2"/>
+        <v>43986</v>
+      </c>
+      <c r="B74" s="8">
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="C74" t="s">
@@ -2809,10 +2827,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B75" s="6">
-        <f t="shared" si="2"/>
+        <v>43986</v>
+      </c>
+      <c r="B75" s="8">
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="C75" t="s">
@@ -2830,10 +2848,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B76" s="6">
-        <f t="shared" si="2"/>
+        <v>43986</v>
+      </c>
+      <c r="B76" s="8">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="C76" t="s">
@@ -2851,10 +2869,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B77" s="6">
-        <f t="shared" si="2"/>
+        <v>43986</v>
+      </c>
+      <c r="B77" s="8">
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="C77" t="s">
@@ -2874,8 +2892,8 @@
       <c r="A78" s="4">
         <v>43987</v>
       </c>
-      <c r="B78" s="6">
-        <f t="shared" si="2"/>
+      <c r="B78" s="8">
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="C78" t="s">
@@ -2893,10 +2911,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B79" s="6">
-        <f t="shared" si="2"/>
+        <v>43987</v>
+      </c>
+      <c r="B79" s="8">
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="C79" t="s">
@@ -2914,10 +2932,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B80" s="6">
-        <f t="shared" si="2"/>
+        <v>43987</v>
+      </c>
+      <c r="B80" s="8">
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="C80" t="s">
@@ -2935,10 +2953,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B81" s="6">
-        <f t="shared" si="2"/>
+        <v>43987</v>
+      </c>
+      <c r="B81" s="8">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="C81" t="s">
@@ -2956,10 +2974,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B82" s="6">
-        <f t="shared" si="2"/>
+        <v>43987</v>
+      </c>
+      <c r="B82" s="8">
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="C82" t="s">
@@ -2977,10 +2995,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B83" s="6">
-        <f t="shared" si="2"/>
+        <v>43987</v>
+      </c>
+      <c r="B83" s="8">
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="C83" t="s">
@@ -2998,10 +3016,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B84" s="6">
-        <f t="shared" si="2"/>
+        <v>43987</v>
+      </c>
+      <c r="B84" s="8">
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="C84" t="s">
@@ -3019,10 +3037,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B85" s="6">
-        <f t="shared" si="2"/>
+        <v>43988</v>
+      </c>
+      <c r="B85" s="8">
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="C85" t="s">
@@ -3040,10 +3058,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B86" s="6">
-        <f t="shared" si="2"/>
+        <v>43988</v>
+      </c>
+      <c r="B86" s="8">
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="C86" t="s">
@@ -3061,10 +3079,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B87" s="6">
-        <f t="shared" si="2"/>
+        <v>43988</v>
+      </c>
+      <c r="B87" s="8">
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="C87" t="s">
@@ -3082,10 +3100,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B88" s="6">
-        <f t="shared" si="2"/>
+        <v>43988</v>
+      </c>
+      <c r="B88" s="8">
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="C88" t="s">
@@ -3103,10 +3121,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B89" s="6">
-        <f t="shared" si="2"/>
+        <v>43993</v>
+      </c>
+      <c r="B89" s="8">
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="C89" t="s">
@@ -3124,587 +3142,2777 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>43936</v>
-      </c>
-      <c r="B90" s="6">
-        <f t="shared" si="2"/>
+        <v>43995</v>
+      </c>
+      <c r="B90" s="8">
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>43990</v>
-      </c>
-      <c r="B91" s="6">
-        <f t="shared" si="2"/>
+        <v>43998</v>
+      </c>
+      <c r="B91" s="8">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>43990</v>
-      </c>
-      <c r="B92" s="6">
-        <f t="shared" si="2"/>
+        <v>43998</v>
+      </c>
+      <c r="B92" s="8">
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B93" s="6">
-        <f t="shared" si="2"/>
+        <v>43998</v>
+      </c>
+      <c r="B93" s="8">
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B94" s="6">
-        <f t="shared" si="2"/>
+        <v>43998</v>
+      </c>
+      <c r="B94" s="8">
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B95" s="6">
-        <f t="shared" si="2"/>
+        <v>43998</v>
+      </c>
+      <c r="B95" s="8">
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>43963</v>
-      </c>
-      <c r="B96" s="6">
-        <f t="shared" si="2"/>
+        <v>43998</v>
+      </c>
+      <c r="B96" s="8">
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>59</v>
-      </c>
-      <c r="E96" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>43981</v>
-      </c>
-      <c r="B97" s="6">
-        <f t="shared" si="2"/>
+        <v>43936</v>
+      </c>
+      <c r="B97" s="8">
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>59</v>
-      </c>
-      <c r="E97" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B98" s="6">
-        <f t="shared" si="2"/>
+        <v>43990</v>
+      </c>
+      <c r="B98" s="8">
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B99" s="6">
-        <f t="shared" ref="B99:B115" si="3">B98+1</f>
+        <v>43990</v>
+      </c>
+      <c r="B99" s="8">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>43929</v>
-      </c>
-      <c r="B100" s="6">
-        <f t="shared" si="3"/>
+        <v>43992</v>
+      </c>
+      <c r="B100" s="8">
+        <f t="shared" ref="B100:B128" si="4">B99+1</f>
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43981</v>
-      </c>
-      <c r="B101" s="6">
-        <f t="shared" si="3"/>
+        <v>43992</v>
+      </c>
+      <c r="B101" s="8">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B102" s="6">
-        <f t="shared" si="3"/>
+        <v>43995</v>
+      </c>
+      <c r="B102" s="8">
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B103" s="6">
-        <f t="shared" si="3"/>
+        <v>43963</v>
+      </c>
+      <c r="B103" s="8">
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>60</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B104" s="6">
-        <f t="shared" si="3"/>
+        <v>43981</v>
+      </c>
+      <c r="B104" s="8">
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>60</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B105" s="6">
-        <f t="shared" si="3"/>
+        <v>43995</v>
+      </c>
+      <c r="B105" s="8">
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D105" t="s">
-        <v>64</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>43999</v>
-      </c>
-      <c r="B106" s="6">
-        <f t="shared" si="3"/>
+        <v>43916</v>
+      </c>
+      <c r="B106" s="8">
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>78</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="F106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B107" s="6">
-        <f t="shared" si="3"/>
+        <v>43929</v>
+      </c>
+      <c r="B107" s="8">
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B108" s="6">
-        <f t="shared" si="3"/>
+        <v>43981</v>
+      </c>
+      <c r="B108" s="8">
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B109" s="6">
-        <f t="shared" si="3"/>
+        <v>43983</v>
+      </c>
+      <c r="B109" s="8">
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="C109" t="s">
         <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B110" s="6">
-        <f t="shared" si="3"/>
+        <v>43992</v>
+      </c>
+      <c r="B110" s="8">
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="C110" t="s">
         <v>64</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>44000</v>
-      </c>
-      <c r="B111" s="6">
-        <f t="shared" si="3"/>
+        <v>43995</v>
+      </c>
+      <c r="B111" s="8">
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>44000</v>
-      </c>
-      <c r="B112" s="6">
-        <f t="shared" si="3"/>
+        <v>43993</v>
+      </c>
+      <c r="B112" s="8">
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>44000</v>
-      </c>
-      <c r="B113" s="6">
-        <f t="shared" si="3"/>
+        <v>43999</v>
+      </c>
+      <c r="B113" s="8">
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>44000</v>
-      </c>
-      <c r="B114" s="6">
-        <f t="shared" si="3"/>
+        <v>43992</v>
+      </c>
+      <c r="B114" s="8">
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B115" s="8">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B116" s="8">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B117" s="8">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B118" s="8">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B119" s="8">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B120" s="8">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B121" s="8">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B122" s="8">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B123" s="8">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B124" s="8">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B125" s="8">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B126" s="8">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B127" s="8">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B128" s="8">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B129" s="8">
+        <f t="shared" ref="B129:B130" si="5">B128+1</f>
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B130" s="8">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B131" s="8">
+        <f t="shared" ref="B131:B161" si="6">B130+1</f>
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B132" s="8">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B133" s="8">
+        <f t="shared" si="6"/>
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B134" s="8">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B135" s="8">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B136" s="8">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" t="s">
+        <v>78</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B137" s="8">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B138" s="8">
+        <f t="shared" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B139" s="8">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B140" s="8">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B141" s="8">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B142" s="8">
+        <f t="shared" si="6"/>
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B143" s="8">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B144" s="8">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B145" s="8">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" t="s">
+        <v>78</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B146" s="8">
+        <f t="shared" si="6"/>
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B147" s="8">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B148" s="8">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B149" s="8">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B150" s="8">
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B151" s="8">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B152" s="8">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B153" s="8">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B154" s="8">
+        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B155" s="8">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B156" s="8">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>78</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B157" s="8">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="C157" t="s">
+        <v>64</v>
+      </c>
+      <c r="D157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B158" s="8">
+        <f t="shared" si="6"/>
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>64</v>
+      </c>
+      <c r="D158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B159" s="8">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="C159" t="s">
+        <v>64</v>
+      </c>
+      <c r="D159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B160" s="8">
+        <f t="shared" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="C160" t="s">
+        <v>64</v>
+      </c>
+      <c r="D160" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B161" s="8">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J136" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J128">
+      <sortCondition ref="A128"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J118">
+    <sortCondition ref="B48"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD604CB8-D4A5-438F-ACC2-CAB8487D3650}">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="3"/>
+    <col min="4" max="4" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>43920</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>43936</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>43986</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>43987</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>43988</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>43990</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>43992</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>43993</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>43995</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>43981</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>43983</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>43992</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>43993</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>43995</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>43996</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>43997</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>43999</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
         <v>44000</v>
       </c>
-      <c r="B115" s="6">
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>44001</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>44002</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>44003</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>44004</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>43910</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>43920</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>43923</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>43924</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>43951</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>43953</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>43956</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>43988</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>43989</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>43991</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>43992</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>43993</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <v>43995</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>43996</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>43997</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>43999</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="4">
+        <v>44001</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="4">
+        <v>44002</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="4">
+        <v>44003</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="4">
+        <v>44004</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <v>43930</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="4">
+        <v>43993</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f>E51+F50</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4">
+        <v>43994</v>
+      </c>
+      <c r="C52" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:F62" si="0">E52+F51</f>
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <f>LN(F52)</f>
+        <v>0.69314718055994529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <v>43995</v>
+      </c>
+      <c r="C53" s="4">
+        <v>43995</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="3">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53:G62" si="1">LN(F53)</f>
+        <v>2.7725887222397811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4">
+        <v>43996</v>
+      </c>
+      <c r="C54" s="4">
+        <v>43996</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>2.8332133440562162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55" s="4">
+        <v>43997</v>
+      </c>
+      <c r="C55" s="4">
+        <v>43997</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>2.8332133440562162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>5</v>
+      </c>
+      <c r="B56" s="4">
+        <v>43998</v>
+      </c>
+      <c r="C56" s="4">
+        <v>43998</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="3">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>3.2188758248682006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="4">
+        <v>43999</v>
+      </c>
+      <c r="C57" s="4">
+        <v>43999</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>3.3672958299864741</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4">
+        <v>44000</v>
+      </c>
+      <c r="C58" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="H58">
+        <f>SLOPE(G52:G58,A52:A58)</f>
+        <v>0.34640097498614286</v>
+      </c>
+      <c r="I58">
+        <f>LN(2)/H58</f>
+        <v>2.0009966212932091</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>8</v>
+      </c>
+      <c r="B59" s="4">
+        <v>44001</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44001</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H62" si="2">SLOPE(G53:G59,A53:A59)</f>
+        <v>0.12699559069318783</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:I62" si="3">LN(2)/H59</f>
+        <v>5.4580413129030498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4">
+        <v>44002</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44002</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>0.13040726206320921</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="1" t="s">
+        <v>5.3152498533706849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4">
+        <v>44003</v>
+      </c>
+      <c r="C61" s="4">
+        <v>44003</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>0.11253926546399119</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>6.1591585630326442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>11</v>
+      </c>
+      <c r="B62" s="4">
+        <v>44004</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44004</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>6.6896105700915739E-2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>10.361547556429086</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4">
+        <v>43994</v>
+      </c>
+      <c r="C63" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63">
+        <f>LN(F63)</f>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4">
+        <v>43995</v>
+      </c>
+      <c r="C64" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64:G73" si="4">LN(F64)</f>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>3</v>
+      </c>
+      <c r="B65" s="4">
+        <v>43996</v>
+      </c>
+      <c r="C65" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4">
+        <v>43997</v>
+      </c>
+      <c r="C66" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>5</v>
+      </c>
+      <c r="B67" s="4">
+        <v>43998</v>
+      </c>
+      <c r="C67" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>6</v>
+      </c>
+      <c r="B68" s="4">
+        <v>43999</v>
+      </c>
+      <c r="C68" s="4">
+        <v>43994</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4">
+        <v>44000</v>
+      </c>
+      <c r="C69" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="H69">
+        <f>SLOPE(G63:G69,A63:A69)</f>
+        <v>3.4120042619843027E-2</v>
+      </c>
+      <c r="I69">
+        <f>LN(2)/H69</f>
+        <v>20.314956469510243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="4">
+        <v>44001</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>11</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70:H73" si="5">SLOPE(G64:G70,A64:A70)</f>
+        <v>5.6866737699738379E-2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70:I73" si="6">LN(2)/H70</f>
+        <v>12.188973881706145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>9</v>
+      </c>
+      <c r="B71" s="4">
+        <v>44002</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44002</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="3">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>0.13229404960635965</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>5.2394433659140498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>10</v>
+      </c>
+      <c r="B72" s="4">
+        <v>44003</v>
+      </c>
+      <c r="C72" s="4">
+        <v>44003</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>28</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>3.3322045101752038</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>0.21104728929831959</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>3.2843216459424305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>11</v>
+      </c>
+      <c r="B73" s="4">
+        <v>44004</v>
+      </c>
+      <c r="C73" s="4">
+        <v>44004</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="3">
+        <v>10</v>
+      </c>
+      <c r="F73">
         <v>38</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>49</v>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>3.6375861597263857</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>0.27777845685307162</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>2.4953237497700522</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J105" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J110">
-    <sortCondition ref="B46"/>
+  <autoFilter ref="A1:E60" xr:uid="{EEE7A245-D32E-4A9A-8A60-ABFCCCC0ACF6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E60">
+      <sortCondition ref="D2:D60"/>
+      <sortCondition ref="C2:C60"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E60">
+    <sortCondition ref="D2:D60"/>
+    <sortCondition ref="C2:C60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4F39FD-A284-498E-BA4E-6D0B41D0A14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13F55C-D58D-457A-B033-EFBD7CB0FC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="89">
   <si>
     <t>FECHA</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>DIA</t>
+  </si>
+  <si>
+    <t>Concepción del Uruguay</t>
+  </si>
+  <si>
+    <t>-32.483333</t>
+  </si>
+  <si>
+    <t>-58.233333</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,7 +4048,7 @@
         <v>44002</v>
       </c>
       <c r="B131" s="8">
-        <f t="shared" ref="B131:B161" si="6">B130+1</f>
+        <f t="shared" ref="B131:B179" si="6">B130+1</f>
         <v>130</v>
       </c>
       <c r="C131" t="s">
@@ -4683,6 +4692,384 @@
       </c>
       <c r="J161" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B162" s="8">
+        <f t="shared" si="6"/>
+        <v>161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
+        <v>78</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B163" s="8">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="C163" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B164" s="8">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" t="s">
+        <v>78</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B165" s="8">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" t="s">
+        <v>78</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B166" s="8">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B167" s="8">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B168" s="8">
+        <f t="shared" si="6"/>
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B169" s="8">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B170" s="8">
+        <f t="shared" si="6"/>
+        <v>169</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B171" s="8">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B172" s="8">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B173" s="8">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B174" s="8">
+        <f t="shared" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B175" s="8">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B176" s="8">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B177" s="8">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B178" s="8">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B179" s="8">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" t="s">
+        <v>86</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC38B6E-43F3-41C4-81E3-B21815A6CCC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD04784-54E3-47EB-AC94-D0EE72497B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="1020" windowWidth="11385" windowHeight="8220" tabRatio="576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13665" yWindow="945" windowWidth="14685" windowHeight="8085" tabRatio="576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -2084,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B267" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView topLeftCell="B272" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274:E283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7970,8 +7970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5BD328-2D41-4BA8-BC57-9BE05B4A8430}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7996,7 +7996,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8004,7 +8004,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8020,7 +8020,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8060,7 +8060,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8092,7 +8092,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD04784-54E3-47EB-AC94-D0EE72497B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B2625-2EE0-4E14-902B-F5F208BA5EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="945" windowWidth="14685" windowHeight="8085" tabRatio="576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13725" yWindow="825" windowWidth="6690" windowHeight="8085" tabRatio="576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="MOVILIDAD" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$273</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dias!$A$1:$D$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">MOVILIDAD!$B$1:$G$2241</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12707" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12727" uniqueCount="152">
   <si>
     <t>FECHA</t>
   </si>
@@ -486,6 +486,15 @@
   </si>
   <si>
     <t>-58.4</t>
+  </si>
+  <si>
+    <t>Colonia Avellaneda</t>
+  </si>
+  <si>
+    <t>-31.766944</t>
+  </si>
+  <si>
+    <t>-60.403889</t>
   </si>
 </sst>
 </file>
@@ -2082,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J273"/>
+  <dimension ref="A1:J278"/>
   <sheetViews>
-    <sheetView topLeftCell="B272" workbookViewId="0">
-      <selection activeCell="B274" sqref="B274:E283"/>
+    <sheetView topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="J279" sqref="J279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,7 +2167,7 @@
         <v>43907</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B34" si="0">B2+1</f>
+        <f>B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2179,7 +2188,7 @@
         <v>43910</v>
       </c>
       <c r="B4" s="7">
-        <f t="shared" si="0"/>
+        <f>B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -2200,7 +2209,7 @@
         <v>43910</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" si="0"/>
+        <f>B4+1</f>
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -2221,7 +2230,7 @@
         <v>43915</v>
       </c>
       <c r="B6" s="7">
-        <f t="shared" si="0"/>
+        <f>B5+1</f>
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -2251,7 +2260,7 @@
         <v>43915</v>
       </c>
       <c r="B7" s="7">
-        <f t="shared" si="0"/>
+        <f>B6+1</f>
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -2272,7 +2281,7 @@
         <v>43916</v>
       </c>
       <c r="B8" s="7">
-        <f t="shared" si="0"/>
+        <f>B7+1</f>
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -2299,7 +2308,7 @@
         <v>43916</v>
       </c>
       <c r="B9" s="7">
-        <f t="shared" si="0"/>
+        <f>B8+1</f>
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -2329,7 +2338,7 @@
         <v>43916</v>
       </c>
       <c r="B10" s="7">
-        <f t="shared" si="0"/>
+        <f>B9+1</f>
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -2350,7 +2359,7 @@
         <v>43920</v>
       </c>
       <c r="B11" s="7">
-        <f t="shared" si="0"/>
+        <f>B10+1</f>
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -2380,7 +2389,7 @@
         <v>43920</v>
       </c>
       <c r="B12" s="7">
-        <f t="shared" si="0"/>
+        <f>B11+1</f>
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -2410,7 +2419,7 @@
         <v>43923</v>
       </c>
       <c r="B13" s="7">
-        <f t="shared" si="0"/>
+        <f>B12+1</f>
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -2431,7 +2440,7 @@
         <v>43923</v>
       </c>
       <c r="B14" s="7">
-        <f t="shared" si="0"/>
+        <f>B13+1</f>
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -2452,7 +2461,7 @@
         <v>43924</v>
       </c>
       <c r="B15" s="7">
-        <f t="shared" si="0"/>
+        <f>B14+1</f>
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -2473,7 +2482,7 @@
         <v>43924</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="0"/>
+        <f>B15+1</f>
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -2494,7 +2503,7 @@
         <v>43926</v>
       </c>
       <c r="B17" s="7">
-        <f t="shared" si="0"/>
+        <f>B16+1</f>
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -2515,7 +2524,7 @@
         <v>43929</v>
       </c>
       <c r="B18" s="7">
-        <f t="shared" si="0"/>
+        <f>B17+1</f>
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -2545,7 +2554,7 @@
         <v>43930</v>
       </c>
       <c r="B19" s="7">
-        <f t="shared" si="0"/>
+        <f>B18+1</f>
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -2578,7 +2587,7 @@
         <v>43936</v>
       </c>
       <c r="B20" s="7">
-        <f t="shared" si="0"/>
+        <f>B19+1</f>
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -2599,7 +2608,7 @@
         <v>43948</v>
       </c>
       <c r="B21" s="7">
-        <f t="shared" si="0"/>
+        <f>B20+1</f>
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -2629,7 +2638,7 @@
         <v>43951</v>
       </c>
       <c r="B22" s="7">
-        <f t="shared" si="0"/>
+        <f>B21+1</f>
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -2650,7 +2659,7 @@
         <v>43951</v>
       </c>
       <c r="B23" s="7">
-        <f t="shared" si="0"/>
+        <f>B22+1</f>
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -2671,7 +2680,7 @@
         <v>43953</v>
       </c>
       <c r="B24" s="7">
-        <f t="shared" si="0"/>
+        <f>B23+1</f>
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -2692,7 +2701,7 @@
         <v>43953</v>
       </c>
       <c r="B25" s="7">
-        <f t="shared" si="0"/>
+        <f>B24+1</f>
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -2713,7 +2722,7 @@
         <v>43956</v>
       </c>
       <c r="B26" s="7">
-        <f t="shared" si="0"/>
+        <f>B25+1</f>
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -2743,7 +2752,7 @@
         <v>43956</v>
       </c>
       <c r="B27" s="7">
-        <f t="shared" si="0"/>
+        <f>B26+1</f>
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -2773,7 +2782,7 @@
         <v>43963</v>
       </c>
       <c r="B28" s="7">
-        <f t="shared" si="0"/>
+        <f>B27+1</f>
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -2803,7 +2812,7 @@
         <v>43979</v>
       </c>
       <c r="B29" s="7">
-        <f t="shared" si="0"/>
+        <f>B28+1</f>
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -2824,7 +2833,7 @@
         <v>43981</v>
       </c>
       <c r="B30" s="7">
-        <f t="shared" si="0"/>
+        <f>B29+1</f>
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -2854,7 +2863,7 @@
         <v>43981</v>
       </c>
       <c r="B31" s="7">
-        <f t="shared" si="0"/>
+        <f>B30+1</f>
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -2875,7 +2884,7 @@
         <v>43983</v>
       </c>
       <c r="B32" s="7">
-        <f t="shared" si="0"/>
+        <f>B31+1</f>
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -2896,7 +2905,7 @@
         <v>43983</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" si="0"/>
+        <f>B32+1</f>
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -2917,7 +2926,7 @@
         <v>43985</v>
       </c>
       <c r="B34" s="7">
-        <f t="shared" si="0"/>
+        <f>B33+1</f>
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -2938,7 +2947,7 @@
         <v>43985</v>
       </c>
       <c r="B35" s="7">
-        <f t="shared" ref="B35:B66" si="1">B34+1</f>
+        <f>B34+1</f>
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -2959,7 +2968,7 @@
         <v>43986</v>
       </c>
       <c r="B36" s="7">
-        <f t="shared" si="1"/>
+        <f>B35+1</f>
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -2980,7 +2989,7 @@
         <v>43986</v>
       </c>
       <c r="B37" s="7">
-        <f t="shared" si="1"/>
+        <f>B36+1</f>
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -3001,7 +3010,7 @@
         <v>43986</v>
       </c>
       <c r="B38" s="7">
-        <f t="shared" si="1"/>
+        <f>B37+1</f>
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -3022,7 +3031,7 @@
         <v>43986</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" si="1"/>
+        <f>B38+1</f>
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -3043,7 +3052,7 @@
         <v>43987</v>
       </c>
       <c r="B40" s="7">
-        <f t="shared" si="1"/>
+        <f>B39+1</f>
         <v>39</v>
       </c>
       <c r="C40" t="s">
@@ -3064,7 +3073,7 @@
         <v>43987</v>
       </c>
       <c r="B41" s="7">
-        <f t="shared" si="1"/>
+        <f>B40+1</f>
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -3085,7 +3094,7 @@
         <v>43987</v>
       </c>
       <c r="B42" s="7">
-        <f t="shared" si="1"/>
+        <f>B41+1</f>
         <v>41</v>
       </c>
       <c r="C42" t="s">
@@ -3106,7 +3115,7 @@
         <v>43987</v>
       </c>
       <c r="B43" s="7">
-        <f t="shared" si="1"/>
+        <f>B42+1</f>
         <v>42</v>
       </c>
       <c r="C43" t="s">
@@ -3127,7 +3136,7 @@
         <v>43987</v>
       </c>
       <c r="B44" s="7">
-        <f t="shared" si="1"/>
+        <f>B43+1</f>
         <v>43</v>
       </c>
       <c r="C44" t="s">
@@ -3148,7 +3157,7 @@
         <v>43987</v>
       </c>
       <c r="B45" s="7">
-        <f t="shared" si="1"/>
+        <f>B44+1</f>
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -3169,7 +3178,7 @@
         <v>43987</v>
       </c>
       <c r="B46" s="7">
-        <f t="shared" si="1"/>
+        <f>B45+1</f>
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -3190,7 +3199,7 @@
         <v>43988</v>
       </c>
       <c r="B47" s="7">
-        <f t="shared" si="1"/>
+        <f>B46+1</f>
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -3211,7 +3220,7 @@
         <v>43988</v>
       </c>
       <c r="B48" s="7">
-        <f t="shared" si="1"/>
+        <f>B47+1</f>
         <v>47</v>
       </c>
       <c r="C48" t="s">
@@ -3232,7 +3241,7 @@
         <v>43988</v>
       </c>
       <c r="B49" s="7">
-        <f t="shared" si="1"/>
+        <f>B48+1</f>
         <v>48</v>
       </c>
       <c r="C49" t="s">
@@ -3253,7 +3262,7 @@
         <v>43988</v>
       </c>
       <c r="B50" s="7">
-        <f t="shared" si="1"/>
+        <f>B49+1</f>
         <v>49</v>
       </c>
       <c r="C50" t="s">
@@ -3274,7 +3283,7 @@
         <v>43988</v>
       </c>
       <c r="B51" s="7">
-        <f t="shared" si="1"/>
+        <f>B50+1</f>
         <v>50</v>
       </c>
       <c r="C51" t="s">
@@ -3295,7 +3304,7 @@
         <v>43989</v>
       </c>
       <c r="B52" s="7">
-        <f t="shared" si="1"/>
+        <f>B51+1</f>
         <v>51</v>
       </c>
       <c r="C52" t="s">
@@ -3316,7 +3325,7 @@
         <v>43989</v>
       </c>
       <c r="B53" s="7">
-        <f t="shared" si="1"/>
+        <f>B52+1</f>
         <v>52</v>
       </c>
       <c r="C53" t="s">
@@ -3337,7 +3346,7 @@
         <v>43990</v>
       </c>
       <c r="B54" s="7">
-        <f t="shared" si="1"/>
+        <f>B53+1</f>
         <v>53</v>
       </c>
       <c r="C54" t="s">
@@ -3358,7 +3367,7 @@
         <v>43990</v>
       </c>
       <c r="B55" s="7">
-        <f t="shared" si="1"/>
+        <f>B54+1</f>
         <v>54</v>
       </c>
       <c r="C55" t="s">
@@ -3379,7 +3388,7 @@
         <v>43991</v>
       </c>
       <c r="B56" s="7">
-        <f t="shared" si="1"/>
+        <f>B55+1</f>
         <v>55</v>
       </c>
       <c r="C56" t="s">
@@ -3400,7 +3409,7 @@
         <v>43991</v>
       </c>
       <c r="B57" s="7">
-        <f t="shared" si="1"/>
+        <f>B56+1</f>
         <v>56</v>
       </c>
       <c r="C57" t="s">
@@ -3421,7 +3430,7 @@
         <v>43991</v>
       </c>
       <c r="B58" s="7">
-        <f t="shared" si="1"/>
+        <f>B57+1</f>
         <v>57</v>
       </c>
       <c r="C58" t="s">
@@ -3442,7 +3451,7 @@
         <v>43992</v>
       </c>
       <c r="B59" s="7">
-        <f t="shared" si="1"/>
+        <f>B58+1</f>
         <v>58</v>
       </c>
       <c r="C59" t="s">
@@ -3463,7 +3472,7 @@
         <v>43992</v>
       </c>
       <c r="B60" s="7">
-        <f t="shared" si="1"/>
+        <f>B59+1</f>
         <v>59</v>
       </c>
       <c r="C60" t="s">
@@ -3484,7 +3493,7 @@
         <v>43992</v>
       </c>
       <c r="B61" s="7">
-        <f t="shared" si="1"/>
+        <f>B60+1</f>
         <v>60</v>
       </c>
       <c r="C61" t="s">
@@ -3502,41 +3511,41 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>43995</v>
+        <v>43992</v>
       </c>
       <c r="B62" s="7">
-        <f t="shared" si="1"/>
+        <f>B61+1</f>
         <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B63" s="7">
-        <f t="shared" si="1"/>
+        <f>B62+1</f>
         <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>75</v>
@@ -3547,7 +3556,7 @@
         <v>43992</v>
       </c>
       <c r="B64" s="7">
-        <f t="shared" si="1"/>
+        <f>B63+1</f>
         <v>63</v>
       </c>
       <c r="C64" t="s">
@@ -3568,7 +3577,7 @@
         <v>43993</v>
       </c>
       <c r="B65" s="7">
-        <f t="shared" si="1"/>
+        <f>B64+1</f>
         <v>64</v>
       </c>
       <c r="C65" t="s">
@@ -3586,20 +3595,20 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B66" s="7">
-        <f t="shared" si="1"/>
+        <f>B65+1</f>
         <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>75</v>
@@ -3610,7 +3619,7 @@
         <v>43993</v>
       </c>
       <c r="B67" s="7">
-        <f t="shared" ref="B67:B98" si="2">B66+1</f>
+        <f>B66+1</f>
         <v>66</v>
       </c>
       <c r="C67" t="s">
@@ -3631,7 +3640,7 @@
         <v>43993</v>
       </c>
       <c r="B68" s="7">
-        <f t="shared" si="2"/>
+        <f>B67+1</f>
         <v>67</v>
       </c>
       <c r="C68" t="s">
@@ -3652,7 +3661,7 @@
         <v>43993</v>
       </c>
       <c r="B69" s="7">
-        <f t="shared" si="2"/>
+        <f>B68+1</f>
         <v>68</v>
       </c>
       <c r="C69" t="s">
@@ -3673,7 +3682,7 @@
         <v>43993</v>
       </c>
       <c r="B70" s="7">
-        <f t="shared" si="2"/>
+        <f>B69+1</f>
         <v>69</v>
       </c>
       <c r="C70" t="s">
@@ -3694,7 +3703,7 @@
         <v>43993</v>
       </c>
       <c r="B71" s="7">
-        <f t="shared" si="2"/>
+        <f>B70+1</f>
         <v>70</v>
       </c>
       <c r="C71" t="s">
@@ -3715,7 +3724,7 @@
         <v>43993</v>
       </c>
       <c r="B72" s="7">
-        <f t="shared" si="2"/>
+        <f>B71+1</f>
         <v>71</v>
       </c>
       <c r="C72" t="s">
@@ -3733,38 +3742,38 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>43999</v>
+        <v>43994</v>
       </c>
       <c r="B73" s="7">
-        <f t="shared" si="2"/>
+        <f>B72+1</f>
         <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>44001</v>
+        <v>43994</v>
       </c>
       <c r="B74" s="7">
-        <f t="shared" si="2"/>
+        <f>B73+1</f>
         <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>64</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>74</v>
@@ -3778,7 +3787,7 @@
         <v>43994</v>
       </c>
       <c r="B75" s="7">
-        <f t="shared" si="2"/>
+        <f>B74+1</f>
         <v>74</v>
       </c>
       <c r="C75" t="s">
@@ -3799,7 +3808,7 @@
         <v>43995</v>
       </c>
       <c r="B76" s="7">
-        <f t="shared" si="2"/>
+        <f>B75+1</f>
         <v>75</v>
       </c>
       <c r="C76" t="s">
@@ -3820,7 +3829,7 @@
         <v>43995</v>
       </c>
       <c r="B77" s="7">
-        <f t="shared" si="2"/>
+        <f>B76+1</f>
         <v>76</v>
       </c>
       <c r="C77" t="s">
@@ -3841,7 +3850,7 @@
         <v>43995</v>
       </c>
       <c r="B78" s="7">
-        <f t="shared" si="2"/>
+        <f>B77+1</f>
         <v>77</v>
       </c>
       <c r="C78" t="s">
@@ -3859,23 +3868,23 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>44002</v>
+        <v>43995</v>
       </c>
       <c r="B79" s="7">
-        <f t="shared" si="2"/>
+        <f>B78+1</f>
         <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3883,7 +3892,7 @@
         <v>43995</v>
       </c>
       <c r="B80" s="7">
-        <f t="shared" si="2"/>
+        <f>B79+1</f>
         <v>79</v>
       </c>
       <c r="C80" t="s">
@@ -3904,7 +3913,7 @@
         <v>43995</v>
       </c>
       <c r="B81" s="7">
-        <f t="shared" si="2"/>
+        <f>B80+1</f>
         <v>80</v>
       </c>
       <c r="C81" t="s">
@@ -3925,7 +3934,7 @@
         <v>43995</v>
       </c>
       <c r="B82" s="7">
-        <f t="shared" si="2"/>
+        <f>B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" t="s">
@@ -3946,7 +3955,7 @@
         <v>43995</v>
       </c>
       <c r="B83" s="7">
-        <f t="shared" si="2"/>
+        <f>B82+1</f>
         <v>82</v>
       </c>
       <c r="C83" t="s">
@@ -3967,7 +3976,7 @@
         <v>43995</v>
       </c>
       <c r="B84" s="7">
-        <f t="shared" si="2"/>
+        <f>B83+1</f>
         <v>83</v>
       </c>
       <c r="C84" t="s">
@@ -3988,7 +3997,7 @@
         <v>43995</v>
       </c>
       <c r="B85" s="7">
-        <f t="shared" si="2"/>
+        <f>B84+1</f>
         <v>84</v>
       </c>
       <c r="C85" t="s">
@@ -4009,7 +4018,7 @@
         <v>43995</v>
       </c>
       <c r="B86" s="7">
-        <f t="shared" si="2"/>
+        <f>B85+1</f>
         <v>85</v>
       </c>
       <c r="C86" t="s">
@@ -4030,7 +4039,7 @@
         <v>43995</v>
       </c>
       <c r="B87" s="7">
-        <f t="shared" si="2"/>
+        <f>B86+1</f>
         <v>86</v>
       </c>
       <c r="C87" t="s">
@@ -4051,7 +4060,7 @@
         <v>43995</v>
       </c>
       <c r="B88" s="7">
-        <f t="shared" si="2"/>
+        <f>B87+1</f>
         <v>87</v>
       </c>
       <c r="C88" t="s">
@@ -4072,7 +4081,7 @@
         <v>43995</v>
       </c>
       <c r="B89" s="7">
-        <f t="shared" si="2"/>
+        <f>B88+1</f>
         <v>88</v>
       </c>
       <c r="C89" t="s">
@@ -4093,7 +4102,7 @@
         <v>43995</v>
       </c>
       <c r="B90" s="7">
-        <f t="shared" si="2"/>
+        <f>B89+1</f>
         <v>89</v>
       </c>
       <c r="C90" t="s">
@@ -4114,7 +4123,7 @@
         <v>43995</v>
       </c>
       <c r="B91" s="7">
-        <f t="shared" si="2"/>
+        <f>B90+1</f>
         <v>90</v>
       </c>
       <c r="C91" t="s">
@@ -4135,7 +4144,7 @@
         <v>43995</v>
       </c>
       <c r="B92" s="7">
-        <f t="shared" si="2"/>
+        <f>B91+1</f>
         <v>91</v>
       </c>
       <c r="C92" t="s">
@@ -4156,7 +4165,7 @@
         <v>43995</v>
       </c>
       <c r="B93" s="7">
-        <f t="shared" si="2"/>
+        <f>B92+1</f>
         <v>92</v>
       </c>
       <c r="C93" t="s">
@@ -4177,7 +4186,7 @@
         <v>43996</v>
       </c>
       <c r="B94" s="7">
-        <f t="shared" si="2"/>
+        <f>B93+1</f>
         <v>93</v>
       </c>
       <c r="C94" t="s">
@@ -4198,7 +4207,7 @@
         <v>43998</v>
       </c>
       <c r="B95" s="7">
-        <f t="shared" si="2"/>
+        <f>B94+1</f>
         <v>94</v>
       </c>
       <c r="C95" t="s">
@@ -4219,7 +4228,7 @@
         <v>43998</v>
       </c>
       <c r="B96" s="7">
-        <f t="shared" si="2"/>
+        <f>B95+1</f>
         <v>95</v>
       </c>
       <c r="C96" t="s">
@@ -4240,7 +4249,7 @@
         <v>43998</v>
       </c>
       <c r="B97" s="7">
-        <f t="shared" si="2"/>
+        <f>B96+1</f>
         <v>96</v>
       </c>
       <c r="C97" t="s">
@@ -4261,7 +4270,7 @@
         <v>43998</v>
       </c>
       <c r="B98" s="7">
-        <f t="shared" si="2"/>
+        <f>B97+1</f>
         <v>97</v>
       </c>
       <c r="C98" t="s">
@@ -4282,7 +4291,7 @@
         <v>43998</v>
       </c>
       <c r="B99" s="7">
-        <f t="shared" ref="B99:B130" si="3">B98+1</f>
+        <f>B98+1</f>
         <v>98</v>
       </c>
       <c r="C99" t="s">
@@ -4303,7 +4312,7 @@
         <v>43998</v>
       </c>
       <c r="B100" s="7">
-        <f t="shared" si="3"/>
+        <f>B99+1</f>
         <v>99</v>
       </c>
       <c r="C100" t="s">
@@ -4324,7 +4333,7 @@
         <v>43998</v>
       </c>
       <c r="B101" s="7">
-        <f t="shared" si="3"/>
+        <f>B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" t="s">
@@ -4345,7 +4354,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="7">
-        <f t="shared" si="3"/>
+        <f>B101+1</f>
         <v>101</v>
       </c>
       <c r="C102" t="s">
@@ -4366,7 +4375,7 @@
         <v>43998</v>
       </c>
       <c r="B103" s="7">
-        <f t="shared" si="3"/>
+        <f>B102+1</f>
         <v>102</v>
       </c>
       <c r="C103" t="s">
@@ -4387,7 +4396,7 @@
         <v>43998</v>
       </c>
       <c r="B104" s="7">
-        <f t="shared" si="3"/>
+        <f>B103+1</f>
         <v>103</v>
       </c>
       <c r="C104" t="s">
@@ -4408,7 +4417,7 @@
         <v>43998</v>
       </c>
       <c r="B105" s="7">
-        <f t="shared" si="3"/>
+        <f>B104+1</f>
         <v>104</v>
       </c>
       <c r="C105" t="s">
@@ -4429,7 +4438,7 @@
         <v>43998</v>
       </c>
       <c r="B106" s="7">
-        <f t="shared" si="3"/>
+        <f>B105+1</f>
         <v>105</v>
       </c>
       <c r="C106" t="s">
@@ -4450,7 +4459,7 @@
         <v>43998</v>
       </c>
       <c r="B107" s="7">
-        <f t="shared" si="3"/>
+        <f>B106+1</f>
         <v>106</v>
       </c>
       <c r="C107" t="s">
@@ -4471,7 +4480,7 @@
         <v>43998</v>
       </c>
       <c r="B108" s="7">
-        <f t="shared" si="3"/>
+        <f>B107+1</f>
         <v>107</v>
       </c>
       <c r="C108" t="s">
@@ -4489,10 +4498,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>44003</v>
+        <v>43999</v>
       </c>
       <c r="B109" s="7">
-        <f t="shared" si="3"/>
+        <f>B108+1</f>
         <v>108</v>
       </c>
       <c r="C109" t="s">
@@ -4513,7 +4522,7 @@
         <v>43999</v>
       </c>
       <c r="B110" s="7">
-        <f t="shared" si="3"/>
+        <f>B109+1</f>
         <v>109</v>
       </c>
       <c r="C110" t="s">
@@ -4534,7 +4543,7 @@
         <v>43999</v>
       </c>
       <c r="B111" s="7">
-        <f t="shared" si="3"/>
+        <f>B110+1</f>
         <v>110</v>
       </c>
       <c r="C111" t="s">
@@ -4555,7 +4564,7 @@
         <v>43999</v>
       </c>
       <c r="B112" s="7">
-        <f t="shared" si="3"/>
+        <f>B111+1</f>
         <v>111</v>
       </c>
       <c r="C112" t="s">
@@ -4576,7 +4585,7 @@
         <v>43999</v>
       </c>
       <c r="B113" s="7">
-        <f t="shared" si="3"/>
+        <f>B112+1</f>
         <v>112</v>
       </c>
       <c r="C113" t="s">
@@ -4597,7 +4606,7 @@
         <v>44000</v>
       </c>
       <c r="B114" s="7">
-        <f t="shared" si="3"/>
+        <f>B113+1</f>
         <v>113</v>
       </c>
       <c r="C114" t="s">
@@ -4618,7 +4627,7 @@
         <v>44000</v>
       </c>
       <c r="B115" s="7">
-        <f t="shared" si="3"/>
+        <f>B114+1</f>
         <v>114</v>
       </c>
       <c r="C115" t="s">
@@ -4636,10 +4645,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>44004</v>
+        <v>44001</v>
       </c>
       <c r="B116" s="7">
-        <f t="shared" si="3"/>
+        <f>B115+1</f>
         <v>115</v>
       </c>
       <c r="C116" t="s">
@@ -4648,11 +4657,11 @@
       <c r="D116" t="s">
         <v>78</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>80</v>
+      <c r="I116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4660,7 +4669,7 @@
         <v>44001</v>
       </c>
       <c r="B117" s="7">
-        <f t="shared" si="3"/>
+        <f>B116+1</f>
         <v>116</v>
       </c>
       <c r="C117" t="s">
@@ -4681,7 +4690,7 @@
         <v>44001</v>
       </c>
       <c r="B118" s="7">
-        <f t="shared" si="3"/>
+        <f>B117+1</f>
         <v>117</v>
       </c>
       <c r="C118" t="s">
@@ -4699,10 +4708,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B119" s="7">
-        <f t="shared" si="3"/>
+        <f>B118+1</f>
         <v>118</v>
       </c>
       <c r="C119" t="s">
@@ -4723,7 +4732,7 @@
         <v>44002</v>
       </c>
       <c r="B120" s="7">
-        <f t="shared" si="3"/>
+        <f>B119+1</f>
         <v>119</v>
       </c>
       <c r="C120" t="s">
@@ -4744,7 +4753,7 @@
         <v>44002</v>
       </c>
       <c r="B121" s="7">
-        <f t="shared" si="3"/>
+        <f>B120+1</f>
         <v>120</v>
       </c>
       <c r="C121" t="s">
@@ -4765,7 +4774,7 @@
         <v>44002</v>
       </c>
       <c r="B122" s="7">
-        <f t="shared" si="3"/>
+        <f>B121+1</f>
         <v>121</v>
       </c>
       <c r="C122" t="s">
@@ -4786,7 +4795,7 @@
         <v>44002</v>
       </c>
       <c r="B123" s="7">
-        <f t="shared" si="3"/>
+        <f>B122+1</f>
         <v>122</v>
       </c>
       <c r="C123" t="s">
@@ -4807,7 +4816,7 @@
         <v>44002</v>
       </c>
       <c r="B124" s="7">
-        <f t="shared" si="3"/>
+        <f>B123+1</f>
         <v>123</v>
       </c>
       <c r="C124" t="s">
@@ -4828,7 +4837,7 @@
         <v>44002</v>
       </c>
       <c r="B125" s="7">
-        <f t="shared" si="3"/>
+        <f>B124+1</f>
         <v>124</v>
       </c>
       <c r="C125" t="s">
@@ -4849,7 +4858,7 @@
         <v>44002</v>
       </c>
       <c r="B126" s="7">
-        <f t="shared" si="3"/>
+        <f>B125+1</f>
         <v>125</v>
       </c>
       <c r="C126" t="s">
@@ -4870,7 +4879,7 @@
         <v>44002</v>
       </c>
       <c r="B127" s="7">
-        <f t="shared" si="3"/>
+        <f>B126+1</f>
         <v>126</v>
       </c>
       <c r="C127" t="s">
@@ -4891,7 +4900,7 @@
         <v>44002</v>
       </c>
       <c r="B128" s="7">
-        <f t="shared" si="3"/>
+        <f>B127+1</f>
         <v>127</v>
       </c>
       <c r="C128" t="s">
@@ -4912,7 +4921,7 @@
         <v>44002</v>
       </c>
       <c r="B129" s="7">
-        <f t="shared" si="3"/>
+        <f>B128+1</f>
         <v>128</v>
       </c>
       <c r="C129" t="s">
@@ -4933,7 +4942,7 @@
         <v>44002</v>
       </c>
       <c r="B130" s="7">
-        <f t="shared" si="3"/>
+        <f>B129+1</f>
         <v>129</v>
       </c>
       <c r="C130" t="s">
@@ -4954,7 +4963,7 @@
         <v>44002</v>
       </c>
       <c r="B131" s="7">
-        <f t="shared" ref="B131:B144" si="4">B130+1</f>
+        <f>B130+1</f>
         <v>130</v>
       </c>
       <c r="C131" t="s">
@@ -4975,7 +4984,7 @@
         <v>44002</v>
       </c>
       <c r="B132" s="7">
-        <f t="shared" si="4"/>
+        <f>B131+1</f>
         <v>131</v>
       </c>
       <c r="C132" t="s">
@@ -4996,7 +5005,7 @@
         <v>44002</v>
       </c>
       <c r="B133" s="7">
-        <f t="shared" si="4"/>
+        <f>B132+1</f>
         <v>132</v>
       </c>
       <c r="C133" t="s">
@@ -5017,7 +5026,7 @@
         <v>44002</v>
       </c>
       <c r="B134" s="7">
-        <f t="shared" si="4"/>
+        <f>B133+1</f>
         <v>133</v>
       </c>
       <c r="C134" t="s">
@@ -5038,7 +5047,7 @@
         <v>44002</v>
       </c>
       <c r="B135" s="7">
-        <f t="shared" si="4"/>
+        <f>B134+1</f>
         <v>134</v>
       </c>
       <c r="C135" t="s">
@@ -5059,7 +5068,7 @@
         <v>44002</v>
       </c>
       <c r="B136" s="7">
-        <f t="shared" si="4"/>
+        <f>B135+1</f>
         <v>135</v>
       </c>
       <c r="C136" t="s">
@@ -5077,10 +5086,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B137" s="7">
-        <f t="shared" si="4"/>
+        <f>B136+1</f>
         <v>136</v>
       </c>
       <c r="C137" t="s">
@@ -5101,7 +5110,7 @@
         <v>44003</v>
       </c>
       <c r="B138" s="7">
-        <f t="shared" si="4"/>
+        <f>B137+1</f>
         <v>137</v>
       </c>
       <c r="C138" t="s">
@@ -5122,7 +5131,7 @@
         <v>44003</v>
       </c>
       <c r="B139" s="7">
-        <f t="shared" si="4"/>
+        <f>B138+1</f>
         <v>138</v>
       </c>
       <c r="C139" t="s">
@@ -5143,7 +5152,7 @@
         <v>44003</v>
       </c>
       <c r="B140" s="7">
-        <f t="shared" si="4"/>
+        <f>B139+1</f>
         <v>139</v>
       </c>
       <c r="C140" t="s">
@@ -5164,7 +5173,7 @@
         <v>44003</v>
       </c>
       <c r="B141" s="7">
-        <f t="shared" si="4"/>
+        <f>B140+1</f>
         <v>140</v>
       </c>
       <c r="C141" t="s">
@@ -5185,7 +5194,7 @@
         <v>44003</v>
       </c>
       <c r="B142" s="7">
-        <f t="shared" si="4"/>
+        <f>B141+1</f>
         <v>141</v>
       </c>
       <c r="C142" t="s">
@@ -5206,7 +5215,7 @@
         <v>44003</v>
       </c>
       <c r="B143" s="7">
-        <f t="shared" si="4"/>
+        <f>B142+1</f>
         <v>142</v>
       </c>
       <c r="C143" t="s">
@@ -5227,7 +5236,7 @@
         <v>44003</v>
       </c>
       <c r="B144" s="7">
-        <f t="shared" si="4"/>
+        <f>B143+1</f>
         <v>143</v>
       </c>
       <c r="C144" t="s">
@@ -5290,7 +5299,7 @@
         <v>44004</v>
       </c>
       <c r="B147" s="7">
-        <f t="shared" ref="B147:B178" si="5">B146+1</f>
+        <f>B146+1</f>
         <v>145</v>
       </c>
       <c r="C147" t="s">
@@ -5311,7 +5320,7 @@
         <v>44004</v>
       </c>
       <c r="B148" s="7">
-        <f t="shared" si="5"/>
+        <f>B147+1</f>
         <v>146</v>
       </c>
       <c r="C148" t="s">
@@ -5329,10 +5338,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B149" s="7">
-        <f t="shared" si="5"/>
+        <f>B148+1</f>
         <v>147</v>
       </c>
       <c r="C149" t="s">
@@ -5350,10 +5359,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B150" s="7">
-        <f t="shared" si="5"/>
+        <f>B149+1</f>
         <v>148</v>
       </c>
       <c r="C150" t="s">
@@ -5371,10 +5380,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B151" s="7">
-        <f t="shared" si="5"/>
+        <f>B150+1</f>
         <v>149</v>
       </c>
       <c r="C151" t="s">
@@ -5395,7 +5404,7 @@
         <v>44004</v>
       </c>
       <c r="B152" s="7">
-        <f t="shared" si="5"/>
+        <f>B151+1</f>
         <v>150</v>
       </c>
       <c r="C152" t="s">
@@ -5416,7 +5425,7 @@
         <v>44004</v>
       </c>
       <c r="B153" s="7">
-        <f t="shared" si="5"/>
+        <f>B152+1</f>
         <v>151</v>
       </c>
       <c r="C153" t="s">
@@ -5437,7 +5446,7 @@
         <v>44004</v>
       </c>
       <c r="B154" s="7">
-        <f t="shared" si="5"/>
+        <f>B153+1</f>
         <v>152</v>
       </c>
       <c r="C154" t="s">
@@ -5458,7 +5467,7 @@
         <v>44004</v>
       </c>
       <c r="B155" s="7">
-        <f t="shared" si="5"/>
+        <f>B154+1</f>
         <v>153</v>
       </c>
       <c r="C155" t="s">
@@ -5479,7 +5488,7 @@
         <v>44004</v>
       </c>
       <c r="B156" s="7">
-        <f t="shared" si="5"/>
+        <f>B155+1</f>
         <v>154</v>
       </c>
       <c r="C156" t="s">
@@ -5500,7 +5509,7 @@
         <v>44004</v>
       </c>
       <c r="B157" s="7">
-        <f t="shared" si="5"/>
+        <f>B156+1</f>
         <v>155</v>
       </c>
       <c r="C157" t="s">
@@ -5521,7 +5530,7 @@
         <v>44004</v>
       </c>
       <c r="B158" s="7">
-        <f t="shared" si="5"/>
+        <f>B157+1</f>
         <v>156</v>
       </c>
       <c r="C158" t="s">
@@ -5542,7 +5551,7 @@
         <v>44004</v>
       </c>
       <c r="B159" s="7">
-        <f t="shared" si="5"/>
+        <f>B158+1</f>
         <v>157</v>
       </c>
       <c r="C159" t="s">
@@ -5563,7 +5572,7 @@
         <v>44004</v>
       </c>
       <c r="B160" s="7">
-        <f t="shared" si="5"/>
+        <f>B159+1</f>
         <v>158</v>
       </c>
       <c r="C160" t="s">
@@ -5584,7 +5593,7 @@
         <v>44004</v>
       </c>
       <c r="B161" s="7">
-        <f t="shared" si="5"/>
+        <f>B160+1</f>
         <v>159</v>
       </c>
       <c r="C161" t="s">
@@ -5605,7 +5614,7 @@
         <v>44004</v>
       </c>
       <c r="B162" s="7">
-        <f t="shared" si="5"/>
+        <f>B161+1</f>
         <v>160</v>
       </c>
       <c r="C162" t="s">
@@ -5626,7 +5635,7 @@
         <v>44005</v>
       </c>
       <c r="B163" s="7">
-        <f t="shared" si="5"/>
+        <f>B162+1</f>
         <v>161</v>
       </c>
       <c r="C163" t="s">
@@ -5644,10 +5653,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B164" s="7">
-        <f t="shared" si="5"/>
+        <f>B163+1</f>
         <v>162</v>
       </c>
       <c r="C164" t="s">
@@ -5665,10 +5674,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B165" s="7">
-        <f t="shared" si="5"/>
+        <f>B164+1</f>
         <v>163</v>
       </c>
       <c r="C165" t="s">
@@ -5686,10 +5695,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B166" s="7">
-        <f t="shared" si="5"/>
+        <f>B165+1</f>
         <v>164</v>
       </c>
       <c r="C166" t="s">
@@ -5710,7 +5719,7 @@
         <v>44005</v>
       </c>
       <c r="B167" s="7">
-        <f t="shared" si="5"/>
+        <f>B166+1</f>
         <v>165</v>
       </c>
       <c r="C167" t="s">
@@ -5731,7 +5740,7 @@
         <v>44005</v>
       </c>
       <c r="B168" s="7">
-        <f t="shared" si="5"/>
+        <f>B167+1</f>
         <v>166</v>
       </c>
       <c r="C168" t="s">
@@ -5752,7 +5761,7 @@
         <v>44005</v>
       </c>
       <c r="B169" s="7">
-        <f t="shared" si="5"/>
+        <f>B168+1</f>
         <v>167</v>
       </c>
       <c r="C169" t="s">
@@ -5773,7 +5782,7 @@
         <v>44005</v>
       </c>
       <c r="B170" s="7">
-        <f t="shared" si="5"/>
+        <f>B169+1</f>
         <v>168</v>
       </c>
       <c r="C170" t="s">
@@ -5794,7 +5803,7 @@
         <v>44005</v>
       </c>
       <c r="B171" s="7">
-        <f t="shared" si="5"/>
+        <f>B170+1</f>
         <v>169</v>
       </c>
       <c r="C171" t="s">
@@ -5815,7 +5824,7 @@
         <v>44005</v>
       </c>
       <c r="B172" s="7">
-        <f t="shared" si="5"/>
+        <f>B171+1</f>
         <v>170</v>
       </c>
       <c r="C172" t="s">
@@ -5836,7 +5845,7 @@
         <v>44005</v>
       </c>
       <c r="B173" s="7">
-        <f t="shared" si="5"/>
+        <f>B172+1</f>
         <v>171</v>
       </c>
       <c r="C173" t="s">
@@ -5857,7 +5866,7 @@
         <v>44005</v>
       </c>
       <c r="B174" s="7">
-        <f t="shared" si="5"/>
+        <f>B173+1</f>
         <v>172</v>
       </c>
       <c r="C174" t="s">
@@ -5878,7 +5887,7 @@
         <v>44005</v>
       </c>
       <c r="B175" s="7">
-        <f t="shared" si="5"/>
+        <f>B174+1</f>
         <v>173</v>
       </c>
       <c r="C175" t="s">
@@ -5899,7 +5908,7 @@
         <v>44005</v>
       </c>
       <c r="B176" s="7">
-        <f t="shared" si="5"/>
+        <f>B175+1</f>
         <v>174</v>
       </c>
       <c r="C176" t="s">
@@ -5920,7 +5929,7 @@
         <v>44005</v>
       </c>
       <c r="B177" s="7">
-        <f t="shared" si="5"/>
+        <f>B176+1</f>
         <v>175</v>
       </c>
       <c r="C177" t="s">
@@ -5941,7 +5950,7 @@
         <v>44005</v>
       </c>
       <c r="B178" s="7">
-        <f t="shared" si="5"/>
+        <f>B177+1</f>
         <v>176</v>
       </c>
       <c r="C178" t="s">
@@ -5962,7 +5971,7 @@
         <v>44005</v>
       </c>
       <c r="B179" s="7">
-        <f t="shared" ref="B179:B210" si="6">B178+1</f>
+        <f>B178+1</f>
         <v>177</v>
       </c>
       <c r="C179" t="s">
@@ -5983,7 +5992,7 @@
         <v>44005</v>
       </c>
       <c r="B180" s="7">
-        <f t="shared" si="6"/>
+        <f>B179+1</f>
         <v>178</v>
       </c>
       <c r="C180" t="s">
@@ -6004,7 +6013,7 @@
         <v>44006</v>
       </c>
       <c r="B181" s="7">
-        <f t="shared" si="6"/>
+        <f>B180+1</f>
         <v>179</v>
       </c>
       <c r="C181" t="s">
@@ -6025,7 +6034,7 @@
         <v>44006</v>
       </c>
       <c r="B182" s="7">
-        <f t="shared" si="6"/>
+        <f>B181+1</f>
         <v>180</v>
       </c>
       <c r="C182" t="s">
@@ -6046,7 +6055,7 @@
         <v>44006</v>
       </c>
       <c r="B183" s="7">
-        <f t="shared" si="6"/>
+        <f>B182+1</f>
         <v>181</v>
       </c>
       <c r="C183" t="s">
@@ -6067,7 +6076,7 @@
         <v>44006</v>
       </c>
       <c r="B184" s="7">
-        <f t="shared" si="6"/>
+        <f>B183+1</f>
         <v>182</v>
       </c>
       <c r="C184" t="s">
@@ -6085,10 +6094,10 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B185" s="7">
-        <f t="shared" si="6"/>
+        <f>B184+1</f>
         <v>183</v>
       </c>
       <c r="C185" t="s">
@@ -6106,10 +6115,10 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B186" s="7">
-        <f t="shared" si="6"/>
+        <f>B185+1</f>
         <v>184</v>
       </c>
       <c r="C186" t="s">
@@ -6127,10 +6136,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B187" s="7">
-        <f t="shared" si="6"/>
+        <f>B186+1</f>
         <v>185</v>
       </c>
       <c r="C187" t="s">
@@ -6151,7 +6160,7 @@
         <v>44006</v>
       </c>
       <c r="B188" s="7">
-        <f t="shared" si="6"/>
+        <f>B187+1</f>
         <v>186</v>
       </c>
       <c r="C188" t="s">
@@ -6172,7 +6181,7 @@
         <v>44006</v>
       </c>
       <c r="B189" s="7">
-        <f t="shared" si="6"/>
+        <f>B188+1</f>
         <v>187</v>
       </c>
       <c r="C189" t="s">
@@ -6193,7 +6202,7 @@
         <v>44006</v>
       </c>
       <c r="B190" s="7">
-        <f t="shared" si="6"/>
+        <f>B189+1</f>
         <v>188</v>
       </c>
       <c r="C190" t="s">
@@ -6214,7 +6223,7 @@
         <v>44006</v>
       </c>
       <c r="B191" s="7">
-        <f t="shared" si="6"/>
+        <f>B190+1</f>
         <v>189</v>
       </c>
       <c r="C191" t="s">
@@ -6235,7 +6244,7 @@
         <v>44006</v>
       </c>
       <c r="B192" s="7">
-        <f t="shared" si="6"/>
+        <f>B191+1</f>
         <v>190</v>
       </c>
       <c r="C192" t="s">
@@ -6256,7 +6265,7 @@
         <v>44006</v>
       </c>
       <c r="B193" s="7">
-        <f t="shared" si="6"/>
+        <f>B192+1</f>
         <v>191</v>
       </c>
       <c r="C193" t="s">
@@ -6277,7 +6286,7 @@
         <v>44006</v>
       </c>
       <c r="B194" s="7">
-        <f t="shared" si="6"/>
+        <f>B193+1</f>
         <v>192</v>
       </c>
       <c r="C194" t="s">
@@ -6298,7 +6307,7 @@
         <v>44006</v>
       </c>
       <c r="B195" s="7">
-        <f t="shared" si="6"/>
+        <f>B194+1</f>
         <v>193</v>
       </c>
       <c r="C195" t="s">
@@ -6319,7 +6328,7 @@
         <v>44006</v>
       </c>
       <c r="B196" s="7">
-        <f t="shared" si="6"/>
+        <f>B195+1</f>
         <v>194</v>
       </c>
       <c r="C196" t="s">
@@ -6340,7 +6349,7 @@
         <v>44006</v>
       </c>
       <c r="B197" s="7">
-        <f t="shared" si="6"/>
+        <f>B196+1</f>
         <v>195</v>
       </c>
       <c r="C197" t="s">
@@ -6361,7 +6370,7 @@
         <v>44006</v>
       </c>
       <c r="B198" s="7">
-        <f t="shared" si="6"/>
+        <f>B197+1</f>
         <v>196</v>
       </c>
       <c r="C198" t="s">
@@ -6382,7 +6391,7 @@
         <v>44006</v>
       </c>
       <c r="B199" s="7">
-        <f t="shared" si="6"/>
+        <f>B198+1</f>
         <v>197</v>
       </c>
       <c r="C199" t="s">
@@ -6403,7 +6412,7 @@
         <v>44006</v>
       </c>
       <c r="B200" s="7">
-        <f t="shared" si="6"/>
+        <f>B199+1</f>
         <v>198</v>
       </c>
       <c r="C200" t="s">
@@ -6424,7 +6433,7 @@
         <v>44007</v>
       </c>
       <c r="B201" s="7">
-        <f t="shared" si="6"/>
+        <f>B200+1</f>
         <v>199</v>
       </c>
       <c r="C201" t="s">
@@ -6442,10 +6451,10 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B202" s="7">
-        <f t="shared" si="6"/>
+        <f>B201+1</f>
         <v>200</v>
       </c>
       <c r="C202" t="s">
@@ -6463,10 +6472,10 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B203" s="7">
-        <f t="shared" si="6"/>
+        <f>B202+1</f>
         <v>201</v>
       </c>
       <c r="C203" t="s">
@@ -6484,10 +6493,10 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B204" s="7">
-        <f t="shared" si="6"/>
+        <f>B203+1</f>
         <v>202</v>
       </c>
       <c r="C204" t="s">
@@ -6508,7 +6517,7 @@
         <v>44007</v>
       </c>
       <c r="B205" s="7">
-        <f t="shared" si="6"/>
+        <f>B204+1</f>
         <v>203</v>
       </c>
       <c r="C205" t="s">
@@ -6529,7 +6538,7 @@
         <v>44007</v>
       </c>
       <c r="B206" s="7">
-        <f t="shared" si="6"/>
+        <f>B205+1</f>
         <v>204</v>
       </c>
       <c r="C206" t="s">
@@ -6550,7 +6559,7 @@
         <v>44007</v>
       </c>
       <c r="B207" s="7">
-        <f t="shared" si="6"/>
+        <f>B206+1</f>
         <v>205</v>
       </c>
       <c r="C207" t="s">
@@ -6571,7 +6580,7 @@
         <v>44007</v>
       </c>
       <c r="B208" s="7">
-        <f t="shared" si="6"/>
+        <f>B207+1</f>
         <v>206</v>
       </c>
       <c r="C208" t="s">
@@ -6592,7 +6601,7 @@
         <v>44007</v>
       </c>
       <c r="B209" s="7">
-        <f t="shared" si="6"/>
+        <f>B208+1</f>
         <v>207</v>
       </c>
       <c r="C209" t="s">
@@ -6613,7 +6622,7 @@
         <v>44007</v>
       </c>
       <c r="B210" s="7">
-        <f t="shared" si="6"/>
+        <f>B209+1</f>
         <v>208</v>
       </c>
       <c r="C210" t="s">
@@ -6634,7 +6643,7 @@
         <v>44007</v>
       </c>
       <c r="B211" s="7">
-        <f t="shared" ref="B211:B273" si="7">B210+1</f>
+        <f>B210+1</f>
         <v>209</v>
       </c>
       <c r="C211" t="s">
@@ -6655,7 +6664,7 @@
         <v>44007</v>
       </c>
       <c r="B212" s="7">
-        <f t="shared" si="7"/>
+        <f>B211+1</f>
         <v>210</v>
       </c>
       <c r="C212" t="s">
@@ -6676,7 +6685,7 @@
         <v>44007</v>
       </c>
       <c r="B213" s="7">
-        <f t="shared" si="7"/>
+        <f>B212+1</f>
         <v>211</v>
       </c>
       <c r="C213" t="s">
@@ -6697,7 +6706,7 @@
         <v>44007</v>
       </c>
       <c r="B214" s="7">
-        <f t="shared" si="7"/>
+        <f>B213+1</f>
         <v>212</v>
       </c>
       <c r="C214" t="s">
@@ -6718,7 +6727,7 @@
         <v>44007</v>
       </c>
       <c r="B215" s="7">
-        <f t="shared" si="7"/>
+        <f>B214+1</f>
         <v>213</v>
       </c>
       <c r="C215" t="s">
@@ -6739,7 +6748,7 @@
         <v>44007</v>
       </c>
       <c r="B216" s="7">
-        <f t="shared" si="7"/>
+        <f>B215+1</f>
         <v>214</v>
       </c>
       <c r="C216" t="s">
@@ -6760,7 +6769,7 @@
         <v>44007</v>
       </c>
       <c r="B217" s="7">
-        <f t="shared" si="7"/>
+        <f>B216+1</f>
         <v>215</v>
       </c>
       <c r="C217" t="s">
@@ -6781,7 +6790,7 @@
         <v>44008</v>
       </c>
       <c r="B218" s="7">
-        <f t="shared" si="7"/>
+        <f>B217+1</f>
         <v>216</v>
       </c>
       <c r="C218" t="s">
@@ -6802,7 +6811,7 @@
         <v>44008</v>
       </c>
       <c r="B219" s="7">
-        <f t="shared" si="7"/>
+        <f>B218+1</f>
         <v>217</v>
       </c>
       <c r="C219" t="s">
@@ -6823,7 +6832,7 @@
         <v>44008</v>
       </c>
       <c r="B220" s="7">
-        <f t="shared" si="7"/>
+        <f>B219+1</f>
         <v>218</v>
       </c>
       <c r="C220" t="s">
@@ -6844,7 +6853,7 @@
         <v>44008</v>
       </c>
       <c r="B221" s="7">
-        <f t="shared" si="7"/>
+        <f>B220+1</f>
         <v>219</v>
       </c>
       <c r="C221" t="s">
@@ -6865,7 +6874,7 @@
         <v>44008</v>
       </c>
       <c r="B222" s="7">
-        <f t="shared" si="7"/>
+        <f>B221+1</f>
         <v>220</v>
       </c>
       <c r="C222" t="s">
@@ -6886,7 +6895,7 @@
         <v>44008</v>
       </c>
       <c r="B223" s="7">
-        <f t="shared" si="7"/>
+        <f>B222+1</f>
         <v>221</v>
       </c>
       <c r="C223" t="s">
@@ -6907,7 +6916,7 @@
         <v>44008</v>
       </c>
       <c r="B224" s="7">
-        <f t="shared" si="7"/>
+        <f>B223+1</f>
         <v>222</v>
       </c>
       <c r="C224" t="s">
@@ -6928,7 +6937,7 @@
         <v>44008</v>
       </c>
       <c r="B225" s="7">
-        <f t="shared" si="7"/>
+        <f>B224+1</f>
         <v>223</v>
       </c>
       <c r="C225" t="s">
@@ -6949,7 +6958,7 @@
         <v>44008</v>
       </c>
       <c r="B226" s="7">
-        <f t="shared" si="7"/>
+        <f>B225+1</f>
         <v>224</v>
       </c>
       <c r="C226" t="s">
@@ -6967,10 +6976,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B227" s="7">
-        <f t="shared" si="7"/>
+        <f>B226+1</f>
         <v>225</v>
       </c>
       <c r="C227" t="s">
@@ -6988,44 +6997,44 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>43992</v>
+        <v>44008</v>
       </c>
       <c r="B228" s="7">
-        <f t="shared" si="7"/>
+        <f>B227+1</f>
         <v>226</v>
       </c>
       <c r="C228" t="s">
         <v>64</v>
       </c>
       <c r="D228" t="s">
-        <v>76</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J228" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>43994</v>
+        <v>44008</v>
       </c>
       <c r="B229" s="7">
-        <f t="shared" si="7"/>
+        <f>B228+1</f>
         <v>227</v>
       </c>
       <c r="C229" t="s">
         <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>76</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7033,7 +7042,7 @@
         <v>44008</v>
       </c>
       <c r="B230" s="7">
-        <f t="shared" si="7"/>
+        <f>B229+1</f>
         <v>228</v>
       </c>
       <c r="C230" t="s">
@@ -7054,7 +7063,7 @@
         <v>44008</v>
       </c>
       <c r="B231" s="7">
-        <f t="shared" si="7"/>
+        <f>B230+1</f>
         <v>229</v>
       </c>
       <c r="C231" t="s">
@@ -7075,7 +7084,7 @@
         <v>44008</v>
       </c>
       <c r="B232" s="7">
-        <f t="shared" si="7"/>
+        <f>B231+1</f>
         <v>230</v>
       </c>
       <c r="C232" t="s">
@@ -7096,7 +7105,7 @@
         <v>44008</v>
       </c>
       <c r="B233" s="7">
-        <f t="shared" si="7"/>
+        <f>B232+1</f>
         <v>231</v>
       </c>
       <c r="C233" t="s">
@@ -7117,7 +7126,7 @@
         <v>44008</v>
       </c>
       <c r="B234" s="7">
-        <f t="shared" si="7"/>
+        <f>B233+1</f>
         <v>232</v>
       </c>
       <c r="C234" t="s">
@@ -7138,7 +7147,7 @@
         <v>44008</v>
       </c>
       <c r="B235" s="7">
-        <f t="shared" si="7"/>
+        <f>B234+1</f>
         <v>233</v>
       </c>
       <c r="C235" t="s">
@@ -7159,7 +7168,7 @@
         <v>44008</v>
       </c>
       <c r="B236" s="7">
-        <f t="shared" si="7"/>
+        <f>B235+1</f>
         <v>234</v>
       </c>
       <c r="C236" t="s">
@@ -7180,7 +7189,7 @@
         <v>44008</v>
       </c>
       <c r="B237" s="7">
-        <f t="shared" si="7"/>
+        <f>B236+1</f>
         <v>235</v>
       </c>
       <c r="C237" t="s">
@@ -7198,23 +7207,23 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>43994</v>
+        <v>44009</v>
       </c>
       <c r="B238" s="7">
-        <f t="shared" si="7"/>
+        <f>B237+1</f>
         <v>236</v>
       </c>
       <c r="C238" t="s">
         <v>64</v>
       </c>
       <c r="D238" t="s">
-        <v>76</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7222,7 +7231,7 @@
         <v>44009</v>
       </c>
       <c r="B239" s="7">
-        <f t="shared" si="7"/>
+        <f>B238+1</f>
         <v>237</v>
       </c>
       <c r="C239" t="s">
@@ -7243,7 +7252,7 @@
         <v>44009</v>
       </c>
       <c r="B240" s="7">
-        <f t="shared" si="7"/>
+        <f>B239+1</f>
         <v>238</v>
       </c>
       <c r="C240" t="s">
@@ -7264,7 +7273,7 @@
         <v>44009</v>
       </c>
       <c r="B241" s="7">
-        <f t="shared" si="7"/>
+        <f>B240+1</f>
         <v>239</v>
       </c>
       <c r="C241" t="s">
@@ -7285,7 +7294,7 @@
         <v>44009</v>
       </c>
       <c r="B242" s="7">
-        <f t="shared" si="7"/>
+        <f>B241+1</f>
         <v>240</v>
       </c>
       <c r="C242" t="s">
@@ -7306,7 +7315,7 @@
         <v>44009</v>
       </c>
       <c r="B243" s="7">
-        <f t="shared" si="7"/>
+        <f>B242+1</f>
         <v>241</v>
       </c>
       <c r="C243" t="s">
@@ -7327,7 +7336,7 @@
         <v>44009</v>
       </c>
       <c r="B244" s="7">
-        <f t="shared" si="7"/>
+        <f>B243+1</f>
         <v>242</v>
       </c>
       <c r="C244" t="s">
@@ -7348,7 +7357,7 @@
         <v>44009</v>
       </c>
       <c r="B245" s="7">
-        <f t="shared" si="7"/>
+        <f>B244+1</f>
         <v>243</v>
       </c>
       <c r="C245" t="s">
@@ -7369,7 +7378,7 @@
         <v>44009</v>
       </c>
       <c r="B246" s="7">
-        <f t="shared" si="7"/>
+        <f>B245+1</f>
         <v>244</v>
       </c>
       <c r="C246" t="s">
@@ -7390,7 +7399,7 @@
         <v>44009</v>
       </c>
       <c r="B247" s="7">
-        <f t="shared" si="7"/>
+        <f>B246+1</f>
         <v>245</v>
       </c>
       <c r="C247" t="s">
@@ -7411,20 +7420,20 @@
         <v>44010</v>
       </c>
       <c r="B248" s="7">
-        <f t="shared" si="7"/>
+        <f>B247+1</f>
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -7432,20 +7441,20 @@
         <v>44010</v>
       </c>
       <c r="B249" s="7">
-        <f t="shared" si="7"/>
+        <f>B248+1</f>
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J249" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -7453,20 +7462,20 @@
         <v>44010</v>
       </c>
       <c r="B250" s="7">
-        <f t="shared" si="7"/>
+        <f>B249+1</f>
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
-      </c>
-      <c r="I250" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J250" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -7474,20 +7483,20 @@
         <v>44010</v>
       </c>
       <c r="B251" s="7">
-        <f t="shared" si="7"/>
+        <f>B250+1</f>
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D251" t="s">
-        <v>11</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -7495,20 +7504,20 @@
         <v>44010</v>
       </c>
       <c r="B252" s="7">
-        <f t="shared" si="7"/>
+        <f>B251+1</f>
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J252" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -7516,20 +7525,20 @@
         <v>44010</v>
       </c>
       <c r="B253" s="7">
-        <f t="shared" si="7"/>
+        <f>B252+1</f>
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D253" t="s">
-        <v>11</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J253" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -7537,20 +7546,20 @@
         <v>44010</v>
       </c>
       <c r="B254" s="7">
-        <f t="shared" si="7"/>
+        <f>B253+1</f>
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J254" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -7558,20 +7567,20 @@
         <v>44010</v>
       </c>
       <c r="B255" s="7">
-        <f t="shared" si="7"/>
+        <f>B254+1</f>
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -7579,20 +7588,20 @@
         <v>44010</v>
       </c>
       <c r="B256" s="7">
-        <f t="shared" si="7"/>
+        <f>B255+1</f>
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J256" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J256" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -7600,20 +7609,20 @@
         <v>44010</v>
       </c>
       <c r="B257" s="7">
-        <f t="shared" si="7"/>
+        <f>B256+1</f>
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D257" t="s">
-        <v>12</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J257" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -7621,20 +7630,20 @@
         <v>44010</v>
       </c>
       <c r="B258" s="7">
-        <f t="shared" si="7"/>
+        <f>B257+1</f>
         <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D258" t="s">
-        <v>12</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J258" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -7642,20 +7651,20 @@
         <v>44010</v>
       </c>
       <c r="B259" s="7">
-        <f t="shared" si="7"/>
+        <f>B258+1</f>
         <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D259" t="s">
-        <v>12</v>
-      </c>
-      <c r="I259" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -7663,7 +7672,7 @@
         <v>44010</v>
       </c>
       <c r="B260" s="7">
-        <f t="shared" si="7"/>
+        <f>B259+1</f>
         <v>258</v>
       </c>
       <c r="C260" t="s">
@@ -7684,7 +7693,7 @@
         <v>44010</v>
       </c>
       <c r="B261" s="7">
-        <f t="shared" si="7"/>
+        <f>B260+1</f>
         <v>259</v>
       </c>
       <c r="C261" t="s">
@@ -7705,20 +7714,20 @@
         <v>44010</v>
       </c>
       <c r="B262" s="7">
-        <f t="shared" si="7"/>
+        <f>B261+1</f>
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>78</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J262" s="2" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -7726,20 +7735,20 @@
         <v>44010</v>
       </c>
       <c r="B263" s="7">
-        <f t="shared" si="7"/>
+        <f>B262+1</f>
         <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>78</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J263" s="2" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -7747,20 +7756,20 @@
         <v>44010</v>
       </c>
       <c r="B264" s="7">
-        <f t="shared" si="7"/>
+        <f>B263+1</f>
         <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>78</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J264" s="2" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -7768,20 +7777,20 @@
         <v>44010</v>
       </c>
       <c r="B265" s="7">
-        <f t="shared" si="7"/>
+        <f>B264+1</f>
         <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D265" t="s">
-        <v>78</v>
-      </c>
-      <c r="I265" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J265" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -7789,20 +7798,20 @@
         <v>44010</v>
       </c>
       <c r="B266" s="7">
-        <f t="shared" si="7"/>
+        <f>B265+1</f>
         <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D266" t="s">
-        <v>78</v>
-      </c>
-      <c r="I266" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J266" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -7810,20 +7819,20 @@
         <v>44010</v>
       </c>
       <c r="B267" s="7">
-        <f t="shared" si="7"/>
+        <f>B266+1</f>
         <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D267" t="s">
-        <v>78</v>
-      </c>
-      <c r="I267" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J267" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -7831,20 +7840,20 @@
         <v>44010</v>
       </c>
       <c r="B268" s="7">
-        <f t="shared" si="7"/>
+        <f>B267+1</f>
         <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D268" t="s">
-        <v>78</v>
-      </c>
-      <c r="I268" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J268" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -7852,20 +7861,20 @@
         <v>44010</v>
       </c>
       <c r="B269" s="7">
-        <f t="shared" si="7"/>
+        <f>B268+1</f>
         <v>267</v>
       </c>
       <c r="C269" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D269" t="s">
-        <v>78</v>
-      </c>
-      <c r="I269" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J269" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -7873,20 +7882,20 @@
         <v>44010</v>
       </c>
       <c r="B270" s="7">
-        <f t="shared" si="7"/>
+        <f>B269+1</f>
         <v>268</v>
       </c>
       <c r="C270" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D270" t="s">
-        <v>78</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J270" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -7894,20 +7903,20 @@
         <v>44010</v>
       </c>
       <c r="B271" s="7">
-        <f t="shared" si="7"/>
+        <f>B270+1</f>
         <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D271" t="s">
-        <v>78</v>
-      </c>
-      <c r="I271" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J271" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -7915,20 +7924,20 @@
         <v>44010</v>
       </c>
       <c r="B272" s="7">
-        <f t="shared" si="7"/>
+        <f>B271+1</f>
         <v>270</v>
       </c>
       <c r="C272" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D272" t="s">
-        <v>78</v>
-      </c>
-      <c r="I272" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J272" s="2" t="s">
-        <v>80</v>
+        <v>11</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -7936,26 +7945,133 @@
         <v>44010</v>
       </c>
       <c r="B273" s="7">
-        <f t="shared" si="7"/>
+        <f>B272+1</f>
         <v>271</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D273" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>148</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B274" s="7">
+        <f t="shared" ref="B274:B278" si="0">B273+1</f>
+        <v>272</v>
+      </c>
+      <c r="C274" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B275" s="7">
+        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B276" s="7">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="C276" t="s">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s">
+        <v>11</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B277" s="7">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="C277" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B278" s="7">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="C278" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s">
+        <v>149</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J247" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:J238">
-      <sortCondition ref="D32"/>
+  <autoFilter ref="A1:J273" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J273">
+      <sortCondition ref="A2:A273"/>
+      <sortCondition ref="C2:C273"/>
+      <sortCondition ref="D2:D273"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J247">
@@ -7970,8 +8086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5BD328-2D41-4BA8-BC57-9BE05B4A8430}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8084,7 +8200,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11869,10 +11985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C304B709-B43B-4139-8735-D4EFA9EC8FC1}">
-  <dimension ref="A1:H609"/>
+  <dimension ref="A1:H616"/>
   <sheetViews>
     <sheetView topLeftCell="A593" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H602" sqref="H602"/>
+      <selection activeCell="D617" sqref="D617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23937,6 +24053,31 @@
       </c>
       <c r="D609" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D612" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D613" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D614" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D615" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D616" s="3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B2625-2EE0-4E14-902B-F5F208BA5EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799DC258-257B-427A-AC48-06C44110B8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13725" yWindow="825" windowWidth="6690" windowHeight="8085" tabRatio="576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12727" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12795" uniqueCount="158">
   <si>
     <t>FECHA</t>
   </si>
@@ -479,15 +479,6 @@
     <t>~ 20</t>
   </si>
   <si>
-    <t>Villa Elisa</t>
-  </si>
-  <si>
-    <t>-32.166667</t>
-  </si>
-  <si>
-    <t>-58.4</t>
-  </si>
-  <si>
     <t>Colonia Avellaneda</t>
   </si>
   <si>
@@ -495,6 +486,33 @@
   </si>
   <si>
     <t>-60.403889</t>
+  </si>
+  <si>
+    <t>-32.1667</t>
+  </si>
+  <si>
+    <t>-58.55</t>
+  </si>
+  <si>
+    <t>Colonia Las Pepas</t>
+  </si>
+  <si>
+    <t>-60.3379925</t>
+  </si>
+  <si>
+    <t>-32.0233259</t>
+  </si>
+  <si>
+    <t>Crespo</t>
+  </si>
+  <si>
+    <t>-33.7943616</t>
+  </si>
+  <si>
+    <t>Holt Ibicuy</t>
+  </si>
+  <si>
+    <t>-59.1226071</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J278"/>
+  <dimension ref="A1:J295"/>
   <sheetViews>
-    <sheetView topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="J279" sqref="J279"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286:J295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2579,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -2576,10 +2594,10 @@
         <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3710,13 +3728,13 @@
         <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3899,13 +3917,13 @@
         <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3920,13 +3938,13 @@
         <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3941,13 +3959,13 @@
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3962,13 +3980,13 @@
         <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3983,13 +4001,13 @@
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4004,13 +4022,13 @@
         <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,13 +4043,13 @@
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4046,13 +4064,13 @@
         <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4067,13 +4085,13 @@
         <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4088,13 +4106,13 @@
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4109,13 +4127,13 @@
         <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4130,13 +4148,13 @@
         <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4151,13 +4169,13 @@
         <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -4172,13 +4190,13 @@
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4193,13 +4211,13 @@
         <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4340,13 +4358,13 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4361,13 +4379,13 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4382,13 +4400,13 @@
         <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4403,13 +4421,13 @@
         <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4424,13 +4442,13 @@
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4445,13 +4463,13 @@
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4466,13 +4484,13 @@
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4487,13 +4505,13 @@
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4529,13 +4547,13 @@
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4550,13 +4568,13 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4571,13 +4589,13 @@
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4592,13 +4610,13 @@
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4613,13 +4631,13 @@
         <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4760,13 +4778,13 @@
         <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4781,13 +4799,13 @@
         <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4802,13 +4820,13 @@
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4823,13 +4841,13 @@
         <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4844,13 +4862,13 @@
         <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4865,13 +4883,13 @@
         <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4886,13 +4904,13 @@
         <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -6167,13 +6185,13 @@
         <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6188,13 +6206,13 @@
         <v>26</v>
       </c>
       <c r="D189" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6524,13 +6542,13 @@
         <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6545,13 +6563,13 @@
         <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6566,13 +6584,13 @@
         <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -7427,13 +7445,13 @@
         <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -7966,20 +7984,20 @@
         <v>44011</v>
       </c>
       <c r="B274" s="7">
-        <f t="shared" ref="B274:B278" si="0">B273+1</f>
+        <f>B273+1</f>
         <v>272</v>
       </c>
       <c r="C274" t="s">
         <v>11</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -7987,7 +8005,7 @@
         <v>44011</v>
       </c>
       <c r="B275" s="7">
-        <f t="shared" si="0"/>
+        <f>B274+1</f>
         <v>273</v>
       </c>
       <c r="C275" t="s">
@@ -8008,7 +8026,7 @@
         <v>44011</v>
       </c>
       <c r="B276" s="7">
-        <f t="shared" si="0"/>
+        <f>B275+1</f>
         <v>274</v>
       </c>
       <c r="C276" t="s">
@@ -8029,7 +8047,7 @@
         <v>44011</v>
       </c>
       <c r="B277" s="7">
-        <f t="shared" si="0"/>
+        <f>B276+1</f>
         <v>275</v>
       </c>
       <c r="C277" t="s">
@@ -8050,20 +8068,377 @@
         <v>44011</v>
       </c>
       <c r="B278" s="7">
-        <f t="shared" si="0"/>
+        <f>B277+1</f>
         <v>276</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
       </c>
       <c r="D278" t="s">
+        <v>11</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B279" s="7">
+        <f>B278+1</f>
+        <v>277</v>
+      </c>
+      <c r="C279" t="s">
+        <v>24</v>
+      </c>
+      <c r="D279" t="s">
+        <v>151</v>
+      </c>
+      <c r="I279" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I278" s="1" t="s">
+      <c r="J279" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J278" s="1" t="s">
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B280" s="7">
+        <f>B279+1</f>
+        <v>278</v>
+      </c>
+      <c r="C280" t="s">
+        <v>24</v>
+      </c>
+      <c r="D280" t="s">
         <v>151</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B281" s="7">
+        <f>B280+1</f>
+        <v>279</v>
+      </c>
+      <c r="C281" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B282" s="7">
+        <f>B281+1</f>
+        <v>280</v>
+      </c>
+      <c r="C282" t="s">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B283" s="7">
+        <f>B282+1</f>
+        <v>281</v>
+      </c>
+      <c r="C283" t="s">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s">
+        <v>11</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B284" s="7">
+        <f>B283+1</f>
+        <v>282</v>
+      </c>
+      <c r="C284" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s">
+        <v>11</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B285" s="7">
+        <f>B284+1</f>
+        <v>283</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B286" s="7">
+        <f>B285+1</f>
+        <v>284</v>
+      </c>
+      <c r="C286" t="s">
+        <v>24</v>
+      </c>
+      <c r="D286" t="s">
+        <v>151</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B287" s="7">
+        <f>B286+1</f>
+        <v>285</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s">
+        <v>154</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B288" s="7">
+        <f>B287+1</f>
+        <v>286</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s">
+        <v>11</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B289" s="7">
+        <f>B288+1</f>
+        <v>287</v>
+      </c>
+      <c r="C289" t="s">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B290" s="7">
+        <f>B289+1</f>
+        <v>288</v>
+      </c>
+      <c r="C290" t="s">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B291" s="7">
+        <f>B290+1</f>
+        <v>289</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B292" s="7">
+        <f>B291+1</f>
+        <v>290</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B293" s="7">
+        <f>B292+1</f>
+        <v>291</v>
+      </c>
+      <c r="C293" t="s">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B294" s="7">
+        <f>B293+1</f>
+        <v>292</v>
+      </c>
+      <c r="C294" t="s">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s">
+        <v>11</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B295" s="7">
+        <f>B294+1</f>
+        <v>293</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s">
+        <v>11</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -8074,9 +8449,10 @@
       <sortCondition ref="D2:D273"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J247">
-    <sortCondition ref="A2:A247"/>
-    <sortCondition ref="C2:C247"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J295">
+    <sortCondition ref="A2:A295"/>
+    <sortCondition ref="C2:C295"/>
+    <sortCondition ref="D2:D295"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8086,8 +8462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5BD328-2D41-4BA8-BC57-9BE05B4A8430}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8112,7 +8488,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8168,7 +8544,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8208,7 +8584,7 @@
         <v>93</v>
       </c>
       <c r="C14" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFE9505-FC9A-4DFE-B022-EBF6BC5497D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E284ED81-1820-42CB-A16C-523562662F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="0" windowWidth="8625" windowHeight="10950" xr2:uid="{C5A67862-16EE-4FAC-A9D9-E6841730562A}"/>
+    <workbookView xWindow="6345" yWindow="0" windowWidth="13860" windowHeight="10950" xr2:uid="{C5A67862-16EE-4FAC-A9D9-E6841730562A}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="213">
   <si>
     <t>FECHA</t>
   </si>
@@ -2418,11 +2418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J752"/>
+  <dimension ref="A1:J756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B742" sqref="B742:B752"/>
+      <pane ySplit="1" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B752" sqref="B752:B756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21399,7 +21399,7 @@
         <v>44038</v>
       </c>
       <c r="B752" s="115">
-        <f t="shared" ref="B752" si="13">B751+1</f>
+        <f t="shared" ref="B752:B756" si="13">B751+1</f>
         <v>751</v>
       </c>
       <c r="C752" s="116" t="s">
@@ -21417,6 +21417,106 @@
       </c>
       <c r="J752" s="117" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A753" s="121">
+        <v>44039</v>
+      </c>
+      <c r="B753" s="115">
+        <f t="shared" si="13"/>
+        <v>752</v>
+      </c>
+      <c r="C753" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D753" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E753" s="116"/>
+      <c r="F753" s="116"/>
+      <c r="G753" s="116"/>
+      <c r="H753" s="116"/>
+      <c r="I753" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="J753" s="117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A754" s="121">
+        <v>44039</v>
+      </c>
+      <c r="B754" s="115">
+        <f t="shared" si="13"/>
+        <v>753</v>
+      </c>
+      <c r="C754" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D754" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E754" s="116"/>
+      <c r="F754" s="116"/>
+      <c r="G754" s="116"/>
+      <c r="H754" s="116"/>
+      <c r="I754" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="J754" s="117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A755" s="121">
+        <v>44039</v>
+      </c>
+      <c r="B755" s="115">
+        <f t="shared" si="13"/>
+        <v>754</v>
+      </c>
+      <c r="C755" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D755" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E755" s="116"/>
+      <c r="F755" s="116"/>
+      <c r="G755" s="116"/>
+      <c r="H755" s="116"/>
+      <c r="I755" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="J755" s="117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A756" s="121">
+        <v>44039</v>
+      </c>
+      <c r="B756" s="115">
+        <f t="shared" si="13"/>
+        <v>755</v>
+      </c>
+      <c r="C756" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D756" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E756" s="116"/>
+      <c r="F756" s="116"/>
+      <c r="G756" s="116"/>
+      <c r="H756" s="116"/>
+      <c r="I756" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="J756" s="117" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F350F94-966B-4468-B9C2-7E5867570FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="90" windowWidth="7935" windowHeight="10905" tabRatio="510" xr2:uid="{C5A67862-16EE-4FAC-A9D9-E6841730562A}"/>
+    <workbookView xWindow="11565" yWindow="90" windowWidth="7935" windowHeight="10905" tabRatio="510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -23,12 +22,11 @@
     <sheet name="loc" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$839</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$859</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">dias!$A$1:$H$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">loc!$A$2:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="224">
   <si>
     <t>FECHA</t>
   </si>
@@ -705,11 +703,20 @@
   <si>
     <t>Ceibas</t>
   </si>
+  <si>
+    <t>-32.07146</t>
+  </si>
+  <si>
+    <t>-59.996619</t>
+  </si>
+  <si>
+    <t>Don Cristóbal Primero</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1167,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1688,6 +1695,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1734,7 +1761,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2117,6 +2144,13 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2481,12 +2515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J839"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A816" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A819" sqref="A819"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I866" sqref="I866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2528,7 @@
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="11.42578125" style="4"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="2.140625" customWidth="1"/>
     <col min="9" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -2560,7 +2594,7 @@
         <v>43907</v>
       </c>
       <c r="B3" s="94">
-        <f>B2+1</f>
+        <f t="shared" ref="B3:B66" si="0">B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="99" t="s">
@@ -2585,7 +2619,7 @@
         <v>43910</v>
       </c>
       <c r="B4" s="94">
-        <f>B3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" s="95" t="s">
@@ -2610,7 +2644,7 @@
         <v>43910</v>
       </c>
       <c r="B5" s="94">
-        <f>B4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="95" t="s">
@@ -2635,7 +2669,7 @@
         <v>43915</v>
       </c>
       <c r="B6" s="94">
-        <f>B5+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" s="95" t="s">
@@ -2666,7 +2700,7 @@
         <v>43915</v>
       </c>
       <c r="B7" s="94">
-        <f>B6+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C7" s="95" t="s">
@@ -2691,7 +2725,7 @@
         <v>43916</v>
       </c>
       <c r="B8" s="94">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -2720,7 +2754,7 @@
         <v>43916</v>
       </c>
       <c r="B9" s="94">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C9" s="95" t="s">
@@ -2751,7 +2785,7 @@
         <v>43916</v>
       </c>
       <c r="B10" s="94">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="95" t="s">
@@ -2776,7 +2810,7 @@
         <v>43920</v>
       </c>
       <c r="B11" s="94">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -2807,7 +2841,7 @@
         <v>43920</v>
       </c>
       <c r="B12" s="94">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C12" s="95" t="s">
@@ -2838,7 +2872,7 @@
         <v>43923</v>
       </c>
       <c r="B13" s="94">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C13" s="95" t="s">
@@ -2863,7 +2897,7 @@
         <v>43923</v>
       </c>
       <c r="B14" s="94">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C14" s="95" t="s">
@@ -2888,7 +2922,7 @@
         <v>43924</v>
       </c>
       <c r="B15" s="94">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C15" s="95" t="s">
@@ -2913,7 +2947,7 @@
         <v>43924</v>
       </c>
       <c r="B16" s="94">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C16" s="95" t="s">
@@ -2938,7 +2972,7 @@
         <v>43926</v>
       </c>
       <c r="B17" s="94">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C17" s="95" t="s">
@@ -2963,7 +2997,7 @@
         <v>43929</v>
       </c>
       <c r="B18" s="94">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C18" s="95" t="s">
@@ -2994,7 +3028,7 @@
         <v>43930</v>
       </c>
       <c r="B19" s="94">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C19" s="95" t="s">
@@ -3027,7 +3061,7 @@
         <v>43936</v>
       </c>
       <c r="B20" s="94">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C20" s="95" t="s">
@@ -3052,7 +3086,7 @@
         <v>43948</v>
       </c>
       <c r="B21" s="94">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C21" s="95" t="s">
@@ -3083,7 +3117,7 @@
         <v>43951</v>
       </c>
       <c r="B22" s="94">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C22" s="95" t="s">
@@ -3108,7 +3142,7 @@
         <v>43951</v>
       </c>
       <c r="B23" s="94">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C23" s="95" t="s">
@@ -3133,7 +3167,7 @@
         <v>43953</v>
       </c>
       <c r="B24" s="94">
-        <f>B23+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C24" s="95" t="s">
@@ -3158,7 +3192,7 @@
         <v>43953</v>
       </c>
       <c r="B25" s="94">
-        <f>B24+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C25" s="95" t="s">
@@ -3183,7 +3217,7 @@
         <v>43956</v>
       </c>
       <c r="B26" s="94">
-        <f>B25+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C26" s="95" t="s">
@@ -3214,7 +3248,7 @@
         <v>43956</v>
       </c>
       <c r="B27" s="94">
-        <f>B26+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C27" s="95" t="s">
@@ -3245,7 +3279,7 @@
         <v>43963</v>
       </c>
       <c r="B28" s="94">
-        <f>B27+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C28" s="95" t="s">
@@ -3276,7 +3310,7 @@
         <v>43979</v>
       </c>
       <c r="B29" s="94">
-        <f>B28+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C29" s="95" t="s">
@@ -3301,7 +3335,7 @@
         <v>43981</v>
       </c>
       <c r="B30" s="94">
-        <f>B29+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C30" s="95" t="s">
@@ -3332,7 +3366,7 @@
         <v>43981</v>
       </c>
       <c r="B31" s="94">
-        <f>B30+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C31" s="95" t="s">
@@ -3357,7 +3391,7 @@
         <v>43983</v>
       </c>
       <c r="B32" s="94">
-        <f>B31+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C32" s="95" t="s">
@@ -3382,7 +3416,7 @@
         <v>43983</v>
       </c>
       <c r="B33" s="94">
-        <f>B32+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C33" s="95" t="s">
@@ -3407,7 +3441,7 @@
         <v>43985</v>
       </c>
       <c r="B34" s="94">
-        <f>B33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C34" s="95" t="s">
@@ -3432,7 +3466,7 @@
         <v>43985</v>
       </c>
       <c r="B35" s="94">
-        <f>B34+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C35" s="95" t="s">
@@ -3457,7 +3491,7 @@
         <v>43986</v>
       </c>
       <c r="B36" s="94">
-        <f>B35+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C36" s="95" t="s">
@@ -3482,7 +3516,7 @@
         <v>43986</v>
       </c>
       <c r="B37" s="94">
-        <f>B36+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C37" s="95" t="s">
@@ -3507,7 +3541,7 @@
         <v>43986</v>
       </c>
       <c r="B38" s="94">
-        <f>B37+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -3532,7 +3566,7 @@
         <v>43986</v>
       </c>
       <c r="B39" s="94">
-        <f>B38+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -3557,7 +3591,7 @@
         <v>43987</v>
       </c>
       <c r="B40" s="94">
-        <f>B39+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C40" s="95" t="s">
@@ -3582,7 +3616,7 @@
         <v>43987</v>
       </c>
       <c r="B41" s="94">
-        <f>B40+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C41" s="95" t="s">
@@ -3607,7 +3641,7 @@
         <v>43987</v>
       </c>
       <c r="B42" s="94">
-        <f>B41+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C42" s="95" t="s">
@@ -3632,7 +3666,7 @@
         <v>43987</v>
       </c>
       <c r="B43" s="94">
-        <f>B42+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C43" s="95" t="s">
@@ -3657,7 +3691,7 @@
         <v>43987</v>
       </c>
       <c r="B44" s="94">
-        <f>B43+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C44" s="95" t="s">
@@ -3682,7 +3716,7 @@
         <v>43987</v>
       </c>
       <c r="B45" s="94">
-        <f>B44+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C45" s="95" t="s">
@@ -3707,7 +3741,7 @@
         <v>43987</v>
       </c>
       <c r="B46" s="94">
-        <f>B45+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C46" s="95" t="s">
@@ -3732,7 +3766,7 @@
         <v>43988</v>
       </c>
       <c r="B47" s="94">
-        <f>B46+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C47" s="95" t="s">
@@ -3757,7 +3791,7 @@
         <v>43988</v>
       </c>
       <c r="B48" s="94">
-        <f>B47+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C48" s="95" t="s">
@@ -3782,7 +3816,7 @@
         <v>43988</v>
       </c>
       <c r="B49" s="94">
-        <f>B48+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C49" s="95" t="s">
@@ -3807,7 +3841,7 @@
         <v>43988</v>
       </c>
       <c r="B50" s="94">
-        <f>B49+1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C50" s="95" t="s">
@@ -3832,7 +3866,7 @@
         <v>43988</v>
       </c>
       <c r="B51" s="94">
-        <f>B50+1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C51" s="95" t="s">
@@ -3857,7 +3891,7 @@
         <v>43989</v>
       </c>
       <c r="B52" s="94">
-        <f>B51+1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C52" s="95" t="s">
@@ -3882,7 +3916,7 @@
         <v>43989</v>
       </c>
       <c r="B53" s="94">
-        <f>B52+1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C53" s="95" t="s">
@@ -3907,7 +3941,7 @@
         <v>43990</v>
       </c>
       <c r="B54" s="94">
-        <f>B53+1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C54" s="95" t="s">
@@ -3932,7 +3966,7 @@
         <v>43990</v>
       </c>
       <c r="B55" s="94">
-        <f>B54+1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C55" s="95" t="s">
@@ -3957,7 +3991,7 @@
         <v>43991</v>
       </c>
       <c r="B56" s="94">
-        <f>B55+1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C56" s="95" t="s">
@@ -3982,7 +4016,7 @@
         <v>43991</v>
       </c>
       <c r="B57" s="94">
-        <f>B56+1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C57" s="95" t="s">
@@ -4007,7 +4041,7 @@
         <v>43991</v>
       </c>
       <c r="B58" s="94">
-        <f>B57+1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C58" s="95" t="s">
@@ -4032,7 +4066,7 @@
         <v>43992</v>
       </c>
       <c r="B59" s="94">
-        <f>B58+1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C59" s="95" t="s">
@@ -4057,7 +4091,7 @@
         <v>43992</v>
       </c>
       <c r="B60" s="94">
-        <f>B59+1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C60" s="95" t="s">
@@ -4082,7 +4116,7 @@
         <v>43992</v>
       </c>
       <c r="B61" s="94">
-        <f>B60+1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C61" s="95" t="s">
@@ -4107,7 +4141,7 @@
         <v>43992</v>
       </c>
       <c r="B62" s="94">
-        <f>B61+1</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C62" s="95" t="s">
@@ -4132,7 +4166,7 @@
         <v>43992</v>
       </c>
       <c r="B63" s="94">
-        <f>B62+1</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C63" s="95" t="s">
@@ -4157,7 +4191,7 @@
         <v>43992</v>
       </c>
       <c r="B64" s="94">
-        <f>B63+1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C64" s="95" t="s">
@@ -4182,7 +4216,7 @@
         <v>43993</v>
       </c>
       <c r="B65" s="94">
-        <f>B64+1</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C65" s="95" t="s">
@@ -4207,7 +4241,7 @@
         <v>43993</v>
       </c>
       <c r="B66" s="94">
-        <f>B65+1</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C66" s="95" t="s">
@@ -4232,7 +4266,7 @@
         <v>43993</v>
       </c>
       <c r="B67" s="94">
-        <f>B66+1</f>
+        <f t="shared" ref="B67:B130" si="1">B66+1</f>
         <v>66</v>
       </c>
       <c r="C67" s="95" t="s">
@@ -4257,7 +4291,7 @@
         <v>43993</v>
       </c>
       <c r="B68" s="94">
-        <f>B67+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C68" s="95" t="s">
@@ -4282,7 +4316,7 @@
         <v>43993</v>
       </c>
       <c r="B69" s="94">
-        <f>B68+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C69" s="95" t="s">
@@ -4307,7 +4341,7 @@
         <v>43993</v>
       </c>
       <c r="B70" s="94">
-        <f>B69+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C70" s="95" t="s">
@@ -4332,7 +4366,7 @@
         <v>43993</v>
       </c>
       <c r="B71" s="94">
-        <f>B70+1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C71" s="95" t="s">
@@ -4357,7 +4391,7 @@
         <v>43993</v>
       </c>
       <c r="B72" s="94">
-        <f>B71+1</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C72" s="95" t="s">
@@ -4382,7 +4416,7 @@
         <v>43994</v>
       </c>
       <c r="B73" s="94">
-        <f>B72+1</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C73" s="95" t="s">
@@ -4407,7 +4441,7 @@
         <v>43994</v>
       </c>
       <c r="B74" s="94">
-        <f>B73+1</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C74" s="95" t="s">
@@ -4432,7 +4466,7 @@
         <v>43994</v>
       </c>
       <c r="B75" s="94">
-        <f>B74+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C75" s="95" t="s">
@@ -4457,7 +4491,7 @@
         <v>43995</v>
       </c>
       <c r="B76" s="94">
-        <f>B75+1</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C76" s="95" t="s">
@@ -4482,7 +4516,7 @@
         <v>43995</v>
       </c>
       <c r="B77" s="94">
-        <f>B76+1</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C77" s="95" t="s">
@@ -4507,7 +4541,7 @@
         <v>43995</v>
       </c>
       <c r="B78" s="94">
-        <f>B77+1</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C78" s="95" t="s">
@@ -4532,7 +4566,7 @@
         <v>43995</v>
       </c>
       <c r="B79" s="94">
-        <f>B78+1</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C79" s="95" t="s">
@@ -4557,7 +4591,7 @@
         <v>43995</v>
       </c>
       <c r="B80" s="94">
-        <f>B79+1</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C80" s="95" t="s">
@@ -4582,7 +4616,7 @@
         <v>43995</v>
       </c>
       <c r="B81" s="94">
-        <f>B80+1</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C81" s="95" t="s">
@@ -4607,7 +4641,7 @@
         <v>43995</v>
       </c>
       <c r="B82" s="94">
-        <f>B81+1</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C82" s="95" t="s">
@@ -4632,7 +4666,7 @@
         <v>43995</v>
       </c>
       <c r="B83" s="94">
-        <f>B82+1</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C83" s="95" t="s">
@@ -4657,7 +4691,7 @@
         <v>43995</v>
       </c>
       <c r="B84" s="94">
-        <f>B83+1</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C84" s="95" t="s">
@@ -4682,7 +4716,7 @@
         <v>43995</v>
       </c>
       <c r="B85" s="94">
-        <f>B84+1</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C85" s="95" t="s">
@@ -4707,7 +4741,7 @@
         <v>43995</v>
       </c>
       <c r="B86" s="94">
-        <f>B85+1</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C86" s="95" t="s">
@@ -4732,7 +4766,7 @@
         <v>43995</v>
       </c>
       <c r="B87" s="94">
-        <f>B86+1</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C87" s="95" t="s">
@@ -4757,7 +4791,7 @@
         <v>43995</v>
       </c>
       <c r="B88" s="94">
-        <f>B87+1</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="C88" s="95" t="s">
@@ -4782,7 +4816,7 @@
         <v>43995</v>
       </c>
       <c r="B89" s="94">
-        <f>B88+1</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="C89" s="95" t="s">
@@ -4807,7 +4841,7 @@
         <v>43995</v>
       </c>
       <c r="B90" s="94">
-        <f>B89+1</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C90" s="95" t="s">
@@ -4832,7 +4866,7 @@
         <v>43995</v>
       </c>
       <c r="B91" s="94">
-        <f>B90+1</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C91" s="95" t="s">
@@ -4857,7 +4891,7 @@
         <v>43995</v>
       </c>
       <c r="B92" s="94">
-        <f>B91+1</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C92" s="95" t="s">
@@ -4882,7 +4916,7 @@
         <v>43995</v>
       </c>
       <c r="B93" s="94">
-        <f>B92+1</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C93" s="95" t="s">
@@ -4907,7 +4941,7 @@
         <v>43996</v>
       </c>
       <c r="B94" s="94">
-        <f>B93+1</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C94" s="95" t="s">
@@ -4932,7 +4966,7 @@
         <v>43998</v>
       </c>
       <c r="B95" s="94">
-        <f>B94+1</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C95" s="95" t="s">
@@ -4957,7 +4991,7 @@
         <v>43998</v>
       </c>
       <c r="B96" s="94">
-        <f>B95+1</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C96" s="95" t="s">
@@ -4982,7 +5016,7 @@
         <v>43998</v>
       </c>
       <c r="B97" s="94">
-        <f>B96+1</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C97" s="95" t="s">
@@ -5007,7 +5041,7 @@
         <v>43998</v>
       </c>
       <c r="B98" s="94">
-        <f>B97+1</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C98" s="95" t="s">
@@ -5032,7 +5066,7 @@
         <v>43998</v>
       </c>
       <c r="B99" s="94">
-        <f>B98+1</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C99" s="95" t="s">
@@ -5057,7 +5091,7 @@
         <v>43998</v>
       </c>
       <c r="B100" s="94">
-        <f>B99+1</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C100" s="95" t="s">
@@ -5082,7 +5116,7 @@
         <v>43998</v>
       </c>
       <c r="B101" s="94">
-        <f>B100+1</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C101" s="95" t="s">
@@ -5107,7 +5141,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="94">
-        <f>B101+1</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="C102" s="95" t="s">
@@ -5132,7 +5166,7 @@
         <v>43998</v>
       </c>
       <c r="B103" s="94">
-        <f>B102+1</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="C103" s="95" t="s">
@@ -5157,7 +5191,7 @@
         <v>43998</v>
       </c>
       <c r="B104" s="94">
-        <f>B103+1</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="C104" s="95" t="s">
@@ -5182,7 +5216,7 @@
         <v>43998</v>
       </c>
       <c r="B105" s="94">
-        <f>B104+1</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="C105" s="95" t="s">
@@ -5207,7 +5241,7 @@
         <v>43998</v>
       </c>
       <c r="B106" s="94">
-        <f>B105+1</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="C106" s="95" t="s">
@@ -5232,7 +5266,7 @@
         <v>43998</v>
       </c>
       <c r="B107" s="94">
-        <f>B106+1</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="C107" s="95" t="s">
@@ -5257,7 +5291,7 @@
         <v>43998</v>
       </c>
       <c r="B108" s="94">
-        <f>B107+1</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="C108" s="95" t="s">
@@ -5282,7 +5316,7 @@
         <v>43999</v>
       </c>
       <c r="B109" s="94">
-        <f>B108+1</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="C109" s="95" t="s">
@@ -5307,7 +5341,7 @@
         <v>43999</v>
       </c>
       <c r="B110" s="94">
-        <f>B109+1</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="C110" s="95" t="s">
@@ -5332,7 +5366,7 @@
         <v>43999</v>
       </c>
       <c r="B111" s="94">
-        <f>B110+1</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="C111" s="95" t="s">
@@ -5357,7 +5391,7 @@
         <v>43999</v>
       </c>
       <c r="B112" s="94">
-        <f>B111+1</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="C112" s="95" t="s">
@@ -5382,7 +5416,7 @@
         <v>43999</v>
       </c>
       <c r="B113" s="94">
-        <f>B112+1</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="C113" s="95" t="s">
@@ -5407,7 +5441,7 @@
         <v>44000</v>
       </c>
       <c r="B114" s="94">
-        <f>B113+1</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="C114" s="95" t="s">
@@ -5432,7 +5466,7 @@
         <v>44000</v>
       </c>
       <c r="B115" s="94">
-        <f>B114+1</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="C115" s="95" t="s">
@@ -5457,7 +5491,7 @@
         <v>44001</v>
       </c>
       <c r="B116" s="94">
-        <f>B115+1</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="C116" s="95" t="s">
@@ -5482,7 +5516,7 @@
         <v>44001</v>
       </c>
       <c r="B117" s="94">
-        <f>B116+1</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="C117" s="95" t="s">
@@ -5507,7 +5541,7 @@
         <v>44001</v>
       </c>
       <c r="B118" s="94">
-        <f>B117+1</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="C118" s="95" t="s">
@@ -5532,7 +5566,7 @@
         <v>44002</v>
       </c>
       <c r="B119" s="94">
-        <f>B118+1</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="C119" s="95" t="s">
@@ -5557,7 +5591,7 @@
         <v>44002</v>
       </c>
       <c r="B120" s="94">
-        <f>B119+1</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="C120" s="95" t="s">
@@ -5582,7 +5616,7 @@
         <v>44002</v>
       </c>
       <c r="B121" s="94">
-        <f>B120+1</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="C121" s="95" t="s">
@@ -5607,7 +5641,7 @@
         <v>44002</v>
       </c>
       <c r="B122" s="94">
-        <f>B121+1</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="C122" s="95" t="s">
@@ -5632,7 +5666,7 @@
         <v>44002</v>
       </c>
       <c r="B123" s="94">
-        <f>B122+1</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="C123" s="95" t="s">
@@ -5657,7 +5691,7 @@
         <v>44002</v>
       </c>
       <c r="B124" s="94">
-        <f>B123+1</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="C124" s="95" t="s">
@@ -5682,7 +5716,7 @@
         <v>44002</v>
       </c>
       <c r="B125" s="94">
-        <f>B124+1</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="C125" s="95" t="s">
@@ -5707,7 +5741,7 @@
         <v>44002</v>
       </c>
       <c r="B126" s="94">
-        <f>B125+1</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="C126" s="95" t="s">
@@ -5732,7 +5766,7 @@
         <v>44002</v>
       </c>
       <c r="B127" s="94">
-        <f>B126+1</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="C127" s="95" t="s">
@@ -5757,7 +5791,7 @@
         <v>44002</v>
       </c>
       <c r="B128" s="94">
-        <f>B127+1</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="C128" s="95" t="s">
@@ -5782,7 +5816,7 @@
         <v>44002</v>
       </c>
       <c r="B129" s="94">
-        <f>B128+1</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="C129" s="95" t="s">
@@ -5807,7 +5841,7 @@
         <v>44002</v>
       </c>
       <c r="B130" s="94">
-        <f>B129+1</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="C130" s="95" t="s">
@@ -5832,7 +5866,7 @@
         <v>44002</v>
       </c>
       <c r="B131" s="94">
-        <f>B130+1</f>
+        <f t="shared" ref="B131:B194" si="2">B130+1</f>
         <v>130</v>
       </c>
       <c r="C131" s="95" t="s">
@@ -5857,7 +5891,7 @@
         <v>44002</v>
       </c>
       <c r="B132" s="94">
-        <f>B131+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="C132" s="95" t="s">
@@ -5882,7 +5916,7 @@
         <v>44002</v>
       </c>
       <c r="B133" s="94">
-        <f>B132+1</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="C133" s="95" t="s">
@@ -5907,7 +5941,7 @@
         <v>44002</v>
       </c>
       <c r="B134" s="94">
-        <f>B133+1</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="C134" s="95" t="s">
@@ -5932,7 +5966,7 @@
         <v>44002</v>
       </c>
       <c r="B135" s="94">
-        <f>B134+1</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="C135" s="95" t="s">
@@ -5957,7 +5991,7 @@
         <v>44002</v>
       </c>
       <c r="B136" s="94">
-        <f>B135+1</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="C136" s="95" t="s">
@@ -5982,7 +6016,7 @@
         <v>44003</v>
       </c>
       <c r="B137" s="94">
-        <f>B136+1</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="C137" s="95" t="s">
@@ -6007,7 +6041,7 @@
         <v>44003</v>
       </c>
       <c r="B138" s="94">
-        <f>B137+1</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="C138" s="95" t="s">
@@ -6032,7 +6066,7 @@
         <v>44003</v>
       </c>
       <c r="B139" s="94">
-        <f>B138+1</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="C139" s="95" t="s">
@@ -6057,7 +6091,7 @@
         <v>44003</v>
       </c>
       <c r="B140" s="94">
-        <f>B139+1</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="C140" s="95" t="s">
@@ -6082,7 +6116,7 @@
         <v>44003</v>
       </c>
       <c r="B141" s="94">
-        <f>B140+1</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="C141" s="95" t="s">
@@ -6107,7 +6141,7 @@
         <v>44003</v>
       </c>
       <c r="B142" s="94">
-        <f>B141+1</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="C142" s="95" t="s">
@@ -6132,7 +6166,7 @@
         <v>44003</v>
       </c>
       <c r="B143" s="94">
-        <f>B142+1</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="C143" s="95" t="s">
@@ -6157,7 +6191,7 @@
         <v>44003</v>
       </c>
       <c r="B144" s="94">
-        <f>B143+1</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="C144" s="95" t="s">
@@ -6182,7 +6216,7 @@
         <v>44003</v>
       </c>
       <c r="B145" s="94">
-        <f>B144+1</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="C145" s="95" t="s">
@@ -6207,7 +6241,7 @@
         <v>44003</v>
       </c>
       <c r="B146" s="94">
-        <f>B145+1</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="C146" s="95" t="s">
@@ -6232,7 +6266,7 @@
         <v>44004</v>
       </c>
       <c r="B147" s="94">
-        <f>B146+1</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="C147" s="95" t="s">
@@ -6257,7 +6291,7 @@
         <v>44004</v>
       </c>
       <c r="B148" s="94">
-        <f>B147+1</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="C148" s="95" t="s">
@@ -6282,7 +6316,7 @@
         <v>44004</v>
       </c>
       <c r="B149" s="94">
-        <f>B148+1</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="C149" s="95" t="s">
@@ -6307,7 +6341,7 @@
         <v>44004</v>
       </c>
       <c r="B150" s="94">
-        <f>B149+1</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="C150" s="95" t="s">
@@ -6332,7 +6366,7 @@
         <v>44004</v>
       </c>
       <c r="B151" s="94">
-        <f>B150+1</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="C151" s="95" t="s">
@@ -6357,7 +6391,7 @@
         <v>44004</v>
       </c>
       <c r="B152" s="94">
-        <f>B151+1</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="C152" s="95" t="s">
@@ -6382,7 +6416,7 @@
         <v>44004</v>
       </c>
       <c r="B153" s="94">
-        <f>B152+1</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="C153" s="95" t="s">
@@ -6407,7 +6441,7 @@
         <v>44004</v>
       </c>
       <c r="B154" s="94">
-        <f>B153+1</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="C154" s="95" t="s">
@@ -6432,7 +6466,7 @@
         <v>44004</v>
       </c>
       <c r="B155" s="94">
-        <f>B154+1</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="C155" s="95" t="s">
@@ -6457,7 +6491,7 @@
         <v>44004</v>
       </c>
       <c r="B156" s="94">
-        <f>B155+1</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="C156" s="95" t="s">
@@ -6482,7 +6516,7 @@
         <v>44004</v>
       </c>
       <c r="B157" s="94">
-        <f>B156+1</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="C157" s="95" t="s">
@@ -6507,7 +6541,7 @@
         <v>44004</v>
       </c>
       <c r="B158" s="94">
-        <f>B157+1</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="C158" s="95" t="s">
@@ -6532,7 +6566,7 @@
         <v>44004</v>
       </c>
       <c r="B159" s="94">
-        <f>B158+1</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="C159" s="95" t="s">
@@ -6557,7 +6591,7 @@
         <v>44004</v>
       </c>
       <c r="B160" s="94">
-        <f>B159+1</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="C160" s="95" t="s">
@@ -6582,7 +6616,7 @@
         <v>44004</v>
       </c>
       <c r="B161" s="94">
-        <f>B160+1</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="C161" s="95" t="s">
@@ -6607,7 +6641,7 @@
         <v>44004</v>
       </c>
       <c r="B162" s="94">
-        <f>B161+1</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="C162" s="95" t="s">
@@ -6632,7 +6666,7 @@
         <v>44005</v>
       </c>
       <c r="B163" s="94">
-        <f>B162+1</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="C163" s="95" t="s">
@@ -6657,7 +6691,7 @@
         <v>44005</v>
       </c>
       <c r="B164" s="94">
-        <f>B163+1</f>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="C164" s="95" t="s">
@@ -6682,7 +6716,7 @@
         <v>44005</v>
       </c>
       <c r="B165" s="94">
-        <f>B164+1</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="C165" s="95" t="s">
@@ -6707,7 +6741,7 @@
         <v>44005</v>
       </c>
       <c r="B166" s="94">
-        <f>B165+1</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="C166" s="95" t="s">
@@ -6732,7 +6766,7 @@
         <v>44005</v>
       </c>
       <c r="B167" s="94">
-        <f>B166+1</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="C167" s="95" t="s">
@@ -6757,7 +6791,7 @@
         <v>44005</v>
       </c>
       <c r="B168" s="94">
-        <f>B167+1</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="C168" s="95" t="s">
@@ -6782,7 +6816,7 @@
         <v>44005</v>
       </c>
       <c r="B169" s="94">
-        <f>B168+1</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="C169" s="95" t="s">
@@ -6807,7 +6841,7 @@
         <v>44005</v>
       </c>
       <c r="B170" s="94">
-        <f>B169+1</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="C170" s="95" t="s">
@@ -6832,7 +6866,7 @@
         <v>44005</v>
       </c>
       <c r="B171" s="94">
-        <f>B170+1</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="C171" s="95" t="s">
@@ -6857,7 +6891,7 @@
         <v>44005</v>
       </c>
       <c r="B172" s="94">
-        <f>B171+1</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="C172" s="95" t="s">
@@ -6882,7 +6916,7 @@
         <v>44005</v>
       </c>
       <c r="B173" s="94">
-        <f>B172+1</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="C173" s="95" t="s">
@@ -6907,7 +6941,7 @@
         <v>44005</v>
       </c>
       <c r="B174" s="94">
-        <f>B173+1</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="C174" s="95" t="s">
@@ -6932,7 +6966,7 @@
         <v>44005</v>
       </c>
       <c r="B175" s="94">
-        <f>B174+1</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="C175" s="95" t="s">
@@ -6957,7 +6991,7 @@
         <v>44005</v>
       </c>
       <c r="B176" s="94">
-        <f>B175+1</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="C176" s="95" t="s">
@@ -6982,7 +7016,7 @@
         <v>44005</v>
       </c>
       <c r="B177" s="94">
-        <f>B176+1</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="C177" s="95" t="s">
@@ -7007,7 +7041,7 @@
         <v>44005</v>
       </c>
       <c r="B178" s="94">
-        <f>B177+1</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="C178" s="95" t="s">
@@ -7032,7 +7066,7 @@
         <v>44005</v>
       </c>
       <c r="B179" s="94">
-        <f>B178+1</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="C179" s="95" t="s">
@@ -7057,7 +7091,7 @@
         <v>44005</v>
       </c>
       <c r="B180" s="94">
-        <f>B179+1</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="C180" s="95" t="s">
@@ -7082,7 +7116,7 @@
         <v>44006</v>
       </c>
       <c r="B181" s="94">
-        <f>B180+1</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="C181" s="95" t="s">
@@ -7107,7 +7141,7 @@
         <v>44006</v>
       </c>
       <c r="B182" s="94">
-        <f>B181+1</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="C182" s="95" t="s">
@@ -7132,7 +7166,7 @@
         <v>44006</v>
       </c>
       <c r="B183" s="94">
-        <f>B182+1</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="C183" s="95" t="s">
@@ -7157,7 +7191,7 @@
         <v>44006</v>
       </c>
       <c r="B184" s="94">
-        <f>B183+1</f>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="C184" s="95" t="s">
@@ -7182,7 +7216,7 @@
         <v>44006</v>
       </c>
       <c r="B185" s="94">
-        <f>B184+1</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="C185" s="95" t="s">
@@ -7207,7 +7241,7 @@
         <v>44006</v>
       </c>
       <c r="B186" s="94">
-        <f>B185+1</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="C186" s="95" t="s">
@@ -7232,7 +7266,7 @@
         <v>44006</v>
       </c>
       <c r="B187" s="94">
-        <f>B186+1</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="C187" s="95" t="s">
@@ -7257,7 +7291,7 @@
         <v>44006</v>
       </c>
       <c r="B188" s="94">
-        <f>B187+1</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="C188" s="95" t="s">
@@ -7282,7 +7316,7 @@
         <v>44006</v>
       </c>
       <c r="B189" s="94">
-        <f>B188+1</f>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="C189" s="95" t="s">
@@ -7307,7 +7341,7 @@
         <v>44006</v>
       </c>
       <c r="B190" s="94">
-        <f>B189+1</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="C190" s="95" t="s">
@@ -7332,7 +7366,7 @@
         <v>44006</v>
       </c>
       <c r="B191" s="94">
-        <f>B190+1</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="C191" s="95" t="s">
@@ -7357,7 +7391,7 @@
         <v>44006</v>
       </c>
       <c r="B192" s="94">
-        <f>B191+1</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="C192" s="95" t="s">
@@ -7382,7 +7416,7 @@
         <v>44006</v>
       </c>
       <c r="B193" s="94">
-        <f>B192+1</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="C193" s="95" t="s">
@@ -7407,7 +7441,7 @@
         <v>44006</v>
       </c>
       <c r="B194" s="94">
-        <f>B193+1</f>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="C194" s="95" t="s">
@@ -7432,7 +7466,7 @@
         <v>44006</v>
       </c>
       <c r="B195" s="94">
-        <f>B194+1</f>
+        <f t="shared" ref="B195:B258" si="3">B194+1</f>
         <v>194</v>
       </c>
       <c r="C195" s="95" t="s">
@@ -7457,7 +7491,7 @@
         <v>44006</v>
       </c>
       <c r="B196" s="94">
-        <f>B195+1</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="C196" s="95" t="s">
@@ -7482,7 +7516,7 @@
         <v>44006</v>
       </c>
       <c r="B197" s="94">
-        <f>B196+1</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="C197" s="95" t="s">
@@ -7507,7 +7541,7 @@
         <v>44006</v>
       </c>
       <c r="B198" s="94">
-        <f>B197+1</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="C198" s="95" t="s">
@@ -7532,7 +7566,7 @@
         <v>44006</v>
       </c>
       <c r="B199" s="94">
-        <f>B198+1</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="C199" s="95" t="s">
@@ -7557,7 +7591,7 @@
         <v>44006</v>
       </c>
       <c r="B200" s="94">
-        <f>B199+1</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="C200" s="95" t="s">
@@ -7582,7 +7616,7 @@
         <v>44007</v>
       </c>
       <c r="B201" s="94">
-        <f>B200+1</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="C201" s="95" t="s">
@@ -7607,7 +7641,7 @@
         <v>44007</v>
       </c>
       <c r="B202" s="94">
-        <f>B201+1</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="C202" s="95" t="s">
@@ -7632,7 +7666,7 @@
         <v>44007</v>
       </c>
       <c r="B203" s="94">
-        <f>B202+1</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="C203" s="95" t="s">
@@ -7657,7 +7691,7 @@
         <v>44007</v>
       </c>
       <c r="B204" s="94">
-        <f>B203+1</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="C204" s="95" t="s">
@@ -7682,7 +7716,7 @@
         <v>44007</v>
       </c>
       <c r="B205" s="94">
-        <f>B204+1</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="C205" s="95" t="s">
@@ -7707,7 +7741,7 @@
         <v>44007</v>
       </c>
       <c r="B206" s="94">
-        <f>B205+1</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="C206" s="95" t="s">
@@ -7732,7 +7766,7 @@
         <v>44007</v>
       </c>
       <c r="B207" s="94">
-        <f>B206+1</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="C207" s="95" t="s">
@@ -7757,7 +7791,7 @@
         <v>44007</v>
       </c>
       <c r="B208" s="94">
-        <f>B207+1</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="C208" s="95" t="s">
@@ -7782,7 +7816,7 @@
         <v>44007</v>
       </c>
       <c r="B209" s="94">
-        <f>B208+1</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="C209" s="95" t="s">
@@ -7807,7 +7841,7 @@
         <v>44007</v>
       </c>
       <c r="B210" s="94">
-        <f>B209+1</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="C210" s="95" t="s">
@@ -7832,7 +7866,7 @@
         <v>44007</v>
       </c>
       <c r="B211" s="94">
-        <f>B210+1</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="C211" s="95" t="s">
@@ -7857,7 +7891,7 @@
         <v>44007</v>
       </c>
       <c r="B212" s="94">
-        <f>B211+1</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="C212" s="95" t="s">
@@ -7882,7 +7916,7 @@
         <v>44007</v>
       </c>
       <c r="B213" s="94">
-        <f>B212+1</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="C213" s="95" t="s">
@@ -7907,7 +7941,7 @@
         <v>44007</v>
       </c>
       <c r="B214" s="94">
-        <f>B213+1</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="C214" s="95" t="s">
@@ -7932,7 +7966,7 @@
         <v>44007</v>
       </c>
       <c r="B215" s="94">
-        <f>B214+1</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="C215" s="95" t="s">
@@ -7957,7 +7991,7 @@
         <v>44007</v>
       </c>
       <c r="B216" s="94">
-        <f>B215+1</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="C216" s="95" t="s">
@@ -7982,7 +8016,7 @@
         <v>44007</v>
       </c>
       <c r="B217" s="94">
-        <f>B216+1</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="C217" s="95" t="s">
@@ -8007,7 +8041,7 @@
         <v>44008</v>
       </c>
       <c r="B218" s="94">
-        <f>B217+1</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="C218" s="95" t="s">
@@ -8032,7 +8066,7 @@
         <v>44008</v>
       </c>
       <c r="B219" s="94">
-        <f>B218+1</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="C219" s="95" t="s">
@@ -8057,7 +8091,7 @@
         <v>44008</v>
       </c>
       <c r="B220" s="94">
-        <f>B219+1</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="C220" s="95" t="s">
@@ -8082,7 +8116,7 @@
         <v>44008</v>
       </c>
       <c r="B221" s="94">
-        <f>B220+1</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="C221" s="95" t="s">
@@ -8107,7 +8141,7 @@
         <v>44008</v>
       </c>
       <c r="B222" s="94">
-        <f>B221+1</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="C222" s="95" t="s">
@@ -8132,7 +8166,7 @@
         <v>44008</v>
       </c>
       <c r="B223" s="94">
-        <f>B222+1</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="C223" s="95" t="s">
@@ -8157,7 +8191,7 @@
         <v>44008</v>
       </c>
       <c r="B224" s="94">
-        <f>B223+1</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="C224" s="95" t="s">
@@ -8182,7 +8216,7 @@
         <v>44008</v>
       </c>
       <c r="B225" s="94">
-        <f>B224+1</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="C225" s="95" t="s">
@@ -8207,7 +8241,7 @@
         <v>44008</v>
       </c>
       <c r="B226" s="94">
-        <f>B225+1</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="C226" s="95" t="s">
@@ -8232,7 +8266,7 @@
         <v>44008</v>
       </c>
       <c r="B227" s="94">
-        <f>B226+1</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="C227" s="95" t="s">
@@ -8257,7 +8291,7 @@
         <v>44008</v>
       </c>
       <c r="B228" s="94">
-        <f>B227+1</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="C228" s="95" t="s">
@@ -8282,7 +8316,7 @@
         <v>44008</v>
       </c>
       <c r="B229" s="94">
-        <f>B228+1</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="C229" s="95" t="s">
@@ -8307,7 +8341,7 @@
         <v>44008</v>
       </c>
       <c r="B230" s="94">
-        <f>B229+1</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="C230" s="95" t="s">
@@ -8332,7 +8366,7 @@
         <v>44008</v>
       </c>
       <c r="B231" s="94">
-        <f>B230+1</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="C231" s="95" t="s">
@@ -8357,7 +8391,7 @@
         <v>44008</v>
       </c>
       <c r="B232" s="94">
-        <f>B231+1</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="C232" s="95" t="s">
@@ -8382,7 +8416,7 @@
         <v>44008</v>
       </c>
       <c r="B233" s="94">
-        <f>B232+1</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="C233" s="95" t="s">
@@ -8407,7 +8441,7 @@
         <v>44008</v>
       </c>
       <c r="B234" s="94">
-        <f>B233+1</f>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="C234" s="95" t="s">
@@ -8432,7 +8466,7 @@
         <v>44008</v>
       </c>
       <c r="B235" s="94">
-        <f>B234+1</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="C235" s="95" t="s">
@@ -8457,7 +8491,7 @@
         <v>44008</v>
       </c>
       <c r="B236" s="94">
-        <f>B235+1</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="C236" s="95" t="s">
@@ -8482,7 +8516,7 @@
         <v>44008</v>
       </c>
       <c r="B237" s="94">
-        <f>B236+1</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="C237" s="95" t="s">
@@ -8507,7 +8541,7 @@
         <v>44009</v>
       </c>
       <c r="B238" s="94">
-        <f>B237+1</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="C238" s="95" t="s">
@@ -8532,7 +8566,7 @@
         <v>44009</v>
       </c>
       <c r="B239" s="94">
-        <f>B238+1</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="C239" s="95" t="s">
@@ -8557,7 +8591,7 @@
         <v>44009</v>
       </c>
       <c r="B240" s="94">
-        <f>B239+1</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="C240" s="95" t="s">
@@ -8582,7 +8616,7 @@
         <v>44009</v>
       </c>
       <c r="B241" s="94">
-        <f>B240+1</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="C241" s="95" t="s">
@@ -8607,7 +8641,7 @@
         <v>44009</v>
       </c>
       <c r="B242" s="94">
-        <f>B241+1</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="C242" s="95" t="s">
@@ -8632,7 +8666,7 @@
         <v>44009</v>
       </c>
       <c r="B243" s="94">
-        <f>B242+1</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="C243" s="95" t="s">
@@ -8657,7 +8691,7 @@
         <v>44009</v>
       </c>
       <c r="B244" s="94">
-        <f>B243+1</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="C244" s="95" t="s">
@@ -8682,7 +8716,7 @@
         <v>44009</v>
       </c>
       <c r="B245" s="94">
-        <f>B244+1</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="C245" s="95" t="s">
@@ -8707,7 +8741,7 @@
         <v>44009</v>
       </c>
       <c r="B246" s="94">
-        <f>B245+1</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="C246" s="95" t="s">
@@ -8732,7 +8766,7 @@
         <v>44009</v>
       </c>
       <c r="B247" s="94">
-        <f>B246+1</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="C247" s="95" t="s">
@@ -8757,7 +8791,7 @@
         <v>44010</v>
       </c>
       <c r="B248" s="94">
-        <f>B247+1</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="C248" s="95" t="s">
@@ -8782,7 +8816,7 @@
         <v>44010</v>
       </c>
       <c r="B249" s="94">
-        <f>B248+1</f>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="C249" s="95" t="s">
@@ -8807,7 +8841,7 @@
         <v>44010</v>
       </c>
       <c r="B250" s="94">
-        <f>B249+1</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="C250" s="95" t="s">
@@ -8832,7 +8866,7 @@
         <v>44010</v>
       </c>
       <c r="B251" s="94">
-        <f>B250+1</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="C251" s="95" t="s">
@@ -8857,7 +8891,7 @@
         <v>44010</v>
       </c>
       <c r="B252" s="94">
-        <f>B251+1</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="C252" s="95" t="s">
@@ -8882,7 +8916,7 @@
         <v>44010</v>
       </c>
       <c r="B253" s="94">
-        <f>B252+1</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="C253" s="95" t="s">
@@ -8907,7 +8941,7 @@
         <v>44010</v>
       </c>
       <c r="B254" s="94">
-        <f>B253+1</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="C254" s="95" t="s">
@@ -8932,7 +8966,7 @@
         <v>44010</v>
       </c>
       <c r="B255" s="94">
-        <f>B254+1</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="C255" s="95" t="s">
@@ -8957,7 +8991,7 @@
         <v>44010</v>
       </c>
       <c r="B256" s="94">
-        <f>B255+1</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="C256" s="95" t="s">
@@ -8982,7 +9016,7 @@
         <v>44010</v>
       </c>
       <c r="B257" s="94">
-        <f>B256+1</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="C257" s="95" t="s">
@@ -9007,7 +9041,7 @@
         <v>44010</v>
       </c>
       <c r="B258" s="94">
-        <f>B257+1</f>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="C258" s="95" t="s">
@@ -9032,7 +9066,7 @@
         <v>44010</v>
       </c>
       <c r="B259" s="94">
-        <f>B258+1</f>
+        <f t="shared" ref="B259:B322" si="4">B258+1</f>
         <v>258</v>
       </c>
       <c r="C259" s="95" t="s">
@@ -9057,7 +9091,7 @@
         <v>44010</v>
       </c>
       <c r="B260" s="94">
-        <f>B259+1</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="C260" s="95" t="s">
@@ -9082,7 +9116,7 @@
         <v>44010</v>
       </c>
       <c r="B261" s="94">
-        <f>B260+1</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="C261" s="95" t="s">
@@ -9107,7 +9141,7 @@
         <v>44010</v>
       </c>
       <c r="B262" s="94">
-        <f>B261+1</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="C262" s="95" t="s">
@@ -9132,7 +9166,7 @@
         <v>44010</v>
       </c>
       <c r="B263" s="94">
-        <f>B262+1</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="C263" s="95" t="s">
@@ -9157,7 +9191,7 @@
         <v>44010</v>
       </c>
       <c r="B264" s="94">
-        <f>B263+1</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="C264" s="95" t="s">
@@ -9182,7 +9216,7 @@
         <v>44010</v>
       </c>
       <c r="B265" s="94">
-        <f>B264+1</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="C265" s="95" t="s">
@@ -9207,7 +9241,7 @@
         <v>44010</v>
       </c>
       <c r="B266" s="94">
-        <f>B265+1</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="C266" s="95" t="s">
@@ -9232,7 +9266,7 @@
         <v>44010</v>
       </c>
       <c r="B267" s="94">
-        <f>B266+1</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="C267" s="95" t="s">
@@ -9257,7 +9291,7 @@
         <v>44010</v>
       </c>
       <c r="B268" s="94">
-        <f>B267+1</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="C268" s="95" t="s">
@@ -9282,7 +9316,7 @@
         <v>44010</v>
       </c>
       <c r="B269" s="94">
-        <f>B268+1</f>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="C269" s="95" t="s">
@@ -9307,7 +9341,7 @@
         <v>44010</v>
       </c>
       <c r="B270" s="94">
-        <f>B269+1</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="C270" s="95" t="s">
@@ -9332,7 +9366,7 @@
         <v>44010</v>
       </c>
       <c r="B271" s="94">
-        <f>B270+1</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="C271" s="95" t="s">
@@ -9357,7 +9391,7 @@
         <v>44010</v>
       </c>
       <c r="B272" s="94">
-        <f>B271+1</f>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="C272" s="95" t="s">
@@ -9382,7 +9416,7 @@
         <v>44011</v>
       </c>
       <c r="B273" s="94">
-        <f>B272+1</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="C273" s="95" t="s">
@@ -9407,7 +9441,7 @@
         <v>44011</v>
       </c>
       <c r="B274" s="94">
-        <f>B273+1</f>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="C274" s="95" t="s">
@@ -9432,7 +9466,7 @@
         <v>44011</v>
       </c>
       <c r="B275" s="94">
-        <f>B274+1</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="C275" s="95" t="s">
@@ -9457,7 +9491,7 @@
         <v>44011</v>
       </c>
       <c r="B276" s="94">
-        <f>B275+1</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="C276" s="95" t="s">
@@ -9482,7 +9516,7 @@
         <v>44011</v>
       </c>
       <c r="B277" s="94">
-        <f>B276+1</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="C277" s="95" t="s">
@@ -9507,7 +9541,7 @@
         <v>44012</v>
       </c>
       <c r="B278" s="94">
-        <f>B277+1</f>
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="C278" s="95" t="s">
@@ -9532,7 +9566,7 @@
         <v>44012</v>
       </c>
       <c r="B279" s="94">
-        <f>B278+1</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="C279" s="95" t="s">
@@ -9557,7 +9591,7 @@
         <v>44012</v>
       </c>
       <c r="B280" s="94">
-        <f>B279+1</f>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="C280" s="95" t="s">
@@ -9582,7 +9616,7 @@
         <v>44012</v>
       </c>
       <c r="B281" s="94">
-        <f>B280+1</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="C281" s="95" t="s">
@@ -9607,7 +9641,7 @@
         <v>44012</v>
       </c>
       <c r="B282" s="94">
-        <f>B281+1</f>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="C282" s="95" t="s">
@@ -9632,7 +9666,7 @@
         <v>44012</v>
       </c>
       <c r="B283" s="94">
-        <f>B282+1</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="C283" s="95" t="s">
@@ -9657,7 +9691,7 @@
         <v>44012</v>
       </c>
       <c r="B284" s="94">
-        <f>B283+1</f>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="C284" s="95" t="s">
@@ -9682,7 +9716,7 @@
         <v>44013</v>
       </c>
       <c r="B285" s="94">
-        <f>B284+1</f>
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="C285" s="95" t="s">
@@ -9707,7 +9741,7 @@
         <v>44013</v>
       </c>
       <c r="B286" s="94">
-        <f>B285+1</f>
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="C286" s="95" t="s">
@@ -9732,7 +9766,7 @@
         <v>44013</v>
       </c>
       <c r="B287" s="94">
-        <f>B286+1</f>
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="C287" s="95" t="s">
@@ -9757,7 +9791,7 @@
         <v>44013</v>
       </c>
       <c r="B288" s="94">
-        <f>B287+1</f>
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="C288" s="95" t="s">
@@ -9782,7 +9816,7 @@
         <v>44013</v>
       </c>
       <c r="B289" s="94">
-        <f>B288+1</f>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="C289" s="95" t="s">
@@ -9807,7 +9841,7 @@
         <v>44013</v>
       </c>
       <c r="B290" s="94">
-        <f>B289+1</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="C290" s="95" t="s">
@@ -9832,7 +9866,7 @@
         <v>44013</v>
       </c>
       <c r="B291" s="94">
-        <f>B290+1</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="C291" s="95" t="s">
@@ -9857,7 +9891,7 @@
         <v>44013</v>
       </c>
       <c r="B292" s="94">
-        <f>B291+1</f>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="C292" s="95" t="s">
@@ -9882,7 +9916,7 @@
         <v>44013</v>
       </c>
       <c r="B293" s="94">
-        <f>B292+1</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="C293" s="95" t="s">
@@ -9907,7 +9941,7 @@
         <v>44013</v>
       </c>
       <c r="B294" s="94">
-        <f>B293+1</f>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="C294" s="95" t="s">
@@ -9932,7 +9966,7 @@
         <v>44014</v>
       </c>
       <c r="B295" s="94">
-        <f>B294+1</f>
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="C295" s="95" t="s">
@@ -9957,7 +9991,7 @@
         <v>44014</v>
       </c>
       <c r="B296" s="94">
-        <f>B295+1</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="C296" s="95" t="s">
@@ -9982,7 +10016,7 @@
         <v>44014</v>
       </c>
       <c r="B297" s="94">
-        <f>B296+1</f>
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="C297" s="95" t="s">
@@ -10007,7 +10041,7 @@
         <v>44014</v>
       </c>
       <c r="B298" s="94">
-        <f>B297+1</f>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="C298" s="95" t="s">
@@ -10032,7 +10066,7 @@
         <v>44014</v>
       </c>
       <c r="B299" s="94">
-        <f>B298+1</f>
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="C299" s="95" t="s">
@@ -10057,7 +10091,7 @@
         <v>44014</v>
       </c>
       <c r="B300" s="94">
-        <f>B299+1</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="C300" s="95" t="s">
@@ -10082,7 +10116,7 @@
         <v>44014</v>
       </c>
       <c r="B301" s="94">
-        <f>B300+1</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="C301" s="95" t="s">
@@ -10107,7 +10141,7 @@
         <v>44014</v>
       </c>
       <c r="B302" s="94">
-        <f>B301+1</f>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="C302" s="95" t="s">
@@ -10132,7 +10166,7 @@
         <v>44014</v>
       </c>
       <c r="B303" s="94">
-        <f>B302+1</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="C303" s="95" t="s">
@@ -10157,7 +10191,7 @@
         <v>44014</v>
       </c>
       <c r="B304" s="94">
-        <f>B303+1</f>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="C304" s="95" t="s">
@@ -10182,7 +10216,7 @@
         <v>44014</v>
       </c>
       <c r="B305" s="94">
-        <f>B304+1</f>
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="C305" s="95" t="s">
@@ -10207,7 +10241,7 @@
         <v>44014</v>
       </c>
       <c r="B306" s="94">
-        <f>B305+1</f>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="C306" s="95" t="s">
@@ -10232,7 +10266,7 @@
         <v>44014</v>
       </c>
       <c r="B307" s="94">
-        <f>B306+1</f>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="C307" s="95" t="s">
@@ -10257,7 +10291,7 @@
         <v>44014</v>
       </c>
       <c r="B308" s="94">
-        <f>B307+1</f>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="C308" s="95" t="s">
@@ -10282,7 +10316,7 @@
         <v>44014</v>
       </c>
       <c r="B309" s="94">
-        <f>B308+1</f>
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="C309" s="95" t="s">
@@ -10307,7 +10341,7 @@
         <v>44014</v>
       </c>
       <c r="B310" s="94">
-        <f>B309+1</f>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="C310" s="95" t="s">
@@ -10332,7 +10366,7 @@
         <v>44014</v>
       </c>
       <c r="B311" s="94">
-        <f>B310+1</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="C311" s="95" t="s">
@@ -10357,7 +10391,7 @@
         <v>44015</v>
       </c>
       <c r="B312" s="94">
-        <f>B311+1</f>
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="C312" s="95" t="s">
@@ -10382,7 +10416,7 @@
         <v>44015</v>
       </c>
       <c r="B313" s="94">
-        <f>B312+1</f>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="C313" s="95" t="s">
@@ -10407,7 +10441,7 @@
         <v>44015</v>
       </c>
       <c r="B314" s="94">
-        <f>B313+1</f>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="C314" s="95" t="s">
@@ -10432,7 +10466,7 @@
         <v>44015</v>
       </c>
       <c r="B315" s="94">
-        <f>B314+1</f>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="C315" s="95" t="s">
@@ -10457,7 +10491,7 @@
         <v>44015</v>
       </c>
       <c r="B316" s="94">
-        <f>B315+1</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="C316" s="95" t="s">
@@ -10482,7 +10516,7 @@
         <v>44015</v>
       </c>
       <c r="B317" s="94">
-        <f>B316+1</f>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="C317" s="95" t="s">
@@ -10507,7 +10541,7 @@
         <v>44015</v>
       </c>
       <c r="B318" s="94">
-        <f>B317+1</f>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="C318" s="95" t="s">
@@ -10532,7 +10566,7 @@
         <v>44015</v>
       </c>
       <c r="B319" s="94">
-        <f>B318+1</f>
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="C319" s="95" t="s">
@@ -10557,7 +10591,7 @@
         <v>44015</v>
       </c>
       <c r="B320" s="94">
-        <f>B319+1</f>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="C320" s="95" t="s">
@@ -10582,7 +10616,7 @@
         <v>44015</v>
       </c>
       <c r="B321" s="94">
-        <f>B320+1</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="C321" s="95" t="s">
@@ -10607,7 +10641,7 @@
         <v>44016</v>
       </c>
       <c r="B322" s="94">
-        <f>B321+1</f>
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
       <c r="C322" s="95" t="s">
@@ -10632,7 +10666,7 @@
         <v>44016</v>
       </c>
       <c r="B323" s="94">
-        <f>B322+1</f>
+        <f t="shared" ref="B323:B386" si="5">B322+1</f>
         <v>322</v>
       </c>
       <c r="C323" s="95" t="s">
@@ -10657,7 +10691,7 @@
         <v>44016</v>
       </c>
       <c r="B324" s="94">
-        <f>B323+1</f>
+        <f t="shared" si="5"/>
         <v>323</v>
       </c>
       <c r="C324" s="95" t="s">
@@ -10682,7 +10716,7 @@
         <v>44016</v>
       </c>
       <c r="B325" s="94">
-        <f>B324+1</f>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="C325" s="95" t="s">
@@ -10707,7 +10741,7 @@
         <v>44016</v>
       </c>
       <c r="B326" s="94">
-        <f>B325+1</f>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="C326" s="95" t="s">
@@ -10732,7 +10766,7 @@
         <v>44017</v>
       </c>
       <c r="B327" s="94">
-        <f>B326+1</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="C327" s="95" t="s">
@@ -10757,7 +10791,7 @@
         <v>44017</v>
       </c>
       <c r="B328" s="94">
-        <f>B327+1</f>
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="C328" s="95" t="s">
@@ -10782,7 +10816,7 @@
         <v>44017</v>
       </c>
       <c r="B329" s="94">
-        <f>B328+1</f>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="C329" s="95" t="s">
@@ -10807,7 +10841,7 @@
         <v>44017</v>
       </c>
       <c r="B330" s="94">
-        <f>B329+1</f>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="C330" s="95" t="s">
@@ -10832,7 +10866,7 @@
         <v>44017</v>
       </c>
       <c r="B331" s="94">
-        <f>B330+1</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="C331" s="95" t="s">
@@ -10857,7 +10891,7 @@
         <v>44017</v>
       </c>
       <c r="B332" s="94">
-        <f>B331+1</f>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="C332" s="95" t="s">
@@ -10882,7 +10916,7 @@
         <v>44018</v>
       </c>
       <c r="B333" s="94">
-        <f>B332+1</f>
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
       <c r="C333" s="95" t="s">
@@ -10907,7 +10941,7 @@
         <v>44018</v>
       </c>
       <c r="B334" s="94">
-        <f>B333+1</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="C334" s="95" t="s">
@@ -10932,7 +10966,7 @@
         <v>44018</v>
       </c>
       <c r="B335" s="94">
-        <f>B334+1</f>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
       <c r="C335" s="95" t="s">
@@ -10957,7 +10991,7 @@
         <v>44018</v>
       </c>
       <c r="B336" s="94">
-        <f>B335+1</f>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="C336" s="95" t="s">
@@ -10982,7 +11016,7 @@
         <v>44018</v>
       </c>
       <c r="B337" s="94">
-        <f>B336+1</f>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="C337" s="95" t="s">
@@ -11007,7 +11041,7 @@
         <v>44019</v>
       </c>
       <c r="B338" s="94">
-        <f>B337+1</f>
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="C338" s="95" t="s">
@@ -11032,7 +11066,7 @@
         <v>44019</v>
       </c>
       <c r="B339" s="94">
-        <f>B338+1</f>
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
       <c r="C339" s="95" t="s">
@@ -11057,7 +11091,7 @@
         <v>44019</v>
       </c>
       <c r="B340" s="94">
-        <f>B339+1</f>
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="C340" s="95" t="s">
@@ -11082,7 +11116,7 @@
         <v>44019</v>
       </c>
       <c r="B341" s="94">
-        <f>B340+1</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="C341" s="95" t="s">
@@ -11107,7 +11141,7 @@
         <v>44019</v>
       </c>
       <c r="B342" s="94">
-        <f>B341+1</f>
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="C342" s="95" t="s">
@@ -11132,7 +11166,7 @@
         <v>44019</v>
       </c>
       <c r="B343" s="94">
-        <f>B342+1</f>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="C343" s="95" t="s">
@@ -11157,7 +11191,7 @@
         <v>44019</v>
       </c>
       <c r="B344" s="94">
-        <f>B343+1</f>
+        <f t="shared" si="5"/>
         <v>343</v>
       </c>
       <c r="C344" s="95" t="s">
@@ -11182,7 +11216,7 @@
         <v>44019</v>
       </c>
       <c r="B345" s="94">
-        <f>B344+1</f>
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="C345" s="95" t="s">
@@ -11207,7 +11241,7 @@
         <v>44019</v>
       </c>
       <c r="B346" s="94">
-        <f>B345+1</f>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="C346" s="95" t="s">
@@ -11232,7 +11266,7 @@
         <v>44020</v>
       </c>
       <c r="B347" s="94">
-        <f>B346+1</f>
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
       <c r="C347" s="95" t="s">
@@ -11257,7 +11291,7 @@
         <v>44020</v>
       </c>
       <c r="B348" s="94">
-        <f>B347+1</f>
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="C348" s="95" t="s">
@@ -11282,7 +11316,7 @@
         <v>44020</v>
       </c>
       <c r="B349" s="94">
-        <f>B348+1</f>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
       <c r="C349" s="95" t="s">
@@ -11307,7 +11341,7 @@
         <v>44020</v>
       </c>
       <c r="B350" s="94">
-        <f>B349+1</f>
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="C350" s="95" t="s">
@@ -11332,7 +11366,7 @@
         <v>44020</v>
       </c>
       <c r="B351" s="94">
-        <f>B350+1</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="C351" s="95" t="s">
@@ -11357,7 +11391,7 @@
         <v>44020</v>
       </c>
       <c r="B352" s="94">
-        <f>B351+1</f>
+        <f t="shared" si="5"/>
         <v>351</v>
       </c>
       <c r="C352" s="95" t="s">
@@ -11382,7 +11416,7 @@
         <v>44020</v>
       </c>
       <c r="B353" s="94">
-        <f>B352+1</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="C353" s="95" t="s">
@@ -11407,7 +11441,7 @@
         <v>44020</v>
       </c>
       <c r="B354" s="94">
-        <f>B353+1</f>
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
       <c r="C354" s="95" t="s">
@@ -11432,7 +11466,7 @@
         <v>44020</v>
       </c>
       <c r="B355" s="94">
-        <f>B354+1</f>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="C355" s="95" t="s">
@@ -11457,7 +11491,7 @@
         <v>44020</v>
       </c>
       <c r="B356" s="94">
-        <f>B355+1</f>
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
       <c r="C356" s="95" t="s">
@@ -11482,7 +11516,7 @@
         <v>44021</v>
       </c>
       <c r="B357" s="94">
-        <f>B356+1</f>
+        <f t="shared" si="5"/>
         <v>356</v>
       </c>
       <c r="C357" s="95" t="s">
@@ -11507,7 +11541,7 @@
         <v>44021</v>
       </c>
       <c r="B358" s="94">
-        <f>B357+1</f>
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
       <c r="C358" s="95" t="s">
@@ -11532,7 +11566,7 @@
         <v>44021</v>
       </c>
       <c r="B359" s="94">
-        <f>B358+1</f>
+        <f t="shared" si="5"/>
         <v>358</v>
       </c>
       <c r="C359" s="95" t="s">
@@ -11557,7 +11591,7 @@
         <v>44021</v>
       </c>
       <c r="B360" s="94">
-        <f>B359+1</f>
+        <f t="shared" si="5"/>
         <v>359</v>
       </c>
       <c r="C360" s="95" t="s">
@@ -11582,7 +11616,7 @@
         <v>44021</v>
       </c>
       <c r="B361" s="94">
-        <f>B360+1</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="C361" s="95" t="s">
@@ -11609,7 +11643,7 @@
         <v>44021</v>
       </c>
       <c r="B362" s="94">
-        <f>B361+1</f>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
       <c r="C362" s="95" t="s">
@@ -11636,7 +11670,7 @@
         <v>44021</v>
       </c>
       <c r="B363" s="94">
-        <f>B362+1</f>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="C363" s="95" t="s">
@@ -11663,7 +11697,7 @@
         <v>44021</v>
       </c>
       <c r="B364" s="94">
-        <f>B363+1</f>
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
       <c r="C364" s="95" t="s">
@@ -11690,7 +11724,7 @@
         <v>44021</v>
       </c>
       <c r="B365" s="94">
-        <f>B364+1</f>
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
       <c r="C365" s="95" t="s">
@@ -11717,7 +11751,7 @@
         <v>44021</v>
       </c>
       <c r="B366" s="94">
-        <f>B365+1</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="C366" s="95" t="s">
@@ -11744,7 +11778,7 @@
         <v>44021</v>
       </c>
       <c r="B367" s="94">
-        <f>B366+1</f>
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
       <c r="C367" s="95" t="s">
@@ -11771,7 +11805,7 @@
         <v>44021</v>
       </c>
       <c r="B368" s="94">
-        <f>B367+1</f>
+        <f t="shared" si="5"/>
         <v>367</v>
       </c>
       <c r="C368" s="95" t="s">
@@ -11798,7 +11832,7 @@
         <v>44021</v>
       </c>
       <c r="B369" s="94">
-        <f>B368+1</f>
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
       <c r="C369" s="95" t="s">
@@ -11825,7 +11859,7 @@
         <v>44021</v>
       </c>
       <c r="B370" s="94">
-        <f>B369+1</f>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="C370" s="95" t="s">
@@ -11852,7 +11886,7 @@
         <v>44021</v>
       </c>
       <c r="B371" s="94">
-        <f>B370+1</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="C371" s="95" t="s">
@@ -11877,7 +11911,7 @@
         <v>44021</v>
       </c>
       <c r="B372" s="94">
-        <f>B371+1</f>
+        <f t="shared" si="5"/>
         <v>371</v>
       </c>
       <c r="C372" s="95" t="s">
@@ -11902,7 +11936,7 @@
         <v>44021</v>
       </c>
       <c r="B373" s="94">
-        <f>B372+1</f>
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
       <c r="C373" s="95" t="s">
@@ -11927,7 +11961,7 @@
         <v>44021</v>
       </c>
       <c r="B374" s="94">
-        <f>B373+1</f>
+        <f t="shared" si="5"/>
         <v>373</v>
       </c>
       <c r="C374" s="95" t="s">
@@ -11952,7 +11986,7 @@
         <v>44021</v>
       </c>
       <c r="B375" s="94">
-        <f>B374+1</f>
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="C375" s="95" t="s">
@@ -11977,7 +12011,7 @@
         <v>44021</v>
       </c>
       <c r="B376" s="94">
-        <f>B375+1</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="C376" s="95" t="s">
@@ -12002,7 +12036,7 @@
         <v>44022</v>
       </c>
       <c r="B377" s="94">
-        <f>B376+1</f>
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
       <c r="C377" s="95" t="s">
@@ -12027,7 +12061,7 @@
         <v>44022</v>
       </c>
       <c r="B378" s="94">
-        <f>B377+1</f>
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
       <c r="C378" s="95" t="s">
@@ -12052,7 +12086,7 @@
         <v>44022</v>
       </c>
       <c r="B379" s="94">
-        <f>B378+1</f>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="C379" s="95" t="s">
@@ -12077,7 +12111,7 @@
         <v>44022</v>
       </c>
       <c r="B380" s="94">
-        <f>B379+1</f>
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
       <c r="C380" s="95" t="s">
@@ -12102,7 +12136,7 @@
         <v>44022</v>
       </c>
       <c r="B381" s="94">
-        <f>B380+1</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="C381" s="95" t="s">
@@ -12129,7 +12163,7 @@
         <v>44022</v>
       </c>
       <c r="B382" s="94">
-        <f>B381+1</f>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="C382" s="95" t="s">
@@ -12156,7 +12190,7 @@
         <v>44022</v>
       </c>
       <c r="B383" s="94">
-        <f>B382+1</f>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="C383" s="95" t="s">
@@ -12183,7 +12217,7 @@
         <v>44022</v>
       </c>
       <c r="B384" s="94">
-        <f>B383+1</f>
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
       <c r="C384" s="95" t="s">
@@ -12210,7 +12244,7 @@
         <v>44022</v>
       </c>
       <c r="B385" s="94">
-        <f>B384+1</f>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="C385" s="95" t="s">
@@ -12235,7 +12269,7 @@
         <v>44022</v>
       </c>
       <c r="B386" s="94">
-        <f>B385+1</f>
+        <f t="shared" si="5"/>
         <v>385</v>
       </c>
       <c r="C386" s="95" t="s">
@@ -12260,7 +12294,7 @@
         <v>44022</v>
       </c>
       <c r="B387" s="94">
-        <f>B386+1</f>
+        <f t="shared" ref="B387:B450" si="6">B386+1</f>
         <v>386</v>
       </c>
       <c r="C387" s="95" t="s">
@@ -12285,7 +12319,7 @@
         <v>44022</v>
       </c>
       <c r="B388" s="94">
-        <f>B387+1</f>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="C388" s="95" t="s">
@@ -12310,7 +12344,7 @@
         <v>44022</v>
       </c>
       <c r="B389" s="94">
-        <f>B388+1</f>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="C389" s="95" t="s">
@@ -12335,7 +12369,7 @@
         <v>44022</v>
       </c>
       <c r="B390" s="94">
-        <f>B389+1</f>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="C390" s="95" t="s">
@@ -12360,7 +12394,7 @@
         <v>44022</v>
       </c>
       <c r="B391" s="94">
-        <f>B390+1</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="C391" s="95" t="s">
@@ -12385,7 +12419,7 @@
         <v>44022</v>
       </c>
       <c r="B392" s="94">
-        <f>B391+1</f>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="C392" s="95" t="s">
@@ -12410,7 +12444,7 @@
         <v>44022</v>
       </c>
       <c r="B393" s="94">
-        <f>B392+1</f>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="C393" s="95" t="s">
@@ -12435,7 +12469,7 @@
         <v>44022</v>
       </c>
       <c r="B394" s="94">
-        <f>B393+1</f>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="C394" s="95" t="s">
@@ -12460,7 +12494,7 @@
         <v>44022</v>
       </c>
       <c r="B395" s="94">
-        <f>B394+1</f>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="C395" s="95" t="s">
@@ -12485,7 +12519,7 @@
         <v>44022</v>
       </c>
       <c r="B396" s="94">
-        <f>B395+1</f>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="C396" s="95" t="s">
@@ -12510,7 +12544,7 @@
         <v>44022</v>
       </c>
       <c r="B397" s="94">
-        <f>B396+1</f>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="C397" s="95" t="s">
@@ -12535,7 +12569,7 @@
         <v>44022</v>
       </c>
       <c r="B398" s="94">
-        <f>B397+1</f>
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
       <c r="C398" s="95" t="s">
@@ -12560,7 +12594,7 @@
         <v>44023</v>
       </c>
       <c r="B399" s="94">
-        <f>B398+1</f>
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
       <c r="C399" s="95" t="s">
@@ -12585,7 +12619,7 @@
         <v>44023</v>
       </c>
       <c r="B400" s="94">
-        <f>B399+1</f>
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
       <c r="C400" s="95" t="s">
@@ -12610,7 +12644,7 @@
         <v>44023</v>
       </c>
       <c r="B401" s="94">
-        <f>B400+1</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="C401" s="95" t="s">
@@ -12635,7 +12669,7 @@
         <v>44023</v>
       </c>
       <c r="B402" s="94">
-        <f>B401+1</f>
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
       <c r="C402" s="95" t="s">
@@ -12662,7 +12696,7 @@
         <v>44023</v>
       </c>
       <c r="B403" s="94">
-        <f>B402+1</f>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="C403" s="95" t="s">
@@ -12689,7 +12723,7 @@
         <v>44023</v>
       </c>
       <c r="B404" s="94">
-        <f>B403+1</f>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="C404" s="95" t="s">
@@ -12716,7 +12750,7 @@
         <v>44023</v>
       </c>
       <c r="B405" s="94">
-        <f>B404+1</f>
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
       <c r="C405" s="95" t="s">
@@ -12743,7 +12777,7 @@
         <v>44023</v>
       </c>
       <c r="B406" s="94">
-        <f>B405+1</f>
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
       <c r="C406" s="95" t="s">
@@ -12770,7 +12804,7 @@
         <v>44023</v>
       </c>
       <c r="B407" s="94">
-        <f>B406+1</f>
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
       <c r="C407" s="95" t="s">
@@ -12797,7 +12831,7 @@
         <v>44023</v>
       </c>
       <c r="B408" s="94">
-        <f>B407+1</f>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="C408" s="95" t="s">
@@ -12822,7 +12856,7 @@
         <v>44023</v>
       </c>
       <c r="B409" s="94">
-        <f>B408+1</f>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="C409" s="95" t="s">
@@ -12847,7 +12881,7 @@
         <v>44023</v>
       </c>
       <c r="B410" s="94">
-        <f>B409+1</f>
+        <f t="shared" si="6"/>
         <v>409</v>
       </c>
       <c r="C410" s="95" t="s">
@@ -12872,7 +12906,7 @@
         <v>44023</v>
       </c>
       <c r="B411" s="94">
-        <f>B410+1</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="C411" s="95" t="s">
@@ -12897,7 +12931,7 @@
         <v>44023</v>
       </c>
       <c r="B412" s="94">
-        <f>B411+1</f>
+        <f t="shared" si="6"/>
         <v>411</v>
       </c>
       <c r="C412" s="95" t="s">
@@ -12922,7 +12956,7 @@
         <v>44023</v>
       </c>
       <c r="B413" s="94">
-        <f>B412+1</f>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="C413" s="95" t="s">
@@ -12947,7 +12981,7 @@
         <v>44023</v>
       </c>
       <c r="B414" s="94">
-        <f>B413+1</f>
+        <f t="shared" si="6"/>
         <v>413</v>
       </c>
       <c r="C414" s="95" t="s">
@@ -12972,7 +13006,7 @@
         <v>44023</v>
       </c>
       <c r="B415" s="94">
-        <f>B414+1</f>
+        <f t="shared" si="6"/>
         <v>414</v>
       </c>
       <c r="C415" s="95" t="s">
@@ -12997,7 +13031,7 @@
         <v>44023</v>
       </c>
       <c r="B416" s="94">
-        <f>B415+1</f>
+        <f t="shared" si="6"/>
         <v>415</v>
       </c>
       <c r="C416" s="95" t="s">
@@ -13022,7 +13056,7 @@
         <v>44023</v>
       </c>
       <c r="B417" s="94">
-        <f>B416+1</f>
+        <f t="shared" si="6"/>
         <v>416</v>
       </c>
       <c r="C417" s="95" t="s">
@@ -13047,7 +13081,7 @@
         <v>44023</v>
       </c>
       <c r="B418" s="94">
-        <f>B417+1</f>
+        <f t="shared" si="6"/>
         <v>417</v>
       </c>
       <c r="C418" s="95" t="s">
@@ -13072,7 +13106,7 @@
         <v>44023</v>
       </c>
       <c r="B419" s="94">
-        <f>B418+1</f>
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
       <c r="C419" s="95" t="s">
@@ -13097,7 +13131,7 @@
         <v>44023</v>
       </c>
       <c r="B420" s="94">
-        <f>B419+1</f>
+        <f t="shared" si="6"/>
         <v>419</v>
       </c>
       <c r="C420" s="95" t="s">
@@ -13122,7 +13156,7 @@
         <v>44023</v>
       </c>
       <c r="B421" s="94">
-        <f>B420+1</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="C421" s="95" t="s">
@@ -13147,7 +13181,7 @@
         <v>44023</v>
       </c>
       <c r="B422" s="94">
-        <f>B421+1</f>
+        <f t="shared" si="6"/>
         <v>421</v>
       </c>
       <c r="C422" s="95" t="s">
@@ -13172,7 +13206,7 @@
         <v>44023</v>
       </c>
       <c r="B423" s="94">
-        <f>B422+1</f>
+        <f t="shared" si="6"/>
         <v>422</v>
       </c>
       <c r="C423" s="95" t="s">
@@ -13197,7 +13231,7 @@
         <v>44023</v>
       </c>
       <c r="B424" s="94">
-        <f>B423+1</f>
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
       <c r="C424" s="95" t="s">
@@ -13222,7 +13256,7 @@
         <v>44023</v>
       </c>
       <c r="B425" s="94">
-        <f>B424+1</f>
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
       <c r="C425" s="95" t="s">
@@ -13247,7 +13281,7 @@
         <v>44023</v>
       </c>
       <c r="B426" s="94">
-        <f>B425+1</f>
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
       <c r="C426" s="95" t="s">
@@ -13272,7 +13306,7 @@
         <v>44023</v>
       </c>
       <c r="B427" s="94">
-        <f>B426+1</f>
+        <f t="shared" si="6"/>
         <v>426</v>
       </c>
       <c r="C427" s="95" t="s">
@@ -13297,7 +13331,7 @@
         <v>44023</v>
       </c>
       <c r="B428" s="94">
-        <f>B427+1</f>
+        <f t="shared" si="6"/>
         <v>427</v>
       </c>
       <c r="C428" s="95" t="s">
@@ -13322,7 +13356,7 @@
         <v>44023</v>
       </c>
       <c r="B429" s="94">
-        <f>B428+1</f>
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
       <c r="C429" s="95" t="s">
@@ -13347,7 +13381,7 @@
         <v>44024</v>
       </c>
       <c r="B430" s="94">
-        <f>B429+1</f>
+        <f t="shared" si="6"/>
         <v>429</v>
       </c>
       <c r="C430" s="95" t="s">
@@ -13372,7 +13406,7 @@
         <v>44024</v>
       </c>
       <c r="B431" s="94">
-        <f>B430+1</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="C431" s="95" t="s">
@@ -13397,7 +13431,7 @@
         <v>44024</v>
       </c>
       <c r="B432" s="94">
-        <f>B431+1</f>
+        <f t="shared" si="6"/>
         <v>431</v>
       </c>
       <c r="C432" s="95" t="s">
@@ -13422,7 +13456,7 @@
         <v>44024</v>
       </c>
       <c r="B433" s="94">
-        <f>B432+1</f>
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
       <c r="C433" s="95" t="s">
@@ -13447,7 +13481,7 @@
         <v>44024</v>
       </c>
       <c r="B434" s="94">
-        <f>B433+1</f>
+        <f t="shared" si="6"/>
         <v>433</v>
       </c>
       <c r="C434" s="95" t="s">
@@ -13472,7 +13506,7 @@
         <v>44024</v>
       </c>
       <c r="B435" s="94">
-        <f>B434+1</f>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="C435" s="95" t="s">
@@ -13497,7 +13531,7 @@
         <v>44024</v>
       </c>
       <c r="B436" s="94">
-        <f>B435+1</f>
+        <f t="shared" si="6"/>
         <v>435</v>
       </c>
       <c r="C436" s="95" t="s">
@@ -13522,7 +13556,7 @@
         <v>44024</v>
       </c>
       <c r="B437" s="94">
-        <f>B436+1</f>
+        <f t="shared" si="6"/>
         <v>436</v>
       </c>
       <c r="C437" s="95" t="s">
@@ -13547,7 +13581,7 @@
         <v>44024</v>
       </c>
       <c r="B438" s="94">
-        <f>B437+1</f>
+        <f t="shared" si="6"/>
         <v>437</v>
       </c>
       <c r="C438" s="95" t="s">
@@ -13572,7 +13606,7 @@
         <v>44024</v>
       </c>
       <c r="B439" s="94">
-        <f>B438+1</f>
+        <f t="shared" si="6"/>
         <v>438</v>
       </c>
       <c r="C439" s="95" t="s">
@@ -13597,7 +13631,7 @@
         <v>44024</v>
       </c>
       <c r="B440" s="94">
-        <f>B439+1</f>
+        <f t="shared" si="6"/>
         <v>439</v>
       </c>
       <c r="C440" s="95" t="s">
@@ -13622,7 +13656,7 @@
         <v>44024</v>
       </c>
       <c r="B441" s="94">
-        <f>B440+1</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="C441" s="95" t="s">
@@ -13647,7 +13681,7 @@
         <v>44024</v>
       </c>
       <c r="B442" s="94">
-        <f>B441+1</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
       <c r="C442" s="95" t="s">
@@ -13672,7 +13706,7 @@
         <v>44024</v>
       </c>
       <c r="B443" s="94">
-        <f>B442+1</f>
+        <f t="shared" si="6"/>
         <v>442</v>
       </c>
       <c r="C443" s="95" t="s">
@@ -13699,7 +13733,7 @@
         <v>44024</v>
       </c>
       <c r="B444" s="94">
-        <f>B443+1</f>
+        <f t="shared" si="6"/>
         <v>443</v>
       </c>
       <c r="C444" s="95" t="s">
@@ -13726,7 +13760,7 @@
         <v>44024</v>
       </c>
       <c r="B445" s="94">
-        <f>B444+1</f>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="C445" s="95" t="s">
@@ -13753,7 +13787,7 @@
         <v>44024</v>
       </c>
       <c r="B446" s="94">
-        <f>B445+1</f>
+        <f t="shared" si="6"/>
         <v>445</v>
       </c>
       <c r="C446" s="95" t="s">
@@ -13780,7 +13814,7 @@
         <v>44024</v>
       </c>
       <c r="B447" s="94">
-        <f>B446+1</f>
+        <f t="shared" si="6"/>
         <v>446</v>
       </c>
       <c r="C447" s="95" t="s">
@@ -13805,7 +13839,7 @@
         <v>44024</v>
       </c>
       <c r="B448" s="94">
-        <f>B447+1</f>
+        <f t="shared" si="6"/>
         <v>447</v>
       </c>
       <c r="C448" s="95" t="s">
@@ -13832,7 +13866,7 @@
         <v>44024</v>
       </c>
       <c r="B449" s="94">
-        <f>B448+1</f>
+        <f t="shared" si="6"/>
         <v>448</v>
       </c>
       <c r="C449" s="95" t="s">
@@ -13859,7 +13893,7 @@
         <v>44024</v>
       </c>
       <c r="B450" s="94">
-        <f>B449+1</f>
+        <f t="shared" si="6"/>
         <v>449</v>
       </c>
       <c r="C450" s="95" t="s">
@@ -13886,7 +13920,7 @@
         <v>44024</v>
       </c>
       <c r="B451" s="94">
-        <f>B450+1</f>
+        <f t="shared" ref="B451:B514" si="7">B450+1</f>
         <v>450</v>
       </c>
       <c r="C451" s="95" t="s">
@@ -13913,7 +13947,7 @@
         <v>44024</v>
       </c>
       <c r="B452" s="94">
-        <f>B451+1</f>
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
       <c r="C452" s="95" t="s">
@@ -13940,7 +13974,7 @@
         <v>44024</v>
       </c>
       <c r="B453" s="94">
-        <f>B452+1</f>
+        <f t="shared" si="7"/>
         <v>452</v>
       </c>
       <c r="C453" s="95" t="s">
@@ -13967,7 +14001,7 @@
         <v>44024</v>
       </c>
       <c r="B454" s="94">
-        <f>B453+1</f>
+        <f t="shared" si="7"/>
         <v>453</v>
       </c>
       <c r="C454" s="95" t="s">
@@ -13994,7 +14028,7 @@
         <v>44024</v>
       </c>
       <c r="B455" s="94">
-        <f>B454+1</f>
+        <f t="shared" si="7"/>
         <v>454</v>
       </c>
       <c r="C455" s="95" t="s">
@@ -14021,7 +14055,7 @@
         <v>44024</v>
       </c>
       <c r="B456" s="94">
-        <f>B455+1</f>
+        <f t="shared" si="7"/>
         <v>455</v>
       </c>
       <c r="C456" s="95" t="s">
@@ -14048,7 +14082,7 @@
         <v>44024</v>
       </c>
       <c r="B457" s="94">
-        <f>B456+1</f>
+        <f t="shared" si="7"/>
         <v>456</v>
       </c>
       <c r="C457" s="95" t="s">
@@ -14075,7 +14109,7 @@
         <v>44024</v>
       </c>
       <c r="B458" s="94">
-        <f>B457+1</f>
+        <f t="shared" si="7"/>
         <v>457</v>
       </c>
       <c r="C458" s="95" t="s">
@@ -14102,7 +14136,7 @@
         <v>44024</v>
       </c>
       <c r="B459" s="94">
-        <f>B458+1</f>
+        <f t="shared" si="7"/>
         <v>458</v>
       </c>
       <c r="C459" s="95" t="s">
@@ -14127,7 +14161,7 @@
         <v>44024</v>
       </c>
       <c r="B460" s="94">
-        <f>B459+1</f>
+        <f t="shared" si="7"/>
         <v>459</v>
       </c>
       <c r="C460" s="95" t="s">
@@ -14152,7 +14186,7 @@
         <v>44024</v>
       </c>
       <c r="B461" s="94">
-        <f>B460+1</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="C461" s="95" t="s">
@@ -14179,7 +14213,7 @@
         <v>44024</v>
       </c>
       <c r="B462" s="94">
-        <f>B461+1</f>
+        <f t="shared" si="7"/>
         <v>461</v>
       </c>
       <c r="C462" s="95" t="s">
@@ -14206,7 +14240,7 @@
         <v>44024</v>
       </c>
       <c r="B463" s="94">
-        <f>B462+1</f>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="C463" s="95" t="s">
@@ -14233,7 +14267,7 @@
         <v>44024</v>
       </c>
       <c r="B464" s="94">
-        <f>B463+1</f>
+        <f t="shared" si="7"/>
         <v>463</v>
       </c>
       <c r="C464" s="95" t="s">
@@ -14260,7 +14294,7 @@
         <v>44024</v>
       </c>
       <c r="B465" s="94">
-        <f>B464+1</f>
+        <f t="shared" si="7"/>
         <v>464</v>
       </c>
       <c r="C465" s="95" t="s">
@@ -14287,7 +14321,7 @@
         <v>44024</v>
       </c>
       <c r="B466" s="94">
-        <f>B465+1</f>
+        <f t="shared" si="7"/>
         <v>465</v>
       </c>
       <c r="C466" s="95" t="s">
@@ -14314,7 +14348,7 @@
         <v>44024</v>
       </c>
       <c r="B467" s="94">
-        <f>B466+1</f>
+        <f t="shared" si="7"/>
         <v>466</v>
       </c>
       <c r="C467" s="95" t="s">
@@ -14341,7 +14375,7 @@
         <v>44024</v>
       </c>
       <c r="B468" s="94">
-        <f>B467+1</f>
+        <f t="shared" si="7"/>
         <v>467</v>
       </c>
       <c r="C468" s="95" t="s">
@@ -14368,7 +14402,7 @@
         <v>44024</v>
       </c>
       <c r="B469" s="94">
-        <f>B468+1</f>
+        <f t="shared" si="7"/>
         <v>468</v>
       </c>
       <c r="C469" s="95" t="s">
@@ -14395,7 +14429,7 @@
         <v>44024</v>
       </c>
       <c r="B470" s="94">
-        <f>B469+1</f>
+        <f t="shared" si="7"/>
         <v>469</v>
       </c>
       <c r="C470" s="95" t="s">
@@ -14422,7 +14456,7 @@
         <v>44024</v>
       </c>
       <c r="B471" s="94">
-        <f>B470+1</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="C471" s="95" t="s">
@@ -14449,7 +14483,7 @@
         <v>44024</v>
       </c>
       <c r="B472" s="94">
-        <f>B471+1</f>
+        <f t="shared" si="7"/>
         <v>471</v>
       </c>
       <c r="C472" s="95" t="s">
@@ -14476,7 +14510,7 @@
         <v>44024</v>
       </c>
       <c r="B473" s="94">
-        <f>B472+1</f>
+        <f t="shared" si="7"/>
         <v>472</v>
       </c>
       <c r="C473" s="95" t="s">
@@ -14501,7 +14535,7 @@
         <v>44024</v>
       </c>
       <c r="B474" s="94">
-        <f>B473+1</f>
+        <f t="shared" si="7"/>
         <v>473</v>
       </c>
       <c r="C474" s="95" t="s">
@@ -14526,7 +14560,7 @@
         <v>44024</v>
       </c>
       <c r="B475" s="94">
-        <f>B474+1</f>
+        <f t="shared" si="7"/>
         <v>474</v>
       </c>
       <c r="C475" s="95" t="s">
@@ -14551,7 +14585,7 @@
         <v>44024</v>
       </c>
       <c r="B476" s="94">
-        <f>B475+1</f>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="C476" s="95" t="s">
@@ -14576,7 +14610,7 @@
         <v>44024</v>
       </c>
       <c r="B477" s="94">
-        <f>B476+1</f>
+        <f t="shared" si="7"/>
         <v>476</v>
       </c>
       <c r="C477" s="95" t="s">
@@ -14601,7 +14635,7 @@
         <v>44024</v>
       </c>
       <c r="B478" s="94">
-        <f>B477+1</f>
+        <f t="shared" si="7"/>
         <v>477</v>
       </c>
       <c r="C478" s="95" t="s">
@@ -14626,7 +14660,7 @@
         <v>44024</v>
       </c>
       <c r="B479" s="94">
-        <f>B478+1</f>
+        <f t="shared" si="7"/>
         <v>478</v>
       </c>
       <c r="C479" s="95" t="s">
@@ -14651,7 +14685,7 @@
         <v>44024</v>
       </c>
       <c r="B480" s="94">
-        <f>B479+1</f>
+        <f t="shared" si="7"/>
         <v>479</v>
       </c>
       <c r="C480" s="95" t="s">
@@ -14676,7 +14710,7 @@
         <v>44024</v>
       </c>
       <c r="B481" s="94">
-        <f>B480+1</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="C481" s="95" t="s">
@@ -14701,7 +14735,7 @@
         <v>44024</v>
       </c>
       <c r="B482" s="94">
-        <f>B481+1</f>
+        <f t="shared" si="7"/>
         <v>481</v>
       </c>
       <c r="C482" s="95" t="s">
@@ -14726,7 +14760,7 @@
         <v>44024</v>
       </c>
       <c r="B483" s="94">
-        <f>B482+1</f>
+        <f t="shared" si="7"/>
         <v>482</v>
       </c>
       <c r="C483" s="95" t="s">
@@ -14751,7 +14785,7 @@
         <v>44024</v>
       </c>
       <c r="B484" s="94">
-        <f>B483+1</f>
+        <f t="shared" si="7"/>
         <v>483</v>
       </c>
       <c r="C484" s="95" t="s">
@@ -14776,7 +14810,7 @@
         <v>44024</v>
       </c>
       <c r="B485" s="94">
-        <f>B484+1</f>
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
       <c r="C485" s="95" t="s">
@@ -14801,7 +14835,7 @@
         <v>44024</v>
       </c>
       <c r="B486" s="94">
-        <f>B485+1</f>
+        <f t="shared" si="7"/>
         <v>485</v>
       </c>
       <c r="C486" s="95" t="s">
@@ -14826,7 +14860,7 @@
         <v>44024</v>
       </c>
       <c r="B487" s="94">
-        <f>B486+1</f>
+        <f t="shared" si="7"/>
         <v>486</v>
       </c>
       <c r="C487" s="95" t="s">
@@ -14851,7 +14885,7 @@
         <v>44025</v>
       </c>
       <c r="B488" s="94">
-        <f>B487+1</f>
+        <f t="shared" si="7"/>
         <v>487</v>
       </c>
       <c r="C488" s="95" t="s">
@@ -14876,7 +14910,7 @@
         <v>44025</v>
       </c>
       <c r="B489" s="94">
-        <f>B488+1</f>
+        <f t="shared" si="7"/>
         <v>488</v>
       </c>
       <c r="C489" s="95" t="s">
@@ -14901,7 +14935,7 @@
         <v>44025</v>
       </c>
       <c r="B490" s="94">
-        <f>B489+1</f>
+        <f t="shared" si="7"/>
         <v>489</v>
       </c>
       <c r="C490" s="95" t="s">
@@ -14926,7 +14960,7 @@
         <v>44025</v>
       </c>
       <c r="B491" s="94">
-        <f>B490+1</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
       <c r="C491" s="95" t="s">
@@ -14951,7 +14985,7 @@
         <v>44025</v>
       </c>
       <c r="B492" s="94">
-        <f>B491+1</f>
+        <f t="shared" si="7"/>
         <v>491</v>
       </c>
       <c r="C492" s="95" t="s">
@@ -14976,7 +15010,7 @@
         <v>44025</v>
       </c>
       <c r="B493" s="94">
-        <f>B492+1</f>
+        <f t="shared" si="7"/>
         <v>492</v>
       </c>
       <c r="C493" s="95" t="s">
@@ -15001,7 +15035,7 @@
         <v>44025</v>
       </c>
       <c r="B494" s="94">
-        <f>B493+1</f>
+        <f t="shared" si="7"/>
         <v>493</v>
       </c>
       <c r="C494" s="95" t="s">
@@ -15026,7 +15060,7 @@
         <v>44025</v>
       </c>
       <c r="B495" s="94">
-        <f>B494+1</f>
+        <f t="shared" si="7"/>
         <v>494</v>
       </c>
       <c r="C495" s="95" t="s">
@@ -15051,7 +15085,7 @@
         <v>44025</v>
       </c>
       <c r="B496" s="94">
-        <f>B495+1</f>
+        <f t="shared" si="7"/>
         <v>495</v>
       </c>
       <c r="C496" s="95" t="s">
@@ -15076,7 +15110,7 @@
         <v>44025</v>
       </c>
       <c r="B497" s="94">
-        <f>B496+1</f>
+        <f t="shared" si="7"/>
         <v>496</v>
       </c>
       <c r="C497" s="95" t="s">
@@ -15101,7 +15135,7 @@
         <v>44025</v>
       </c>
       <c r="B498" s="94">
-        <f>B497+1</f>
+        <f t="shared" si="7"/>
         <v>497</v>
       </c>
       <c r="C498" s="95" t="s">
@@ -15126,7 +15160,7 @@
         <v>44025</v>
       </c>
       <c r="B499" s="94">
-        <f>B498+1</f>
+        <f t="shared" si="7"/>
         <v>498</v>
       </c>
       <c r="C499" s="95" t="s">
@@ -15151,7 +15185,7 @@
         <v>44025</v>
       </c>
       <c r="B500" s="94">
-        <f>B499+1</f>
+        <f t="shared" si="7"/>
         <v>499</v>
       </c>
       <c r="C500" s="95" t="s">
@@ -15176,7 +15210,7 @@
         <v>44025</v>
       </c>
       <c r="B501" s="94">
-        <f>B500+1</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="C501" s="95" t="s">
@@ -15201,7 +15235,7 @@
         <v>44025</v>
       </c>
       <c r="B502" s="94">
-        <f>B501+1</f>
+        <f t="shared" si="7"/>
         <v>501</v>
       </c>
       <c r="C502" s="95" t="s">
@@ -15226,7 +15260,7 @@
         <v>44025</v>
       </c>
       <c r="B503" s="94">
-        <f>B502+1</f>
+        <f t="shared" si="7"/>
         <v>502</v>
       </c>
       <c r="C503" s="95" t="s">
@@ -15251,7 +15285,7 @@
         <v>44025</v>
       </c>
       <c r="B504" s="94">
-        <f>B503+1</f>
+        <f t="shared" si="7"/>
         <v>503</v>
       </c>
       <c r="C504" s="95" t="s">
@@ -15276,7 +15310,7 @@
         <v>44025</v>
       </c>
       <c r="B505" s="94">
-        <f>B504+1</f>
+        <f t="shared" si="7"/>
         <v>504</v>
       </c>
       <c r="C505" s="95" t="s">
@@ -15301,7 +15335,7 @@
         <v>44025</v>
       </c>
       <c r="B506" s="94">
-        <f>B505+1</f>
+        <f t="shared" si="7"/>
         <v>505</v>
       </c>
       <c r="C506" s="95" t="s">
@@ -15326,7 +15360,7 @@
         <v>44025</v>
       </c>
       <c r="B507" s="94">
-        <f>B506+1</f>
+        <f t="shared" si="7"/>
         <v>506</v>
       </c>
       <c r="C507" s="95" t="s">
@@ -15351,7 +15385,7 @@
         <v>44025</v>
       </c>
       <c r="B508" s="94">
-        <f>B507+1</f>
+        <f t="shared" si="7"/>
         <v>507</v>
       </c>
       <c r="C508" s="95" t="s">
@@ -15376,7 +15410,7 @@
         <v>44025</v>
       </c>
       <c r="B509" s="94">
-        <f>B508+1</f>
+        <f t="shared" si="7"/>
         <v>508</v>
       </c>
       <c r="C509" s="95" t="s">
@@ -15401,7 +15435,7 @@
         <v>44025</v>
       </c>
       <c r="B510" s="94">
-        <f>B509+1</f>
+        <f t="shared" si="7"/>
         <v>509</v>
       </c>
       <c r="C510" s="95" t="s">
@@ -15426,7 +15460,7 @@
         <v>44025</v>
       </c>
       <c r="B511" s="94">
-        <f>B510+1</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="C511" s="95" t="s">
@@ -15451,7 +15485,7 @@
         <v>44025</v>
       </c>
       <c r="B512" s="94">
-        <f>B511+1</f>
+        <f t="shared" si="7"/>
         <v>511</v>
       </c>
       <c r="C512" s="95" t="s">
@@ -15476,7 +15510,7 @@
         <v>44025</v>
       </c>
       <c r="B513" s="94">
-        <f>B512+1</f>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="C513" s="95" t="s">
@@ -15501,7 +15535,7 @@
         <v>44025</v>
       </c>
       <c r="B514" s="94">
-        <f>B513+1</f>
+        <f t="shared" si="7"/>
         <v>513</v>
       </c>
       <c r="C514" s="95" t="s">
@@ -15526,7 +15560,7 @@
         <v>44025</v>
       </c>
       <c r="B515" s="94">
-        <f>B514+1</f>
+        <f t="shared" ref="B515:B578" si="8">B514+1</f>
         <v>514</v>
       </c>
       <c r="C515" s="95" t="s">
@@ -15551,7 +15585,7 @@
         <v>44025</v>
       </c>
       <c r="B516" s="94">
-        <f>B515+1</f>
+        <f t="shared" si="8"/>
         <v>515</v>
       </c>
       <c r="C516" s="95" t="s">
@@ -15576,7 +15610,7 @@
         <v>44025</v>
       </c>
       <c r="B517" s="94">
-        <f>B516+1</f>
+        <f t="shared" si="8"/>
         <v>516</v>
       </c>
       <c r="C517" s="95" t="s">
@@ -15601,7 +15635,7 @@
         <v>44025</v>
       </c>
       <c r="B518" s="94">
-        <f>B517+1</f>
+        <f t="shared" si="8"/>
         <v>517</v>
       </c>
       <c r="C518" s="95" t="s">
@@ -15626,7 +15660,7 @@
         <v>44025</v>
       </c>
       <c r="B519" s="94">
-        <f>B518+1</f>
+        <f t="shared" si="8"/>
         <v>518</v>
       </c>
       <c r="C519" s="95" t="s">
@@ -15651,7 +15685,7 @@
         <v>44025</v>
       </c>
       <c r="B520" s="94">
-        <f>B519+1</f>
+        <f t="shared" si="8"/>
         <v>519</v>
       </c>
       <c r="C520" s="95" t="s">
@@ -15676,7 +15710,7 @@
         <v>44025</v>
       </c>
       <c r="B521" s="94">
-        <f>B520+1</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="C521" s="95" t="s">
@@ -15701,7 +15735,7 @@
         <v>44025</v>
       </c>
       <c r="B522" s="94">
-        <f>B521+1</f>
+        <f t="shared" si="8"/>
         <v>521</v>
       </c>
       <c r="C522" s="95" t="s">
@@ -15726,7 +15760,7 @@
         <v>44025</v>
       </c>
       <c r="B523" s="94">
-        <f>B522+1</f>
+        <f t="shared" si="8"/>
         <v>522</v>
       </c>
       <c r="C523" s="95" t="s">
@@ -15751,7 +15785,7 @@
         <v>44025</v>
       </c>
       <c r="B524" s="94">
-        <f>B523+1</f>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
       <c r="C524" s="95" t="s">
@@ -15776,7 +15810,7 @@
         <v>44025</v>
       </c>
       <c r="B525" s="94">
-        <f>B524+1</f>
+        <f t="shared" si="8"/>
         <v>524</v>
       </c>
       <c r="C525" s="95" t="s">
@@ -15801,7 +15835,7 @@
         <v>44025</v>
       </c>
       <c r="B526" s="94">
-        <f>B525+1</f>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
       <c r="C526" s="95" t="s">
@@ -15826,7 +15860,7 @@
         <v>44025</v>
       </c>
       <c r="B527" s="94">
-        <f>B526+1</f>
+        <f t="shared" si="8"/>
         <v>526</v>
       </c>
       <c r="C527" s="95" t="s">
@@ -15851,7 +15885,7 @@
         <v>44025</v>
       </c>
       <c r="B528" s="94">
-        <f>B527+1</f>
+        <f t="shared" si="8"/>
         <v>527</v>
       </c>
       <c r="C528" s="95" t="s">
@@ -15876,7 +15910,7 @@
         <v>44025</v>
       </c>
       <c r="B529" s="94">
-        <f>B528+1</f>
+        <f t="shared" si="8"/>
         <v>528</v>
       </c>
       <c r="C529" s="95" t="s">
@@ -15901,7 +15935,7 @@
         <v>44025</v>
       </c>
       <c r="B530" s="94">
-        <f>B529+1</f>
+        <f t="shared" si="8"/>
         <v>529</v>
       </c>
       <c r="C530" s="95" t="s">
@@ -15926,7 +15960,7 @@
         <v>44026</v>
       </c>
       <c r="B531" s="94">
-        <f>B530+1</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
       <c r="C531" s="95" t="s">
@@ -15951,7 +15985,7 @@
         <v>44026</v>
       </c>
       <c r="B532" s="94">
-        <f>B531+1</f>
+        <f t="shared" si="8"/>
         <v>531</v>
       </c>
       <c r="C532" s="95" t="s">
@@ -15976,7 +16010,7 @@
         <v>44026</v>
       </c>
       <c r="B533" s="94">
-        <f>B532+1</f>
+        <f t="shared" si="8"/>
         <v>532</v>
       </c>
       <c r="C533" s="95" t="s">
@@ -16001,7 +16035,7 @@
         <v>44026</v>
       </c>
       <c r="B534" s="94">
-        <f>B533+1</f>
+        <f t="shared" si="8"/>
         <v>533</v>
       </c>
       <c r="C534" s="95" t="s">
@@ -16026,7 +16060,7 @@
         <v>44026</v>
       </c>
       <c r="B535" s="94">
-        <f>B534+1</f>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
       <c r="C535" s="95" t="s">
@@ -16051,7 +16085,7 @@
         <v>44026</v>
       </c>
       <c r="B536" s="94">
-        <f>B535+1</f>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="C536" s="95" t="s">
@@ -16076,7 +16110,7 @@
         <v>44026</v>
       </c>
       <c r="B537" s="94">
-        <f>B536+1</f>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
       <c r="C537" s="95" t="s">
@@ -16101,7 +16135,7 @@
         <v>44026</v>
       </c>
       <c r="B538" s="94">
-        <f>B537+1</f>
+        <f t="shared" si="8"/>
         <v>537</v>
       </c>
       <c r="C538" s="95" t="s">
@@ -16126,7 +16160,7 @@
         <v>44026</v>
       </c>
       <c r="B539" s="94">
-        <f>B538+1</f>
+        <f t="shared" si="8"/>
         <v>538</v>
       </c>
       <c r="C539" s="95" t="s">
@@ -16151,7 +16185,7 @@
         <v>44026</v>
       </c>
       <c r="B540" s="94">
-        <f>B539+1</f>
+        <f t="shared" si="8"/>
         <v>539</v>
       </c>
       <c r="C540" s="95" t="s">
@@ -16176,7 +16210,7 @@
         <v>44026</v>
       </c>
       <c r="B541" s="94">
-        <f>B540+1</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="C541" s="95" t="s">
@@ -16201,7 +16235,7 @@
         <v>44026</v>
       </c>
       <c r="B542" s="94">
-        <f>B541+1</f>
+        <f t="shared" si="8"/>
         <v>541</v>
       </c>
       <c r="C542" s="95" t="s">
@@ -16226,7 +16260,7 @@
         <v>44026</v>
       </c>
       <c r="B543" s="94">
-        <f>B542+1</f>
+        <f t="shared" si="8"/>
         <v>542</v>
       </c>
       <c r="C543" s="95" t="s">
@@ -16251,7 +16285,7 @@
         <v>44026</v>
       </c>
       <c r="B544" s="94">
-        <f>B543+1</f>
+        <f t="shared" si="8"/>
         <v>543</v>
       </c>
       <c r="C544" s="95" t="s">
@@ -16276,7 +16310,7 @@
         <v>44026</v>
       </c>
       <c r="B545" s="94">
-        <f>B544+1</f>
+        <f t="shared" si="8"/>
         <v>544</v>
       </c>
       <c r="C545" s="95" t="s">
@@ -16301,7 +16335,7 @@
         <v>44026</v>
       </c>
       <c r="B546" s="94">
-        <f>B545+1</f>
+        <f t="shared" si="8"/>
         <v>545</v>
       </c>
       <c r="C546" s="95" t="s">
@@ -16326,7 +16360,7 @@
         <v>44026</v>
       </c>
       <c r="B547" s="94">
-        <f>B546+1</f>
+        <f t="shared" si="8"/>
         <v>546</v>
       </c>
       <c r="C547" s="95" t="s">
@@ -16351,7 +16385,7 @@
         <v>44026</v>
       </c>
       <c r="B548" s="94">
-        <f>B547+1</f>
+        <f t="shared" si="8"/>
         <v>547</v>
       </c>
       <c r="C548" s="95" t="s">
@@ -16376,7 +16410,7 @@
         <v>44026</v>
       </c>
       <c r="B549" s="94">
-        <f>B548+1</f>
+        <f t="shared" si="8"/>
         <v>548</v>
       </c>
       <c r="C549" s="95" t="s">
@@ -16401,7 +16435,7 @@
         <v>44026</v>
       </c>
       <c r="B550" s="94">
-        <f>B549+1</f>
+        <f t="shared" si="8"/>
         <v>549</v>
       </c>
       <c r="C550" s="95" t="s">
@@ -16426,7 +16460,7 @@
         <v>44027</v>
       </c>
       <c r="B551" s="94">
-        <f>B550+1</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
       <c r="C551" s="95" t="s">
@@ -16451,7 +16485,7 @@
         <v>44027</v>
       </c>
       <c r="B552" s="94">
-        <f>B551+1</f>
+        <f t="shared" si="8"/>
         <v>551</v>
       </c>
       <c r="C552" s="95" t="s">
@@ -16476,7 +16510,7 @@
         <v>44027</v>
       </c>
       <c r="B553" s="94">
-        <f>B552+1</f>
+        <f t="shared" si="8"/>
         <v>552</v>
       </c>
       <c r="C553" s="95" t="s">
@@ -16501,7 +16535,7 @@
         <v>44027</v>
       </c>
       <c r="B554" s="94">
-        <f>B553+1</f>
+        <f t="shared" si="8"/>
         <v>553</v>
       </c>
       <c r="C554" s="95" t="s">
@@ -16526,7 +16560,7 @@
         <v>44027</v>
       </c>
       <c r="B555" s="94">
-        <f>B554+1</f>
+        <f t="shared" si="8"/>
         <v>554</v>
       </c>
       <c r="C555" s="95" t="s">
@@ -16551,7 +16585,7 @@
         <v>44027</v>
       </c>
       <c r="B556" s="94">
-        <f>B555+1</f>
+        <f t="shared" si="8"/>
         <v>555</v>
       </c>
       <c r="C556" s="95" t="s">
@@ -16576,7 +16610,7 @@
         <v>44027</v>
       </c>
       <c r="B557" s="94">
-        <f>B556+1</f>
+        <f t="shared" si="8"/>
         <v>556</v>
       </c>
       <c r="C557" s="95" t="s">
@@ -16601,7 +16635,7 @@
         <v>44027</v>
       </c>
       <c r="B558" s="94">
-        <f>B557+1</f>
+        <f t="shared" si="8"/>
         <v>557</v>
       </c>
       <c r="C558" s="95" t="s">
@@ -16626,7 +16660,7 @@
         <v>44027</v>
       </c>
       <c r="B559" s="94">
-        <f>B558+1</f>
+        <f t="shared" si="8"/>
         <v>558</v>
       </c>
       <c r="C559" s="95" t="s">
@@ -16651,7 +16685,7 @@
         <v>44027</v>
       </c>
       <c r="B560" s="94">
-        <f>B559+1</f>
+        <f t="shared" si="8"/>
         <v>559</v>
       </c>
       <c r="C560" s="95" t="s">
@@ -16676,7 +16710,7 @@
         <v>44028</v>
       </c>
       <c r="B561" s="94">
-        <f>B560+1</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="C561" s="95" t="s">
@@ -16701,7 +16735,7 @@
         <v>44028</v>
       </c>
       <c r="B562" s="94">
-        <f>B561+1</f>
+        <f t="shared" si="8"/>
         <v>561</v>
       </c>
       <c r="C562" s="95" t="s">
@@ -16726,7 +16760,7 @@
         <v>44028</v>
       </c>
       <c r="B563" s="94">
-        <f>B562+1</f>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="C563" s="95" t="s">
@@ -16751,7 +16785,7 @@
         <v>44028</v>
       </c>
       <c r="B564" s="94">
-        <f>B563+1</f>
+        <f t="shared" si="8"/>
         <v>563</v>
       </c>
       <c r="C564" s="95" t="s">
@@ -16776,7 +16810,7 @@
         <v>44028</v>
       </c>
       <c r="B565" s="94">
-        <f>B564+1</f>
+        <f t="shared" si="8"/>
         <v>564</v>
       </c>
       <c r="C565" s="95" t="s">
@@ -16803,7 +16837,7 @@
         <v>44028</v>
       </c>
       <c r="B566" s="94">
-        <f>B565+1</f>
+        <f t="shared" si="8"/>
         <v>565</v>
       </c>
       <c r="C566" s="95" t="s">
@@ -16828,7 +16862,7 @@
         <v>44028</v>
       </c>
       <c r="B567" s="94">
-        <f>B566+1</f>
+        <f t="shared" si="8"/>
         <v>566</v>
       </c>
       <c r="C567" s="95" t="s">
@@ -16853,7 +16887,7 @@
         <v>44028</v>
       </c>
       <c r="B568" s="94">
-        <f>B567+1</f>
+        <f t="shared" si="8"/>
         <v>567</v>
       </c>
       <c r="C568" s="95" t="s">
@@ -16878,7 +16912,7 @@
         <v>44028</v>
       </c>
       <c r="B569" s="94">
-        <f>B568+1</f>
+        <f t="shared" si="8"/>
         <v>568</v>
       </c>
       <c r="C569" s="95" t="s">
@@ -16903,7 +16937,7 @@
         <v>44028</v>
       </c>
       <c r="B570" s="94">
-        <f>B569+1</f>
+        <f t="shared" si="8"/>
         <v>569</v>
       </c>
       <c r="C570" s="95" t="s">
@@ -16928,7 +16962,7 @@
         <v>44028</v>
       </c>
       <c r="B571" s="94">
-        <f>B570+1</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
       <c r="C571" s="95" t="s">
@@ -16953,7 +16987,7 @@
         <v>44028</v>
       </c>
       <c r="B572" s="94">
-        <f>B571+1</f>
+        <f t="shared" si="8"/>
         <v>571</v>
       </c>
       <c r="C572" s="95" t="s">
@@ -16978,7 +17012,7 @@
         <v>44029</v>
       </c>
       <c r="B573" s="94">
-        <f>B572+1</f>
+        <f t="shared" si="8"/>
         <v>572</v>
       </c>
       <c r="C573" s="95" t="s">
@@ -17003,7 +17037,7 @@
         <v>44029</v>
       </c>
       <c r="B574" s="94">
-        <f>B573+1</f>
+        <f t="shared" si="8"/>
         <v>573</v>
       </c>
       <c r="C574" s="95" t="s">
@@ -17028,7 +17062,7 @@
         <v>44029</v>
       </c>
       <c r="B575" s="94">
-        <f>B574+1</f>
+        <f t="shared" si="8"/>
         <v>574</v>
       </c>
       <c r="C575" s="95" t="s">
@@ -17053,7 +17087,7 @@
         <v>44029</v>
       </c>
       <c r="B576" s="94">
-        <f>B575+1</f>
+        <f t="shared" si="8"/>
         <v>575</v>
       </c>
       <c r="C576" s="95" t="s">
@@ -17078,7 +17112,7 @@
         <v>44029</v>
       </c>
       <c r="B577" s="94">
-        <f>B576+1</f>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
       <c r="C577" s="95" t="s">
@@ -17103,7 +17137,7 @@
         <v>44029</v>
       </c>
       <c r="B578" s="94">
-        <f>B577+1</f>
+        <f t="shared" si="8"/>
         <v>577</v>
       </c>
       <c r="C578" s="95" t="s">
@@ -17128,7 +17162,7 @@
         <v>44029</v>
       </c>
       <c r="B579" s="94">
-        <f>B578+1</f>
+        <f t="shared" ref="B579:B642" si="9">B578+1</f>
         <v>578</v>
       </c>
       <c r="C579" s="95" t="s">
@@ -17153,7 +17187,7 @@
         <v>44029</v>
       </c>
       <c r="B580" s="94">
-        <f>B579+1</f>
+        <f t="shared" si="9"/>
         <v>579</v>
       </c>
       <c r="C580" s="95" t="s">
@@ -17178,7 +17212,7 @@
         <v>44029</v>
       </c>
       <c r="B581" s="94">
-        <f>B580+1</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
       <c r="C581" s="95" t="s">
@@ -17203,7 +17237,7 @@
         <v>44029</v>
       </c>
       <c r="B582" s="94">
-        <f>B581+1</f>
+        <f t="shared" si="9"/>
         <v>581</v>
       </c>
       <c r="C582" s="95" t="s">
@@ -17228,7 +17262,7 @@
         <v>44029</v>
       </c>
       <c r="B583" s="94">
-        <f>B582+1</f>
+        <f t="shared" si="9"/>
         <v>582</v>
       </c>
       <c r="C583" s="95" t="s">
@@ -17253,7 +17287,7 @@
         <v>44029</v>
       </c>
       <c r="B584" s="94">
-        <f>B583+1</f>
+        <f t="shared" si="9"/>
         <v>583</v>
       </c>
       <c r="C584" s="95" t="s">
@@ -17278,7 +17312,7 @@
         <v>44029</v>
       </c>
       <c r="B585" s="94">
-        <f>B584+1</f>
+        <f t="shared" si="9"/>
         <v>584</v>
       </c>
       <c r="C585" s="95" t="s">
@@ -17303,7 +17337,7 @@
         <v>44029</v>
       </c>
       <c r="B586" s="94">
-        <f>B585+1</f>
+        <f t="shared" si="9"/>
         <v>585</v>
       </c>
       <c r="C586" s="95" t="s">
@@ -17328,7 +17362,7 @@
         <v>44029</v>
       </c>
       <c r="B587" s="94">
-        <f>B586+1</f>
+        <f t="shared" si="9"/>
         <v>586</v>
       </c>
       <c r="C587" s="95" t="s">
@@ -17353,7 +17387,7 @@
         <v>44029</v>
       </c>
       <c r="B588" s="94">
-        <f>B587+1</f>
+        <f t="shared" si="9"/>
         <v>587</v>
       </c>
       <c r="C588" s="95" t="s">
@@ -17378,7 +17412,7 @@
         <v>44029</v>
       </c>
       <c r="B589" s="94">
-        <f>B588+1</f>
+        <f t="shared" si="9"/>
         <v>588</v>
       </c>
       <c r="C589" s="95" t="s">
@@ -17403,7 +17437,7 @@
         <v>44029</v>
       </c>
       <c r="B590" s="94">
-        <f>B589+1</f>
+        <f t="shared" si="9"/>
         <v>589</v>
       </c>
       <c r="C590" s="95" t="s">
@@ -17428,7 +17462,7 @@
         <v>44029</v>
       </c>
       <c r="B591" s="94">
-        <f>B590+1</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
       <c r="C591" s="95" t="s">
@@ -17453,7 +17487,7 @@
         <v>44029</v>
       </c>
       <c r="B592" s="94">
-        <f>B591+1</f>
+        <f t="shared" si="9"/>
         <v>591</v>
       </c>
       <c r="C592" s="95" t="s">
@@ -17478,7 +17512,7 @@
         <v>44029</v>
       </c>
       <c r="B593" s="94">
-        <f>B592+1</f>
+        <f t="shared" si="9"/>
         <v>592</v>
       </c>
       <c r="C593" s="95" t="s">
@@ -17503,7 +17537,7 @@
         <v>44029</v>
       </c>
       <c r="B594" s="94">
-        <f>B593+1</f>
+        <f t="shared" si="9"/>
         <v>593</v>
       </c>
       <c r="C594" s="95" t="s">
@@ -17528,7 +17562,7 @@
         <v>44029</v>
       </c>
       <c r="B595" s="94">
-        <f>B594+1</f>
+        <f t="shared" si="9"/>
         <v>594</v>
       </c>
       <c r="C595" s="95" t="s">
@@ -17553,7 +17587,7 @@
         <v>44029</v>
       </c>
       <c r="B596" s="94">
-        <f>B595+1</f>
+        <f t="shared" si="9"/>
         <v>595</v>
       </c>
       <c r="C596" s="95" t="s">
@@ -17578,7 +17612,7 @@
         <v>44030</v>
       </c>
       <c r="B597" s="94">
-        <f>B596+1</f>
+        <f t="shared" si="9"/>
         <v>596</v>
       </c>
       <c r="C597" s="95" t="s">
@@ -17603,7 +17637,7 @@
         <v>44030</v>
       </c>
       <c r="B598" s="94">
-        <f>B597+1</f>
+        <f t="shared" si="9"/>
         <v>597</v>
       </c>
       <c r="C598" s="95" t="s">
@@ -17628,7 +17662,7 @@
         <v>44030</v>
       </c>
       <c r="B599" s="94">
-        <f>B598+1</f>
+        <f t="shared" si="9"/>
         <v>598</v>
       </c>
       <c r="C599" s="95" t="s">
@@ -17653,7 +17687,7 @@
         <v>44030</v>
       </c>
       <c r="B600" s="94">
-        <f>B599+1</f>
+        <f t="shared" si="9"/>
         <v>599</v>
       </c>
       <c r="C600" s="95" t="s">
@@ -17678,7 +17712,7 @@
         <v>44030</v>
       </c>
       <c r="B601" s="94">
-        <f>B600+1</f>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="C601" s="95" t="s">
@@ -17703,7 +17737,7 @@
         <v>44030</v>
       </c>
       <c r="B602" s="94">
-        <f>B601+1</f>
+        <f t="shared" si="9"/>
         <v>601</v>
       </c>
       <c r="C602" s="95" t="s">
@@ -17728,7 +17762,7 @@
         <v>44030</v>
       </c>
       <c r="B603" s="94">
-        <f>B602+1</f>
+        <f t="shared" si="9"/>
         <v>602</v>
       </c>
       <c r="C603" s="95" t="s">
@@ -17753,7 +17787,7 @@
         <v>44030</v>
       </c>
       <c r="B604" s="94">
-        <f>B603+1</f>
+        <f t="shared" si="9"/>
         <v>603</v>
       </c>
       <c r="C604" s="95" t="s">
@@ -17778,7 +17812,7 @@
         <v>44030</v>
       </c>
       <c r="B605" s="94">
-        <f>B604+1</f>
+        <f t="shared" si="9"/>
         <v>604</v>
       </c>
       <c r="C605" s="95" t="s">
@@ -17803,7 +17837,7 @@
         <v>44030</v>
       </c>
       <c r="B606" s="94">
-        <f>B605+1</f>
+        <f t="shared" si="9"/>
         <v>605</v>
       </c>
       <c r="C606" s="95" t="s">
@@ -17828,7 +17862,7 @@
         <v>44030</v>
       </c>
       <c r="B607" s="94">
-        <f>B606+1</f>
+        <f t="shared" si="9"/>
         <v>606</v>
       </c>
       <c r="C607" s="95" t="s">
@@ -17853,7 +17887,7 @@
         <v>44030</v>
       </c>
       <c r="B608" s="94">
-        <f>B607+1</f>
+        <f t="shared" si="9"/>
         <v>607</v>
       </c>
       <c r="C608" s="95" t="s">
@@ -17878,7 +17912,7 @@
         <v>44030</v>
       </c>
       <c r="B609" s="94">
-        <f>B608+1</f>
+        <f t="shared" si="9"/>
         <v>608</v>
       </c>
       <c r="C609" s="95" t="s">
@@ -17903,7 +17937,7 @@
         <v>44030</v>
       </c>
       <c r="B610" s="94">
-        <f>B609+1</f>
+        <f t="shared" si="9"/>
         <v>609</v>
       </c>
       <c r="C610" s="95" t="s">
@@ -17928,7 +17962,7 @@
         <v>44031</v>
       </c>
       <c r="B611" s="94">
-        <f>B610+1</f>
+        <f t="shared" si="9"/>
         <v>610</v>
       </c>
       <c r="C611" s="95" t="s">
@@ -17953,7 +17987,7 @@
         <v>44031</v>
       </c>
       <c r="B612" s="94">
-        <f>B611+1</f>
+        <f t="shared" si="9"/>
         <v>611</v>
       </c>
       <c r="C612" s="95" t="s">
@@ -17978,7 +18012,7 @@
         <v>44031</v>
       </c>
       <c r="B613" s="94">
-        <f>B612+1</f>
+        <f t="shared" si="9"/>
         <v>612</v>
       </c>
       <c r="C613" s="95" t="s">
@@ -18003,7 +18037,7 @@
         <v>44031</v>
       </c>
       <c r="B614" s="94">
-        <f>B613+1</f>
+        <f t="shared" si="9"/>
         <v>613</v>
       </c>
       <c r="C614" s="95" t="s">
@@ -18028,7 +18062,7 @@
         <v>44031</v>
       </c>
       <c r="B615" s="94">
-        <f>B614+1</f>
+        <f t="shared" si="9"/>
         <v>614</v>
       </c>
       <c r="C615" s="95" t="s">
@@ -18053,7 +18087,7 @@
         <v>44031</v>
       </c>
       <c r="B616" s="94">
-        <f>B615+1</f>
+        <f t="shared" si="9"/>
         <v>615</v>
       </c>
       <c r="C616" s="95" t="s">
@@ -18078,7 +18112,7 @@
         <v>44031</v>
       </c>
       <c r="B617" s="94">
-        <f>B616+1</f>
+        <f t="shared" si="9"/>
         <v>616</v>
       </c>
       <c r="C617" s="95" t="s">
@@ -18103,7 +18137,7 @@
         <v>44031</v>
       </c>
       <c r="B618" s="94">
-        <f>B617+1</f>
+        <f t="shared" si="9"/>
         <v>617</v>
       </c>
       <c r="C618" s="95" t="s">
@@ -18128,7 +18162,7 @@
         <v>44031</v>
       </c>
       <c r="B619" s="94">
-        <f>B618+1</f>
+        <f t="shared" si="9"/>
         <v>618</v>
       </c>
       <c r="C619" s="95" t="s">
@@ -18153,7 +18187,7 @@
         <v>44031</v>
       </c>
       <c r="B620" s="94">
-        <f>B619+1</f>
+        <f t="shared" si="9"/>
         <v>619</v>
       </c>
       <c r="C620" s="95" t="s">
@@ -18178,7 +18212,7 @@
         <v>44031</v>
       </c>
       <c r="B621" s="94">
-        <f>B620+1</f>
+        <f t="shared" si="9"/>
         <v>620</v>
       </c>
       <c r="C621" s="95" t="s">
@@ -18203,7 +18237,7 @@
         <v>44031</v>
       </c>
       <c r="B622" s="94">
-        <f>B621+1</f>
+        <f t="shared" si="9"/>
         <v>621</v>
       </c>
       <c r="C622" s="95" t="s">
@@ -18228,7 +18262,7 @@
         <v>44031</v>
       </c>
       <c r="B623" s="94">
-        <f>B622+1</f>
+        <f t="shared" si="9"/>
         <v>622</v>
       </c>
       <c r="C623" s="95" t="s">
@@ -18253,7 +18287,7 @@
         <v>44032</v>
       </c>
       <c r="B624" s="94">
-        <f>B623+1</f>
+        <f t="shared" si="9"/>
         <v>623</v>
       </c>
       <c r="C624" s="95" t="s">
@@ -18278,7 +18312,7 @@
         <v>44032</v>
       </c>
       <c r="B625" s="94">
-        <f>B624+1</f>
+        <f t="shared" si="9"/>
         <v>624</v>
       </c>
       <c r="C625" s="95" t="s">
@@ -18305,7 +18339,7 @@
         <v>44032</v>
       </c>
       <c r="B626" s="94">
-        <f>B625+1</f>
+        <f t="shared" si="9"/>
         <v>625</v>
       </c>
       <c r="C626" s="95" t="s">
@@ -18330,7 +18364,7 @@
         <v>44032</v>
       </c>
       <c r="B627" s="94">
-        <f>B626+1</f>
+        <f t="shared" si="9"/>
         <v>626</v>
       </c>
       <c r="C627" s="95" t="s">
@@ -18355,7 +18389,7 @@
         <v>44032</v>
       </c>
       <c r="B628" s="94">
-        <f>B627+1</f>
+        <f t="shared" si="9"/>
         <v>627</v>
       </c>
       <c r="C628" s="95" t="s">
@@ -18380,7 +18414,7 @@
         <v>44032</v>
       </c>
       <c r="B629" s="94">
-        <f>B628+1</f>
+        <f t="shared" si="9"/>
         <v>628</v>
       </c>
       <c r="C629" s="95" t="s">
@@ -18405,7 +18439,7 @@
         <v>44032</v>
       </c>
       <c r="B630" s="94">
-        <f>B629+1</f>
+        <f t="shared" si="9"/>
         <v>629</v>
       </c>
       <c r="C630" s="95" t="s">
@@ -18430,7 +18464,7 @@
         <v>44032</v>
       </c>
       <c r="B631" s="94">
-        <f>B630+1</f>
+        <f t="shared" si="9"/>
         <v>630</v>
       </c>
       <c r="C631" s="95" t="s">
@@ -18455,7 +18489,7 @@
         <v>44032</v>
       </c>
       <c r="B632" s="94">
-        <f>B631+1</f>
+        <f t="shared" si="9"/>
         <v>631</v>
       </c>
       <c r="C632" s="95" t="s">
@@ -18480,7 +18514,7 @@
         <v>44032</v>
       </c>
       <c r="B633" s="94">
-        <f>B632+1</f>
+        <f t="shared" si="9"/>
         <v>632</v>
       </c>
       <c r="C633" s="95" t="s">
@@ -18505,7 +18539,7 @@
         <v>44032</v>
       </c>
       <c r="B634" s="94">
-        <f>B633+1</f>
+        <f t="shared" si="9"/>
         <v>633</v>
       </c>
       <c r="C634" s="95" t="s">
@@ -18530,7 +18564,7 @@
         <v>44032</v>
       </c>
       <c r="B635" s="94">
-        <f>B634+1</f>
+        <f t="shared" si="9"/>
         <v>634</v>
       </c>
       <c r="C635" s="95" t="s">
@@ -18555,7 +18589,7 @@
         <v>44032</v>
       </c>
       <c r="B636" s="94">
-        <f>B635+1</f>
+        <f t="shared" si="9"/>
         <v>635</v>
       </c>
       <c r="C636" s="95" t="s">
@@ -18580,7 +18614,7 @@
         <v>44032</v>
       </c>
       <c r="B637" s="94">
-        <f>B636+1</f>
+        <f t="shared" si="9"/>
         <v>636</v>
       </c>
       <c r="C637" s="95" t="s">
@@ -18605,7 +18639,7 @@
         <v>44032</v>
       </c>
       <c r="B638" s="94">
-        <f>B637+1</f>
+        <f t="shared" si="9"/>
         <v>637</v>
       </c>
       <c r="C638" s="95" t="s">
@@ -18630,7 +18664,7 @@
         <v>44032</v>
       </c>
       <c r="B639" s="94">
-        <f>B638+1</f>
+        <f t="shared" si="9"/>
         <v>638</v>
       </c>
       <c r="C639" s="95" t="s">
@@ -18655,7 +18689,7 @@
         <v>44032</v>
       </c>
       <c r="B640" s="94">
-        <f>B639+1</f>
+        <f t="shared" si="9"/>
         <v>639</v>
       </c>
       <c r="C640" s="95" t="s">
@@ -18680,7 +18714,7 @@
         <v>44032</v>
       </c>
       <c r="B641" s="94">
-        <f>B640+1</f>
+        <f t="shared" si="9"/>
         <v>640</v>
       </c>
       <c r="C641" s="95" t="s">
@@ -18705,7 +18739,7 @@
         <v>44033</v>
       </c>
       <c r="B642" s="94">
-        <f>B641+1</f>
+        <f t="shared" si="9"/>
         <v>641</v>
       </c>
       <c r="C642" s="95" t="s">
@@ -18730,7 +18764,7 @@
         <v>44033</v>
       </c>
       <c r="B643" s="94">
-        <f>B642+1</f>
+        <f t="shared" ref="B643:B706" si="10">B642+1</f>
         <v>642</v>
       </c>
       <c r="C643" s="95" t="s">
@@ -18755,7 +18789,7 @@
         <v>44033</v>
       </c>
       <c r="B644" s="94">
-        <f>B643+1</f>
+        <f t="shared" si="10"/>
         <v>643</v>
       </c>
       <c r="C644" s="95" t="s">
@@ -18780,7 +18814,7 @@
         <v>44033</v>
       </c>
       <c r="B645" s="94">
-        <f>B644+1</f>
+        <f t="shared" si="10"/>
         <v>644</v>
       </c>
       <c r="C645" s="95" t="s">
@@ -18805,7 +18839,7 @@
         <v>44033</v>
       </c>
       <c r="B646" s="94">
-        <f>B645+1</f>
+        <f t="shared" si="10"/>
         <v>645</v>
       </c>
       <c r="C646" s="95" t="s">
@@ -18830,7 +18864,7 @@
         <v>44033</v>
       </c>
       <c r="B647" s="94">
-        <f>B646+1</f>
+        <f t="shared" si="10"/>
         <v>646</v>
       </c>
       <c r="C647" s="95" t="s">
@@ -18857,7 +18891,7 @@
         <v>44033</v>
       </c>
       <c r="B648" s="94">
-        <f>B647+1</f>
+        <f t="shared" si="10"/>
         <v>647</v>
       </c>
       <c r="C648" s="95" t="s">
@@ -18882,7 +18916,7 @@
         <v>44033</v>
       </c>
       <c r="B649" s="94">
-        <f>B648+1</f>
+        <f t="shared" si="10"/>
         <v>648</v>
       </c>
       <c r="C649" s="95" t="s">
@@ -18907,7 +18941,7 @@
         <v>44033</v>
       </c>
       <c r="B650" s="94">
-        <f>B649+1</f>
+        <f t="shared" si="10"/>
         <v>649</v>
       </c>
       <c r="C650" s="95" t="s">
@@ -18932,7 +18966,7 @@
         <v>44033</v>
       </c>
       <c r="B651" s="94">
-        <f>B650+1</f>
+        <f t="shared" si="10"/>
         <v>650</v>
       </c>
       <c r="C651" s="95" t="s">
@@ -18957,7 +18991,7 @@
         <v>44034</v>
       </c>
       <c r="B652" s="94">
-        <f>B651+1</f>
+        <f t="shared" si="10"/>
         <v>651</v>
       </c>
       <c r="C652" s="95" t="s">
@@ -18982,7 +19016,7 @@
         <v>44034</v>
       </c>
       <c r="B653" s="94">
-        <f>B652+1</f>
+        <f t="shared" si="10"/>
         <v>652</v>
       </c>
       <c r="C653" s="95" t="s">
@@ -19007,7 +19041,7 @@
         <v>44034</v>
       </c>
       <c r="B654" s="94">
-        <f>B653+1</f>
+        <f t="shared" si="10"/>
         <v>653</v>
       </c>
       <c r="C654" s="95" t="s">
@@ -19032,7 +19066,7 @@
         <v>44034</v>
       </c>
       <c r="B655" s="94">
-        <f>B654+1</f>
+        <f t="shared" si="10"/>
         <v>654</v>
       </c>
       <c r="C655" s="95" t="s">
@@ -19057,7 +19091,7 @@
         <v>44034</v>
       </c>
       <c r="B656" s="94">
-        <f>B655+1</f>
+        <f t="shared" si="10"/>
         <v>655</v>
       </c>
       <c r="C656" s="95" t="s">
@@ -19082,7 +19116,7 @@
         <v>44034</v>
       </c>
       <c r="B657" s="94">
-        <f>B656+1</f>
+        <f t="shared" si="10"/>
         <v>656</v>
       </c>
       <c r="C657" s="95" t="s">
@@ -19107,7 +19141,7 @@
         <v>44034</v>
       </c>
       <c r="B658" s="94">
-        <f>B657+1</f>
+        <f t="shared" si="10"/>
         <v>657</v>
       </c>
       <c r="C658" s="95" t="s">
@@ -19132,7 +19166,7 @@
         <v>44034</v>
       </c>
       <c r="B659" s="94">
-        <f>B658+1</f>
+        <f t="shared" si="10"/>
         <v>658</v>
       </c>
       <c r="C659" s="95" t="s">
@@ -19157,7 +19191,7 @@
         <v>44034</v>
       </c>
       <c r="B660" s="94">
-        <f>B659+1</f>
+        <f t="shared" si="10"/>
         <v>659</v>
       </c>
       <c r="C660" s="95" t="s">
@@ -19182,7 +19216,7 @@
         <v>44034</v>
       </c>
       <c r="B661" s="94">
-        <f>B660+1</f>
+        <f t="shared" si="10"/>
         <v>660</v>
       </c>
       <c r="C661" s="95" t="s">
@@ -19207,7 +19241,7 @@
         <v>44034</v>
       </c>
       <c r="B662" s="94">
-        <f>B661+1</f>
+        <f t="shared" si="10"/>
         <v>661</v>
       </c>
       <c r="C662" s="95" t="s">
@@ -19232,7 +19266,7 @@
         <v>44034</v>
       </c>
       <c r="B663" s="94">
-        <f>B662+1</f>
+        <f t="shared" si="10"/>
         <v>662</v>
       </c>
       <c r="C663" s="95" t="s">
@@ -19257,7 +19291,7 @@
         <v>44034</v>
       </c>
       <c r="B664" s="94">
-        <f>B663+1</f>
+        <f t="shared" si="10"/>
         <v>663</v>
       </c>
       <c r="C664" s="95" t="s">
@@ -19282,7 +19316,7 @@
         <v>44034</v>
       </c>
       <c r="B665" s="94">
-        <f>B664+1</f>
+        <f t="shared" si="10"/>
         <v>664</v>
       </c>
       <c r="C665" s="95" t="s">
@@ -19307,7 +19341,7 @@
         <v>44034</v>
       </c>
       <c r="B666" s="94">
-        <f>B665+1</f>
+        <f t="shared" si="10"/>
         <v>665</v>
       </c>
       <c r="C666" s="95" t="s">
@@ -19332,7 +19366,7 @@
         <v>44034</v>
       </c>
       <c r="B667" s="94">
-        <f>B666+1</f>
+        <f t="shared" si="10"/>
         <v>666</v>
       </c>
       <c r="C667" s="95" t="s">
@@ -19357,7 +19391,7 @@
         <v>44034</v>
       </c>
       <c r="B668" s="94">
-        <f>B667+1</f>
+        <f t="shared" si="10"/>
         <v>667</v>
       </c>
       <c r="C668" s="95" t="s">
@@ -19382,7 +19416,7 @@
         <v>44034</v>
       </c>
       <c r="B669" s="94">
-        <f>B668+1</f>
+        <f t="shared" si="10"/>
         <v>668</v>
       </c>
       <c r="C669" s="95" t="s">
@@ -19407,7 +19441,7 @@
         <v>44034</v>
       </c>
       <c r="B670" s="94">
-        <f>B669+1</f>
+        <f t="shared" si="10"/>
         <v>669</v>
       </c>
       <c r="C670" s="95" t="s">
@@ -19432,7 +19466,7 @@
         <v>44034</v>
       </c>
       <c r="B671" s="94">
-        <f>B670+1</f>
+        <f t="shared" si="10"/>
         <v>670</v>
       </c>
       <c r="C671" s="95" t="s">
@@ -19457,7 +19491,7 @@
         <v>44034</v>
       </c>
       <c r="B672" s="94">
-        <f>B671+1</f>
+        <f t="shared" si="10"/>
         <v>671</v>
       </c>
       <c r="C672" s="95" t="s">
@@ -19482,7 +19516,7 @@
         <v>44034</v>
       </c>
       <c r="B673" s="94">
-        <f>B672+1</f>
+        <f t="shared" si="10"/>
         <v>672</v>
       </c>
       <c r="C673" s="95" t="s">
@@ -19507,7 +19541,7 @@
         <v>44034</v>
       </c>
       <c r="B674" s="94">
-        <f>B673+1</f>
+        <f t="shared" si="10"/>
         <v>673</v>
       </c>
       <c r="C674" s="95" t="s">
@@ -19532,7 +19566,7 @@
         <v>44034</v>
       </c>
       <c r="B675" s="94">
-        <f>B674+1</f>
+        <f t="shared" si="10"/>
         <v>674</v>
       </c>
       <c r="C675" s="95" t="s">
@@ -19557,7 +19591,7 @@
         <v>44035</v>
       </c>
       <c r="B676" s="94">
-        <f>B675+1</f>
+        <f t="shared" si="10"/>
         <v>675</v>
       </c>
       <c r="C676" s="95" t="s">
@@ -19582,7 +19616,7 @@
         <v>44035</v>
       </c>
       <c r="B677" s="94">
-        <f>B676+1</f>
+        <f t="shared" si="10"/>
         <v>676</v>
       </c>
       <c r="C677" s="95" t="s">
@@ -19607,7 +19641,7 @@
         <v>44035</v>
       </c>
       <c r="B678" s="94">
-        <f>B677+1</f>
+        <f t="shared" si="10"/>
         <v>677</v>
       </c>
       <c r="C678" s="95" t="s">
@@ -19632,7 +19666,7 @@
         <v>44035</v>
       </c>
       <c r="B679" s="94">
-        <f>B678+1</f>
+        <f t="shared" si="10"/>
         <v>678</v>
       </c>
       <c r="C679" s="95" t="s">
@@ -19657,7 +19691,7 @@
         <v>44035</v>
       </c>
       <c r="B680" s="94">
-        <f>B679+1</f>
+        <f t="shared" si="10"/>
         <v>679</v>
       </c>
       <c r="C680" s="95" t="s">
@@ -19682,7 +19716,7 @@
         <v>44035</v>
       </c>
       <c r="B681" s="94">
-        <f>B680+1</f>
+        <f t="shared" si="10"/>
         <v>680</v>
       </c>
       <c r="C681" s="95" t="s">
@@ -19707,7 +19741,7 @@
         <v>44035</v>
       </c>
       <c r="B682" s="94">
-        <f>B681+1</f>
+        <f t="shared" si="10"/>
         <v>681</v>
       </c>
       <c r="C682" s="95" t="s">
@@ -19732,7 +19766,7 @@
         <v>44035</v>
       </c>
       <c r="B683" s="94">
-        <f>B682+1</f>
+        <f t="shared" si="10"/>
         <v>682</v>
       </c>
       <c r="C683" s="95" t="s">
@@ -19759,7 +19793,7 @@
         <v>44035</v>
       </c>
       <c r="B684" s="94">
-        <f>B683+1</f>
+        <f t="shared" si="10"/>
         <v>683</v>
       </c>
       <c r="C684" s="95" t="s">
@@ -19784,7 +19818,7 @@
         <v>44035</v>
       </c>
       <c r="B685" s="94">
-        <f>B684+1</f>
+        <f t="shared" si="10"/>
         <v>684</v>
       </c>
       <c r="C685" s="95" t="s">
@@ -19809,7 +19843,7 @@
         <v>44035</v>
       </c>
       <c r="B686" s="94">
-        <f>B685+1</f>
+        <f t="shared" si="10"/>
         <v>685</v>
       </c>
       <c r="C686" s="95" t="s">
@@ -19834,7 +19868,7 @@
         <v>44035</v>
       </c>
       <c r="B687" s="94">
-        <f>B686+1</f>
+        <f t="shared" si="10"/>
         <v>686</v>
       </c>
       <c r="C687" s="95" t="s">
@@ -19859,7 +19893,7 @@
         <v>44035</v>
       </c>
       <c r="B688" s="94">
-        <f>B687+1</f>
+        <f t="shared" si="10"/>
         <v>687</v>
       </c>
       <c r="C688" s="95" t="s">
@@ -19884,7 +19918,7 @@
         <v>44035</v>
       </c>
       <c r="B689" s="94">
-        <f>B688+1</f>
+        <f t="shared" si="10"/>
         <v>688</v>
       </c>
       <c r="C689" s="95" t="s">
@@ -19909,7 +19943,7 @@
         <v>44035</v>
       </c>
       <c r="B690" s="94">
-        <f>B689+1</f>
+        <f t="shared" si="10"/>
         <v>689</v>
       </c>
       <c r="C690" s="95" t="s">
@@ -19934,7 +19968,7 @@
         <v>44035</v>
       </c>
       <c r="B691" s="94">
-        <f>B690+1</f>
+        <f t="shared" si="10"/>
         <v>690</v>
       </c>
       <c r="C691" s="95" t="s">
@@ -19959,7 +19993,7 @@
         <v>44035</v>
       </c>
       <c r="B692" s="94">
-        <f>B691+1</f>
+        <f t="shared" si="10"/>
         <v>691</v>
       </c>
       <c r="C692" s="95" t="s">
@@ -19984,7 +20018,7 @@
         <v>44035</v>
       </c>
       <c r="B693" s="94">
-        <f>B692+1</f>
+        <f t="shared" si="10"/>
         <v>692</v>
       </c>
       <c r="C693" s="95" t="s">
@@ -20009,7 +20043,7 @@
         <v>44036</v>
       </c>
       <c r="B694" s="94">
-        <f>B693+1</f>
+        <f t="shared" si="10"/>
         <v>693</v>
       </c>
       <c r="C694" s="95" t="s">
@@ -20034,7 +20068,7 @@
         <v>44036</v>
       </c>
       <c r="B695" s="94">
-        <f>B694+1</f>
+        <f t="shared" si="10"/>
         <v>694</v>
       </c>
       <c r="C695" s="95" t="s">
@@ -20059,7 +20093,7 @@
         <v>44036</v>
       </c>
       <c r="B696" s="94">
-        <f>B695+1</f>
+        <f t="shared" si="10"/>
         <v>695</v>
       </c>
       <c r="C696" s="105" t="s">
@@ -20084,7 +20118,7 @@
         <v>44036</v>
       </c>
       <c r="B697" s="94">
-        <f>B696+1</f>
+        <f t="shared" si="10"/>
         <v>696</v>
       </c>
       <c r="C697" s="95" t="s">
@@ -20111,7 +20145,7 @@
         <v>44036</v>
       </c>
       <c r="B698" s="94">
-        <f>B697+1</f>
+        <f t="shared" si="10"/>
         <v>697</v>
       </c>
       <c r="C698" s="95" t="s">
@@ -20138,7 +20172,7 @@
         <v>44036</v>
       </c>
       <c r="B699" s="94">
-        <f>B698+1</f>
+        <f t="shared" si="10"/>
         <v>698</v>
       </c>
       <c r="C699" s="95" t="s">
@@ -20163,7 +20197,7 @@
         <v>44036</v>
       </c>
       <c r="B700" s="94">
-        <f>B699+1</f>
+        <f t="shared" si="10"/>
         <v>699</v>
       </c>
       <c r="C700" s="95" t="s">
@@ -20188,7 +20222,7 @@
         <v>44036</v>
       </c>
       <c r="B701" s="94">
-        <f>B700+1</f>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
       <c r="C701" s="95" t="s">
@@ -20213,7 +20247,7 @@
         <v>44036</v>
       </c>
       <c r="B702" s="94">
-        <f>B701+1</f>
+        <f t="shared" si="10"/>
         <v>701</v>
       </c>
       <c r="C702" s="95" t="s">
@@ -20238,7 +20272,7 @@
         <v>44036</v>
       </c>
       <c r="B703" s="94">
-        <f>B702+1</f>
+        <f t="shared" si="10"/>
         <v>702</v>
       </c>
       <c r="C703" s="95" t="s">
@@ -20263,7 +20297,7 @@
         <v>44036</v>
       </c>
       <c r="B704" s="94">
-        <f>B703+1</f>
+        <f t="shared" si="10"/>
         <v>703</v>
       </c>
       <c r="C704" s="95" t="s">
@@ -20288,7 +20322,7 @@
         <v>44036</v>
       </c>
       <c r="B705" s="94">
-        <f>B704+1</f>
+        <f t="shared" si="10"/>
         <v>704</v>
       </c>
       <c r="C705" s="95" t="s">
@@ -20313,7 +20347,7 @@
         <v>44036</v>
       </c>
       <c r="B706" s="94">
-        <f>B705+1</f>
+        <f t="shared" si="10"/>
         <v>705</v>
       </c>
       <c r="C706" s="95" t="s">
@@ -20338,7 +20372,7 @@
         <v>44036</v>
       </c>
       <c r="B707" s="94">
-        <f>B706+1</f>
+        <f t="shared" ref="B707:B727" si="11">B706+1</f>
         <v>706</v>
       </c>
       <c r="C707" s="95" t="s">
@@ -20363,7 +20397,7 @@
         <v>44036</v>
       </c>
       <c r="B708" s="94">
-        <f>B707+1</f>
+        <f t="shared" si="11"/>
         <v>707</v>
       </c>
       <c r="C708" s="95" t="s">
@@ -20388,7 +20422,7 @@
         <v>44036</v>
       </c>
       <c r="B709" s="94">
-        <f>B708+1</f>
+        <f t="shared" si="11"/>
         <v>708</v>
       </c>
       <c r="C709" s="95" t="s">
@@ -20413,7 +20447,7 @@
         <v>44036</v>
       </c>
       <c r="B710" s="94">
-        <f>B709+1</f>
+        <f t="shared" si="11"/>
         <v>709</v>
       </c>
       <c r="C710" s="95" t="s">
@@ -20438,7 +20472,7 @@
         <v>44036</v>
       </c>
       <c r="B711" s="94">
-        <f>B710+1</f>
+        <f t="shared" si="11"/>
         <v>710</v>
       </c>
       <c r="C711" s="95" t="s">
@@ -20463,7 +20497,7 @@
         <v>44036</v>
       </c>
       <c r="B712" s="94">
-        <f>B711+1</f>
+        <f t="shared" si="11"/>
         <v>711</v>
       </c>
       <c r="C712" s="95" t="s">
@@ -20488,7 +20522,7 @@
         <v>44036</v>
       </c>
       <c r="B713" s="94">
-        <f>B712+1</f>
+        <f t="shared" si="11"/>
         <v>712</v>
       </c>
       <c r="C713" s="95" t="s">
@@ -20513,7 +20547,7 @@
         <v>44036</v>
       </c>
       <c r="B714" s="94">
-        <f>B713+1</f>
+        <f t="shared" si="11"/>
         <v>713</v>
       </c>
       <c r="C714" s="95" t="s">
@@ -20538,7 +20572,7 @@
         <v>44037</v>
       </c>
       <c r="B715" s="94">
-        <f>B714+1</f>
+        <f t="shared" si="11"/>
         <v>714</v>
       </c>
       <c r="C715" s="95" t="s">
@@ -20563,7 +20597,7 @@
         <v>44037</v>
       </c>
       <c r="B716" s="94">
-        <f>B715+1</f>
+        <f t="shared" si="11"/>
         <v>715</v>
       </c>
       <c r="C716" s="95" t="s">
@@ -20588,7 +20622,7 @@
         <v>44037</v>
       </c>
       <c r="B717" s="94">
-        <f>B716+1</f>
+        <f t="shared" si="11"/>
         <v>716</v>
       </c>
       <c r="C717" s="105" t="s">
@@ -20613,7 +20647,7 @@
         <v>44037</v>
       </c>
       <c r="B718" s="94">
-        <f>B717+1</f>
+        <f t="shared" si="11"/>
         <v>717</v>
       </c>
       <c r="C718" s="105" t="s">
@@ -20638,7 +20672,7 @@
         <v>44037</v>
       </c>
       <c r="B719" s="94">
-        <f>B718+1</f>
+        <f t="shared" si="11"/>
         <v>718</v>
       </c>
       <c r="C719" s="95" t="s">
@@ -20663,7 +20697,7 @@
         <v>44037</v>
       </c>
       <c r="B720" s="94">
-        <f>B719+1</f>
+        <f t="shared" si="11"/>
         <v>719</v>
       </c>
       <c r="C720" s="95" t="s">
@@ -20690,7 +20724,7 @@
         <v>44037</v>
       </c>
       <c r="B721" s="94">
-        <f>B720+1</f>
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
       <c r="C721" s="95" t="s">
@@ -20717,7 +20751,7 @@
         <v>44037</v>
       </c>
       <c r="B722" s="94">
-        <f>B721+1</f>
+        <f t="shared" si="11"/>
         <v>721</v>
       </c>
       <c r="C722" s="95" t="s">
@@ -20742,7 +20776,7 @@
         <v>44037</v>
       </c>
       <c r="B723" s="94">
-        <f>B722+1</f>
+        <f t="shared" si="11"/>
         <v>722</v>
       </c>
       <c r="C723" s="95" t="s">
@@ -20767,7 +20801,7 @@
         <v>44037</v>
       </c>
       <c r="B724" s="94">
-        <f>B723+1</f>
+        <f t="shared" si="11"/>
         <v>723</v>
       </c>
       <c r="C724" s="95" t="s">
@@ -20792,7 +20826,7 @@
         <v>44037</v>
       </c>
       <c r="B725" s="94">
-        <f>B724+1</f>
+        <f t="shared" si="11"/>
         <v>724</v>
       </c>
       <c r="C725" s="95" t="s">
@@ -20817,7 +20851,7 @@
         <v>44037</v>
       </c>
       <c r="B726" s="94">
-        <f>B725+1</f>
+        <f t="shared" si="11"/>
         <v>725</v>
       </c>
       <c r="C726" s="95" t="s">
@@ -20842,7 +20876,7 @@
         <v>44037</v>
       </c>
       <c r="B727" s="94">
-        <f>B726+1</f>
+        <f t="shared" si="11"/>
         <v>726</v>
       </c>
       <c r="C727" s="95" t="s">
@@ -20867,7 +20901,7 @@
         <v>44037</v>
       </c>
       <c r="B728" s="94">
-        <f t="shared" ref="B728:B730" si="0">B727+1</f>
+        <f t="shared" ref="B728:B730" si="12">B727+1</f>
         <v>727</v>
       </c>
       <c r="C728" s="95" t="s">
@@ -20892,7 +20926,7 @@
         <v>44037</v>
       </c>
       <c r="B729" s="94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>728</v>
       </c>
       <c r="C729" s="95" t="s">
@@ -20917,7 +20951,7 @@
         <v>44037</v>
       </c>
       <c r="B730" s="94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>729</v>
       </c>
       <c r="C730" s="95" t="s">
@@ -20942,7 +20976,7 @@
         <v>44038</v>
       </c>
       <c r="B731" s="94">
-        <f>B730+1</f>
+        <f t="shared" ref="B731:B739" si="13">B730+1</f>
         <v>730</v>
       </c>
       <c r="C731" s="95" t="s">
@@ -20967,7 +21001,7 @@
         <v>44038</v>
       </c>
       <c r="B732" s="94">
-        <f>B731+1</f>
+        <f t="shared" si="13"/>
         <v>731</v>
       </c>
       <c r="C732" s="95" t="s">
@@ -20992,7 +21026,7 @@
         <v>44038</v>
       </c>
       <c r="B733" s="94">
-        <f>B732+1</f>
+        <f t="shared" si="13"/>
         <v>732</v>
       </c>
       <c r="C733" s="95" t="s">
@@ -21017,7 +21051,7 @@
         <v>44038</v>
       </c>
       <c r="B734" s="94">
-        <f>B733+1</f>
+        <f t="shared" si="13"/>
         <v>733</v>
       </c>
       <c r="C734" s="95" t="s">
@@ -21042,7 +21076,7 @@
         <v>44038</v>
       </c>
       <c r="B735" s="94">
-        <f>B734+1</f>
+        <f t="shared" si="13"/>
         <v>734</v>
       </c>
       <c r="C735" s="95" t="s">
@@ -21067,7 +21101,7 @@
         <v>44038</v>
       </c>
       <c r="B736" s="94">
-        <f>B735+1</f>
+        <f t="shared" si="13"/>
         <v>735</v>
       </c>
       <c r="C736" s="95" t="s">
@@ -21092,7 +21126,7 @@
         <v>44038</v>
       </c>
       <c r="B737" s="94">
-        <f>B736+1</f>
+        <f t="shared" si="13"/>
         <v>736</v>
       </c>
       <c r="C737" s="95" t="s">
@@ -21117,7 +21151,7 @@
         <v>44038</v>
       </c>
       <c r="B738" s="94">
-        <f>B737+1</f>
+        <f t="shared" si="13"/>
         <v>737</v>
       </c>
       <c r="C738" s="95" t="s">
@@ -21142,7 +21176,7 @@
         <v>44038</v>
       </c>
       <c r="B739" s="94">
-        <f>B738+1</f>
+        <f t="shared" si="13"/>
         <v>738</v>
       </c>
       <c r="C739" s="95" t="s">
@@ -21167,7 +21201,7 @@
         <v>44038</v>
       </c>
       <c r="B740" s="94">
-        <f t="shared" ref="B740:B750" si="1">B739+1</f>
+        <f t="shared" ref="B740:B750" si="14">B739+1</f>
         <v>739</v>
       </c>
       <c r="C740" s="95" t="s">
@@ -21192,7 +21226,7 @@
         <v>44038</v>
       </c>
       <c r="B741" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>740</v>
       </c>
       <c r="C741" s="95" t="s">
@@ -21217,7 +21251,7 @@
         <v>44038</v>
       </c>
       <c r="B742" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>741</v>
       </c>
       <c r="C742" s="95" t="s">
@@ -21242,7 +21276,7 @@
         <v>44038</v>
       </c>
       <c r="B743" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>742</v>
       </c>
       <c r="C743" s="95" t="s">
@@ -21267,7 +21301,7 @@
         <v>44038</v>
       </c>
       <c r="B744" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>743</v>
       </c>
       <c r="C744" s="95" t="s">
@@ -21292,7 +21326,7 @@
         <v>44038</v>
       </c>
       <c r="B745" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>744</v>
       </c>
       <c r="C745" s="95" t="s">
@@ -21317,7 +21351,7 @@
         <v>44038</v>
       </c>
       <c r="B746" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>745</v>
       </c>
       <c r="C746" s="95" t="s">
@@ -21342,7 +21376,7 @@
         <v>44038</v>
       </c>
       <c r="B747" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>746</v>
       </c>
       <c r="C747" s="95" t="s">
@@ -21367,7 +21401,7 @@
         <v>44038</v>
       </c>
       <c r="B748" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>747</v>
       </c>
       <c r="C748" s="95" t="s">
@@ -21392,7 +21426,7 @@
         <v>44038</v>
       </c>
       <c r="B749" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>748</v>
       </c>
       <c r="C749" s="95" t="s">
@@ -21417,7 +21451,7 @@
         <v>44038</v>
       </c>
       <c r="B750" s="94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>749</v>
       </c>
       <c r="C750" s="95" t="s">
@@ -21542,7 +21576,7 @@
         <v>44040</v>
       </c>
       <c r="B755" s="94">
-        <f t="shared" ref="B755:B759" si="2">B754+1</f>
+        <f t="shared" ref="B755:B759" si="15">B754+1</f>
         <v>754</v>
       </c>
       <c r="C755" s="95" t="s">
@@ -21567,7 +21601,7 @@
         <v>44040</v>
       </c>
       <c r="B756" s="94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>755</v>
       </c>
       <c r="C756" s="95" t="s">
@@ -21592,7 +21626,7 @@
         <v>44040</v>
       </c>
       <c r="B757" s="94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>756</v>
       </c>
       <c r="C757" s="95" t="s">
@@ -21617,7 +21651,7 @@
         <v>44040</v>
       </c>
       <c r="B758" s="94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>757</v>
       </c>
       <c r="C758" s="95" t="s">
@@ -21642,7 +21676,7 @@
         <v>44040</v>
       </c>
       <c r="B759" s="94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="15"/>
         <v>758</v>
       </c>
       <c r="C759" s="95" t="s">
@@ -21773,7 +21807,7 @@
         <v>44041</v>
       </c>
       <c r="B764" s="94">
-        <f t="shared" ref="B764:B772" si="3">B763+1</f>
+        <f t="shared" ref="B764:B772" si="16">B763+1</f>
         <v>763</v>
       </c>
       <c r="C764" s="95" t="s">
@@ -21798,7 +21832,7 @@
         <v>44041</v>
       </c>
       <c r="B765" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>764</v>
       </c>
       <c r="C765" s="95" t="s">
@@ -21823,7 +21857,7 @@
         <v>44041</v>
       </c>
       <c r="B766" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>765</v>
       </c>
       <c r="C766" s="95" t="s">
@@ -21848,7 +21882,7 @@
         <v>44041</v>
       </c>
       <c r="B767" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>766</v>
       </c>
       <c r="C767" s="95" t="s">
@@ -21873,7 +21907,7 @@
         <v>44041</v>
       </c>
       <c r="B768" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>767</v>
       </c>
       <c r="C768" s="95" t="s">
@@ -21898,7 +21932,7 @@
         <v>44041</v>
       </c>
       <c r="B769" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>768</v>
       </c>
       <c r="C769" s="95" t="s">
@@ -21923,7 +21957,7 @@
         <v>44041</v>
       </c>
       <c r="B770" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>769</v>
       </c>
       <c r="C770" s="95" t="s">
@@ -21948,7 +21982,7 @@
         <v>44041</v>
       </c>
       <c r="B771" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>770</v>
       </c>
       <c r="C771" s="135" t="s">
@@ -21973,7 +22007,7 @@
         <v>44041</v>
       </c>
       <c r="B772" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>771</v>
       </c>
       <c r="C772" s="95" t="s">
@@ -21998,7 +22032,7 @@
         <v>44042</v>
       </c>
       <c r="B773" s="94">
-        <f>B772+1</f>
+        <f t="shared" ref="B773:B782" si="17">B772+1</f>
         <v>772</v>
       </c>
       <c r="C773" s="95" t="s">
@@ -22023,7 +22057,7 @@
         <v>44042</v>
       </c>
       <c r="B774" s="94">
-        <f>B773+1</f>
+        <f t="shared" si="17"/>
         <v>773</v>
       </c>
       <c r="C774" s="105" t="s">
@@ -22048,7 +22082,7 @@
         <v>44042</v>
       </c>
       <c r="B775" s="94">
-        <f>B774+1</f>
+        <f t="shared" si="17"/>
         <v>774</v>
       </c>
       <c r="C775" s="105" t="s">
@@ -22073,7 +22107,7 @@
         <v>44042</v>
       </c>
       <c r="B776" s="94">
-        <f>B775+1</f>
+        <f t="shared" si="17"/>
         <v>775</v>
       </c>
       <c r="C776" s="95" t="s">
@@ -22098,7 +22132,7 @@
         <v>44042</v>
       </c>
       <c r="B777" s="94">
-        <f>B776+1</f>
+        <f t="shared" si="17"/>
         <v>776</v>
       </c>
       <c r="C777" s="95" t="s">
@@ -22123,7 +22157,7 @@
         <v>44042</v>
       </c>
       <c r="B778" s="94">
-        <f>B777+1</f>
+        <f t="shared" si="17"/>
         <v>777</v>
       </c>
       <c r="C778" s="95" t="s">
@@ -22148,7 +22182,7 @@
         <v>44042</v>
       </c>
       <c r="B779" s="94">
-        <f>B778+1</f>
+        <f t="shared" si="17"/>
         <v>778</v>
       </c>
       <c r="C779" s="95" t="s">
@@ -22173,7 +22207,7 @@
         <v>44042</v>
       </c>
       <c r="B780" s="94">
-        <f>B779+1</f>
+        <f t="shared" si="17"/>
         <v>779</v>
       </c>
       <c r="C780" s="95" t="s">
@@ -22198,7 +22232,7 @@
         <v>44042</v>
       </c>
       <c r="B781" s="94">
-        <f>B780+1</f>
+        <f t="shared" si="17"/>
         <v>780</v>
       </c>
       <c r="C781" s="95" t="s">
@@ -22223,7 +22257,7 @@
         <v>44042</v>
       </c>
       <c r="B782" s="94">
-        <f>B781+1</f>
+        <f t="shared" si="17"/>
         <v>781</v>
       </c>
       <c r="C782" s="95" t="s">
@@ -22248,7 +22282,7 @@
         <v>44042</v>
       </c>
       <c r="B783" s="94">
-        <f t="shared" ref="B783:B794" si="4">B782+1</f>
+        <f t="shared" ref="B783:B794" si="18">B782+1</f>
         <v>782</v>
       </c>
       <c r="C783" s="95" t="s">
@@ -22273,7 +22307,7 @@
         <v>44042</v>
       </c>
       <c r="B784" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>783</v>
       </c>
       <c r="C784" s="95" t="s">
@@ -22298,7 +22332,7 @@
         <v>44042</v>
       </c>
       <c r="B785" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>784</v>
       </c>
       <c r="C785" s="95" t="s">
@@ -22323,7 +22357,7 @@
         <v>44042</v>
       </c>
       <c r="B786" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>785</v>
       </c>
       <c r="C786" s="95" t="s">
@@ -22348,7 +22382,7 @@
         <v>44042</v>
       </c>
       <c r="B787" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>786</v>
       </c>
       <c r="C787" s="95" t="s">
@@ -22373,7 +22407,7 @@
         <v>44042</v>
       </c>
       <c r="B788" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>787</v>
       </c>
       <c r="C788" s="95" t="s">
@@ -22398,7 +22432,7 @@
         <v>44042</v>
       </c>
       <c r="B789" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>788</v>
       </c>
       <c r="C789" s="95" t="s">
@@ -22423,7 +22457,7 @@
         <v>44042</v>
       </c>
       <c r="B790" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>789</v>
       </c>
       <c r="C790" s="95" t="s">
@@ -22448,7 +22482,7 @@
         <v>44042</v>
       </c>
       <c r="B791" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>790</v>
       </c>
       <c r="C791" s="95" t="s">
@@ -22473,7 +22507,7 @@
         <v>44042</v>
       </c>
       <c r="B792" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>791</v>
       </c>
       <c r="C792" s="95" t="s">
@@ -22498,7 +22532,7 @@
         <v>44042</v>
       </c>
       <c r="B793" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>792</v>
       </c>
       <c r="C793" s="95" t="s">
@@ -22523,7 +22557,7 @@
         <v>44042</v>
       </c>
       <c r="B794" s="94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>793</v>
       </c>
       <c r="C794" s="95" t="s">
@@ -22598,7 +22632,7 @@
         <v>44043</v>
       </c>
       <c r="B797" s="94">
-        <f t="shared" ref="B797:B802" si="5">B796+1</f>
+        <f t="shared" ref="B797:B802" si="19">B796+1</f>
         <v>796</v>
       </c>
       <c r="C797" s="95" t="s">
@@ -22623,7 +22657,7 @@
         <v>44043</v>
       </c>
       <c r="B798" s="94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>797</v>
       </c>
       <c r="C798" s="95" t="s">
@@ -22648,7 +22682,7 @@
         <v>44043</v>
       </c>
       <c r="B799" s="94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>798</v>
       </c>
       <c r="C799" s="95" t="s">
@@ -22673,7 +22707,7 @@
         <v>44043</v>
       </c>
       <c r="B800" s="94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>799</v>
       </c>
       <c r="C800" s="95" t="s">
@@ -22698,7 +22732,7 @@
         <v>44043</v>
       </c>
       <c r="B801" s="94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>800</v>
       </c>
       <c r="C801" s="95" t="s">
@@ -22723,7 +22757,7 @@
         <v>44043</v>
       </c>
       <c r="B802" s="94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>801</v>
       </c>
       <c r="C802" s="95" t="s">
@@ -22823,7 +22857,7 @@
         <v>44044</v>
       </c>
       <c r="B806" s="94">
-        <f t="shared" ref="B806:B839" si="6">B805+1</f>
+        <f t="shared" ref="B806:B866" si="20">B805+1</f>
         <v>805</v>
       </c>
       <c r="C806" s="95" t="s">
@@ -22848,7 +22882,7 @@
         <v>44044</v>
       </c>
       <c r="B807" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>806</v>
       </c>
       <c r="C807" s="95" t="s">
@@ -22873,7 +22907,7 @@
         <v>44044</v>
       </c>
       <c r="B808" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>807</v>
       </c>
       <c r="C808" s="95" t="s">
@@ -22898,7 +22932,7 @@
         <v>44044</v>
       </c>
       <c r="B809" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>808</v>
       </c>
       <c r="C809" s="95" t="s">
@@ -22923,7 +22957,7 @@
         <v>44044</v>
       </c>
       <c r="B810" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>809</v>
       </c>
       <c r="C810" s="95" t="s">
@@ -22948,7 +22982,7 @@
         <v>44044</v>
       </c>
       <c r="B811" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>810</v>
       </c>
       <c r="C811" s="95" t="s">
@@ -22973,7 +23007,7 @@
         <v>44044</v>
       </c>
       <c r="B812" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>811</v>
       </c>
       <c r="C812" s="95" t="s">
@@ -22998,7 +23032,7 @@
         <v>44044</v>
       </c>
       <c r="B813" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>812</v>
       </c>
       <c r="C813" s="95" t="s">
@@ -23023,7 +23057,7 @@
         <v>44044</v>
       </c>
       <c r="B814" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>813</v>
       </c>
       <c r="C814" s="95" t="s">
@@ -23048,7 +23082,7 @@
         <v>44044</v>
       </c>
       <c r="B815" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>814</v>
       </c>
       <c r="C815" s="95" t="s">
@@ -23073,7 +23107,7 @@
         <v>44044</v>
       </c>
       <c r="B816" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>815</v>
       </c>
       <c r="C816" s="95" t="s">
@@ -23098,7 +23132,7 @@
         <v>44044</v>
       </c>
       <c r="B817" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>816</v>
       </c>
       <c r="C817" s="95" t="s">
@@ -23123,7 +23157,7 @@
         <v>44044</v>
       </c>
       <c r="B818" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>817</v>
       </c>
       <c r="C818" s="95" t="s">
@@ -23148,7 +23182,7 @@
         <v>44045</v>
       </c>
       <c r="B819" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>818</v>
       </c>
       <c r="C819" s="105" t="s">
@@ -23173,7 +23207,7 @@
         <v>44045</v>
       </c>
       <c r="B820" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>819</v>
       </c>
       <c r="C820" s="105" t="s">
@@ -23198,7 +23232,7 @@
         <v>44045</v>
       </c>
       <c r="B821" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>820</v>
       </c>
       <c r="C821" s="95" t="s">
@@ -23223,7 +23257,7 @@
         <v>44045</v>
       </c>
       <c r="B822" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>821</v>
       </c>
       <c r="C822" s="95" t="s">
@@ -23248,7 +23282,7 @@
         <v>44045</v>
       </c>
       <c r="B823" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>822</v>
       </c>
       <c r="C823" s="95" t="s">
@@ -23273,7 +23307,7 @@
         <v>44045</v>
       </c>
       <c r="B824" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>823</v>
       </c>
       <c r="C824" s="95" t="s">
@@ -23298,7 +23332,7 @@
         <v>44045</v>
       </c>
       <c r="B825" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>824</v>
       </c>
       <c r="C825" s="95" t="s">
@@ -23323,7 +23357,7 @@
         <v>44045</v>
       </c>
       <c r="B826" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>825</v>
       </c>
       <c r="C826" s="95" t="s">
@@ -23344,7 +23378,7 @@
         <v>44045</v>
       </c>
       <c r="B827" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>826</v>
       </c>
       <c r="C827" s="95" t="s">
@@ -23369,7 +23403,7 @@
         <v>44045</v>
       </c>
       <c r="B828" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>827</v>
       </c>
       <c r="C828" s="95" t="s">
@@ -23394,7 +23428,7 @@
         <v>44045</v>
       </c>
       <c r="B829" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>828</v>
       </c>
       <c r="C829" s="95" t="s">
@@ -23419,7 +23453,7 @@
         <v>44045</v>
       </c>
       <c r="B830" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>829</v>
       </c>
       <c r="C830" s="95" t="s">
@@ -23444,7 +23478,7 @@
         <v>44045</v>
       </c>
       <c r="B831" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>830</v>
       </c>
       <c r="C831" s="95" t="s">
@@ -23469,7 +23503,7 @@
         <v>44045</v>
       </c>
       <c r="B832" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>831</v>
       </c>
       <c r="C832" s="95" t="s">
@@ -23494,7 +23528,7 @@
         <v>44045</v>
       </c>
       <c r="B833" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>832</v>
       </c>
       <c r="C833" s="95" t="s">
@@ -23519,7 +23553,7 @@
         <v>44045</v>
       </c>
       <c r="B834" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>833</v>
       </c>
       <c r="C834" s="95" t="s">
@@ -23544,7 +23578,7 @@
         <v>44045</v>
       </c>
       <c r="B835" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>834</v>
       </c>
       <c r="C835" s="95" t="s">
@@ -23569,7 +23603,7 @@
         <v>44045</v>
       </c>
       <c r="B836" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>835</v>
       </c>
       <c r="C836" s="95" t="s">
@@ -23594,7 +23628,7 @@
         <v>44045</v>
       </c>
       <c r="B837" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>836</v>
       </c>
       <c r="C837" s="95" t="s">
@@ -23619,7 +23653,7 @@
         <v>44045</v>
       </c>
       <c r="B838" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>837</v>
       </c>
       <c r="C838" s="95" t="s">
@@ -23644,7 +23678,7 @@
         <v>44045</v>
       </c>
       <c r="B839" s="94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>838</v>
       </c>
       <c r="C839" s="95" t="s">
@@ -23664,28 +23698,705 @@
         <v>70</v>
       </c>
     </row>
+    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A840" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B840" s="94">
+        <f t="shared" si="20"/>
+        <v>839</v>
+      </c>
+      <c r="C840" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D840" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E840" s="95"/>
+      <c r="F840" s="95"/>
+      <c r="G840" s="95"/>
+      <c r="H840" s="95"/>
+      <c r="I840" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J840" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A841" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B841" s="94">
+        <f t="shared" si="20"/>
+        <v>840</v>
+      </c>
+      <c r="C841" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D841" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E841" s="95"/>
+      <c r="F841" s="95"/>
+      <c r="G841" s="95"/>
+      <c r="H841" s="95"/>
+      <c r="I841" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J841" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A842" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B842" s="94">
+        <f t="shared" si="20"/>
+        <v>841</v>
+      </c>
+      <c r="C842" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D842" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E842" s="95"/>
+      <c r="F842" s="95"/>
+      <c r="G842" s="95"/>
+      <c r="H842" s="95"/>
+      <c r="I842" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J842" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A843" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B843" s="94">
+        <f t="shared" si="20"/>
+        <v>842</v>
+      </c>
+      <c r="C843" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D843" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E843" s="95"/>
+      <c r="F843" s="95"/>
+      <c r="G843" s="95"/>
+      <c r="H843" s="95"/>
+      <c r="I843" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J843" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A844" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B844" s="94">
+        <f t="shared" si="20"/>
+        <v>843</v>
+      </c>
+      <c r="C844" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D844" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E844" s="95"/>
+      <c r="F844" s="95"/>
+      <c r="G844" s="95"/>
+      <c r="H844" s="95"/>
+      <c r="I844" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J844" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A845" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B845" s="94">
+        <f t="shared" si="20"/>
+        <v>844</v>
+      </c>
+      <c r="C845" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D845" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E845" s="95"/>
+      <c r="F845" s="95"/>
+      <c r="G845" s="95"/>
+      <c r="H845" s="95"/>
+      <c r="I845" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J845" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A846" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B846" s="94">
+        <f t="shared" si="20"/>
+        <v>845</v>
+      </c>
+      <c r="C846" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D846" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E846" s="95"/>
+      <c r="F846" s="95"/>
+      <c r="G846" s="95"/>
+      <c r="H846" s="95"/>
+      <c r="I846" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J846" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A847" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B847" s="94">
+        <f t="shared" si="20"/>
+        <v>846</v>
+      </c>
+      <c r="C847" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D847" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E847" s="95"/>
+      <c r="F847" s="95"/>
+      <c r="G847" s="95"/>
+      <c r="H847" s="95"/>
+      <c r="I847" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J847" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A848" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B848" s="94">
+        <f t="shared" si="20"/>
+        <v>847</v>
+      </c>
+      <c r="C848" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D848" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E848" s="95"/>
+      <c r="F848" s="95"/>
+      <c r="G848" s="95"/>
+      <c r="H848" s="95"/>
+      <c r="I848" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J848" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A849" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B849" s="94">
+        <f t="shared" si="20"/>
+        <v>848</v>
+      </c>
+      <c r="C849" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D849" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E849" s="95"/>
+      <c r="F849" s="95"/>
+      <c r="G849" s="95"/>
+      <c r="H849" s="95"/>
+      <c r="I849" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J849" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A850" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B850" s="94">
+        <f t="shared" si="20"/>
+        <v>849</v>
+      </c>
+      <c r="C850" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D850" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E850" s="95"/>
+      <c r="F850" s="95"/>
+      <c r="G850" s="95"/>
+      <c r="H850" s="95"/>
+      <c r="I850" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J850" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A851" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B851" s="94">
+        <f t="shared" si="20"/>
+        <v>850</v>
+      </c>
+      <c r="C851" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D851" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E851" s="95"/>
+      <c r="F851" s="95"/>
+      <c r="G851" s="95"/>
+      <c r="H851" s="95"/>
+      <c r="I851" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J851" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A852" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B852" s="94">
+        <f t="shared" si="20"/>
+        <v>851</v>
+      </c>
+      <c r="C852" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D852" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E852" s="95"/>
+      <c r="F852" s="95"/>
+      <c r="G852" s="95"/>
+      <c r="H852" s="95"/>
+      <c r="I852" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J852" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A853" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B853" s="94">
+        <f t="shared" si="20"/>
+        <v>852</v>
+      </c>
+      <c r="C853" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D853" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E853" s="95"/>
+      <c r="F853" s="95"/>
+      <c r="G853" s="95"/>
+      <c r="H853" s="95"/>
+      <c r="I853" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J853" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A854" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B854" s="94">
+        <f t="shared" si="20"/>
+        <v>853</v>
+      </c>
+      <c r="C854" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D854" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E854" s="95"/>
+      <c r="F854" s="95"/>
+      <c r="G854" s="95"/>
+      <c r="H854" s="95"/>
+      <c r="I854" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J854" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A855" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B855" s="94">
+        <f t="shared" si="20"/>
+        <v>854</v>
+      </c>
+      <c r="C855" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D855" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E855" s="95"/>
+      <c r="F855" s="95"/>
+      <c r="G855" s="95"/>
+      <c r="H855" s="95"/>
+      <c r="I855" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J855" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A856" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B856" s="94">
+        <f t="shared" si="20"/>
+        <v>855</v>
+      </c>
+      <c r="C856" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D856" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E856" s="95"/>
+      <c r="F856" s="95"/>
+      <c r="G856" s="95"/>
+      <c r="H856" s="95"/>
+      <c r="I856" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J856" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A857" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B857" s="94">
+        <f t="shared" si="20"/>
+        <v>856</v>
+      </c>
+      <c r="C857" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D857" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E857" s="95"/>
+      <c r="F857" s="95"/>
+      <c r="G857" s="95"/>
+      <c r="H857" s="95"/>
+      <c r="I857" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J857" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A858" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B858" s="94">
+        <f t="shared" si="20"/>
+        <v>857</v>
+      </c>
+      <c r="C858" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D858" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E858" s="95"/>
+      <c r="F858" s="95"/>
+      <c r="G858" s="95"/>
+      <c r="H858" s="95"/>
+      <c r="I858" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J858" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A859" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B859" s="94">
+        <f t="shared" si="20"/>
+        <v>858</v>
+      </c>
+      <c r="C859" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D859" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E859" s="95"/>
+      <c r="F859" s="95"/>
+      <c r="G859" s="95"/>
+      <c r="H859" s="95"/>
+      <c r="I859" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J859" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A860" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B860" s="94">
+        <f t="shared" si="20"/>
+        <v>859</v>
+      </c>
+      <c r="C860" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D860" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="E860" s="95"/>
+      <c r="F860" s="95"/>
+      <c r="G860" s="95"/>
+      <c r="H860" s="95"/>
+      <c r="I860" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="J860" s="96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A861" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B861" s="94">
+        <f t="shared" si="20"/>
+        <v>860</v>
+      </c>
+      <c r="C861" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D861" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E861" s="95"/>
+      <c r="F861" s="95"/>
+      <c r="G861" s="95"/>
+      <c r="H861" s="95"/>
+      <c r="I861" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J861" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A862" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B862" s="94">
+        <f t="shared" si="20"/>
+        <v>861</v>
+      </c>
+      <c r="C862" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D862" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E862" s="95"/>
+      <c r="F862" s="95"/>
+      <c r="G862" s="95"/>
+      <c r="H862" s="95"/>
+      <c r="I862" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J862" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A863" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B863" s="94">
+        <f t="shared" si="20"/>
+        <v>862</v>
+      </c>
+      <c r="C863" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D863" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E863" s="95"/>
+      <c r="F863" s="95"/>
+      <c r="G863" s="95"/>
+      <c r="H863" s="95"/>
+      <c r="I863" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J863" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A864" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B864" s="94">
+        <f t="shared" si="20"/>
+        <v>863</v>
+      </c>
+      <c r="C864" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D864" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="E864" s="95"/>
+      <c r="F864" s="95"/>
+      <c r="G864" s="95"/>
+      <c r="H864" s="95"/>
+      <c r="I864" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="J864" s="96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A865" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B865" s="94">
+        <f t="shared" si="20"/>
+        <v>864</v>
+      </c>
+      <c r="C865" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D865" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="E865" s="95"/>
+      <c r="F865" s="95"/>
+      <c r="G865" s="95"/>
+      <c r="H865" s="95"/>
+      <c r="I865" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="J865" s="96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A866" s="100">
+        <v>44046</v>
+      </c>
+      <c r="B866" s="94">
+        <f t="shared" si="20"/>
+        <v>865</v>
+      </c>
+      <c r="C866" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D866" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="E866" s="142"/>
+      <c r="F866" s="142"/>
+      <c r="I866" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J866" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J839" xr:uid="{2B03F507-D02C-4EC5-8418-39FAF23CF901}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J839">
+  <autoFilter ref="A1:J859">
+    <sortState ref="A2:J839">
       <sortCondition ref="A2:A839"/>
       <sortCondition ref="C2:C839"/>
       <sortCondition ref="D2:D839"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J376">
+  <sortState ref="A2:J376">
     <sortCondition ref="A2:A376"/>
     <sortCondition ref="C2:C376"/>
     <sortCondition ref="D2:D376"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D866:F866"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5BD328-2D41-4BA8-BC57-9BE05B4A8430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -23736,7 +24447,7 @@
         <v>43</v>
       </c>
       <c r="G2" s="106">
-        <f>C2/D2</f>
+        <f t="shared" ref="G2:G18" si="0">C2/D2</f>
         <v>0.1796875</v>
       </c>
     </row>
@@ -23754,7 +24465,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="106">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>1.5730337078651686E-2</v>
       </c>
     </row>
@@ -23775,7 +24486,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="106">
-        <f>C4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
     </row>
@@ -23796,7 +24507,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="106">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.453125</v>
       </c>
     </row>
@@ -23814,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="106">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>5.4054054054054057E-2</v>
       </c>
     </row>
@@ -23832,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="106">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -23850,7 +24561,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="106">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
     </row>
@@ -23868,7 +24579,7 @@
         <v>103</v>
       </c>
       <c r="G9" s="106">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.40909090909090912</v>
       </c>
     </row>
@@ -23886,7 +24597,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="106">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.36065573770491804</v>
       </c>
     </row>
@@ -23904,7 +24615,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="106">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>6.3829787234042548E-2</v>
       </c>
     </row>
@@ -23922,7 +24633,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="106">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>4.6511627906976744E-2</v>
       </c>
     </row>
@@ -23943,7 +24654,7 @@
         <v>5</v>
       </c>
       <c r="G13" s="106">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.2344559585492228</v>
       </c>
     </row>
@@ -23961,7 +24672,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="106">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -23979,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="106">
-        <f>C15/D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -23997,7 +24708,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="106">
-        <f>C16/D16</f>
+        <f t="shared" si="0"/>
         <v>8.7804878048780483E-2</v>
       </c>
     </row>
@@ -24015,7 +24726,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="106">
-        <f>C17/D17</f>
+        <f t="shared" si="0"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -24033,7 +24744,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="106">
-        <f>C18/D18</f>
+        <f t="shared" si="0"/>
         <v>2.8169014084507043E-2</v>
       </c>
     </row>
@@ -24043,7 +24754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC98CDC7-445C-4E07-AE3B-FBBA2AF8CC5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24160,7 +24871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD604CB8-D4A5-438F-ACC2-CAB8487D3650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN134"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0"/>
@@ -50040,13 +50751,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{EEE7A245-D32E-4A9A-8A60-ABFCCCC0ACF6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
+  <autoFilter ref="A1:H55">
+    <sortState ref="A2:H55">
       <sortCondition ref="D2:D55"/>
       <sortCondition ref="C2:C55"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H55">
+  <sortState ref="C2:H55">
     <sortCondition ref="D2:D55"/>
     <sortCondition ref="C2:C55"/>
   </sortState>
@@ -50055,7 +50766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB9CBD-706F-4195-A2F3-C8950DCD7C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50784,23 +51495,23 @@
         <v>1</v>
       </c>
       <c r="BE9">
-        <f>SUM(B9:BD9)</f>
+        <f t="shared" ref="BE9:BE14" si="7">SUM(B9:BD9)</f>
         <v>2</v>
       </c>
       <c r="BJ9">
-        <f>SUM(BE9:BI9)</f>
+        <f t="shared" ref="BJ9:BJ14" si="8">SUM(BE9:BI9)</f>
         <v>2</v>
       </c>
       <c r="BL9" s="2">
-        <f>BK9+BJ9</f>
+        <f t="shared" ref="BL9:BL14" si="9">BK9+BJ9</f>
         <v>2</v>
       </c>
       <c r="BP9" s="104">
-        <f>SUM(BL9:BO9)</f>
+        <f t="shared" ref="BP9:BP14" si="10">SUM(BL9:BO9)</f>
         <v>2</v>
       </c>
       <c r="BR9">
-        <f>BQ9+BP9</f>
+        <f t="shared" ref="BR9:BR14" si="11">BQ9+BP9</f>
         <v>2</v>
       </c>
       <c r="BY9" s="2">
@@ -50877,7 +51588,7 @@
         <v>1</v>
       </c>
       <c r="BE10">
-        <f>SUM(B10:BD10)</f>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="BF10">
@@ -50893,14 +51604,14 @@
         <v>12</v>
       </c>
       <c r="BJ10">
-        <f>SUM(BE10:BI10)</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="BK10">
         <v>8</v>
       </c>
       <c r="BL10" s="2">
-        <f>BK10+BJ10</f>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="BM10">
@@ -50913,14 +51624,14 @@
         <v>4</v>
       </c>
       <c r="BP10" s="104">
-        <f>SUM(BL10:BO10)</f>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="BQ10">
         <v>16</v>
       </c>
       <c r="BR10">
-        <f>BQ10+BP10</f>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="BS10">
@@ -50997,26 +51708,26 @@
         <v>1</v>
       </c>
       <c r="BE11">
-        <f>SUM(B11:BD11)</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="BG11">
         <v>1</v>
       </c>
       <c r="BJ11">
-        <f>SUM(BE11:BI11)</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="BL11" s="2">
-        <f>BK11+BJ11</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="BP11" s="104">
-        <f>SUM(BL11:BO11)</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="BR11">
-        <f>BQ11+BP11</f>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="BY11" s="2">
@@ -51042,26 +51753,26 @@
         <v>1</v>
       </c>
       <c r="BE12">
-        <f>SUM(B12:BD12)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="BI12">
         <v>1</v>
       </c>
       <c r="BJ12">
-        <f>SUM(BE12:BI12)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BL12" s="2">
-        <f>BK12+BJ12</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BP12" s="104">
-        <f>SUM(BL12:BO12)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BR12">
-        <f>BQ12+BP12</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BY12" s="2">
@@ -51087,26 +51798,26 @@
         <v>1</v>
       </c>
       <c r="BE13">
-        <f>SUM(B13:BD13)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="BJ13">
-        <f>SUM(BE13:BI13)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BK13">
         <v>1</v>
       </c>
       <c r="BL13" s="2">
-        <f>BK13+BJ13</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BP13" s="104">
-        <f>SUM(BL13:BO13)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="BR13">
-        <f>BQ13+BP13</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="BY13" s="2">
@@ -51216,7 +51927,7 @@
         <v>6</v>
       </c>
       <c r="BE14">
-        <f>SUM(B14:BD14)</f>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="BF14">
@@ -51232,14 +51943,14 @@
         <v>25</v>
       </c>
       <c r="BJ14">
-        <f>SUM(BE14:BI14)</f>
+        <f t="shared" si="8"/>
         <v>212</v>
       </c>
       <c r="BK14">
         <v>22</v>
       </c>
       <c r="BL14" s="2">
-        <f>BK14+BJ14</f>
+        <f t="shared" si="9"/>
         <v>234</v>
       </c>
       <c r="BM14">
@@ -51252,14 +51963,14 @@
         <v>3</v>
       </c>
       <c r="BP14" s="104">
-        <f>SUM(BL14:BO14)</f>
+        <f t="shared" si="10"/>
         <v>248</v>
       </c>
       <c r="BQ14">
         <v>7</v>
       </c>
       <c r="BR14">
-        <f>BQ14+BP14</f>
+        <f t="shared" si="11"/>
         <v>255</v>
       </c>
       <c r="BS14">
@@ -51753,7 +52464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AF8B0B-11BC-48BF-B8C1-461F3EB7D1D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52397,7 +53108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A1C538-6C5F-4951-97A9-1DFC658A34F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -52511,7 +53222,7 @@
         <v>250</v>
       </c>
       <c r="I3" s="31">
-        <f>D3/(D3+H3)</f>
+        <f t="shared" ref="I3:I20" si="0">D3/(D3+H3)</f>
         <v>0.15254237288135594</v>
       </c>
       <c r="J3" s="39">
@@ -52574,7 +53285,7 @@
         <v>435</v>
       </c>
       <c r="I4" s="33">
-        <f>D4/(D4+H4)</f>
+        <f t="shared" si="0"/>
         <v>1.3605442176870748E-2</v>
       </c>
       <c r="J4" s="40">
@@ -52642,7 +53353,7 @@
         <v>157</v>
       </c>
       <c r="I5" s="35">
-        <f>D5/(D5+H5)</f>
+        <f t="shared" si="0"/>
         <v>0.23786407766990292</v>
       </c>
       <c r="J5" s="39">
@@ -52670,14 +53381,14 @@
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
       <c r="T5" s="20">
-        <f t="shared" ref="T5:V19" si="0">S5+R5</f>
+        <f t="shared" ref="T5:V19" si="1">S5+R5</f>
         <v>0</v>
       </c>
       <c r="U5" s="20">
         <v>2</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W5" s="20">
@@ -52711,7 +53422,7 @@
         <v>252</v>
       </c>
       <c r="I6" s="35">
-        <f>D6/(D6+H6)</f>
+        <f t="shared" si="0"/>
         <v>0.31147540983606559</v>
       </c>
       <c r="J6" s="47">
@@ -52743,12 +53454,12 @@
         <v>1</v>
       </c>
       <c r="T6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U6" s="20"/>
       <c r="V6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W6" s="20"/>
@@ -52776,7 +53487,7 @@
         <v>37</v>
       </c>
       <c r="I7" s="33">
-        <f>D7/(D7+H7)</f>
+        <f t="shared" si="0"/>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="J7" s="40">
@@ -52821,7 +53532,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="33">
-        <f>D8/(D8+H8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="40" t="s">
@@ -52865,15 +53576,15 @@
         <v>83</v>
       </c>
       <c r="I9" s="33">
-        <f>D9/(D9+H9)</f>
+        <f t="shared" si="0"/>
         <v>2.3529411764705882E-2</v>
       </c>
       <c r="J9" s="40">
-        <f>D9/G9*100000</f>
+        <f t="shared" ref="J9:J14" si="2">D9/G9*100000</f>
         <v>3.4150089643985311</v>
       </c>
       <c r="K9" s="33">
-        <f>E9/D9</f>
+        <f t="shared" ref="K9:K14" si="3">E9/D9</f>
         <v>1</v>
       </c>
       <c r="L9" s="33">
@@ -52888,14 +53599,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="20">
         <v>1</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W9" s="20">
@@ -52927,15 +53638,15 @@
         <v>362</v>
       </c>
       <c r="I10" s="35">
-        <f>D10/(D10+H10)</f>
+        <f t="shared" si="0"/>
         <v>0.30518234165067176</v>
       </c>
       <c r="J10" s="47">
-        <f>D10/G10*100000</f>
+        <f t="shared" si="2"/>
         <v>127.98737835161916</v>
       </c>
       <c r="K10" s="31">
-        <f>E10/D10</f>
+        <f t="shared" si="3"/>
         <v>0.57232704402515722</v>
       </c>
       <c r="L10" s="31">
@@ -52954,12 +53665,12 @@
       </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U10" s="20"/>
       <c r="V10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W10" s="20"/>
@@ -52987,15 +53698,15 @@
         <v>121</v>
       </c>
       <c r="I11" s="35">
-        <f>D11/(D11+H11)</f>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="J11" s="47">
-        <f>D11/G11*100000</f>
+        <f t="shared" si="2"/>
         <v>327.86885245901641</v>
       </c>
       <c r="K11" s="33">
-        <f>E11/D11</f>
+        <f t="shared" si="3"/>
         <v>0.93181818181818177</v>
       </c>
       <c r="L11" s="33">
@@ -53016,14 +53727,14 @@
         <v>3</v>
       </c>
       <c r="T11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="U11" s="20">
         <v>4</v>
       </c>
       <c r="V11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="W11" s="20">
@@ -53053,15 +53764,15 @@
         <v>46</v>
       </c>
       <c r="I12" s="33">
-        <f>D12/(D12+H12)</f>
+        <f t="shared" si="0"/>
         <v>6.1224489795918366E-2</v>
       </c>
       <c r="J12" s="40">
-        <f>D12/G12*100000</f>
+        <f t="shared" si="2"/>
         <v>4.1637173668651375</v>
       </c>
       <c r="K12" s="35">
-        <f>E12/D12</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L12" s="35">
@@ -53080,12 +53791,12 @@
         <v>1</v>
       </c>
       <c r="T12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U12" s="20"/>
       <c r="V12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W12" s="20">
@@ -53115,15 +53826,15 @@
         <v>40</v>
       </c>
       <c r="I13" s="33">
-        <f>D13/(D13+H13)</f>
+        <f t="shared" si="0"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="J13" s="40">
-        <f>D13/G13*100000</f>
+        <f t="shared" si="2"/>
         <v>4.8421460391245397</v>
       </c>
       <c r="K13" s="33">
-        <f>E13/D13</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L13" s="33">
@@ -53142,12 +53853,12 @@
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U13" s="20"/>
       <c r="V13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W13" s="20"/>
@@ -53179,15 +53890,15 @@
         <v>1435</v>
       </c>
       <c r="I14" s="35">
-        <f>D14/(D14+H14)</f>
+        <f t="shared" si="0"/>
         <v>0.19562780269058297</v>
       </c>
       <c r="J14" s="39">
-        <f>D14/G14*100000</f>
+        <f t="shared" si="2"/>
         <v>92.594557880884665</v>
       </c>
       <c r="K14" s="31">
-        <f>E14/D14</f>
+        <f t="shared" si="3"/>
         <v>0.61604584527220629</v>
       </c>
       <c r="L14" s="31">
@@ -53213,12 +53924,12 @@
       </c>
       <c r="S14" s="20"/>
       <c r="T14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U14" s="20"/>
       <c r="V14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W14" s="20"/>
@@ -53246,7 +53957,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="33">
-        <f>D15/(D15+H15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="40"/>
@@ -53286,7 +53997,7 @@
         <v>20</v>
       </c>
       <c r="I16" s="33">
-        <f>D16/(D16+H16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="40"/>
@@ -53326,7 +54037,7 @@
         <v>199</v>
       </c>
       <c r="I17" s="33">
-        <f>D17/(D17+H17)</f>
+        <f t="shared" si="0"/>
         <v>7.8703703703703706E-2</v>
       </c>
       <c r="J17" s="40">
@@ -53374,7 +54085,7 @@
         <v>45</v>
       </c>
       <c r="I18" s="33">
-        <f>D18/(D18+H18)</f>
+        <f t="shared" si="0"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="J18" s="40">
@@ -53394,12 +54105,12 @@
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
       <c r="T18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U18" s="20"/>
       <c r="V18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W18" s="20">
@@ -53429,7 +54140,7 @@
         <v>66</v>
       </c>
       <c r="I19" s="33">
-        <f>D19/(D19+H19)</f>
+        <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="J19" s="40">
@@ -53456,12 +54167,12 @@
         <v>1</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U19" s="23"/>
       <c r="V19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W19" s="23"/>
@@ -53499,7 +54210,7 @@
         <v>3573</v>
       </c>
       <c r="I20" s="123">
-        <f>D20/(D20+H20)</f>
+        <f t="shared" si="0"/>
         <v>0.1820054945054945</v>
       </c>
       <c r="J20" s="124">
@@ -53570,7 +54281,7 @@
       <c r="X21" s="87"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M19">
+  <sortState ref="B3:M19">
     <sortCondition ref="B3:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -53578,7 +54289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4947FD52-A25E-4C2F-AFE4-9B8EBCAE9DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:J41"/>
   <sheetViews>
@@ -54236,7 +54947,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G38" xr:uid="{0EEF62F0-F54A-4AA5-ACDA-D2620D9613D9}">
+  <autoFilter ref="A2:G38">
     <filterColumn colId="6">
       <colorFilter dxfId="0"/>
     </filterColumn>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID\covid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7E50E-9D07-4F05-85FD-14DD79FD1CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="90" windowWidth="7935" windowHeight="10905" tabRatio="510" activeTab="1"/>
+    <workbookView xWindow="11775" yWindow="1440" windowWidth="8400" windowHeight="9480" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -22,11 +23,11 @@
     <sheet name="loc" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$859</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$879</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">dias!$A$1:$H$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">loc!$A$2:$G$38</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="224">
   <si>
     <t>FECHA</t>
   </si>
@@ -716,7 +717,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2515,12 +2516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J866"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J886"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A861" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I866" sqref="I866"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B886" sqref="B886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22857,7 +22858,7 @@
         <v>44044</v>
       </c>
       <c r="B806" s="94">
-        <f t="shared" ref="B806:B866" si="20">B805+1</f>
+        <f t="shared" ref="B806:B869" si="20">B805+1</f>
         <v>805</v>
       </c>
       <c r="C806" s="95" t="s">
@@ -24371,15 +24372,515 @@
         <v>222</v>
       </c>
     </row>
+    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A867" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B867" s="94">
+        <f t="shared" si="20"/>
+        <v>866</v>
+      </c>
+      <c r="C867" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D867" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E867" s="95"/>
+      <c r="F867" s="95"/>
+      <c r="G867" s="95"/>
+      <c r="H867" s="95"/>
+      <c r="I867" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J867" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A868" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B868" s="94">
+        <f t="shared" si="20"/>
+        <v>867</v>
+      </c>
+      <c r="C868" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D868" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E868" s="95"/>
+      <c r="F868" s="95"/>
+      <c r="G868" s="95"/>
+      <c r="H868" s="95"/>
+      <c r="I868" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J868" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A869" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B869" s="94">
+        <f t="shared" si="20"/>
+        <v>868</v>
+      </c>
+      <c r="C869" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D869" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E869" s="95"/>
+      <c r="F869" s="95"/>
+      <c r="G869" s="95"/>
+      <c r="H869" s="95"/>
+      <c r="I869" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J869" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A870" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B870" s="94">
+        <f t="shared" ref="B870:B886" si="21">B869+1</f>
+        <v>869</v>
+      </c>
+      <c r="C870" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D870" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E870" s="95"/>
+      <c r="F870" s="95"/>
+      <c r="G870" s="95"/>
+      <c r="H870" s="95"/>
+      <c r="I870" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J870" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A871" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B871" s="94">
+        <f t="shared" si="21"/>
+        <v>870</v>
+      </c>
+      <c r="C871" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D871" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E871" s="95"/>
+      <c r="F871" s="95"/>
+      <c r="G871" s="95"/>
+      <c r="H871" s="95"/>
+      <c r="I871" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J871" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A872" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B872" s="94">
+        <f t="shared" si="21"/>
+        <v>871</v>
+      </c>
+      <c r="C872" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D872" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E872" s="95"/>
+      <c r="F872" s="95"/>
+      <c r="G872" s="95"/>
+      <c r="H872" s="95"/>
+      <c r="I872" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J872" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A873" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B873" s="94">
+        <f t="shared" si="21"/>
+        <v>872</v>
+      </c>
+      <c r="C873" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D873" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E873" s="95"/>
+      <c r="F873" s="95"/>
+      <c r="G873" s="95"/>
+      <c r="H873" s="95"/>
+      <c r="I873" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J873" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A874" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B874" s="94">
+        <f t="shared" si="21"/>
+        <v>873</v>
+      </c>
+      <c r="C874" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D874" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E874" s="95"/>
+      <c r="F874" s="95"/>
+      <c r="G874" s="95"/>
+      <c r="H874" s="95"/>
+      <c r="I874" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J874" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A875" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B875" s="94">
+        <f t="shared" si="21"/>
+        <v>874</v>
+      </c>
+      <c r="C875" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D875" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E875" s="95"/>
+      <c r="F875" s="95"/>
+      <c r="G875" s="95"/>
+      <c r="H875" s="95"/>
+      <c r="I875" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J875" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A876" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B876" s="94">
+        <f t="shared" si="21"/>
+        <v>875</v>
+      </c>
+      <c r="C876" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D876" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E876" s="95"/>
+      <c r="F876" s="95"/>
+      <c r="G876" s="95"/>
+      <c r="H876" s="95"/>
+      <c r="I876" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J876" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A877" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B877" s="94">
+        <f t="shared" si="21"/>
+        <v>876</v>
+      </c>
+      <c r="C877" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D877" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E877" s="95"/>
+      <c r="F877" s="95"/>
+      <c r="G877" s="95"/>
+      <c r="H877" s="95"/>
+      <c r="I877" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J877" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A878" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B878" s="94">
+        <f t="shared" si="21"/>
+        <v>877</v>
+      </c>
+      <c r="C878" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D878" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E878" s="95"/>
+      <c r="F878" s="95"/>
+      <c r="G878" s="95"/>
+      <c r="H878" s="95"/>
+      <c r="I878" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J878" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A879" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B879" s="94">
+        <f t="shared" si="21"/>
+        <v>878</v>
+      </c>
+      <c r="C879" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D879" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E879" s="95"/>
+      <c r="F879" s="95"/>
+      <c r="G879" s="95"/>
+      <c r="H879" s="95"/>
+      <c r="I879" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J879" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A880" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B880" s="94">
+        <f t="shared" si="21"/>
+        <v>879</v>
+      </c>
+      <c r="C880" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D880" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E880" s="95"/>
+      <c r="F880" s="95"/>
+      <c r="G880" s="95"/>
+      <c r="H880" s="95"/>
+      <c r="I880" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="J880" s="96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A881" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B881" s="94">
+        <f t="shared" si="21"/>
+        <v>880</v>
+      </c>
+      <c r="C881" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D881" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E881" s="95"/>
+      <c r="F881" s="95"/>
+      <c r="G881" s="95"/>
+      <c r="H881" s="95"/>
+      <c r="I881" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="J881" s="96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A882" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B882" s="94">
+        <f t="shared" si="21"/>
+        <v>881</v>
+      </c>
+      <c r="C882" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D882" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E882" s="95"/>
+      <c r="F882" s="95"/>
+      <c r="G882" s="95"/>
+      <c r="H882" s="95"/>
+      <c r="I882" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="J882" s="96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A883" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B883" s="94">
+        <f t="shared" si="21"/>
+        <v>882</v>
+      </c>
+      <c r="C883" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D883" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E883" s="95"/>
+      <c r="F883" s="95"/>
+      <c r="G883" s="95"/>
+      <c r="H883" s="95"/>
+      <c r="I883" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J883" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A884" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B884" s="94">
+        <f t="shared" si="21"/>
+        <v>883</v>
+      </c>
+      <c r="C884" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D884" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E884" s="95"/>
+      <c r="F884" s="95"/>
+      <c r="G884" s="95"/>
+      <c r="H884" s="95"/>
+      <c r="I884" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J884" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A885" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B885" s="94">
+        <f t="shared" si="21"/>
+        <v>884</v>
+      </c>
+      <c r="C885" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D885" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E885" s="95"/>
+      <c r="F885" s="95"/>
+      <c r="G885" s="95"/>
+      <c r="H885" s="95"/>
+      <c r="I885" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="J885" s="96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A886" s="100">
+        <v>44047</v>
+      </c>
+      <c r="B886" s="94">
+        <f t="shared" si="21"/>
+        <v>885</v>
+      </c>
+      <c r="C886" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D886" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E886" s="95"/>
+      <c r="F886" s="95"/>
+      <c r="G886" s="95"/>
+      <c r="H886" s="95"/>
+      <c r="I886" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="J886" s="96" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J859">
-    <sortState ref="A2:J839">
+  <autoFilter ref="A1:J879" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J839">
       <sortCondition ref="A2:A839"/>
       <sortCondition ref="C2:C839"/>
       <sortCondition ref="D2:D839"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:J376">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J376">
     <sortCondition ref="A2:A376"/>
     <sortCondition ref="C2:C376"/>
     <sortCondition ref="D2:D376"/>
@@ -24393,10 +24894,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -24754,7 +25255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24871,7 +25372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BN134"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0"/>
@@ -50751,13 +51252,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55">
-    <sortState ref="A2:H55">
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
       <sortCondition ref="D2:D55"/>
       <sortCondition ref="C2:C55"/>
     </sortState>
   </autoFilter>
-  <sortState ref="C2:H55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H55">
     <sortCondition ref="D2:D55"/>
     <sortCondition ref="C2:C55"/>
   </sortState>
@@ -50766,7 +51267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:CC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52464,7 +52965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53108,7 +53609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -54281,7 +54782,7 @@
       <c r="X21" s="87"/>
     </row>
   </sheetData>
-  <sortState ref="B3:M19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M19">
     <sortCondition ref="B3:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54289,7 +54790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A2:J41"/>
   <sheetViews>
@@ -54947,7 +55448,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G38">
+  <autoFilter ref="A2:G38" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="6">
       <colorFilter dxfId="0"/>
     </filterColumn>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\covid19Page\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D7E50E-9D07-4F05-85FD-14DD79FD1CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63FA39D-8508-476F-8A86-BE412E330C9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="1440" windowWidth="8400" windowHeight="9480" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="180" windowWidth="15255" windowHeight="10335" tabRatio="510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="loc" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$879</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$J$905</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">dias!$A$1:$H$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">loc!$A$2:$G$38</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="224">
   <si>
     <t>FECHA</t>
   </si>
@@ -2517,11 +2517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J886"/>
+  <dimension ref="A1:J906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A874" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B886" sqref="B886"/>
+      <pane ySplit="1" topLeftCell="A895" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C906" sqref="C906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24452,7 +24452,7 @@
         <v>44047</v>
       </c>
       <c r="B870" s="94">
-        <f t="shared" ref="B870:B886" si="21">B869+1</f>
+        <f t="shared" ref="B870:B906" si="21">B869+1</f>
         <v>869</v>
       </c>
       <c r="C870" s="95" t="s">
@@ -24872,8 +24872,508 @@
         <v>46</v>
       </c>
     </row>
+    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A887" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B887" s="94">
+        <f t="shared" si="21"/>
+        <v>886</v>
+      </c>
+      <c r="C887" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D887" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E887" s="95"/>
+      <c r="F887" s="95"/>
+      <c r="G887" s="95"/>
+      <c r="H887" s="95"/>
+      <c r="I887" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J887" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A888" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B888" s="94">
+        <f t="shared" si="21"/>
+        <v>887</v>
+      </c>
+      <c r="C888" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D888" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E888" s="95"/>
+      <c r="F888" s="95"/>
+      <c r="G888" s="95"/>
+      <c r="H888" s="95"/>
+      <c r="I888" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J888" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A889" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B889" s="94">
+        <f t="shared" si="21"/>
+        <v>888</v>
+      </c>
+      <c r="C889" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D889" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E889" s="95"/>
+      <c r="F889" s="95"/>
+      <c r="G889" s="95"/>
+      <c r="H889" s="95"/>
+      <c r="I889" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J889" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A890" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B890" s="94">
+        <f t="shared" si="21"/>
+        <v>889</v>
+      </c>
+      <c r="C890" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D890" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E890" s="95"/>
+      <c r="F890" s="95"/>
+      <c r="G890" s="95"/>
+      <c r="H890" s="95"/>
+      <c r="I890" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J890" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A891" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B891" s="94">
+        <f t="shared" si="21"/>
+        <v>890</v>
+      </c>
+      <c r="C891" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D891" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E891" s="95"/>
+      <c r="F891" s="95"/>
+      <c r="G891" s="95"/>
+      <c r="H891" s="95"/>
+      <c r="I891" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J891" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A892" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B892" s="94">
+        <f t="shared" si="21"/>
+        <v>891</v>
+      </c>
+      <c r="C892" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D892" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E892" s="95"/>
+      <c r="F892" s="95"/>
+      <c r="G892" s="95"/>
+      <c r="H892" s="95"/>
+      <c r="I892" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J892" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A893" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B893" s="94">
+        <f t="shared" si="21"/>
+        <v>892</v>
+      </c>
+      <c r="C893" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D893" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E893" s="95"/>
+      <c r="F893" s="95"/>
+      <c r="G893" s="95"/>
+      <c r="H893" s="95"/>
+      <c r="I893" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J893" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A894" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B894" s="94">
+        <f t="shared" si="21"/>
+        <v>893</v>
+      </c>
+      <c r="C894" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D894" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E894" s="95"/>
+      <c r="F894" s="95"/>
+      <c r="G894" s="95"/>
+      <c r="H894" s="95"/>
+      <c r="I894" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J894" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A895" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B895" s="94">
+        <f t="shared" si="21"/>
+        <v>894</v>
+      </c>
+      <c r="C895" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D895" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E895" s="95"/>
+      <c r="F895" s="95"/>
+      <c r="G895" s="95"/>
+      <c r="H895" s="95"/>
+      <c r="I895" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J895" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A896" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B896" s="94">
+        <f t="shared" si="21"/>
+        <v>895</v>
+      </c>
+      <c r="C896" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D896" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E896" s="95"/>
+      <c r="F896" s="95"/>
+      <c r="G896" s="95"/>
+      <c r="H896" s="95"/>
+      <c r="I896" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J896" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A897" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B897" s="94">
+        <f t="shared" si="21"/>
+        <v>896</v>
+      </c>
+      <c r="C897" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D897" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E897" s="95"/>
+      <c r="F897" s="95"/>
+      <c r="G897" s="95"/>
+      <c r="H897" s="95"/>
+      <c r="I897" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J897" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A898" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B898" s="94">
+        <f t="shared" si="21"/>
+        <v>897</v>
+      </c>
+      <c r="C898" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D898" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E898" s="95"/>
+      <c r="F898" s="95"/>
+      <c r="G898" s="95"/>
+      <c r="H898" s="95"/>
+      <c r="I898" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J898" s="96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A899" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B899" s="94">
+        <f t="shared" si="21"/>
+        <v>898</v>
+      </c>
+      <c r="C899" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D899" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E899" s="95"/>
+      <c r="F899" s="95"/>
+      <c r="G899" s="95"/>
+      <c r="H899" s="95"/>
+      <c r="I899" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="J899" s="96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A900" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B900" s="94">
+        <f t="shared" si="21"/>
+        <v>899</v>
+      </c>
+      <c r="C900" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D900" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E900" s="95"/>
+      <c r="F900" s="95"/>
+      <c r="G900" s="95"/>
+      <c r="H900" s="95"/>
+      <c r="I900" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J900" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A901" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B901" s="94">
+        <f t="shared" si="21"/>
+        <v>900</v>
+      </c>
+      <c r="C901" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D901" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E901" s="95"/>
+      <c r="F901" s="95"/>
+      <c r="G901" s="95"/>
+      <c r="H901" s="95"/>
+      <c r="I901" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J901" s="96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A902" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B902" s="94">
+        <f t="shared" si="21"/>
+        <v>901</v>
+      </c>
+      <c r="C902" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D902" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="E902" s="95"/>
+      <c r="F902" s="95"/>
+      <c r="G902" s="95"/>
+      <c r="H902" s="95"/>
+      <c r="I902" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="J902" s="101" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A903" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B903" s="94">
+        <f t="shared" si="21"/>
+        <v>902</v>
+      </c>
+      <c r="C903" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D903" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E903" s="95"/>
+      <c r="F903" s="95"/>
+      <c r="G903" s="95"/>
+      <c r="H903" s="95"/>
+      <c r="I903" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="J903" s="96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A904" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B904" s="94">
+        <f t="shared" si="21"/>
+        <v>903</v>
+      </c>
+      <c r="C904" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D904" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="E904" s="95"/>
+      <c r="F904" s="95"/>
+      <c r="G904" s="95"/>
+      <c r="H904" s="95"/>
+      <c r="I904" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="J904" s="96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A905" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B905" s="94">
+        <f t="shared" si="21"/>
+        <v>904</v>
+      </c>
+      <c r="C905" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D905" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E905" s="95"/>
+      <c r="F905" s="95"/>
+      <c r="G905" s="95"/>
+      <c r="H905" s="95"/>
+      <c r="I905" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="J905" s="96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A906" s="100">
+        <v>44048</v>
+      </c>
+      <c r="B906" s="94">
+        <f t="shared" si="21"/>
+        <v>905</v>
+      </c>
+      <c r="C906" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D906" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="E906" s="95"/>
+      <c r="F906" s="95"/>
+      <c r="G906" s="95"/>
+      <c r="H906" s="95"/>
+      <c r="I906" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="J906" s="96" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J879" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J905" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J839">
       <sortCondition ref="A2:A839"/>
       <sortCondition ref="C2:C839"/>
@@ -24898,15 +25398,15 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="2"/>
   </cols>
@@ -24939,17 +25439,17 @@
         <v>24</v>
       </c>
       <c r="C2" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E2" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="106">
         <f t="shared" ref="G2:G18" si="0">C2/D2</f>
-        <v>0.1796875</v>
+        <v>0.18532818532818532</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -24957,17 +25457,17 @@
         <v>56</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="E3" s="2">
         <v>4</v>
       </c>
       <c r="G3" s="106">
         <f t="shared" si="0"/>
-        <v>1.5730337078651686E-2</v>
+        <v>1.7204301075268817E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -24975,20 +25475,20 @@
         <v>21</v>
       </c>
       <c r="C4" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4" s="106">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
+        <v>0.3146067415730337</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -24996,20 +25496,20 @@
         <v>61</v>
       </c>
       <c r="C5" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E5" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="106">
         <f t="shared" si="0"/>
-        <v>0.453125</v>
+        <v>0.44318181818181818</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -25020,14 +25520,14 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="106">
         <f t="shared" si="0"/>
-        <v>5.4054054054054057E-2</v>
+        <v>5.128205128205128E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -25053,7 +25553,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>85</v>
@@ -25063,7 +25563,7 @@
       </c>
       <c r="G8" s="106">
         <f t="shared" si="0"/>
-        <v>2.3529411764705882E-2</v>
+        <v>3.5294117647058823E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -25071,17 +25571,17 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="E9" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="G9" s="106">
         <f t="shared" si="0"/>
-        <v>0.40909090909090912</v>
+        <v>0.40749414519906324</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -25089,17 +25589,17 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2">
         <v>44</v>
       </c>
       <c r="G10" s="106">
         <f t="shared" si="0"/>
-        <v>0.36065573770491804</v>
+        <v>0.37190082644628097</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -25110,14 +25610,14 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="106">
         <f t="shared" si="0"/>
-        <v>6.3829787234042548E-2</v>
+        <v>6.1224489795918366E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -25125,17 +25625,17 @@
         <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
       <c r="G12" s="106">
         <f t="shared" si="0"/>
-        <v>4.6511627906976744E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -25143,20 +25643,20 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="D13" s="2">
-        <v>1544</v>
+        <v>1677</v>
       </c>
       <c r="E13" s="2">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="106">
         <f t="shared" si="0"/>
-        <v>0.2344559585492228</v>
+        <v>0.25283243887895052</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -25185,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -25203,14 +25703,14 @@
         <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E16" s="2">
         <v>17</v>
       </c>
       <c r="G16" s="106">
         <f t="shared" si="0"/>
-        <v>8.7804878048780483E-2</v>
+        <v>8.5308056872037921E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -25221,14 +25721,14 @@
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="G17" s="106">
         <f t="shared" si="0"/>
-        <v>4.3478260869565216E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -25239,14 +25739,14 @@
         <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="G18" s="106">
         <f t="shared" si="0"/>
-        <v>2.8169014084507043E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
     </row>
   </sheetData>
@@ -25259,7 +25759,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID\sitio\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1D97DB-DD71-4B69-996C-7D1E8BEB20D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS" sheetId="1" r:id="rId1"/>
@@ -24,19 +25,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS!$A$1:$F$1325</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">dias!$A$1:$H$55</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -850,7 +843,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2322,6 +2315,21 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
@@ -2503,21 +2511,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2532,7 +2525,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="FacCsSalud" refreshedDate="44049.432914351855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="969">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FacCsSalud" refreshedDate="44049.432914351855" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="969" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F968" sheet="CASOS"/>
   </cacheSource>
@@ -3199,7 +3192,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="FacCsSalud" refreshedDate="44056.448407638891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1283">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="FacCsSalud" refreshedDate="44056.448407638891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1283" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1282" sheet="CASOS"/>
   </cacheSource>
@@ -30780,7 +30773,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AX21" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" numFmtId="14" showAll="0">
@@ -31415,7 +31408,7 @@
     <dataField name="Cuenta de ncaso" fld="1" subtotal="count" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="26">
-    <format dxfId="25">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31424,7 +31417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31433,7 +31426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31442,7 +31435,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31451,7 +31444,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31460,7 +31453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31469,7 +31462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31478,7 +31471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31487,7 +31480,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31496,7 +31489,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31505,7 +31498,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31514,7 +31507,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31523,7 +31516,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31532,7 +31525,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31541,7 +31534,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31550,7 +31543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31559,7 +31552,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31568,7 +31561,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31577,7 +31570,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31586,7 +31579,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31595,7 +31588,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31604,7 +31597,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31613,7 +31606,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31622,7 +31615,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31631,7 +31624,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31640,7 +31633,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -31655,12 +31648,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:J48" firstHeaderRow="1" firstDataRow="3" firstDataCol="4"/>
   <pivotFields count="11">
     <pivotField axis="axisCol" compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
@@ -32538,19 +32534,19 @@
     <dataField name="Cuenta de ncaso" fld="1" subtotal="count" baseField="9" baseItem="7"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="30">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="3">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="1">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="6">
@@ -32873,10 +32869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1331"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1311" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -60717,14 +60715,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1325">
-    <sortState ref="A2:J839">
+  <autoFilter ref="A1:F1325" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J839">
       <sortCondition ref="A2:A839"/>
       <sortCondition ref="C2:C839"/>
       <sortCondition ref="D2:D839"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:F1327">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1327">
     <sortCondition ref="A2:A1327"/>
     <sortCondition ref="C2:C1327"/>
     <sortCondition ref="D2:D1327"/>
@@ -60735,10 +60733,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -60804,6 +60804,9 @@
       <c r="E3" s="2">
         <v>4</v>
       </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" s="99">
         <f t="shared" si="0"/>
         <v>2.3655913978494623E-2</v>
@@ -61082,6 +61085,9 @@
       </c>
       <c r="E18" s="2">
         <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
       <c r="G18" s="99">
         <f t="shared" si="0"/>
@@ -61094,10 +61100,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -61209,10 +61215,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -61378,7 +61386,9 @@
       <c r="E4" s="36">
         <v>4</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="36">
+        <v>1</v>
+      </c>
       <c r="G4" s="131">
         <v>191117</v>
       </c>
@@ -62233,7 +62243,9 @@
       <c r="E19" s="32">
         <v>2</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
       <c r="G19" s="131">
         <v>52651</v>
       </c>
@@ -62300,7 +62312,7 @@
       </c>
       <c r="F20" s="113">
         <f>SUM(F3:F19)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="114">
         <f>SUM(G8:G16)</f>
@@ -62327,7 +62339,7 @@
       </c>
       <c r="M20" s="118">
         <f>F20/D20</f>
-        <v>1.0319917440660475E-2</v>
+        <v>1.238390092879257E-2</v>
       </c>
       <c r="N20" s="107">
         <v>26</v>
@@ -62382,7 +62394,7 @@
       <c r="X21" s="85"/>
     </row>
   </sheetData>
-  <sortState ref="B3:M19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M19">
     <sortCondition ref="B3:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62391,12 +62403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BN155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ1" sqref="B1:AZ1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86758,7 +86770,7 @@
         <v>3.7612001156935624</v>
       </c>
       <c r="G127" s="77">
-        <f t="shared" ref="G127:G130" si="311">LN(2)/SLOPE(F121:F127,$A121:$A127)</f>
+        <f t="shared" ref="G127:G129" si="311">LN(2)/SLOPE(F121:F127,$A121:$A127)</f>
         <v>47.425791618943116</v>
       </c>
       <c r="H127" s="2">
@@ -87937,7 +87949,7 @@
         <v>3.7612001156935624</v>
       </c>
       <c r="G133" s="77" t="e">
-        <f t="shared" ref="G132:G134" si="428">LN(2)/SLOPE(F127:F133,$A127:$A133)</f>
+        <f t="shared" ref="G133:G134" si="428">LN(2)/SLOPE(F127:F133,$A127:$A133)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I133" s="57">
@@ -92106,13 +92118,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55">
-    <sortState ref="A2:H55">
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
       <sortCondition ref="D2:D55"/>
       <sortCondition ref="C2:C55"/>
     </sortState>
   </autoFilter>
-  <sortState ref="C2:H55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H55">
     <sortCondition ref="D2:D55"/>
     <sortCondition ref="C2:C55"/>
   </sortState>
@@ -92121,7 +92133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:AX23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -93743,7 +93755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A3:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFCC457-DA1A-43D7-B0BE-371062817FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7044F6-4D6E-4E41-802F-7331A97F1DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="B384" sqref="B384"/>
+      <selection activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7044F6-4D6E-4E41-802F-7331A97F1DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8637856-743A-41AB-831B-4052AB5375D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="30" windowWidth="10290" windowHeight="8595" tabRatio="768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7808" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7834" uniqueCount="226">
   <si>
     <t>FECHA</t>
   </si>
@@ -700,6 +700,15 @@
   </si>
   <si>
     <t>Gualeguaychu</t>
+  </si>
+  <si>
+    <t>Basavilbaso</t>
+  </si>
+  <si>
+    <t>-58.883333</t>
+  </si>
+  <si>
+    <t>-32.366667</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1760,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2134,6 +2143,9 @@
     <xf numFmtId="0" fontId="17" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2490,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDA715C-7ABA-48E4-9EC9-B8C239BDBE28}">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="C386" sqref="C386"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="B398" sqref="B398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7908,6 +7920,160 @@
         <v>23</v>
       </c>
     </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B387" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387" t="s">
+        <v>9</v>
+      </c>
+      <c r="D387" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B388" t="s">
+        <v>9</v>
+      </c>
+      <c r="C388" t="s">
+        <v>53</v>
+      </c>
+      <c r="D388" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B389" t="s">
+        <v>9</v>
+      </c>
+      <c r="C389" t="s">
+        <v>89</v>
+      </c>
+      <c r="D389" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B391" t="s">
+        <v>49</v>
+      </c>
+      <c r="C391" t="s">
+        <v>223</v>
+      </c>
+      <c r="D391" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B392" t="s">
+        <v>46</v>
+      </c>
+      <c r="C392" t="s">
+        <v>45</v>
+      </c>
+      <c r="D392" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B393" t="s">
+        <v>46</v>
+      </c>
+      <c r="C393" t="s">
+        <v>58</v>
+      </c>
+      <c r="D393" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B394" t="s">
+        <v>75</v>
+      </c>
+      <c r="C394" t="s">
+        <v>75</v>
+      </c>
+      <c r="D394" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B395" t="s">
+        <v>18</v>
+      </c>
+      <c r="C395" t="s">
+        <v>18</v>
+      </c>
+      <c r="D395" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="87">
+        <v>44062</v>
+      </c>
+      <c r="B397" t="s">
+        <v>42</v>
+      </c>
+      <c r="C397" t="s">
+        <v>42</v>
+      </c>
+      <c r="D397" s="2">
+        <v>-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7917,7 +8083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -8103,7 +8269,7 @@
         <v>189</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="99">
         <f t="shared" si="0"/>
@@ -8286,772 +8452,788 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D79F5F-25A4-41BA-82B3-58EE95D31589}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="138" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID\sitio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8637856-743A-41AB-831B-4052AB5375D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="30" windowWidth="10290" windowHeight="8595" tabRatio="768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12090" yWindow="30" windowWidth="10290" windowHeight="8595" tabRatio="768"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -20,18 +19,19 @@
     <sheet name="ER" sheetId="5" r:id="rId5"/>
     <sheet name="CASOS" sheetId="1" r:id="rId6"/>
     <sheet name="dias" sheetId="2" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="34" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CASOS!$A$1:$F$1649</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$402</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dias!$A$1:$H$55</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7834" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7886" uniqueCount="226">
   <si>
     <t>FECHA</t>
   </si>
@@ -714,7 +714,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2501,11 +2501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDA715C-7ABA-48E4-9EC9-B8C239BDBE28}">
-  <dimension ref="A1:D397"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D405"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7973,7 +7973,7 @@
         <v>10</v>
       </c>
       <c r="D390" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -8074,17 +8074,130 @@
         <v>-2</v>
       </c>
     </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B398" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B399" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" t="s">
+        <v>53</v>
+      </c>
+      <c r="D399" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B400" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B401" t="s">
+        <v>46</v>
+      </c>
+      <c r="C401" t="s">
+        <v>45</v>
+      </c>
+      <c r="D401" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B402" t="s">
+        <v>15</v>
+      </c>
+      <c r="C402" t="s">
+        <v>219</v>
+      </c>
+      <c r="D402" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B403" t="s">
+        <v>75</v>
+      </c>
+      <c r="C403" t="s">
+        <v>75</v>
+      </c>
+      <c r="D403" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B404" t="s">
+        <v>12</v>
+      </c>
+      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="87">
+        <v>44063</v>
+      </c>
+      <c r="B405" t="s">
+        <v>42</v>
+      </c>
+      <c r="C405" t="s">
+        <v>42</v>
+      </c>
+      <c r="D405" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D402"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8451,7 +8564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D79F5F-25A4-41BA-82B3-58EE95D31589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -9242,7 +9355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -9585,7 +9698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -10764,7 +10877,7 @@
       <c r="X21" s="85"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M19">
+  <sortState ref="B3:M19">
     <sortCondition ref="B3:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10773,7 +10886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1659"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -45629,14 +45742,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1649" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J838">
+  <autoFilter ref="A1:F1649">
+    <sortState ref="A2:J838">
       <sortCondition ref="A2:A838"/>
       <sortCondition ref="C2:C838"/>
       <sortCondition ref="D2:D838"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1325">
+  <sortState ref="A2:F1325">
     <sortCondition ref="A2:A1325"/>
     <sortCondition ref="C2:C1325"/>
     <sortCondition ref="D2:D1325"/>
@@ -45647,7 +45760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN157"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -75416,16 +75529,610 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
+  <autoFilter ref="A1:H55">
+    <sortState ref="A2:H55">
       <sortCondition ref="D2:D55"/>
       <sortCondition ref="C2:C55"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H55">
+  <sortState ref="C2:H55">
     <sortCondition ref="D2:D55"/>
     <sortCondition ref="C2:C55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="87"/>
+    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="87">
+        <v>44044</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>161</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G6" si="0">LN(F1)</f>
+        <v>5.0814043649844631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="87">
+        <v>44045</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>E2+F1</f>
+        <v>166</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>5.1119877883565437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="87">
+        <v>44046</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="1">E3+F2</f>
+        <v>169</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>5.1298987149230735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="87">
+        <v>44047</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5.1416635565026603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="87">
+        <v>44048</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>5.1532915944977793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="87">
+        <v>44049</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5.1984970312658261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="87">
+        <v>44050</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="G7">
+        <f>LN(F7)</f>
+        <v>5.2257466737132017</v>
+      </c>
+      <c r="H7">
+        <f>SLOPE(G1:G7,A1:A7)</f>
+        <v>2.2479938984981653E-2</v>
+      </c>
+      <c r="I7">
+        <f>LN(2)/H7</f>
+        <v>30.834033002626096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="87">
+        <v>44051</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G19" si="2">LN(F8)</f>
+        <v>5.2470240721604862</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H19" si="3">SLOPE(G2:G8,A2:A8)</f>
+        <v>2.3344222991258917E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I19" si="4">LN(2)/H8</f>
+        <v>29.692450282859681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="87">
+        <v>44052</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>5.2574953720277815</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>2.3784502923042794E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>29.142807095977339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="87">
+        <v>44053</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>5.3278761687895813</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>2.9127586886265266E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>23.796931179588714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5.3278761687895813</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>2.9080739151339147E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>23.83526694258823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="87">
+        <v>44055</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>5.3565862746720123</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>2.7120672035729036E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>25.557891030383999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="87">
+        <v>44056</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>5.3612921657094255</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>2.4862202777625835E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>27.879556238827199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="87">
+        <v>44057</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>5.4638318050256105</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>3.1668817565753286E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>21.887371674701104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="87">
+        <v>44058</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>5.521460917862246</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>3.9186568103403437E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>17.688386967975998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="87">
+        <v>44059</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>5.598421958998375</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>4.6644728540189605E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>14.860139661070642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="87">
+        <v>44060</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>5.6204008657171496</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>5.4336221842437533E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>12.75663189409657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="87">
+        <v>44061</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>5.7004435733906869</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>6.0156408933722726E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>11.522416195481675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="87">
+        <v>44062</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>5.7137328055093688</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>5.8195907285174507E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>11.910582941225586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f>100000/244</f>
+        <v>409.8360655737705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COVID\sitio\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E2F460-FE36-494A-8643-17F2A1D21DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="30" windowWidth="10290" windowHeight="8595" tabRatio="768"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$402</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dias!$A$1:$H$55</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -714,7 +715,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2501,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
@@ -8187,17 +8188,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D402"/>
+  <autoFilter ref="A1:D402" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,7 +8565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -9355,7 +9356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
@@ -9698,7 +9699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -10877,7 +10878,7 @@
       <c r="X21" s="85"/>
     </row>
   </sheetData>
-  <sortState ref="B3:M19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M19">
     <sortCondition ref="B3:B19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10886,7 +10887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1659"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -45742,14 +45743,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1649">
-    <sortState ref="A2:J838">
+  <autoFilter ref="A1:F1649" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J838">
       <sortCondition ref="A2:A838"/>
       <sortCondition ref="C2:C838"/>
       <sortCondition ref="D2:D838"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:F1325">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1325">
     <sortCondition ref="A2:A1325"/>
     <sortCondition ref="C2:C1325"/>
     <sortCondition ref="D2:D1325"/>
@@ -45760,7 +45761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BN157"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -75529,13 +75530,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55">
-    <sortState ref="A2:H55">
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H55">
       <sortCondition ref="D2:D55"/>
       <sortCondition ref="C2:C55"/>
     </sortState>
   </autoFilter>
-  <sortState ref="C2:H55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H55">
     <sortCondition ref="D2:D55"/>
     <sortCondition ref="C2:C55"/>
   </sortState>
@@ -75544,7 +75545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E2F460-FE36-494A-8643-17F2A1D21DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DE582E-9254-4A25-AF2F-0F90127C77A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="768" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="CASOS" sheetId="1" r:id="rId6"/>
     <sheet name="dias" sheetId="2" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="34" r:id="rId8"/>
+    <sheet name="Hoja3" sheetId="36" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CASOS!$A$1:$F$1649</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$402</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$417</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dias!$A$1:$H$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7886" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8031" uniqueCount="229">
   <si>
     <t>FECHA</t>
   </si>
@@ -710,6 +711,15 @@
   </si>
   <si>
     <t>-32.366667</t>
+  </si>
+  <si>
+    <t>Hasenkamp</t>
+  </si>
+  <si>
+    <t>-31.516667</t>
+  </si>
+  <si>
+    <t>-59.85</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1771,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2147,6 +2157,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2503,10 +2516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8187,8 +8201,190 @@
         <v>1</v>
       </c>
     </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B406" t="s">
+        <v>9</v>
+      </c>
+      <c r="C406" t="s">
+        <v>9</v>
+      </c>
+      <c r="D406" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B407" t="s">
+        <v>9</v>
+      </c>
+      <c r="C407" t="s">
+        <v>53</v>
+      </c>
+      <c r="D407" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" t="s">
+        <v>89</v>
+      </c>
+      <c r="D408" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9</v>
+      </c>
+      <c r="C409" t="s">
+        <v>226</v>
+      </c>
+      <c r="D409" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9</v>
+      </c>
+      <c r="C410" t="s">
+        <v>97</v>
+      </c>
+      <c r="D410" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" t="s">
+        <v>189</v>
+      </c>
+      <c r="D411" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B412" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B413" t="s">
+        <v>42</v>
+      </c>
+      <c r="C413" t="s">
+        <v>42</v>
+      </c>
+      <c r="D413" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B414" t="s">
+        <v>46</v>
+      </c>
+      <c r="C414" t="s">
+        <v>45</v>
+      </c>
+      <c r="D414" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B415" t="s">
+        <v>46</v>
+      </c>
+      <c r="C415" t="s">
+        <v>58</v>
+      </c>
+      <c r="D415" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B416" t="s">
+        <v>49</v>
+      </c>
+      <c r="C416" t="s">
+        <v>223</v>
+      </c>
+      <c r="D416" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C417" t="s">
+        <v>185</v>
+      </c>
+      <c r="D417" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B418" t="s">
+        <v>15</v>
+      </c>
+      <c r="C418" t="s">
+        <v>179</v>
+      </c>
+      <c r="D418" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D402" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D417" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8198,7 +8394,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8383,7 +8579,7 @@
         <v>189</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="99">
         <f t="shared" si="0"/>
@@ -8458,7 +8654,7 @@
         <v>620</v>
       </c>
       <c r="F13" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="0"/>
@@ -8566,10 +8762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9348,6 +9544,20 @@
       </c>
       <c r="D55" s="1" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -75549,7 +75759,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76127,6 +76337,72 @@
         <v>11.910582941225586</v>
       </c>
     </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="87">
+        <v>44063</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F21" si="5">E20+F19</f>
+        <v>305</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G21" si="6">LN(F20)</f>
+        <v>5.7203117766074119</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H21" si="7">SLOPE(G14:G20,A14:A20)</f>
+        <v>5.0552864986766859E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I21" si="8">LN(2)/H20</f>
+        <v>13.711333289248577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="87">
+        <v>44064</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>5.8464387750577247</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>5.8687479623145099E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>11.810818679059148</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H23">
         <f>100000/244</f>
@@ -76136,4 +76412,629 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A49F1D-81DF-4326-AD27-97429CF61F84}">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="139"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="139">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="139">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="139">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="139">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="139">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="139">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="139">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="139">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="139">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="139">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="139">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="139">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="139">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="139">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42DE582E-9254-4A25-AF2F-0F90127C77A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432D6DB-74D0-4E21-8238-04F03AC1E23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="768" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="1620" windowWidth="11655" windowHeight="8595" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CASOS!$A$1:$F$1649</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$418</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dias!$A$1:$H$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8031" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8099" uniqueCount="237">
   <si>
     <t>FECHA</t>
   </si>
@@ -720,6 +720,30 @@
   </si>
   <si>
     <t>-59.85</t>
+  </si>
+  <si>
+    <t>Valle María</t>
+  </si>
+  <si>
+    <t>Vilaguay</t>
+  </si>
+  <si>
+    <t>Gdor. Maciá</t>
+  </si>
+  <si>
+    <t>El Solar</t>
+  </si>
+  <si>
+    <t>Gob. Macia</t>
+  </si>
+  <si>
+    <t>-31.1761</t>
+  </si>
+  <si>
+    <t>-59.7331</t>
+  </si>
+  <si>
+    <t>-59.383333</t>
   </si>
 </sst>
 </file>
@@ -2516,11 +2540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B400" sqref="B400"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8324,7 +8348,7 @@
         <v>45</v>
       </c>
       <c r="D414" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -8360,13 +8384,13 @@
         <v>44064</v>
       </c>
       <c r="B417" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="D417" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -8374,17 +8398,437 @@
         <v>44064</v>
       </c>
       <c r="B418" t="s">
+        <v>19</v>
+      </c>
+      <c r="C418" t="s">
+        <v>185</v>
+      </c>
+      <c r="D418" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="87">
+        <v>44064</v>
+      </c>
+      <c r="B419" t="s">
         <v>15</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C419" t="s">
         <v>179</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D419" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B420" t="s">
+        <v>9</v>
+      </c>
+      <c r="C420" t="s">
+        <v>9</v>
+      </c>
+      <c r="D420" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B421" t="s">
+        <v>9</v>
+      </c>
+      <c r="C421" t="s">
+        <v>53</v>
+      </c>
+      <c r="D421" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B422" t="s">
+        <v>9</v>
+      </c>
+      <c r="C422" t="s">
+        <v>89</v>
+      </c>
+      <c r="D422" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" t="s">
+        <v>214</v>
+      </c>
+      <c r="D423" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B424" t="s">
+        <v>9</v>
+      </c>
+      <c r="C424" t="s">
+        <v>97</v>
+      </c>
+      <c r="D424" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B425" t="s">
+        <v>9</v>
+      </c>
+      <c r="C425" t="s">
+        <v>189</v>
+      </c>
+      <c r="D425" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B426" t="s">
+        <v>10</v>
+      </c>
+      <c r="C426" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B427" t="s">
+        <v>75</v>
+      </c>
+      <c r="C427" t="s">
+        <v>75</v>
+      </c>
+      <c r="D427" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B428" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428" t="s">
+        <v>8</v>
+      </c>
+      <c r="D428" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B429" t="s">
+        <v>15</v>
+      </c>
+      <c r="C429" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B430" t="s">
+        <v>15</v>
+      </c>
+      <c r="C430" t="s">
+        <v>229</v>
+      </c>
+      <c r="D430" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B431" t="s">
+        <v>15</v>
+      </c>
+      <c r="C431" t="s">
+        <v>16</v>
+      </c>
+      <c r="D431" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B432" t="s">
+        <v>49</v>
+      </c>
+      <c r="C432" t="s">
+        <v>223</v>
+      </c>
+      <c r="D432" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B433" t="s">
+        <v>49</v>
+      </c>
+      <c r="C433" t="s">
+        <v>67</v>
+      </c>
+      <c r="D433" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="87">
+        <v>44065</v>
+      </c>
+      <c r="B434" t="s">
+        <v>46</v>
+      </c>
+      <c r="C434" t="s">
+        <v>45</v>
+      </c>
+      <c r="D434" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" t="s">
+        <v>9</v>
+      </c>
+      <c r="D435" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B436" t="s">
+        <v>9</v>
+      </c>
+      <c r="C436" t="s">
+        <v>226</v>
+      </c>
+      <c r="D436" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" t="s">
+        <v>89</v>
+      </c>
+      <c r="D437" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B438" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438" t="s">
+        <v>143</v>
+      </c>
+      <c r="D438" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B439" t="s">
+        <v>10</v>
+      </c>
+      <c r="C439" t="s">
+        <v>10</v>
+      </c>
+      <c r="D439" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B440" t="s">
+        <v>42</v>
+      </c>
+      <c r="C440" t="s">
+        <v>42</v>
+      </c>
+      <c r="D440" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B441" t="s">
+        <v>14</v>
+      </c>
+      <c r="C441" t="s">
+        <v>14</v>
+      </c>
+      <c r="D441" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B442" t="s">
+        <v>19</v>
+      </c>
+      <c r="C442" t="s">
+        <v>185</v>
+      </c>
+      <c r="D442" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B443" t="s">
+        <v>49</v>
+      </c>
+      <c r="C443" t="s">
+        <v>223</v>
+      </c>
+      <c r="D443" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B444" t="s">
+        <v>46</v>
+      </c>
+      <c r="C444" t="s">
+        <v>45</v>
+      </c>
+      <c r="D444" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B445" t="s">
+        <v>12</v>
+      </c>
+      <c r="C445" t="s">
+        <v>230</v>
+      </c>
+      <c r="D445" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B446" t="s">
+        <v>15</v>
+      </c>
+      <c r="C446" t="s">
+        <v>15</v>
+      </c>
+      <c r="D446" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B447" t="s">
+        <v>15</v>
+      </c>
+      <c r="C447" t="s">
+        <v>179</v>
+      </c>
+      <c r="D447" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="87">
+        <v>44066</v>
+      </c>
+      <c r="B448" t="s">
+        <v>74</v>
+      </c>
+      <c r="C448" t="s">
+        <v>231</v>
+      </c>
+      <c r="D448" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D417" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D418" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8394,7 +8838,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C18" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8435,7 +8879,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>259</v>
@@ -8445,7 +8889,7 @@
       </c>
       <c r="G2" s="99">
         <f t="shared" ref="G2:G18" si="0">C2/D2</f>
-        <v>0.18532818532818532</v>
+        <v>0.20077220077220076</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8453,7 +8897,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>465</v>
@@ -8462,11 +8906,11 @@
         <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="99">
         <f t="shared" si="0"/>
-        <v>5.3763440860215055E-2</v>
+        <v>9.2473118279569888E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8474,7 +8918,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2">
         <v>178</v>
@@ -8487,7 +8931,7 @@
       </c>
       <c r="G4" s="99">
         <f t="shared" si="0"/>
-        <v>0.38202247191011235</v>
+        <v>0.42696629213483145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8495,7 +8939,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2">
         <v>264</v>
@@ -8508,7 +8952,7 @@
       </c>
       <c r="G5" s="99">
         <f t="shared" si="0"/>
-        <v>0.48863636363636365</v>
+        <v>0.53409090909090906</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8552,7 +8996,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>85</v>
@@ -8562,7 +9006,7 @@
       </c>
       <c r="G8" s="99">
         <f t="shared" si="0"/>
-        <v>8.2352941176470587E-2</v>
+        <v>0.16470588235294117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8570,7 +9014,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="D9" s="2">
         <v>427</v>
@@ -8583,7 +9027,7 @@
       </c>
       <c r="G9" s="99">
         <f t="shared" si="0"/>
-        <v>0.62997658079625296</v>
+        <v>0.92740046838407497</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8591,7 +9035,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>121</v>
@@ -8601,7 +9045,7 @@
       </c>
       <c r="G10" s="99">
         <f t="shared" si="0"/>
-        <v>0.37190082644628097</v>
+        <v>0.41322314049586778</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8609,7 +9053,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>49</v>
@@ -8619,7 +9063,7 @@
       </c>
       <c r="G11" s="99">
         <f t="shared" si="0"/>
-        <v>6.1224489795918366E-2</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8627,7 +9071,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>45</v>
@@ -8637,7 +9081,7 @@
       </c>
       <c r="G12" s="99">
         <f t="shared" si="0"/>
-        <v>0.31111111111111112</v>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8645,7 +9089,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>991</v>
+        <v>1338</v>
       </c>
       <c r="D13" s="2">
         <v>1677</v>
@@ -8658,7 +9102,7 @@
       </c>
       <c r="G13" s="99">
         <f t="shared" si="0"/>
-        <v>0.59093619558735833</v>
+        <v>0.79785330948121647</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8684,7 +9128,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <v>21</v>
@@ -8694,7 +9138,7 @@
       </c>
       <c r="G15" s="99">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8702,7 +9146,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>211</v>
@@ -8712,7 +9156,7 @@
       </c>
       <c r="G16" s="99">
         <f t="shared" si="0"/>
-        <v>9.004739336492891E-2</v>
+        <v>0.14218009478672985</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8720,7 +9164,7 @@
         <v>75</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2">
         <v>48</v>
@@ -8730,7 +9174,7 @@
       </c>
       <c r="G17" s="99">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8738,7 +9182,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2">
         <v>73</v>
@@ -8751,7 +9195,7 @@
       </c>
       <c r="G18" s="99">
         <f t="shared" si="0"/>
-        <v>4.1095890410958902E-2</v>
+        <v>9.5890410958904104E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8762,10 +9206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9558,6 +10002,34 @@
       </c>
       <c r="D56" s="1" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3432D6DB-74D0-4E21-8238-04F03AC1E23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7F8F4-19B2-43C6-BD1C-B50946B5A89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="1620" windowWidth="11655" windowHeight="8595" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="585" windowWidth="7395" windowHeight="8595" tabRatio="704" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8099" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8057" uniqueCount="237">
   <si>
     <t>FECHA</t>
   </si>
@@ -707,19 +707,7 @@
     <t>Basavilbaso</t>
   </si>
   <si>
-    <t>-58.883333</t>
-  </si>
-  <si>
-    <t>-32.366667</t>
-  </si>
-  <si>
     <t>Hasenkamp</t>
-  </si>
-  <si>
-    <t>-31.516667</t>
-  </si>
-  <si>
-    <t>-59.85</t>
   </si>
   <si>
     <t>Valle María</t>
@@ -737,13 +725,25 @@
     <t>Gob. Macia</t>
   </si>
   <si>
-    <t>-31.1761</t>
+    <t>Estación Parera</t>
   </si>
   <si>
-    <t>-59.7331</t>
+    <t>Urdinarrain</t>
   </si>
   <si>
-    <t>-59.383333</t>
+    <t>Maciá</t>
+  </si>
+  <si>
+    <t>-32,303333</t>
+  </si>
+  <si>
+    <t>-32,685556</t>
+  </si>
+  <si>
+    <t> -58,886667</t>
+  </si>
+  <si>
+    <t>-59,141389</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1795,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2184,6 +2184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2540,11 +2541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D448"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B445" sqref="B445"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8275,7 +8276,7 @@
         <v>9</v>
       </c>
       <c r="C409" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D409" s="2">
         <v>1</v>
@@ -8387,7 +8388,7 @@
         <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D417" s="2">
         <v>3</v>
@@ -8569,7 +8570,7 @@
         <v>15</v>
       </c>
       <c r="C430" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D430" s="2">
         <v>1</v>
@@ -8628,7 +8629,7 @@
         <v>45</v>
       </c>
       <c r="D434" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
@@ -8653,7 +8654,7 @@
         <v>9</v>
       </c>
       <c r="C436" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D436" s="2">
         <v>3</v>
@@ -8684,7 +8685,7 @@
         <v>143</v>
       </c>
       <c r="D438" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -8779,7 +8780,7 @@
         <v>12</v>
       </c>
       <c r="C445" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D445" s="2">
         <v>3</v>
@@ -8810,7 +8811,7 @@
         <v>179</v>
       </c>
       <c r="D447" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
@@ -8821,9 +8822,443 @@
         <v>74</v>
       </c>
       <c r="C448" t="s">
+        <v>227</v>
+      </c>
+      <c r="D448" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B449" t="s">
+        <v>9</v>
+      </c>
+      <c r="C449" t="s">
+        <v>9</v>
+      </c>
+      <c r="D449" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B450" t="s">
+        <v>9</v>
+      </c>
+      <c r="C450" t="s">
+        <v>63</v>
+      </c>
+      <c r="D450" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451" t="s">
+        <v>89</v>
+      </c>
+      <c r="D451" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B452" t="s">
+        <v>9</v>
+      </c>
+      <c r="C452" t="s">
+        <v>224</v>
+      </c>
+      <c r="D452" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B453" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" t="s">
+        <v>97</v>
+      </c>
+      <c r="D453" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B454" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454" t="s">
+        <v>230</v>
+      </c>
+      <c r="D454" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455" t="s">
+        <v>189</v>
+      </c>
+      <c r="D455" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B456" t="s">
+        <v>15</v>
+      </c>
+      <c r="C456" t="s">
+        <v>179</v>
+      </c>
+      <c r="D456" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B457" t="s">
+        <v>12</v>
+      </c>
+      <c r="C457" t="s">
+        <v>12</v>
+      </c>
+      <c r="D457" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B458" t="s">
+        <v>13</v>
+      </c>
+      <c r="C458" t="s">
+        <v>228</v>
+      </c>
+      <c r="D458" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B459" t="s">
+        <v>46</v>
+      </c>
+      <c r="C459" t="s">
+        <v>45</v>
+      </c>
+      <c r="D459" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B460" t="s">
+        <v>42</v>
+      </c>
+      <c r="C460" t="s">
+        <v>42</v>
+      </c>
+      <c r="D460" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B461" t="s">
+        <v>75</v>
+      </c>
+      <c r="C461" t="s">
+        <v>75</v>
+      </c>
+      <c r="D461" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B462" t="s">
+        <v>71</v>
+      </c>
+      <c r="C462" t="s">
+        <v>71</v>
+      </c>
+      <c r="D462" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="87">
+        <v>44067</v>
+      </c>
+      <c r="B463" t="s">
+        <v>8</v>
+      </c>
+      <c r="C463" t="s">
+        <v>8</v>
+      </c>
+      <c r="D463" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B464" t="s">
+        <v>9</v>
+      </c>
+      <c r="C464" t="s">
+        <v>9</v>
+      </c>
+      <c r="D464" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B465" t="s">
+        <v>9</v>
+      </c>
+      <c r="C465" t="s">
+        <v>89</v>
+      </c>
+      <c r="D465" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B466" t="s">
+        <v>9</v>
+      </c>
+      <c r="C466" t="s">
+        <v>53</v>
+      </c>
+      <c r="D466" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B467" t="s">
+        <v>9</v>
+      </c>
+      <c r="C467" t="s">
+        <v>211</v>
+      </c>
+      <c r="D467" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B468" t="s">
+        <v>9</v>
+      </c>
+      <c r="C468" t="s">
+        <v>151</v>
+      </c>
+      <c r="D468" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B469" t="s">
+        <v>9</v>
+      </c>
+      <c r="C469" t="s">
+        <v>189</v>
+      </c>
+      <c r="D469" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B470" t="s">
+        <v>10</v>
+      </c>
+      <c r="C470" t="s">
+        <v>10</v>
+      </c>
+      <c r="D470" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B471" t="s">
+        <v>10</v>
+      </c>
+      <c r="C471" t="s">
+        <v>21</v>
+      </c>
+      <c r="D471" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B472" t="s">
+        <v>10</v>
+      </c>
+      <c r="C472" t="s">
         <v>231</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D472" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B473" t="s">
+        <v>13</v>
+      </c>
+      <c r="C473" t="s">
+        <v>228</v>
+      </c>
+      <c r="D473" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B474" t="s">
+        <v>19</v>
+      </c>
+      <c r="C474" t="s">
+        <v>185</v>
+      </c>
+      <c r="D474" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" t="s">
+        <v>12</v>
+      </c>
+      <c r="D475" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B476" t="s">
+        <v>8</v>
+      </c>
+      <c r="C476" t="s">
+        <v>8</v>
+      </c>
+      <c r="D476" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B477" t="s">
+        <v>74</v>
+      </c>
+      <c r="C477" t="s">
+        <v>232</v>
+      </c>
+      <c r="D477" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B478" t="s">
+        <v>15</v>
+      </c>
+      <c r="C478" t="s">
+        <v>15</v>
+      </c>
+      <c r="D478" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B479" t="s">
+        <v>15</v>
+      </c>
+      <c r="C479" t="s">
+        <v>168</v>
+      </c>
+      <c r="D479" s="2">
         <v>1</v>
       </c>
     </row>
@@ -8838,7 +9273,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C2:C18"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8906,7 +9341,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="99">
         <f t="shared" si="0"/>
@@ -9023,7 +9458,7 @@
         <v>189</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="99">
         <f t="shared" si="0"/>
@@ -9098,7 +9533,7 @@
         <v>620</v>
       </c>
       <c r="F13" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="0"/>
@@ -9206,10 +9641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9241,11 +9676,11 @@
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
+      <c r="C2" s="1">
+        <v>-32.225023234100803</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-58.142272902901702</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9255,11 +9690,11 @@
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>93</v>
+      <c r="C3" s="1">
+        <v>-32.166699999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-58.55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9269,11 +9704,11 @@
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
+      <c r="C4" s="1">
+        <v>-32.207718176721798</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-58.218798208492501</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9283,11 +9718,11 @@
       <c r="B5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>160</v>
+      <c r="C5" s="1">
+        <v>-32.166666999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-58.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9297,11 +9732,11 @@
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
+      <c r="C6" s="1">
+        <v>-31.392222</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-58.016944000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9311,11 +9746,11 @@
       <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>170</v>
+      <c r="C7" s="1">
+        <v>-31.89</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-60.59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9325,11 +9760,11 @@
       <c r="B8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>167</v>
+      <c r="C8" s="1">
+        <v>-31.946472</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-60.581000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9339,11 +9774,11 @@
       <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>162</v>
+      <c r="C9" s="1">
+        <v>-31.863900000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-60.573900000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9353,11 +9788,11 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
+      <c r="C10" s="1">
+        <v>-32.074450123916399</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-60.465935078081898</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9367,11 +9802,11 @@
       <c r="B11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>181</v>
+      <c r="C11" s="1">
+        <v>-32.183332999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-60.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9381,11 +9816,11 @@
       <c r="B12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>221</v>
+      <c r="C12" s="1">
+        <v>-32.053899999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-60.613100000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9395,11 +9830,11 @@
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>142</v>
+      <c r="C13" s="1">
+        <v>-32.066667000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-60.466667000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9409,11 +9844,11 @@
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
+      <c r="C14" s="1">
+        <v>-30.766667000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-57.983333000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9423,11 +9858,11 @@
       <c r="B15" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>149</v>
+      <c r="C15" s="1">
+        <v>-31.073899999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-58.025799999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9437,11 +9872,11 @@
       <c r="B16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>178</v>
+      <c r="C16" s="1">
+        <v>-30.841699999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-58.008299999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9451,11 +9886,11 @@
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
+      <c r="C17" s="1">
+        <v>-30.983332999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-57.916666999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9465,11 +9900,11 @@
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
+      <c r="C18" s="1">
+        <v>-30.783332999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-57.916666999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9479,11 +9914,11 @@
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
+      <c r="C19" s="1">
+        <v>-30.9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-57.933332999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9493,11 +9928,11 @@
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
+      <c r="C20" s="1">
+        <v>-30.783332999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-57.916666999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9507,11 +9942,11 @@
       <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>137</v>
+      <c r="C21" s="1">
+        <v>-30.95</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-58.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9521,11 +9956,11 @@
       <c r="B22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>208</v>
+      <c r="C22" s="1">
+        <v>-32.716667000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-59.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9535,11 +9970,11 @@
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
+      <c r="C23" s="1">
+        <v>-33.150430938120799</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-59.310575121916202</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9549,11 +9984,11 @@
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
+      <c r="C24" s="1">
+        <v>-33.007781712247301</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-58.5106813050649</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9563,11 +9998,11 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
+      <c r="C25" s="1">
+        <v>-33.033332999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-59.016666999999998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9577,11 +10012,11 @@
       <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>172</v>
+      <c r="C26" s="1">
+        <v>-33.087555600000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-58.930473200000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -9591,11 +10026,11 @@
       <c r="B27" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>199</v>
+      <c r="C27" s="1">
+        <v>-33.499122999999997</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-58.797777000000004</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -9605,11 +10040,11 @@
       <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>100</v>
+      <c r="C28" s="1">
+        <v>-33.794361600000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-59.122607100000003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9619,11 +10054,11 @@
       <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>133</v>
+      <c r="C29" s="1">
+        <v>-31.4575</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-59.598300000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9633,11 +10068,11 @@
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>36</v>
+      <c r="C30" s="1">
+        <v>-30.740468112748001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-59.644298877664099</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9647,11 +10082,11 @@
       <c r="B31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>216</v>
+      <c r="C31" s="1">
+        <v>-30.95</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-59.8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9661,11 +10096,11 @@
       <c r="B32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>147</v>
+      <c r="C32" s="1">
+        <v>-32.25</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-60.166699999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9675,11 +10110,11 @@
       <c r="B33" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>187</v>
+      <c r="C33" s="1">
+        <v>-32.071460000000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-59.996619000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9689,11 +10124,11 @@
       <c r="B34" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>210</v>
+      <c r="C34" s="1">
+        <v>-32.4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-59.55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9703,11 +10138,11 @@
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>37</v>
+      <c r="C35" s="1">
+        <v>-32.398960647920397</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-59.787693725776698</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9717,11 +10152,11 @@
       <c r="B36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>201</v>
+      <c r="C36" s="1">
+        <v>-31.885000000000002</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-60.41</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9731,11 +10166,11 @@
       <c r="B37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>155</v>
+      <c r="C37" s="1">
+        <v>-31.583333</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-60.066667000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9745,11 +10180,11 @@
       <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>91</v>
+      <c r="C38" s="1">
+        <v>-31.766943999999999</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-60.403888999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9759,11 +10194,11 @@
       <c r="B39" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>204</v>
+      <c r="C39" s="1">
+        <v>-31.527799999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-60.2333</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9773,11 +10208,11 @@
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>95</v>
+      <c r="C40" s="1">
+        <v>-32.023325900000003</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-60.337992499999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -9787,11 +10222,11 @@
       <c r="B41" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>206</v>
+      <c r="C41" s="1">
+        <v>-31.583333</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-59.883333</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9801,11 +10236,11 @@
       <c r="B42" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>218</v>
+      <c r="C42" s="1">
+        <v>-31.216699999999999</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-59.9833</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -9815,11 +10250,11 @@
       <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
+      <c r="C43" s="1">
+        <v>-31.816666999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-60.516666999999998</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9829,11 +10264,11 @@
       <c r="B44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
+      <c r="C44" s="1">
+        <v>-31.7401521194259</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-60.527417016781499</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -9843,11 +10278,11 @@
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>55</v>
+      <c r="C45" s="1">
+        <v>-31.783332999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-60.433332999999998</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9857,11 +10292,11 @@
       <c r="B46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>213</v>
+      <c r="C46" s="1">
+        <v>-31.745000000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-60.353900000000003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9871,11 +10306,11 @@
       <c r="B47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>153</v>
+      <c r="C47" s="1">
+        <v>-31.95</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-60.133333</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9885,11 +10320,11 @@
       <c r="B48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>191</v>
+      <c r="C48" s="1">
+        <v>-31.866667</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-60.016666999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9899,11 +10334,11 @@
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>203</v>
+      <c r="C49" s="1">
+        <v>-31.616667</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-58.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9913,11 +10348,11 @@
       <c r="B50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>135</v>
+      <c r="C50" s="1">
+        <v>-32.255178999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-58.422789000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9927,11 +10362,11 @@
       <c r="B51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
+      <c r="C51" s="1">
+        <v>-32.483333000000002</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-58.233333000000002</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9941,11 +10376,11 @@
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>52</v>
+      <c r="C52" s="1">
+        <v>-32.450000000000003</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-58.433300000000003</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9955,11 +10390,11 @@
       <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>127</v>
+      <c r="C53" s="1">
+        <v>-32.616667</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-60.166666999999997</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9969,11 +10404,11 @@
       <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>35</v>
+      <c r="C54" s="1">
+        <v>-31.867637569277001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-59.026885197991099</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9983,11 +10418,11 @@
       <c r="B55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>224</v>
+      <c r="C55" s="1">
+        <v>-32.366667</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-58.883333</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -9995,13 +10430,13 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-31.516667000000002</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-59.85</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10009,13 +10444,13 @@
         <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-31.176100000000002</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-59.7331</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -10023,12 +10458,54 @@
         <v>74</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-32.166666999999997</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-59.383333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-31.752638999999999</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-60.448749999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="140" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -77346,7 +77823,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C41" s="139">
         <v>1</v>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C7F8F4-19B2-43C6-BD1C-B50946B5A89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC8475-2E42-4548-9C23-51B1ED754585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="585" windowWidth="7395" windowHeight="8595" tabRatio="704" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="704" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8057" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8226" uniqueCount="281">
   <si>
     <t>FECHA</t>
   </si>
@@ -740,10 +740,142 @@
     <t>-32,685556</t>
   </si>
   <si>
-    <t> -58,886667</t>
+    <t>-59,141389</t>
   </si>
   <si>
-    <t>-59,141389</t>
+    <t>Pueblo Belgrano</t>
+  </si>
+  <si>
+    <t>Don Cristóbal 2°</t>
+  </si>
+  <si>
+    <t>-33,010278</t>
+  </si>
+  <si>
+    <t>-58,514167</t>
+  </si>
+  <si>
+    <t>-32,071128</t>
+  </si>
+  <si>
+    <t>-59,994811</t>
+  </si>
+  <si>
+    <t>-59.85</t>
+  </si>
+  <si>
+    <t>-32.22502323</t>
+  </si>
+  <si>
+    <t>-58.1422729</t>
+  </si>
+  <si>
+    <t>-32.20771818</t>
+  </si>
+  <si>
+    <t>-58.21879821</t>
+  </si>
+  <si>
+    <t>-32.07445012</t>
+  </si>
+  <si>
+    <t>-60.46593508</t>
+  </si>
+  <si>
+    <t>-60.6131</t>
+  </si>
+  <si>
+    <t>-60.466667</t>
+  </si>
+  <si>
+    <t>-33.15043094</t>
+  </si>
+  <si>
+    <t>-59.31057512</t>
+  </si>
+  <si>
+    <t>-33.00778171</t>
+  </si>
+  <si>
+    <t>-58.51068131</t>
+  </si>
+  <si>
+    <t>-30.74046811</t>
+  </si>
+  <si>
+    <t>-59.64429888</t>
+  </si>
+  <si>
+    <t>-32.39896065</t>
+  </si>
+  <si>
+    <t>-59.78769373</t>
+  </si>
+  <si>
+    <t>-31.74015212</t>
+  </si>
+  <si>
+    <t>-60.52741702</t>
+  </si>
+  <si>
+    <t>-31.86763757</t>
+  </si>
+  <si>
+    <t>-59.0268852</t>
+  </si>
+  <si>
+    <t>-32.366667</t>
+  </si>
+  <si>
+    <t>-58.883333</t>
+  </si>
+  <si>
+    <t>-31.516667</t>
+  </si>
+  <si>
+    <t>-31.1761</t>
+  </si>
+  <si>
+    <t>-59.7331</t>
+  </si>
+  <si>
+    <t>-59.383333</t>
+  </si>
+  <si>
+    <t>-31.752639</t>
+  </si>
+  <si>
+    <t>-60.44875</t>
+  </si>
+  <si>
+    <t>-32.685556</t>
+  </si>
+  <si>
+    <t>-58.886667</t>
+  </si>
+  <si>
+    <t>-32.303333</t>
+  </si>
+  <si>
+    <t>-59.141389</t>
+  </si>
+  <si>
+    <t>-33.010278</t>
+  </si>
+  <si>
+    <t>-58.514167</t>
+  </si>
+  <si>
+    <t>-32.071128</t>
+  </si>
+  <si>
+    <t>-59.994811</t>
+  </si>
+  <si>
+    <t>Lat2</t>
+  </si>
+  <si>
+    <t>Long2</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2316,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2541,11 +2675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B497" sqref="B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9133,7 +9267,7 @@
         <v>10</v>
       </c>
       <c r="D470" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
@@ -9144,10 +9278,10 @@
         <v>10</v>
       </c>
       <c r="C471" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="D471" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
@@ -9158,10 +9292,10 @@
         <v>10</v>
       </c>
       <c r="C472" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="D472" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
@@ -9169,13 +9303,13 @@
         <v>44068</v>
       </c>
       <c r="B473" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C473" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D473" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
@@ -9183,13 +9317,13 @@
         <v>44068</v>
       </c>
       <c r="B474" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C474" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
       <c r="D474" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -9197,13 +9331,13 @@
         <v>44068</v>
       </c>
       <c r="B475" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C475" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D475" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
@@ -9211,13 +9345,13 @@
         <v>44068</v>
       </c>
       <c r="B476" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C476" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D476" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
@@ -9225,13 +9359,13 @@
         <v>44068</v>
       </c>
       <c r="B477" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C477" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="D477" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
@@ -9239,10 +9373,10 @@
         <v>44068</v>
       </c>
       <c r="B478" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C478" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="D478" s="2">
         <v>1</v>
@@ -9256,9 +9390,261 @@
         <v>15</v>
       </c>
       <c r="C479" t="s">
+        <v>15</v>
+      </c>
+      <c r="D479" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="87">
+        <v>44068</v>
+      </c>
+      <c r="B480" t="s">
+        <v>15</v>
+      </c>
+      <c r="C480" t="s">
         <v>168</v>
       </c>
-      <c r="D479" s="2">
+      <c r="D480" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B481" t="s">
+        <v>9</v>
+      </c>
+      <c r="C481" t="s">
+        <v>9</v>
+      </c>
+      <c r="D481" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B482" t="s">
+        <v>9</v>
+      </c>
+      <c r="C482" t="s">
+        <v>89</v>
+      </c>
+      <c r="D482" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B483" t="s">
+        <v>9</v>
+      </c>
+      <c r="C483" t="s">
+        <v>97</v>
+      </c>
+      <c r="D483" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B484" t="s">
+        <v>9</v>
+      </c>
+      <c r="C484" t="s">
+        <v>63</v>
+      </c>
+      <c r="D484" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B485" t="s">
+        <v>9</v>
+      </c>
+      <c r="C485" t="s">
+        <v>214</v>
+      </c>
+      <c r="D485" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B486" t="s">
+        <v>9</v>
+      </c>
+      <c r="C486" t="s">
+        <v>224</v>
+      </c>
+      <c r="D486" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B487" t="s">
+        <v>10</v>
+      </c>
+      <c r="C487" t="s">
+        <v>10</v>
+      </c>
+      <c r="D487" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B488" t="s">
+        <v>15</v>
+      </c>
+      <c r="C488" t="s">
+        <v>15</v>
+      </c>
+      <c r="D488" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B489" t="s">
+        <v>49</v>
+      </c>
+      <c r="C489" t="s">
+        <v>223</v>
+      </c>
+      <c r="D489" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B490" t="s">
+        <v>49</v>
+      </c>
+      <c r="C490" t="s">
+        <v>67</v>
+      </c>
+      <c r="D490" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B491" t="s">
+        <v>12</v>
+      </c>
+      <c r="C491" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B492" t="s">
+        <v>14</v>
+      </c>
+      <c r="C492" t="s">
+        <v>14</v>
+      </c>
+      <c r="D492" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B493" t="s">
+        <v>14</v>
+      </c>
+      <c r="C493" t="s">
+        <v>237</v>
+      </c>
+      <c r="D493" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B494" t="s">
+        <v>74</v>
+      </c>
+      <c r="C494" t="s">
+        <v>232</v>
+      </c>
+      <c r="D494" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B495" t="s">
+        <v>75</v>
+      </c>
+      <c r="C495" t="s">
+        <v>75</v>
+      </c>
+      <c r="D495" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B496" t="s">
+        <v>71</v>
+      </c>
+      <c r="C496" t="s">
+        <v>71</v>
+      </c>
+      <c r="D496" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="87">
+        <v>44069</v>
+      </c>
+      <c r="B497" t="s">
+        <v>42</v>
+      </c>
+      <c r="C497" t="s">
+        <v>42</v>
+      </c>
+      <c r="D497" s="2">
         <v>1</v>
       </c>
     </row>
@@ -9273,7 +9659,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9514,6 +9900,9 @@
       <c r="E12" s="2">
         <v>5</v>
       </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
       <c r="G12" s="99">
         <f t="shared" si="0"/>
         <v>0.42222222222222222</v>
@@ -9641,21 +10030,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="138" t="s">
         <v>2</v>
       </c>
@@ -9663,13 +10052,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="138" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="F1" s="138" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -9682,8 +10077,14 @@
       <c r="D2" s="1">
         <v>-58.142272902901702</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -9696,8 +10097,14 @@
       <c r="D3" s="1">
         <v>-58.55</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -9710,8 +10117,14 @@
       <c r="D4" s="1">
         <v>-58.218798208492501</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -9724,8 +10137,14 @@
       <c r="D5" s="1">
         <v>-58.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -9738,8 +10157,14 @@
       <c r="D6" s="1">
         <v>-58.016944000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -9752,8 +10177,14 @@
       <c r="D7" s="1">
         <v>-60.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -9766,8 +10197,14 @@
       <c r="D8" s="1">
         <v>-60.581000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -9780,8 +10217,14 @@
       <c r="D9" s="1">
         <v>-60.573900000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -9794,8 +10237,14 @@
       <c r="D10" s="1">
         <v>-60.465935078081898</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -9808,8 +10257,14 @@
       <c r="D11" s="1">
         <v>-60.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -9822,8 +10277,14 @@
       <c r="D12" s="1">
         <v>-60.613100000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -9836,8 +10297,14 @@
       <c r="D13" s="1">
         <v>-60.466667000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -9850,8 +10317,14 @@
       <c r="D14" s="1">
         <v>-57.983333000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -9864,8 +10337,14 @@
       <c r="D15" s="1">
         <v>-58.025799999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -9878,8 +10357,14 @@
       <c r="D16" s="1">
         <v>-58.008299999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -9892,8 +10377,14 @@
       <c r="D17" s="1">
         <v>-57.916666999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -9906,8 +10397,14 @@
       <c r="D18" s="1">
         <v>-57.916666999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -9920,8 +10417,14 @@
       <c r="D19" s="1">
         <v>-57.933332999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -9934,8 +10437,14 @@
       <c r="D20" s="1">
         <v>-57.916666999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -9948,8 +10457,14 @@
       <c r="D21" s="1">
         <v>-58.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -9962,8 +10477,14 @@
       <c r="D22" s="1">
         <v>-59.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -9976,8 +10497,14 @@
       <c r="D23" s="1">
         <v>-59.310575121916202</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -9990,8 +10517,14 @@
       <c r="D24" s="1">
         <v>-58.5106813050649</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -10004,8 +10537,14 @@
       <c r="D25" s="1">
         <v>-59.016666999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -10018,8 +10557,14 @@
       <c r="D26" s="1">
         <v>-58.930473200000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -10032,8 +10577,14 @@
       <c r="D27" s="1">
         <v>-58.797777000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -10046,8 +10597,14 @@
       <c r="D28" s="1">
         <v>-59.122607100000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -10060,8 +10617,14 @@
       <c r="D29" s="1">
         <v>-59.598300000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -10074,8 +10637,14 @@
       <c r="D30" s="1">
         <v>-59.644298877664099</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -10088,8 +10657,14 @@
       <c r="D31" s="1">
         <v>-59.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -10102,8 +10677,14 @@
       <c r="D32" s="1">
         <v>-60.166699999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -10116,8 +10697,14 @@
       <c r="D33" s="1">
         <v>-59.996619000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -10130,8 +10717,14 @@
       <c r="D34" s="1">
         <v>-59.55</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -10144,8 +10737,14 @@
       <c r="D35" s="1">
         <v>-59.787693725776698</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -10158,8 +10757,14 @@
       <c r="D36" s="1">
         <v>-60.41</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -10172,8 +10777,14 @@
       <c r="D37" s="1">
         <v>-60.066667000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -10186,8 +10797,14 @@
       <c r="D38" s="1">
         <v>-60.403888999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -10200,8 +10817,14 @@
       <c r="D39" s="1">
         <v>-60.2333</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -10214,8 +10837,14 @@
       <c r="D40" s="1">
         <v>-60.337992499999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -10228,8 +10857,14 @@
       <c r="D41" s="1">
         <v>-59.883333</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -10242,8 +10877,14 @@
       <c r="D42" s="1">
         <v>-59.9833</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -10256,8 +10897,14 @@
       <c r="D43" s="1">
         <v>-60.516666999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -10270,8 +10917,14 @@
       <c r="D44" s="1">
         <v>-60.527417016781499</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -10284,8 +10937,14 @@
       <c r="D45" s="1">
         <v>-60.433332999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -10298,8 +10957,14 @@
       <c r="D46" s="1">
         <v>-60.353900000000003</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -10312,8 +10977,14 @@
       <c r="D47" s="1">
         <v>-60.133333</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -10326,8 +10997,14 @@
       <c r="D48" s="1">
         <v>-60.016666999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -10340,8 +11017,14 @@
       <c r="D49" s="1">
         <v>-58.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -10354,8 +11037,14 @@
       <c r="D50" s="1">
         <v>-58.422789000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -10368,8 +11057,14 @@
       <c r="D51" s="1">
         <v>-58.233333000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -10382,8 +11077,14 @@
       <c r="D52" s="1">
         <v>-58.433300000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -10396,8 +11097,14 @@
       <c r="D53" s="1">
         <v>-60.166666999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -10410,8 +11117,14 @@
       <c r="D54" s="1">
         <v>-59.026885197991099</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
@@ -10424,8 +11137,14 @@
       <c r="D55" s="1">
         <v>-58.883333</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -10438,8 +11157,14 @@
       <c r="D56" s="1">
         <v>-59.85</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -10452,8 +11177,14 @@
       <c r="D57" s="1">
         <v>-59.7331</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -10466,8 +11197,14 @@
       <c r="D58" s="1">
         <v>-59.383333</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -10480,8 +11217,14 @@
       <c r="D59" s="1">
         <v>-60.448749999999997</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -10491,11 +11234,17 @@
       <c r="C60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="140" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="140">
+        <v>-58.886667000000003</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60" s="140" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -10506,7 +11255,53 @@
         <v>233</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E644334-C66C-4CCE-9AE2-0F35061DDBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6AB72-F544-43C5-8004-48BC6A151919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="769" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11175" yWindow="0" windowWidth="9255" windowHeight="10440" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="367">
   <si>
     <t>FECHA</t>
   </si>
@@ -1119,6 +1119,21 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>A. Protestante</t>
+  </si>
+  <si>
+    <t>-32.033333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -60.566667</t>
+  </si>
+  <si>
+    <t>-32,033333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -60,566667</t>
   </si>
 </sst>
 </file>
@@ -4528,11 +4543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E746"/>
+  <dimension ref="A1:E765"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A701" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A744" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B765" sqref="B765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14987,6 +15002,272 @@
       </c>
       <c r="D746" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B747" t="s">
+        <v>8</v>
+      </c>
+      <c r="C747" t="s">
+        <v>8</v>
+      </c>
+      <c r="D747" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B748" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C748" t="s">
+        <v>41</v>
+      </c>
+      <c r="D748" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B749" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C749" t="s">
+        <v>31</v>
+      </c>
+      <c r="D749" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B750" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C750" t="s">
+        <v>249</v>
+      </c>
+      <c r="D750" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B751" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C751" t="s">
+        <v>68</v>
+      </c>
+      <c r="D751" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B752" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C752" t="s">
+        <v>122</v>
+      </c>
+      <c r="D752" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B753" t="s">
+        <v>9</v>
+      </c>
+      <c r="C753" t="s">
+        <v>9</v>
+      </c>
+      <c r="D753" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B754" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C754" t="s">
+        <v>17</v>
+      </c>
+      <c r="D754" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B755" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C755" t="s">
+        <v>161</v>
+      </c>
+      <c r="D755" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B756" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C756" t="s">
+        <v>156</v>
+      </c>
+      <c r="D756" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B757" t="s">
+        <v>13</v>
+      </c>
+      <c r="C757" t="s">
+        <v>13</v>
+      </c>
+      <c r="D757" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B758" t="s">
+        <v>13</v>
+      </c>
+      <c r="C758" t="s">
+        <v>241</v>
+      </c>
+      <c r="D758" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B759" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C759" t="s">
+        <v>362</v>
+      </c>
+      <c r="D759" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B760" t="s">
+        <v>24</v>
+      </c>
+      <c r="C760" t="s">
+        <v>23</v>
+      </c>
+      <c r="D760" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A761" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B761" t="s">
+        <v>27</v>
+      </c>
+      <c r="C761" t="s">
+        <v>44</v>
+      </c>
+      <c r="D761" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A762" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B762" t="s">
+        <v>27</v>
+      </c>
+      <c r="C762" t="s">
+        <v>151</v>
+      </c>
+      <c r="D762" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A763" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B763" t="s">
+        <v>12</v>
+      </c>
+      <c r="C763" t="s">
+        <v>12</v>
+      </c>
+      <c r="D763" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A764" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B764" t="s">
+        <v>12</v>
+      </c>
+      <c r="C764" t="s">
+        <v>162</v>
+      </c>
+      <c r="D764" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A765" s="51">
+        <v>44084</v>
+      </c>
+      <c r="B765" t="s">
+        <v>10</v>
+      </c>
+      <c r="C765" t="s">
+        <v>10</v>
+      </c>
+      <c r="D765" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -16054,10 +16335,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A4C952-0633-467E-8F1D-999F7AAFAC35}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="H182" sqref="H158:H182"/>
+      <selection activeCell="F182" sqref="F182:G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20624,7 +20905,7 @@
         <v>0.39814471243042671</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -20825,7 +21106,7 @@
         <v>4673</v>
       </c>
       <c r="E182" s="2">
-        <f t="shared" ref="E182" si="14">LN(D182)</f>
+        <f t="shared" ref="E182:E183" si="14">LN(D182)</f>
         <v>8.4495565427004262</v>
       </c>
       <c r="F182" s="2">
@@ -20839,6 +21120,33 @@
       <c r="H182" s="140">
         <f>(D182-D176)/D176</f>
         <v>0.20035961983046494</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3">
+        <v>44084</v>
+      </c>
+      <c r="C183" s="2">
+        <v>134</v>
+      </c>
+      <c r="D183" s="2">
+        <f>D182+C183</f>
+        <v>4807</v>
+      </c>
+      <c r="E183" s="2">
+        <f t="shared" si="14"/>
+        <v>8.4778284678939606</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" ref="F183" si="17">SLOPE(E177:E183,A177:A183)</f>
+        <v>2.9138750919655645E-2</v>
+      </c>
+      <c r="G183" s="121">
+        <f t="shared" ref="G183" si="18">LN(2)/F183</f>
+        <v>23.787813776615266</v>
       </c>
     </row>
   </sheetData>
@@ -21117,7 +21425,7 @@
         <v>1263</v>
       </c>
       <c r="E13" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2">
         <v>2984</v>
@@ -21179,6 +21487,9 @@
       <c r="D16" s="2">
         <v>33</v>
       </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
       <c r="F16" s="2">
         <v>323</v>
       </c>
@@ -21198,7 +21509,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
         <v>111</v>
@@ -21237,10 +21548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22749,6 +23060,26 @@
       </c>
       <c r="F75" s="1" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -22764,8 +23095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22927,9 +23258,7 @@
       <c r="B4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="33">
-        <v>1</v>
-      </c>
+      <c r="C4" s="33"/>
       <c r="D4" s="33">
         <v>92</v>
       </c>
@@ -22998,10 +23327,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="33">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E5" s="33">
         <v>68</v>
@@ -23020,7 +23349,7 @@
       </c>
       <c r="J5" s="42">
         <f>D5/G5*100000</f>
-        <v>424.25657792308891</v>
+        <v>439.82562665421142</v>
       </c>
       <c r="K5" s="110">
         <v>12</v>
@@ -23030,7 +23359,7 @@
       </c>
       <c r="M5" s="56">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-3</v>
+        <v>8.8495575221238937E-3</v>
       </c>
       <c r="N5" s="136">
         <f t="shared" si="1"/>
@@ -23066,7 +23395,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="35">
         <v>162</v>
@@ -23232,9 +23561,7 @@
       <c r="B9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="35">
-        <v>1</v>
-      </c>
+      <c r="C9" s="35"/>
       <c r="D9" s="35">
         <v>41</v>
       </c>
@@ -23299,10 +23626,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="33">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="33">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="E10" s="33">
         <v>343</v>
@@ -23321,7 +23648,7 @@
       </c>
       <c r="J10" s="42">
         <f t="shared" si="3"/>
-        <v>727.67666685448887</v>
+        <v>746.19056435189282</v>
       </c>
       <c r="K10" s="113">
         <v>24</v>
@@ -23331,7 +23658,7 @@
       </c>
       <c r="M10" s="56">
         <f t="shared" si="0"/>
-        <v>1.2168141592920354E-2</v>
+        <v>1.1866235167206042E-2</v>
       </c>
       <c r="N10" s="136">
         <f t="shared" si="1"/>
@@ -23364,9 +23691,7 @@
       <c r="B11" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="71">
-        <v>5</v>
-      </c>
+      <c r="C11" s="71"/>
       <c r="D11" s="71">
         <v>71</v>
       </c>
@@ -23434,9 +23759,7 @@
       <c r="B12" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="35">
-        <v>3</v>
-      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="35">
         <v>46</v>
       </c>
@@ -23502,9 +23825,11 @@
       <c r="B13" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="35">
+        <v>4</v>
+      </c>
       <c r="D13" s="35">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E13" s="35">
         <v>4</v>
@@ -23523,7 +23848,7 @@
       </c>
       <c r="J13" s="37">
         <f t="shared" si="3"/>
-        <v>94.421847762928536</v>
+        <v>104.10613984117761</v>
       </c>
       <c r="K13" s="112">
         <v>26</v>
@@ -23533,7 +23858,7 @@
       </c>
       <c r="M13" s="65">
         <f t="shared" si="0"/>
-        <v>2.564102564102564E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="N13" s="136">
         <f t="shared" si="1"/>
@@ -23567,10 +23892,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="33">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D14" s="33">
-        <v>2867</v>
+        <v>2951</v>
       </c>
       <c r="E14" s="33">
         <v>861</v>
@@ -23589,7 +23914,7 @@
       </c>
       <c r="J14" s="42">
         <f t="shared" si="3"/>
-        <v>760.65500700428743</v>
+        <v>782.94137623636288</v>
       </c>
       <c r="K14" s="113">
         <v>8</v>
@@ -23599,7 +23924,7 @@
       </c>
       <c r="M14" s="56">
         <f t="shared" si="0"/>
-        <v>1.430066271363795E-2</v>
+        <v>1.3893595391392748E-2</v>
       </c>
       <c r="N14" s="136">
         <f t="shared" si="1"/>
@@ -23608,7 +23933,7 @@
       <c r="O14" s="29"/>
       <c r="P14" s="50">
         <f>F14/D14</f>
-        <v>1.430066271363795E-2</v>
+        <v>1.3893595391392748E-2</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>12</v>
@@ -23744,7 +24069,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="35">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E17" s="35">
         <v>20</v>
@@ -23761,7 +24086,7 @@
       </c>
       <c r="J17" s="38">
         <f t="shared" si="3"/>
-        <v>49.487014077288109</v>
+        <v>53.905497477045976</v>
       </c>
       <c r="K17" s="113">
         <v>39</v>
@@ -23780,7 +24105,7 @@
       <c r="O17" s="29"/>
       <c r="P17" s="14">
         <f>D17*2</f>
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="19"/>
@@ -23796,9 +24121,7 @@
       <c r="B18" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="35">
-        <v>1</v>
-      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="35">
         <v>59</v>
       </c>
@@ -23862,9 +24185,11 @@
       <c r="B19" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="33">
+        <v>5</v>
+      </c>
       <c r="D19" s="33">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E19" s="33">
         <v>3</v>
@@ -23883,7 +24208,7 @@
       </c>
       <c r="J19" s="37">
         <f t="shared" si="3"/>
-        <v>98.763556247744589</v>
+        <v>108.26005204079695</v>
       </c>
       <c r="K19" s="110">
         <v>9</v>
@@ -23893,7 +24218,7 @@
       </c>
       <c r="M19" s="66">
         <f t="shared" si="0"/>
-        <v>1.9230769230769232E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="N19" s="136">
         <f t="shared" si="1"/>
@@ -23930,11 +24255,11 @@
       </c>
       <c r="C20" s="58">
         <f t="shared" ref="C20:H20" si="4">SUM(C3:C19)</f>
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D20" s="59">
         <f t="shared" si="4"/>
-        <v>4673</v>
+        <v>4802</v>
       </c>
       <c r="E20" s="60">
         <f t="shared" si="4"/>
@@ -23954,11 +24279,11 @@
       </c>
       <c r="I20" s="62">
         <f>D20/(D20+H20)</f>
-        <v>0.38610261918532596</v>
+        <v>0.39257684761281886</v>
       </c>
       <c r="J20" s="63">
         <f>D20/G20*100000</f>
-        <v>337.16677453405975</v>
+        <v>346.47439574418041</v>
       </c>
       <c r="K20" s="114">
         <v>24</v>
@@ -23968,7 +24293,7 @@
       </c>
       <c r="M20" s="64">
         <f>F20/D20</f>
-        <v>1.5193665739353735E-2</v>
+        <v>1.4785506039150353E-2</v>
       </c>
       <c r="N20" s="137">
         <f>F20/G3*1000000</f>
@@ -24006,11 +24331,11 @@
       <c r="C21" s="46"/>
       <c r="D21" s="46">
         <f>D20+C20</f>
-        <v>4863</v>
+        <v>4936</v>
       </c>
       <c r="E21" s="126">
         <f>D21*0.05</f>
-        <v>243.15</v>
+        <v>246.8</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="47"/>
@@ -24040,11 +24365,11 @@
       </c>
       <c r="D22" s="24">
         <f>D20*2</f>
-        <v>9346</v>
+        <v>9604</v>
       </c>
       <c r="E22" s="125">
         <f>D22*0.015</f>
-        <v>140.19</v>
+        <v>144.06</v>
       </c>
       <c r="N22" s="139">
         <f>1000000/N20</f>
@@ -24059,7 +24384,7 @@
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D26" s="24">
         <f>D14*2</f>
-        <v>5734</v>
+        <v>5902</v>
       </c>
     </row>
   </sheetData>
@@ -44692,10 +45017,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45584,6 +45909,91 @@
       </c>
       <c r="E62" s="51">
         <v>44081</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="129">
+        <v>64</v>
+      </c>
+      <c r="C63" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="51">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64" s="129">
+        <v>81</v>
+      </c>
+      <c r="C64" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="51">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" s="129">
+        <v>56</v>
+      </c>
+      <c r="C65" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="51">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="129">
+        <v>68</v>
+      </c>
+      <c r="C66" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="51">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="129">
+        <v>85</v>
+      </c>
+      <c r="C67" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="51">
+        <v>44084</v>
       </c>
     </row>
   </sheetData>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D6AB72-F544-43C5-8004-48BC6A151919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F7280-60CE-4038-8E75-AFD25CF3DE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="0" windowWidth="9255" windowHeight="10440" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="690" windowWidth="9630" windowHeight="10440" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -26,14 +26,14 @@
     <sheet name="entre_rios_casos" sheetId="54" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$701</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CASOS1!$A$1:$D$790</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="377">
   <si>
     <t>FECHA</t>
   </si>
@@ -1135,14 +1135,45 @@
   <si>
     <t xml:space="preserve"> -60,566667</t>
   </si>
+  <si>
+    <t>A. San Rafael</t>
+  </si>
+  <si>
+    <t>Isletas</t>
+  </si>
+  <si>
+    <t>-32.168</t>
+  </si>
+  <si>
+    <t>-60.3582</t>
+  </si>
+  <si>
+    <t>-32,168</t>
+  </si>
+  <si>
+    <t>-60,3582</t>
+  </si>
+  <si>
+    <t>-31.9581</t>
+  </si>
+  <si>
+    <t>-60.2531</t>
+  </si>
+  <si>
+    <t>-31,9581</t>
+  </si>
+  <si>
+    <t>-60,2531</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2322,7 +2353,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2665,15 +2696,6 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2721,6 +2743,16 @@
     <xf numFmtId="0" fontId="17" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4543,11 +4575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E765"/>
+  <dimension ref="A1:F800"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A744" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B765" sqref="B765"/>
+      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A792" sqref="A792:A800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10606,7 +10638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="51">
         <v>44065</v>
       </c>
@@ -10620,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="51">
         <v>44065</v>
       </c>
@@ -10634,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="51">
         <v>44065</v>
       </c>
@@ -10648,7 +10680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="51">
         <v>44066</v>
       </c>
@@ -10662,7 +10694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="51">
         <v>44066</v>
       </c>
@@ -10676,7 +10708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="51">
         <v>44066</v>
       </c>
@@ -10690,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="51">
         <v>44066</v>
       </c>
@@ -10704,7 +10736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="51">
         <v>44066</v>
       </c>
@@ -10718,7 +10750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="51">
         <v>44066</v>
       </c>
@@ -10732,7 +10764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="51">
         <v>44066</v>
       </c>
@@ -10746,7 +10778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="51">
         <v>44066</v>
       </c>
@@ -10760,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="51">
         <v>44066</v>
       </c>
@@ -10774,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="51">
         <v>44066</v>
       </c>
@@ -10788,7 +10820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="51">
         <v>44066</v>
       </c>
@@ -10802,7 +10834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="51">
         <v>44066</v>
       </c>
@@ -10816,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="51">
         <v>44066</v>
       </c>
@@ -10829,6 +10861,7 @@
       <c r="D448" s="2">
         <v>3</v>
       </c>
+      <c r="F448" s="137"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="51">
@@ -11726,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="51">
         <v>44070</v>
       </c>
@@ -11740,7 +11773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="51">
         <v>44070</v>
       </c>
@@ -11753,8 +11786,9 @@
       <c r="D514" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F514" s="144"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="51">
         <v>44070</v>
       </c>
@@ -11768,7 +11802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="51">
         <v>44070</v>
       </c>
@@ -11782,7 +11816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="51">
         <v>44071</v>
       </c>
@@ -11796,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="51">
         <v>44071</v>
       </c>
@@ -11810,7 +11844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="51">
         <v>44071</v>
       </c>
@@ -11824,7 +11858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="51">
         <v>44071</v>
       </c>
@@ -11838,7 +11872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="51">
         <v>44071</v>
       </c>
@@ -11852,7 +11886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="51">
         <v>44071</v>
       </c>
@@ -11866,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="51">
         <v>44071</v>
       </c>
@@ -11880,7 +11914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="51">
         <v>44071</v>
       </c>
@@ -11894,7 +11928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="51">
         <v>44071</v>
       </c>
@@ -11908,7 +11942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="51">
         <v>44071</v>
       </c>
@@ -11923,7 +11957,7 @@
       </c>
       <c r="E526" s="78"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="51">
         <v>44071</v>
       </c>
@@ -11937,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="51">
         <v>44071</v>
       </c>
@@ -14767,7 +14801,7 @@
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A730" s="127">
+      <c r="A730" s="124">
         <v>44083</v>
       </c>
       <c r="B730" s="120" t="s">
@@ -14781,7 +14815,7 @@
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A731" s="127">
+      <c r="A731" s="124">
         <v>44083</v>
       </c>
       <c r="B731" s="120" t="s">
@@ -14795,7 +14829,7 @@
       </c>
     </row>
     <row r="732" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="127">
+      <c r="A732" s="124">
         <v>44083</v>
       </c>
       <c r="B732" s="120" t="s">
@@ -14809,7 +14843,7 @@
       </c>
     </row>
     <row r="733" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="127">
+      <c r="A733" s="124">
         <v>44083</v>
       </c>
       <c r="B733" s="120" t="s">
@@ -14823,7 +14857,7 @@
       </c>
     </row>
     <row r="734" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="127">
+      <c r="A734" s="124">
         <v>44083</v>
       </c>
       <c r="B734" s="120" t="s">
@@ -14851,7 +14885,7 @@
       </c>
     </row>
     <row r="736" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A736" s="127">
+      <c r="A736" s="124">
         <v>44083</v>
       </c>
       <c r="B736" s="79" t="s">
@@ -15015,7 +15049,7 @@
         <v>8</v>
       </c>
       <c r="D747" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
@@ -15155,7 +15189,7 @@
         <v>13</v>
       </c>
       <c r="D757" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -15267,11 +15301,501 @@
         <v>10</v>
       </c>
       <c r="D765" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A766" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B766" t="s">
+        <v>8</v>
+      </c>
+      <c r="C766" t="s">
+        <v>8</v>
+      </c>
+      <c r="D766" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B767" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C767" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D767" s="2">
         <v>5</v>
       </c>
     </row>
+    <row r="768" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B768" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C768" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D768" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B769" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C769" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D769" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B770" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C770" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D770" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B771" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C771" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="D771" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B772" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C772" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="D772" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B773" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C773" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D773" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A774" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B774" t="s">
+        <v>9</v>
+      </c>
+      <c r="C774" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D774" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B775" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C775" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D775" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A776" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B776" t="s">
+        <v>13</v>
+      </c>
+      <c r="C776" t="s">
+        <v>13</v>
+      </c>
+      <c r="D776" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B777" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C777" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="D777" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B778" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C778" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="D778" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B779" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C779" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="D779" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A780" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B780" t="s">
+        <v>10</v>
+      </c>
+      <c r="C780" t="s">
+        <v>10</v>
+      </c>
+      <c r="D780" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A781" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B781" t="s">
+        <v>20</v>
+      </c>
+      <c r="C781" t="s">
+        <v>20</v>
+      </c>
+      <c r="D781" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A782" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B782" t="s">
+        <v>27</v>
+      </c>
+      <c r="C782" t="s">
+        <v>44</v>
+      </c>
+      <c r="D782" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B783" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C783" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D783" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B784" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C784" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D784" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A785" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B785" t="s">
+        <v>11</v>
+      </c>
+      <c r="C785" t="s">
+        <v>154</v>
+      </c>
+      <c r="D785" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B786" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C786" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D786" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A787" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B787" t="s">
+        <v>15</v>
+      </c>
+      <c r="C787" t="s">
+        <v>307</v>
+      </c>
+      <c r="D787" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A788" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B788" t="s">
+        <v>24</v>
+      </c>
+      <c r="C788" t="s">
+        <v>23</v>
+      </c>
+      <c r="D788" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A789" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B789" t="s">
+        <v>12</v>
+      </c>
+      <c r="C789" t="s">
+        <v>162</v>
+      </c>
+      <c r="D789" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A790" s="51">
+        <v>44085</v>
+      </c>
+      <c r="B790" t="s">
+        <v>48</v>
+      </c>
+      <c r="C790" t="s">
+        <v>48</v>
+      </c>
+      <c r="D790" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A791" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B791" t="s">
+        <v>8</v>
+      </c>
+      <c r="C791" t="s">
+        <v>8</v>
+      </c>
+      <c r="D791" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A792" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B792" t="s">
+        <v>9</v>
+      </c>
+      <c r="C792" t="s">
+        <v>9</v>
+      </c>
+      <c r="D792" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A793" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B793" t="s">
+        <v>13</v>
+      </c>
+      <c r="C793" t="s">
+        <v>13</v>
+      </c>
+      <c r="D793" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A794" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B794" t="s">
+        <v>15</v>
+      </c>
+      <c r="C794" t="s">
+        <v>307</v>
+      </c>
+      <c r="D794" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A795" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B795" t="s">
+        <v>24</v>
+      </c>
+      <c r="C795" t="s">
+        <v>23</v>
+      </c>
+      <c r="D795" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A796" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B796" t="s">
+        <v>7</v>
+      </c>
+      <c r="C796" t="s">
+        <v>7</v>
+      </c>
+      <c r="D796" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A797" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B797" t="s">
+        <v>11</v>
+      </c>
+      <c r="C797" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D797" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A798" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B798" t="s">
+        <v>20</v>
+      </c>
+      <c r="C798" t="s">
+        <v>20</v>
+      </c>
+      <c r="D798" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A799" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B799" t="s">
+        <v>52</v>
+      </c>
+      <c r="C799" t="s">
+        <v>52</v>
+      </c>
+      <c r="D799" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A800" s="51">
+        <v>44086</v>
+      </c>
+      <c r="B800" t="s">
+        <v>10</v>
+      </c>
+      <c r="C800" t="s">
+        <v>10</v>
+      </c>
+      <c r="D800" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D701" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:D790" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D611">
       <sortCondition ref="A2:A611"/>
       <sortCondition ref="B2:B611"/>
@@ -15392,13 +15916,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="145" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="147"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="103" t="s">
@@ -20373,7 +20897,7 @@
         <f t="shared" si="11"/>
         <v>13.082505058447195</v>
       </c>
-      <c r="H158" s="140">
+      <c r="H158" s="137">
         <f t="shared" ref="H158:H181" si="12">(D158-D152)/D152</f>
         <v>0.3604060913705584</v>
       </c>
@@ -20404,7 +20928,7 @@
         <f t="shared" si="11"/>
         <v>12.664135686075852</v>
       </c>
-      <c r="H159" s="140">
+      <c r="H159" s="137">
         <f t="shared" si="12"/>
         <v>0.36318816762530814</v>
       </c>
@@ -20435,7 +20959,7 @@
         <f t="shared" si="11"/>
         <v>13.208882845942819</v>
       </c>
-      <c r="H160" s="140">
+      <c r="H160" s="137">
         <f t="shared" si="12"/>
         <v>0.34768989819890367</v>
       </c>
@@ -20466,7 +20990,7 @@
         <f t="shared" si="11"/>
         <v>14.635066436343511</v>
       </c>
-      <c r="H161" s="140">
+      <c r="H161" s="137">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
@@ -20497,7 +21021,7 @@
         <f t="shared" si="11"/>
         <v>18.132232416479589</v>
       </c>
-      <c r="H162" s="140">
+      <c r="H162" s="137">
         <f t="shared" si="12"/>
         <v>0.2675561797752809</v>
       </c>
@@ -20528,7 +21052,7 @@
         <f t="shared" si="11"/>
         <v>19.335725028090703</v>
       </c>
-      <c r="H163" s="140">
+      <c r="H163" s="137">
         <f t="shared" si="12"/>
         <v>0.26754098360655737</v>
       </c>
@@ -20559,7 +21083,7 @@
         <f t="shared" si="11"/>
         <v>17.60636516907779</v>
       </c>
-      <c r="H164" s="140">
+      <c r="H164" s="137">
         <f t="shared" si="12"/>
         <v>0.28358208955223879</v>
       </c>
@@ -20590,7 +21114,7 @@
         <f t="shared" si="11"/>
         <v>14.909861348618021</v>
       </c>
-      <c r="H165" s="140">
+      <c r="H165" s="137">
         <f t="shared" si="12"/>
         <v>0.32610006027727545</v>
       </c>
@@ -20621,7 +21145,7 @@
         <f t="shared" si="11"/>
         <v>13.209725115410297</v>
       </c>
-      <c r="H166" s="140">
+      <c r="H166" s="137">
         <f t="shared" si="12"/>
         <v>0.34689134224288204</v>
       </c>
@@ -20652,7 +21176,7 @@
         <f t="shared" si="11"/>
         <v>12.192342871926057</v>
       </c>
-      <c r="H167" s="140">
+      <c r="H167" s="137">
         <f t="shared" si="12"/>
         <v>0.37811791383219956</v>
       </c>
@@ -20683,7 +21207,7 @@
         <f t="shared" si="11"/>
         <v>12.243932438943306</v>
       </c>
-      <c r="H168" s="140">
+      <c r="H168" s="137">
         <f t="shared" si="12"/>
         <v>0.40055401662049861</v>
       </c>
@@ -20714,7 +21238,7 @@
         <f t="shared" si="11"/>
         <v>12.918202221123147</v>
       </c>
-      <c r="H169" s="140">
+      <c r="H169" s="137">
         <f t="shared" si="12"/>
         <v>0.39420589756854629</v>
       </c>
@@ -20745,7 +21269,7 @@
         <f t="shared" si="11"/>
         <v>13.64377821651675</v>
       </c>
-      <c r="H170" s="140">
+      <c r="H170" s="137">
         <f t="shared" si="12"/>
         <v>0.36337209302325579</v>
       </c>
@@ -20776,7 +21300,7 @@
         <f t="shared" si="11"/>
         <v>13.920190518682988</v>
       </c>
-      <c r="H171" s="140">
+      <c r="H171" s="137">
         <f t="shared" si="12"/>
         <v>0.35136363636363638</v>
       </c>
@@ -20807,7 +21331,7 @@
         <f t="shared" si="11"/>
         <v>14.124690909913474</v>
       </c>
-      <c r="H172" s="140">
+      <c r="H172" s="137">
         <f t="shared" si="12"/>
         <v>0.33390854184641933</v>
       </c>
@@ -20838,7 +21362,7 @@
         <f t="shared" si="11"/>
         <v>13.849059528013967</v>
       </c>
-      <c r="H173" s="140">
+      <c r="H173" s="137">
         <f t="shared" si="12"/>
         <v>0.35006170300287948</v>
       </c>
@@ -20869,7 +21393,7 @@
         <f t="shared" si="11"/>
         <v>12.908662074732076</v>
       </c>
-      <c r="H174" s="140">
+      <c r="H174" s="137">
         <f t="shared" si="12"/>
         <v>0.4026898734177215</v>
       </c>
@@ -20900,7 +21424,7 @@
         <f t="shared" si="11"/>
         <v>12.387531900950147</v>
       </c>
-      <c r="H175" s="140">
+      <c r="H175" s="137">
         <f t="shared" si="12"/>
         <v>0.39814471243042671</v>
       </c>
@@ -20931,7 +21455,7 @@
         <f t="shared" si="11"/>
         <v>12.247444202567172</v>
       </c>
-      <c r="H176" s="140">
+      <c r="H176" s="137">
         <f t="shared" si="12"/>
         <v>0.3834399431414357</v>
       </c>
@@ -20962,7 +21486,7 @@
         <f t="shared" si="11"/>
         <v>12.85382189179712</v>
       </c>
-      <c r="H177" s="140">
+      <c r="H177" s="137">
         <f t="shared" si="12"/>
         <v>0.35486041035990584</v>
       </c>
@@ -20993,7 +21517,7 @@
         <f t="shared" si="11"/>
         <v>13.931759977491648</v>
       </c>
-      <c r="H178" s="140">
+      <c r="H178" s="137">
         <f t="shared" si="12"/>
         <v>0.34540750323415265</v>
       </c>
@@ -21024,7 +21548,7 @@
         <f t="shared" si="11"/>
         <v>16.689060040418422</v>
       </c>
-      <c r="H179" s="140">
+      <c r="H179" s="137">
         <f t="shared" si="12"/>
         <v>0.295551492992078</v>
       </c>
@@ -21055,7 +21579,7 @@
         <f t="shared" si="11"/>
         <v>21.342967367695181</v>
       </c>
-      <c r="H180" s="140">
+      <c r="H180" s="137">
         <f t="shared" si="12"/>
         <v>0.22194021432600114</v>
       </c>
@@ -21086,7 +21610,7 @@
         <f t="shared" si="11"/>
         <v>24.582054576118111</v>
       </c>
-      <c r="H181" s="140">
+      <c r="H181" s="137">
         <f t="shared" si="12"/>
         <v>0.18975583864118897</v>
       </c>
@@ -21117,7 +21641,7 @@
         <f t="shared" ref="G182" si="16">LN(2)/F182</f>
         <v>24.179945401312398</v>
       </c>
-      <c r="H182" s="140">
+      <c r="H182" s="137">
         <f>(D182-D176)/D176</f>
         <v>0.20035961983046494</v>
       </c>
@@ -21158,8 +21682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21344,7 +21868,7 @@
         <v>357</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
         <v>1039</v>
@@ -21425,7 +21949,7 @@
         <v>1263</v>
       </c>
       <c r="E13" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2">
         <v>2984</v>
@@ -21488,7 +22012,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2">
         <v>323</v>
@@ -21530,7 +22054,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
         <v>111</v>
@@ -21548,10 +22072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23080,6 +23604,46 @@
       </c>
       <c r="F76" s="1" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -23114,7 +23678,7 @@
     <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="139" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="136" customWidth="1"/>
     <col min="15" max="15" width="3.7109375" style="27" customWidth="1"/>
     <col min="16" max="16" width="15.140625" customWidth="1"/>
     <col min="17" max="17" width="14" style="25" bestFit="1" customWidth="1"/>
@@ -23135,7 +23699,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="134"/>
+      <c r="N1" s="131"/>
       <c r="O1" s="27"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="8"/>
@@ -23184,7 +23748,7 @@
       <c r="M2" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="N2" s="135" t="s">
+      <c r="N2" s="132" t="s">
         <v>351</v>
       </c>
       <c r="O2" s="28"/>
@@ -23221,10 +23785,10 @@
         <v>0.02</v>
       </c>
       <c r="M3" s="56">
-        <f t="shared" ref="M3:M20" si="0">F3/D3</f>
+        <f t="shared" ref="M3:M19" si="0">F3/D3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="136">
+      <c r="N3" s="133">
         <f>F3/G3*1000000</f>
         <v>0</v>
       </c>
@@ -23291,7 +23855,7 @@
         <f t="shared" si="0"/>
         <v>6.5217391304347824E-2</v>
       </c>
-      <c r="N4" s="136">
+      <c r="N4" s="133">
         <f t="shared" ref="N4:N19" si="1">F4/G4*1000000</f>
         <v>31.394381452199436</v>
       </c>
@@ -23361,7 +23925,7 @@
         <f t="shared" si="0"/>
         <v>8.8495575221238937E-3</v>
       </c>
-      <c r="N5" s="136">
+      <c r="N5" s="133">
         <f t="shared" si="1"/>
         <v>38.922621827806317</v>
       </c>
@@ -23429,7 +23993,7 @@
         <f t="shared" si="0"/>
         <v>3.0864197530864196E-2</v>
       </c>
-      <c r="N6" s="136">
+      <c r="N6" s="133">
         <f t="shared" si="1"/>
         <v>59.994480507793284</v>
       </c>
@@ -23493,7 +24057,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N7" s="136">
+      <c r="N7" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23542,7 +24106,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="136">
+      <c r="N8" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23579,7 +24143,7 @@
         <v>0.54</v>
       </c>
       <c r="J9" s="38">
-        <f t="shared" ref="J9:J20" si="3">D9/G9*100000</f>
+        <f t="shared" ref="J9:J19" si="3">D9/G9*100000</f>
         <v>70.007683770169905</v>
       </c>
       <c r="K9" s="110">
@@ -23592,7 +24156,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="136">
+      <c r="N9" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23660,7 +24224,7 @@
         <f t="shared" si="0"/>
         <v>1.1866235167206042E-2</v>
       </c>
-      <c r="N10" s="136">
+      <c r="N10" s="133">
         <f t="shared" si="1"/>
         <v>88.544727161497534</v>
       </c>
@@ -23722,7 +24286,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="136">
+      <c r="N11" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -23792,7 +24356,7 @@
         <f t="shared" si="0"/>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="N12" s="136">
+      <c r="N12" s="133">
         <f t="shared" si="1"/>
         <v>13.879057889550458</v>
       </c>
@@ -23860,7 +24424,7 @@
         <f t="shared" si="0"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="N13" s="136">
+      <c r="N13" s="133">
         <f t="shared" si="1"/>
         <v>24.210730195622702</v>
       </c>
@@ -23926,7 +24490,7 @@
         <f t="shared" si="0"/>
         <v>1.3893595391392748E-2</v>
       </c>
-      <c r="N14" s="136">
+      <c r="N14" s="133">
         <f t="shared" si="1"/>
         <v>108.77870696608227</v>
       </c>
@@ -23994,7 +24558,7 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N15" s="136">
+      <c r="N15" s="133">
         <f t="shared" si="1"/>
         <v>50.494849525348414</v>
       </c>
@@ -24046,7 +24610,7 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N16" s="136">
+      <c r="N16" s="133">
         <f t="shared" si="1"/>
         <v>37.510784350500764</v>
       </c>
@@ -24098,7 +24662,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N17" s="136">
+      <c r="N17" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -24154,7 +24718,7 @@
         <f t="shared" si="0"/>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="N18" s="136">
+      <c r="N18" s="133">
         <f t="shared" si="1"/>
         <v>25.211143325349806</v>
       </c>
@@ -24220,7 +24784,7 @@
         <f t="shared" si="0"/>
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="N19" s="136">
+      <c r="N19" s="133">
         <f t="shared" si="1"/>
         <v>18.992991586104726</v>
       </c>
@@ -24295,7 +24859,7 @@
         <f>F20/D20</f>
         <v>1.4785506039150353E-2</v>
       </c>
-      <c r="N20" s="137">
+      <c r="N20" s="134">
         <f>F20/G3*1000000</f>
         <v>921.61113202403976</v>
       </c>
@@ -24333,7 +24897,7 @@
         <f>D20+C20</f>
         <v>4936</v>
       </c>
-      <c r="E21" s="126">
+      <c r="E21" s="123">
         <f>D21*0.05</f>
         <v>246.8</v>
       </c>
@@ -24345,7 +24909,7 @@
       <c r="K21" s="47"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
-      <c r="N21" s="138"/>
+      <c r="N21" s="135"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
@@ -24367,11 +24931,11 @@
         <f>D20*2</f>
         <v>9604</v>
       </c>
-      <c r="E22" s="125">
+      <c r="E22" s="122">
         <f>D22*0.015</f>
         <v>144.06</v>
       </c>
-      <c r="N22" s="139">
+      <c r="N22" s="136">
         <f>1000000/N20</f>
         <v>1085.056338028169</v>
       </c>
@@ -24436,49 +25000,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="141" t="s">
+      <c r="A1" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="138" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="142" t="s">
+      <c r="D1" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="139" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="J1" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="139" t="s">
         <v>357</v>
       </c>
-      <c r="L1" s="142" t="s">
+      <c r="L1" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="M1" s="142" t="s">
+      <c r="M1" s="139" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="142" t="s">
+      <c r="N1" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="O1" s="142" t="s">
+      <c r="O1" s="139" t="s">
         <v>359</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -24486,28 +25050,28 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="140" t="s">
         <v>242</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43">
-        <f>SUM(C2:D2)</f>
+        <f t="shared" ref="E2:E33" si="0">SUM(C2:D2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="43">
-        <f>SUM(E2:F2)</f>
+        <f t="shared" ref="G2:G33" si="1">SUM(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="43">
         <v>3</v>
       </c>
       <c r="I2" s="43">
-        <f>SUM(G2:H2)</f>
+        <f t="shared" ref="I2:I33" si="2">SUM(G2:H2)</f>
         <v>3</v>
       </c>
       <c r="J2" s="43">
@@ -24519,7 +25083,7 @@
       </c>
       <c r="L2" s="43"/>
       <c r="M2" s="43">
-        <f>L2+K2</f>
+        <f t="shared" ref="M2:M33" si="3">L2+K2</f>
         <v>10</v>
       </c>
       <c r="N2" s="43"/>
@@ -24532,10 +25096,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="140" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="43">
@@ -24543,40 +25107,40 @@
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="43">
-        <f>SUM(C3:D3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F3" s="43"/>
       <c r="G3" s="43">
-        <f>SUM(E3:F3)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H3" s="43">
         <v>23</v>
       </c>
       <c r="I3" s="43">
-        <f>SUM(G3:H3)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J3" s="43">
         <v>1</v>
       </c>
       <c r="K3" s="43">
-        <f t="shared" ref="K3:K66" si="0">J3+I3</f>
+        <f t="shared" ref="K3:K66" si="4">J3+I3</f>
         <v>25</v>
       </c>
       <c r="L3" s="43">
         <v>7</v>
       </c>
       <c r="M3" s="43">
-        <f>L3+K3</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="N3" s="43">
         <v>2</v>
       </c>
       <c r="O3" s="43">
-        <f t="shared" ref="O3:O66" si="1">N3+M3</f>
+        <f t="shared" ref="O3:O66" si="5">N3+M3</f>
         <v>34</v>
       </c>
       <c r="P3" s="2">
@@ -24584,10 +25148,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="140" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="43"/>
@@ -24595,38 +25159,38 @@
         <v>1</v>
       </c>
       <c r="E4" s="43">
-        <f>SUM(C4:D4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="43">
-        <f>SUM(E4:F4)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="43">
         <v>5</v>
       </c>
       <c r="I4" s="43">
-        <f>SUM(G4:H4)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J4" s="43">
         <v>3</v>
       </c>
       <c r="K4" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="L4" s="43">
         <v>2</v>
       </c>
       <c r="M4" s="43">
-        <f>L4+K4</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="N4" s="43"/>
       <c r="O4" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="P4" s="2">
@@ -24634,43 +25198,43 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="140" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43">
-        <f>SUM(C5:D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43">
-        <f>SUM(E5:F5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="43"/>
       <c r="I5" s="43">
-        <f>SUM(G5:H5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="43">
         <v>1</v>
       </c>
       <c r="K5" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L5" s="43"/>
       <c r="M5" s="43">
-        <f>L5+K5</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P5" s="2">
@@ -24678,51 +25242,51 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="140" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43">
-        <f>SUM(C6:D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="43">
         <v>2</v>
       </c>
       <c r="G6" s="43">
-        <f>SUM(E6:F6)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H6" s="43">
         <v>1</v>
       </c>
       <c r="I6" s="43">
-        <f>SUM(G6:H6)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J6" s="43">
         <v>3</v>
       </c>
       <c r="K6" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L6" s="43">
         <v>44</v>
       </c>
       <c r="M6" s="43">
-        <f>L6+K6</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N6" s="43">
         <v>42</v>
       </c>
       <c r="O6" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="P6" s="2">
@@ -24730,43 +25294,43 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="140" t="s">
         <v>341</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43">
-        <f>SUM(C7:D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="43">
-        <f>SUM(E7:F7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="43">
-        <f>SUM(G7:H7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43">
-        <f>L7+K7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7" s="43">
         <v>1</v>
       </c>
       <c r="O7" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P7" s="2">
@@ -24774,47 +25338,47 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="140" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43">
-        <f>SUM(C8:D8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="43">
-        <f>SUM(E8:F8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="43">
-        <f>SUM(G8:H8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" s="43">
         <v>3</v>
       </c>
       <c r="K8" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L8" s="43">
         <v>5</v>
       </c>
       <c r="M8" s="43">
-        <f>L8+K8</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N8" s="43">
         <v>8</v>
       </c>
       <c r="O8" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="P8" s="2">
@@ -24822,43 +25386,43 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="140" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43">
-        <f>SUM(C9:D9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43">
-        <f>SUM(E9:F9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43">
-        <f>SUM(G9:H9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="43">
         <v>1</v>
       </c>
       <c r="K9" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L9" s="43"/>
       <c r="M9" s="43">
-        <f>L9+K9</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N9" s="43"/>
       <c r="O9" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P9" s="2">
@@ -24866,45 +25430,45 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="140" t="s">
         <v>243</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43">
-        <f>SUM(C10:D10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43">
-        <f>SUM(E10:F10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43">
-        <f>SUM(G10:H10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="43">
         <v>2</v>
       </c>
       <c r="K10" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L10" s="43">
         <v>1</v>
       </c>
       <c r="M10" s="43">
-        <f>L10+K10</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N10" s="43"/>
       <c r="O10" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P10" s="2">
@@ -24912,10 +25476,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="140" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="43">
@@ -24923,38 +25487,38 @@
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43">
-        <f>SUM(C11:D11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43">
-        <f>SUM(E11:F11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="43">
-        <f>SUM(G11:H11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11" s="43">
         <v>35</v>
       </c>
       <c r="K11" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="L11" s="43">
         <v>36</v>
       </c>
       <c r="M11" s="43">
-        <f>L11+K11</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="N11" s="43">
         <v>67</v>
       </c>
       <c r="O11" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="P11" s="2">
@@ -24962,47 +25526,47 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="140" t="s">
         <v>244</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="43">
-        <f>SUM(C12:D12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43">
-        <f>SUM(E12:F12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="43">
-        <f>SUM(G12:H12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="43">
         <v>6</v>
       </c>
       <c r="K12" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L12" s="43">
         <v>17</v>
       </c>
       <c r="M12" s="43">
-        <f>L12+K12</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="N12" s="43">
         <v>2</v>
       </c>
       <c r="O12" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="P12" s="2">
@@ -25010,45 +25574,45 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="140" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="43">
-        <f>SUM(C13:D13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43">
-        <f>SUM(E13:F13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43">
-        <f>SUM(G13:H13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="43"/>
       <c r="K13" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L13" s="43">
         <v>8</v>
       </c>
       <c r="M13" s="43">
-        <f>L13+K13</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="N13" s="43">
         <v>2</v>
       </c>
       <c r="O13" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P13" s="2">
@@ -25056,45 +25620,45 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="140" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
       <c r="E14" s="43">
-        <f>SUM(C14:D14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43">
-        <f>SUM(E14:F14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43">
-        <f>SUM(G14:H14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="43"/>
       <c r="K14" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14" s="43">
         <v>3</v>
       </c>
       <c r="M14" s="43">
-        <f>L14+K14</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N14" s="43">
         <v>7</v>
       </c>
       <c r="O14" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P14" s="2">
@@ -25102,10 +25666,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="140" t="s">
         <v>241</v>
       </c>
       <c r="C15" s="43"/>
@@ -25113,36 +25677,36 @@
         <v>1</v>
       </c>
       <c r="E15" s="43">
-        <f>SUM(C15:D15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43">
-        <f>SUM(E15:F15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="43">
-        <f>SUM(G15:H15)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L15" s="43">
         <v>8</v>
       </c>
       <c r="M15" s="43">
-        <f>L15+K15</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N15" s="43">
         <v>4</v>
       </c>
       <c r="O15" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="P15" s="2">
@@ -25150,51 +25714,51 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43">
-        <f>SUM(C16:D16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="43">
         <v>1</v>
       </c>
       <c r="G16" s="43">
-        <f>SUM(E16:F16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H16" s="43">
         <v>3</v>
       </c>
       <c r="I16" s="43">
-        <f>SUM(G16:H16)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J16" s="43">
         <v>23</v>
       </c>
       <c r="K16" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L16" s="43">
         <v>26</v>
       </c>
       <c r="M16" s="43">
-        <f>L16+K16</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="N16" s="43">
         <v>13</v>
       </c>
       <c r="O16" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="P16" s="2">
@@ -25202,43 +25766,43 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="140" t="s">
         <v>245</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
       <c r="E17" s="43">
-        <f>SUM(C17:D17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43">
-        <f>SUM(E17:F17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43">
-        <f>SUM(G17:H17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="43">
         <v>1</v>
       </c>
       <c r="K17" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L17" s="43"/>
       <c r="M17" s="43">
-        <f>L17+K17</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N17" s="43"/>
       <c r="O17" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P17" s="2">
@@ -25246,43 +25810,43 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="140" t="s">
         <v>246</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43">
-        <f>SUM(C18:D18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43">
-        <f>SUM(E18:F18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43">
-        <f>SUM(G18:H18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="43">
         <v>1</v>
       </c>
       <c r="K18" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L18" s="43"/>
       <c r="M18" s="43">
-        <f>L18+K18</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P18" s="2">
@@ -25290,43 +25854,43 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="140" t="s">
         <v>228</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
       <c r="E19" s="43">
-        <f>SUM(C19:D19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43">
-        <f>SUM(E19:F19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="43">
-        <f>SUM(G19:H19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="43"/>
       <c r="K19" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19" s="43">
         <v>1</v>
       </c>
       <c r="M19" s="43">
-        <f>L19+K19</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N19" s="43"/>
       <c r="O19" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P19" s="2">
@@ -25334,43 +25898,43 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="140" t="s">
         <v>306</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43">
-        <f>SUM(C20:D20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43">
-        <f>SUM(E20:F20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="43"/>
       <c r="I20" s="43">
-        <f>SUM(G20:H20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="43"/>
       <c r="K20" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="43"/>
       <c r="M20" s="43">
-        <f>L20+K20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="43">
         <v>1</v>
       </c>
       <c r="O20" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P20" s="2">
@@ -25378,49 +25942,49 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="140" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43">
-        <f>SUM(C21:D21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43">
-        <f>SUM(E21:F21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="43">
         <v>1</v>
       </c>
       <c r="I21" s="43">
-        <f>SUM(G21:H21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J21" s="43">
         <v>1</v>
       </c>
       <c r="K21" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L21" s="43">
         <v>1</v>
       </c>
       <c r="M21" s="43">
-        <f>L21+K21</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="N21" s="43">
         <v>2</v>
       </c>
       <c r="O21" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="P21" s="2">
@@ -25428,43 +25992,43 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="140" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43">
-        <f>SUM(C22:D22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43">
-        <f>SUM(E22:F22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="43"/>
       <c r="I22" s="43">
-        <f>SUM(G22:H22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="43">
         <v>1</v>
       </c>
       <c r="M22" s="43">
-        <f>L22+K22</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N22" s="43"/>
       <c r="O22" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P22" s="2">
@@ -25472,45 +26036,45 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="140" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43">
-        <f>SUM(C23:D23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43">
-        <f>SUM(E23:F23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="43">
         <v>51</v>
       </c>
       <c r="I23" s="43">
-        <f>SUM(G23:H23)</f>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="J23" s="43">
         <v>14</v>
       </c>
       <c r="K23" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="L23" s="43"/>
       <c r="M23" s="43">
-        <f>L23+K23</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="N23" s="43"/>
       <c r="O23" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="P23" s="2">
@@ -25518,47 +26082,47 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="140" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43">
-        <f>SUM(C24:D24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43">
-        <f>SUM(E24:F24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="43">
         <v>3</v>
       </c>
       <c r="I24" s="43">
-        <f>SUM(G24:H24)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J24" s="43">
         <v>15</v>
       </c>
       <c r="K24" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L24" s="43">
         <v>3</v>
       </c>
       <c r="M24" s="43">
-        <f>L24+K24</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="N24" s="43"/>
       <c r="O24" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="P24" s="2">
@@ -25566,45 +26130,45 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="140" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
       <c r="E25" s="43">
-        <f>SUM(C25:D25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="43">
-        <f>SUM(E25:F25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="43"/>
       <c r="I25" s="43">
-        <f>SUM(G25:H25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="43"/>
       <c r="K25" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25" s="43">
         <v>2</v>
       </c>
       <c r="M25" s="43">
-        <f>L25+K25</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N25" s="43">
         <v>0</v>
       </c>
       <c r="O25" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P25" s="2">
@@ -25612,43 +26176,43 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="140" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43">
-        <f>SUM(C26:D26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="43">
-        <f>SUM(E26:F26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="43"/>
       <c r="I26" s="43">
-        <f>SUM(G26:H26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="43"/>
       <c r="K26" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L26" s="43"/>
       <c r="M26" s="43">
-        <f>L26+K26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="43">
         <v>2</v>
       </c>
       <c r="O26" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P26" s="2">
@@ -25656,45 +26220,45 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="143" t="s">
+      <c r="A27" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="143" t="s">
+      <c r="B27" s="140" t="s">
         <v>126</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43">
-        <f>SUM(C27:D27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="43">
-        <f>SUM(E27:F27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="43"/>
       <c r="I27" s="43">
-        <f>SUM(G27:H27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27" s="43"/>
       <c r="K27" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L27" s="43">
         <v>1</v>
       </c>
       <c r="M27" s="43">
-        <f>L27+K27</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N27" s="43">
         <v>2</v>
       </c>
       <c r="O27" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P27" s="2">
@@ -25702,10 +26266,10 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="140" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="43">
@@ -25713,36 +26277,36 @@
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="43">
-        <f>SUM(C28:D28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43">
-        <f>SUM(E28:F28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H28" s="43"/>
       <c r="I28" s="43">
-        <f>SUM(G28:H28)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J28" s="43"/>
       <c r="K28" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L28" s="43">
         <v>20</v>
       </c>
       <c r="M28" s="43">
-        <f>L28+K28</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="N28" s="43">
         <v>16</v>
       </c>
       <c r="O28" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="P28" s="2">
@@ -25750,10 +26314,10 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="140" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="43">
@@ -25763,42 +26327,42 @@
         <v>3</v>
       </c>
       <c r="E29" s="43">
-        <f>SUM(C29:D29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F29" s="43">
         <v>2</v>
       </c>
       <c r="G29" s="43">
-        <f>SUM(E29:F29)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H29" s="43">
         <v>17</v>
       </c>
       <c r="I29" s="43">
-        <f>SUM(G29:H29)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J29" s="43">
         <v>132</v>
       </c>
       <c r="K29" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
       <c r="L29" s="43">
         <v>439</v>
       </c>
       <c r="M29" s="43">
-        <f>L29+K29</f>
+        <f t="shared" si="3"/>
         <v>595</v>
       </c>
       <c r="N29" s="43">
         <v>251</v>
       </c>
       <c r="O29" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>846</v>
       </c>
       <c r="P29" s="2">
@@ -25806,49 +26370,49 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="143" t="s">
+      <c r="B30" s="140" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43">
-        <f>SUM(C30:D30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="43">
         <v>2</v>
       </c>
       <c r="G30" s="43">
-        <f>SUM(E30:F30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H30" s="43">
         <v>1</v>
       </c>
       <c r="I30" s="43">
-        <f>SUM(G30:H30)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J30" s="43"/>
       <c r="K30" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L30" s="43">
         <v>12</v>
       </c>
       <c r="M30" s="43">
-        <f>L30+K30</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="N30" s="43">
         <v>13</v>
       </c>
       <c r="O30" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="P30" s="2">
@@ -25856,47 +26420,47 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="143" t="s">
+      <c r="B31" s="140" t="s">
         <v>161</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
       <c r="E31" s="43">
-        <f>SUM(C31:D31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="43">
-        <f>SUM(E31:F31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="43">
-        <f>SUM(G31:H31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31" s="43">
         <v>1</v>
       </c>
       <c r="K31" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L31" s="43">
         <v>5</v>
       </c>
       <c r="M31" s="43">
-        <f>L31+K31</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N31" s="43">
         <v>1</v>
       </c>
       <c r="O31" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="P31" s="2">
@@ -25904,47 +26468,47 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="140" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
       <c r="E32" s="43">
-        <f>SUM(C32:D32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="43"/>
       <c r="G32" s="43">
-        <f>SUM(E32:F32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="43"/>
       <c r="I32" s="43">
-        <f>SUM(G32:H32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32" s="43">
         <v>1</v>
       </c>
       <c r="K32" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L32" s="43">
         <v>4</v>
       </c>
       <c r="M32" s="43">
-        <f>L32+K32</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="N32" s="43">
         <v>18</v>
       </c>
       <c r="O32" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="P32" s="2">
@@ -25952,45 +26516,45 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="143" t="s">
+      <c r="B33" s="140" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43">
-        <f>SUM(C33:D33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43">
-        <f>SUM(E33:F33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43">
-        <f>SUM(G33:H33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J33" s="43"/>
       <c r="K33" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L33" s="43">
         <v>17</v>
       </c>
       <c r="M33" s="43">
-        <f>L33+K33</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="N33" s="43">
         <v>2</v>
       </c>
       <c r="O33" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="P33" s="2">
@@ -25998,10 +26562,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="143" t="s">
+      <c r="B34" s="140" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="43"/>
@@ -26009,38 +26573,38 @@
         <v>1</v>
       </c>
       <c r="E34" s="43">
-        <f>SUM(C34:D34)</f>
+        <f t="shared" ref="E34:E65" si="6">SUM(C34:D34)</f>
         <v>1</v>
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="43">
-        <f>SUM(E34:F34)</f>
+        <f t="shared" ref="G34:G65" si="7">SUM(E34:F34)</f>
         <v>1</v>
       </c>
       <c r="H34" s="43">
         <v>41</v>
       </c>
       <c r="I34" s="43">
-        <f>SUM(G34:H34)</f>
+        <f t="shared" ref="I34:I65" si="8">SUM(G34:H34)</f>
         <v>42</v>
       </c>
       <c r="J34" s="43">
         <v>2</v>
       </c>
       <c r="K34" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="L34" s="43"/>
       <c r="M34" s="43">
-        <f>L34+K34</f>
+        <f t="shared" ref="M34:M65" si="9">L34+K34</f>
         <v>44</v>
       </c>
       <c r="N34" s="43">
         <v>2</v>
       </c>
       <c r="O34" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="P34" s="2">
@@ -26048,43 +26612,43 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="140" t="s">
         <v>307</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43">
-        <f>SUM(C35:D35)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="43">
-        <f>SUM(E35:F35)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H35" s="43"/>
       <c r="I35" s="43">
-        <f>SUM(G35:H35)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J35" s="43"/>
       <c r="K35" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L35" s="43"/>
       <c r="M35" s="43">
-        <f>L35+K35</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N35" s="43">
         <v>6</v>
       </c>
       <c r="O35" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P35" s="2">
@@ -26092,45 +26656,45 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="143" t="s">
+      <c r="B36" s="140" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43">
-        <f>SUM(C36:D36)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F36" s="43"/>
       <c r="G36" s="43">
-        <f>SUM(E36:F36)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H36" s="43"/>
       <c r="I36" s="43">
-        <f>SUM(G36:H36)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J36" s="43">
         <v>1</v>
       </c>
       <c r="K36" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L36" s="43"/>
       <c r="M36" s="43">
-        <f>L36+K36</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N36" s="43">
         <v>0</v>
       </c>
       <c r="O36" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P36" s="2">
@@ -26138,45 +26702,45 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="143" t="s">
+      <c r="B37" s="140" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43">
-        <f>SUM(C37:D37)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="43">
-        <f>SUM(E37:F37)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H37" s="43"/>
       <c r="I37" s="43">
-        <f>SUM(G37:H37)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J37" s="43"/>
       <c r="K37" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L37" s="43">
         <v>9</v>
       </c>
       <c r="M37" s="43">
-        <f>L37+K37</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="N37" s="43">
         <v>6</v>
       </c>
       <c r="O37" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="P37" s="2">
@@ -26184,10 +26748,10 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="143" t="s">
+      <c r="A38" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="140" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="43">
@@ -26195,38 +26759,38 @@
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43">
-        <f>SUM(C38:D38)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F38" s="43"/>
       <c r="G38" s="43">
-        <f>SUM(E38:F38)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H38" s="43"/>
       <c r="I38" s="43">
-        <f>SUM(G38:H38)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J38" s="43">
         <v>1</v>
       </c>
       <c r="K38" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L38" s="43">
         <v>4</v>
       </c>
       <c r="M38" s="43">
-        <f>L38+K38</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="N38" s="43">
         <v>3</v>
       </c>
       <c r="O38" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P38" s="2">
@@ -26234,45 +26798,45 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="140" t="s">
         <v>145</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43">
-        <f>SUM(C39:D39)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="43">
-        <f>SUM(E39:F39)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H39" s="43"/>
       <c r="I39" s="43">
-        <f>SUM(G39:H39)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J39" s="43"/>
       <c r="K39" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L39" s="43">
         <v>7</v>
       </c>
       <c r="M39" s="43">
-        <f>L39+K39</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="N39" s="43">
         <v>15</v>
       </c>
       <c r="O39" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="P39" s="2">
@@ -26280,43 +26844,43 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="140" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
       <c r="E40" s="43">
-        <f>SUM(C40:D40)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="43">
-        <f>SUM(E40:F40)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43">
-        <f>SUM(G40:H40)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J40" s="43">
         <v>1</v>
       </c>
       <c r="K40" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L40" s="43"/>
       <c r="M40" s="43">
-        <f>L40+K40</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N40" s="43"/>
       <c r="O40" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P40" s="2">
@@ -26324,43 +26888,43 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="143" t="s">
+      <c r="B41" s="140" t="s">
         <v>247</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43">
-        <f>SUM(C41:D41)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="43">
-        <f>SUM(E41:F41)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H41" s="43"/>
       <c r="I41" s="43">
-        <f>SUM(G41:H41)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L41" s="43">
         <v>1</v>
       </c>
       <c r="M41" s="43">
-        <f>L41+K41</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N41" s="43"/>
       <c r="O41" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P41" s="2">
@@ -26368,45 +26932,45 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="143" t="s">
+      <c r="B42" s="140" t="s">
         <v>162</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43">
-        <f>SUM(C42:D42)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="43">
-        <f>SUM(E42:F42)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H42" s="43"/>
       <c r="I42" s="43">
-        <f>SUM(G42:H42)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L42" s="43">
         <v>1</v>
       </c>
       <c r="M42" s="43">
-        <f>L42+K42</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N42" s="43">
         <v>10</v>
       </c>
       <c r="O42" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="P42" s="2">
@@ -26414,43 +26978,43 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="143" t="s">
+      <c r="A43" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="143" t="s">
+      <c r="B43" s="140" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43">
-        <f>SUM(C43:D43)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F43" s="43"/>
       <c r="G43" s="43">
-        <f>SUM(E43:F43)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H43" s="43"/>
       <c r="I43" s="43">
-        <f>SUM(G43:H43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L43" s="43">
         <v>3</v>
       </c>
       <c r="M43" s="43">
-        <f>L43+K43</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N43" s="43"/>
       <c r="O43" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P43" s="2">
@@ -26458,10 +27022,10 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="143" t="s">
+      <c r="A44" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="140" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="43">
@@ -26469,36 +27033,36 @@
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="43">
-        <f>SUM(C44:D44)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="43">
-        <f>SUM(E44:F44)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H44" s="43"/>
       <c r="I44" s="43">
-        <f>SUM(G44:H44)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L44" s="43">
         <v>18</v>
       </c>
       <c r="M44" s="43">
-        <f>L44+K44</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="N44" s="43">
         <v>4</v>
       </c>
       <c r="O44" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="P44" s="2">
@@ -26506,45 +27070,45 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="143" t="s">
+      <c r="A45" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="143" t="s">
+      <c r="B45" s="140" t="s">
         <v>248</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43">
-        <f>SUM(C45:D45)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="43">
-        <f>SUM(E45:F45)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H45" s="43"/>
       <c r="I45" s="43">
-        <f>SUM(G45:H45)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J45" s="43"/>
       <c r="K45" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L45" s="43">
         <v>1</v>
       </c>
       <c r="M45" s="43">
-        <f>L45+K45</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N45" s="43">
         <v>3</v>
       </c>
       <c r="O45" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P45" s="2">
@@ -26552,47 +27116,47 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="143" t="s">
+      <c r="A46" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="140" t="s">
         <v>83</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43">
-        <f>SUM(C46:D46)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="43">
-        <f>SUM(E46:F46)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H46" s="43"/>
       <c r="I46" s="43">
-        <f>SUM(G46:H46)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J46" s="43">
         <v>1</v>
       </c>
       <c r="K46" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L46" s="43">
         <v>2</v>
       </c>
       <c r="M46" s="43">
-        <f>L46+K46</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N46" s="43">
         <v>1</v>
       </c>
       <c r="O46" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P46" s="2">
@@ -26600,49 +27164,49 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="143" t="s">
+      <c r="B47" s="140" t="s">
         <v>249</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43">
-        <f>SUM(C47:D47)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="43">
-        <f>SUM(E47:F47)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H47" s="43">
         <v>1</v>
       </c>
       <c r="I47" s="43">
-        <f>SUM(G47:H47)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J47" s="43">
         <v>1</v>
       </c>
       <c r="K47" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L47" s="43">
         <v>49</v>
       </c>
       <c r="M47" s="43">
-        <f>L47+K47</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="N47" s="43">
         <v>15</v>
       </c>
       <c r="O47" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="P47" s="2">
@@ -26650,43 +27214,43 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="143" t="s">
+      <c r="A48" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="143" t="s">
+      <c r="B48" s="140" t="s">
         <v>250</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43">
-        <f>SUM(C48:D48)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43">
-        <f>SUM(E48:F48)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H48" s="43"/>
       <c r="I48" s="43">
-        <f>SUM(G48:H48)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L48" s="43">
         <v>2</v>
       </c>
       <c r="M48" s="43">
-        <f>L48+K48</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="N48" s="43"/>
       <c r="O48" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P48" s="2">
@@ -26694,47 +27258,47 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="143" t="s">
+      <c r="A49" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="143" t="s">
+      <c r="B49" s="140" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43">
-        <f>SUM(C49:D49)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43">
-        <f>SUM(E49:F49)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H49" s="43"/>
       <c r="I49" s="43">
-        <f>SUM(G49:H49)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J49" s="43">
         <v>3</v>
       </c>
       <c r="K49" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L49" s="43">
         <v>9</v>
       </c>
       <c r="M49" s="43">
-        <f>L49+K49</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="N49" s="43">
         <v>25</v>
       </c>
       <c r="O49" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="P49" s="2">
@@ -26742,43 +27306,43 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="143" t="s">
+      <c r="B50" s="140" t="s">
         <v>125</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43">
-        <f>SUM(C50:D50)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43">
-        <f>SUM(E50:F50)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H50" s="43"/>
       <c r="I50" s="43">
-        <f>SUM(G50:H50)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L50" s="43">
         <v>2</v>
       </c>
       <c r="M50" s="43">
-        <f>L50+K50</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="N50" s="43"/>
       <c r="O50" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P50" s="2">
@@ -26786,43 +27350,43 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="143" t="s">
+      <c r="A51" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="140" t="s">
         <v>155</v>
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43">
-        <f>SUM(C51:D51)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43">
-        <f>SUM(E51:F51)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H51" s="43"/>
       <c r="I51" s="43">
-        <f>SUM(G51:H51)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L51" s="43">
         <v>2</v>
       </c>
       <c r="M51" s="43">
-        <f>L51+K51</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="N51" s="43"/>
       <c r="O51" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P51" s="2">
@@ -26830,43 +27394,43 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="143" t="s">
+      <c r="A52" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="143" t="s">
+      <c r="B52" s="140" t="s">
         <v>305</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43">
-        <f>SUM(C52:D52)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43">
-        <f>SUM(E52:F52)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H52" s="43"/>
       <c r="I52" s="43">
-        <f>SUM(G52:H52)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J52" s="43"/>
       <c r="K52" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L52" s="43"/>
       <c r="M52" s="43">
-        <f>L52+K52</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N52" s="43">
         <v>2</v>
       </c>
       <c r="O52" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="P52" s="2">
@@ -26874,43 +27438,43 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="143" t="s">
+      <c r="A53" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="140" t="s">
         <v>152</v>
       </c>
       <c r="C53" s="43"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43">
-        <f>SUM(C53:D53)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="43">
-        <f>SUM(E53:F53)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H53" s="43"/>
       <c r="I53" s="43">
-        <f>SUM(G53:H53)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J53" s="43"/>
       <c r="K53" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L53" s="43">
         <v>10</v>
       </c>
       <c r="M53" s="43">
-        <f>L53+K53</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="N53" s="43"/>
       <c r="O53" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P53" s="2">
@@ -26918,45 +27482,45 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="140" t="s">
         <v>144</v>
       </c>
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43">
-        <f>SUM(C54:D54)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="43">
-        <f>SUM(E54:F54)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H54" s="43"/>
       <c r="I54" s="43">
-        <f>SUM(G54:H54)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J54" s="43"/>
       <c r="K54" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L54" s="43">
         <v>3</v>
       </c>
       <c r="M54" s="43">
-        <f>L54+K54</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N54" s="43">
         <v>6</v>
       </c>
       <c r="O54" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P54" s="2">
@@ -26964,43 +27528,43 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="143" t="s">
+      <c r="A55" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="140" t="s">
         <v>253</v>
       </c>
       <c r="C55" s="43"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43">
-        <f>SUM(C55:D55)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="43">
-        <f>SUM(E55:F55)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H55" s="43"/>
       <c r="I55" s="43">
-        <f>SUM(G55:H55)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L55" s="43"/>
       <c r="M55" s="43">
-        <f>L55+K55</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N55" s="43">
         <v>1</v>
       </c>
       <c r="O55" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P55" s="2">
@@ -27008,45 +27572,45 @@
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="143" t="s">
+      <c r="A56" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="143" t="s">
+      <c r="B56" s="140" t="s">
         <v>222</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43">
-        <f>SUM(C56:D56)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="43">
-        <f>SUM(E56:F56)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H56" s="43"/>
       <c r="I56" s="43">
-        <f>SUM(G56:H56)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L56" s="43">
         <v>1</v>
       </c>
       <c r="M56" s="43">
-        <f>L56+K56</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N56" s="43">
         <v>3</v>
       </c>
       <c r="O56" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P56" s="2">
@@ -27054,49 +27618,49 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="143" t="s">
+      <c r="A57" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="143" t="s">
+      <c r="B57" s="140" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43">
-        <f>SUM(C57:D57)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="43">
-        <f>SUM(E57:F57)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H57" s="43">
         <v>1</v>
       </c>
       <c r="I57" s="43">
-        <f>SUM(G57:H57)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J57" s="43">
         <v>3</v>
       </c>
       <c r="K57" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L57" s="43">
         <v>18</v>
       </c>
       <c r="M57" s="43">
-        <f>L57+K57</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="N57" s="43">
         <v>56</v>
       </c>
       <c r="O57" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="P57" s="2">
@@ -27104,10 +27668,10 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="143" t="s">
+      <c r="A58" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="143" t="s">
+      <c r="B58" s="140" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="43">
@@ -27117,40 +27681,40 @@
         <v>4</v>
       </c>
       <c r="E58" s="43">
-        <f>SUM(C58:D58)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="43">
-        <f>SUM(E58:F58)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="H58" s="43">
         <v>97</v>
       </c>
       <c r="I58" s="43">
-        <f>SUM(G58:H58)</f>
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
       <c r="J58" s="43">
         <v>233</v>
       </c>
       <c r="K58" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>336</v>
       </c>
       <c r="L58" s="43">
         <v>1507</v>
       </c>
       <c r="M58" s="43">
-        <f>L58+K58</f>
+        <f t="shared" si="9"/>
         <v>1843</v>
       </c>
       <c r="N58" s="43">
         <v>676</v>
       </c>
       <c r="O58" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2519</v>
       </c>
       <c r="P58" s="2">
@@ -27158,45 +27722,45 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="143" t="s">
+      <c r="A59" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="143" t="s">
+      <c r="B59" s="140" t="s">
         <v>201</v>
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43">
-        <f>SUM(C59:D59)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43">
-        <f>SUM(E59:F59)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H59" s="43"/>
       <c r="I59" s="43">
-        <f>SUM(G59:H59)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L59" s="43">
         <v>1</v>
       </c>
       <c r="M59" s="43">
-        <f>L59+K59</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N59" s="43">
         <v>2</v>
       </c>
       <c r="O59" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P59" s="2">
@@ -27204,49 +27768,49 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="143" t="s">
+      <c r="A60" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="143" t="s">
+      <c r="B60" s="140" t="s">
         <v>31</v>
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="43"/>
       <c r="E60" s="43">
-        <f>SUM(C60:D60)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F60" s="43">
         <v>1</v>
       </c>
       <c r="G60" s="43">
-        <f>SUM(E60:F60)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H60" s="43"/>
       <c r="I60" s="43">
-        <f>SUM(G60:H60)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J60" s="43">
         <v>5</v>
       </c>
       <c r="K60" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L60" s="43">
         <v>42</v>
       </c>
       <c r="M60" s="43">
-        <f>L60+K60</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="N60" s="43">
         <v>16</v>
       </c>
       <c r="O60" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="P60" s="2">
@@ -27254,43 +27818,43 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="143" t="s">
+      <c r="A61" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="143" t="s">
+      <c r="B61" s="140" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43">
-        <f>SUM(C61:D61)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="43">
-        <f>SUM(E61:F61)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H61" s="43"/>
       <c r="I61" s="43">
-        <f>SUM(G61:H61)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J61" s="43"/>
       <c r="K61" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L61" s="43">
         <v>3</v>
       </c>
       <c r="M61" s="43">
-        <f>L61+K61</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N61" s="43"/>
       <c r="O61" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P61" s="2">
@@ -27298,47 +27862,47 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="143" t="s">
+      <c r="A62" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="143" t="s">
+      <c r="B62" s="140" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43">
-        <f>SUM(C62:D62)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="43">
-        <f>SUM(E62:F62)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="43">
-        <f>SUM(G62:H62)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J62" s="43">
         <v>1</v>
       </c>
       <c r="K62" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L62" s="43">
         <v>3</v>
       </c>
       <c r="M62" s="43">
-        <f>L62+K62</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="N62" s="43">
         <v>2</v>
       </c>
       <c r="O62" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="P62" s="2">
@@ -27346,45 +27910,45 @@
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="143" t="s">
+      <c r="A63" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="143" t="s">
+      <c r="B63" s="140" t="s">
         <v>122</v>
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43">
-        <f>SUM(C63:D63)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F63" s="43"/>
       <c r="G63" s="43">
-        <f>SUM(E63:F63)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H63" s="43"/>
       <c r="I63" s="43">
-        <f>SUM(G63:H63)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J63" s="43"/>
       <c r="K63" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L63" s="43">
         <v>29</v>
       </c>
       <c r="M63" s="43">
-        <f>L63+K63</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="N63" s="43">
         <v>21</v>
       </c>
       <c r="O63" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="P63" s="2">
@@ -27392,43 +27956,43 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="143" t="s">
+      <c r="A64" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="143" t="s">
+      <c r="B64" s="140" t="s">
         <v>233</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43">
-        <f>SUM(C64:D64)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="43">
-        <f>SUM(E64:F64)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H64" s="43"/>
       <c r="I64" s="43">
-        <f>SUM(G64:H64)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J64" s="43"/>
       <c r="K64" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L64" s="43"/>
       <c r="M64" s="43">
-        <f>L64+K64</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N64" s="43">
         <v>0</v>
       </c>
       <c r="O64" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P64" s="2">
@@ -27436,45 +28000,45 @@
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="143" t="s">
+      <c r="A65" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="143" t="s">
+      <c r="B65" s="140" t="s">
         <v>50</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43">
-        <f>SUM(C65:D65)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="43">
-        <f>SUM(E65:F65)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H65" s="43"/>
       <c r="I65" s="43">
-        <f>SUM(G65:H65)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J65" s="43"/>
       <c r="K65" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L65" s="43">
         <v>2</v>
       </c>
       <c r="M65" s="43">
-        <f>L65+K65</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="N65" s="43">
         <v>2</v>
       </c>
       <c r="O65" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="P65" s="2">
@@ -27482,43 +28046,43 @@
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="140" t="s">
         <v>251</v>
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
       <c r="E66" s="43">
-        <f>SUM(C66:D66)</f>
+        <f t="shared" ref="E66:E74" si="10">SUM(C66:D66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="43">
-        <f>SUM(E66:F66)</f>
+        <f t="shared" ref="G66:G74" si="11">SUM(E66:F66)</f>
         <v>0</v>
       </c>
       <c r="H66" s="43"/>
       <c r="I66" s="43">
-        <f>SUM(G66:H66)</f>
+        <f t="shared" ref="I66:I74" si="12">SUM(G66:H66)</f>
         <v>0</v>
       </c>
       <c r="J66" s="43"/>
       <c r="K66" s="43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L66" s="43">
         <v>3</v>
       </c>
       <c r="M66" s="43">
-        <f>L66+K66</f>
+        <f t="shared" ref="M66:M74" si="13">L66+K66</f>
         <v>3</v>
       </c>
       <c r="N66" s="43"/>
       <c r="O66" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="P66" s="2">
@@ -27526,45 +28090,45 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="143" t="s">
+      <c r="A67" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="140" t="s">
         <v>151</v>
       </c>
       <c r="C67" s="43"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43">
-        <f>SUM(C67:D67)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="43">
-        <f>SUM(E67:F67)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H67" s="43"/>
       <c r="I67" s="43">
-        <f>SUM(G67:H67)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J67" s="43"/>
       <c r="K67" s="43">
-        <f t="shared" ref="K67:K74" si="2">J67+I67</f>
+        <f t="shared" ref="K67:K74" si="14">J67+I67</f>
         <v>0</v>
       </c>
       <c r="L67" s="43">
         <v>12</v>
       </c>
       <c r="M67" s="43">
-        <f>L67+K67</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="N67" s="43">
         <v>3</v>
       </c>
       <c r="O67" s="43">
-        <f t="shared" ref="O67:O74" si="3">N67+M67</f>
+        <f t="shared" ref="O67:O74" si="15">N67+M67</f>
         <v>15</v>
       </c>
       <c r="P67" s="2">
@@ -27572,43 +28136,43 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="143" t="s">
+      <c r="A68" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="143" t="s">
+      <c r="B68" s="140" t="s">
         <v>256</v>
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="43"/>
       <c r="E68" s="43">
-        <f>SUM(C68:D68)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F68" s="43"/>
       <c r="G68" s="43">
-        <f>SUM(E68:F68)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H68" s="43"/>
       <c r="I68" s="43">
-        <f>SUM(G68:H68)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J68" s="43"/>
       <c r="K68" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L68" s="43"/>
       <c r="M68" s="43">
-        <f>L68+K68</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N68" s="43">
         <v>3</v>
       </c>
       <c r="O68" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P68" s="2">
@@ -27616,43 +28180,43 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="143" t="s">
+      <c r="A69" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="143" t="s">
+      <c r="B69" s="140" t="s">
         <v>252</v>
       </c>
       <c r="C69" s="43"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43">
-        <f>SUM(C69:D69)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="43">
-        <f>SUM(E69:F69)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H69" s="43"/>
       <c r="I69" s="43">
-        <f>SUM(G69:H69)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J69" s="43">
         <v>1</v>
       </c>
       <c r="K69" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L69" s="43"/>
       <c r="M69" s="43">
-        <f>L69+K69</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N69" s="43"/>
       <c r="O69" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P69" s="2">
@@ -27660,49 +28224,49 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="143" t="s">
+      <c r="A70" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="143" t="s">
+      <c r="B70" s="140" t="s">
         <v>44</v>
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="43"/>
       <c r="E70" s="43">
-        <f>SUM(C70:D70)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="43">
-        <f>SUM(E70:F70)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H70" s="43">
         <v>1</v>
       </c>
       <c r="I70" s="43">
-        <f>SUM(G70:H70)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J70" s="43">
         <v>11</v>
       </c>
       <c r="K70" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="L70" s="43">
         <v>9</v>
       </c>
       <c r="M70" s="43">
-        <f>L70+K70</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="N70" s="43">
         <v>10</v>
       </c>
       <c r="O70" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="P70" s="2">
@@ -27710,47 +28274,47 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="143" t="s">
+      <c r="A71" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B71" s="143" t="s">
+      <c r="B71" s="140" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="43"/>
       <c r="E71" s="43">
-        <f>SUM(C71:D71)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F71" s="43"/>
       <c r="G71" s="43">
-        <f>SUM(E71:F71)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H71" s="43">
         <v>4</v>
       </c>
       <c r="I71" s="43">
-        <f>SUM(G71:H71)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J71" s="43">
         <v>1</v>
       </c>
       <c r="K71" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L71" s="43"/>
       <c r="M71" s="43">
-        <f>L71+K71</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="N71" s="43">
         <v>1</v>
       </c>
       <c r="O71" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="P71" s="2">
@@ -27758,47 +28322,47 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="143" t="s">
+      <c r="A72" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="143" t="s">
+      <c r="B72" s="140" t="s">
         <v>52</v>
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="43"/>
       <c r="E72" s="43">
-        <f>SUM(C72:D72)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F72" s="43"/>
       <c r="G72" s="43">
-        <f>SUM(E72:F72)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H72" s="43"/>
       <c r="I72" s="43">
-        <f>SUM(G72:H72)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J72" s="43">
         <v>2</v>
       </c>
       <c r="K72" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L72" s="43">
         <v>46</v>
       </c>
       <c r="M72" s="43">
-        <f>L72+K72</f>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="N72" s="43">
         <v>11</v>
       </c>
       <c r="O72" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
       <c r="P72" s="2">
@@ -27806,10 +28370,10 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="144" t="s">
+      <c r="A73" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="143" t="s">
+      <c r="B73" s="140" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="43">
@@ -27819,36 +28383,36 @@
         <v>1</v>
       </c>
       <c r="E73" s="43">
-        <f>SUM(C73:D73)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F73" s="43"/>
       <c r="G73" s="43">
-        <f>SUM(E73:F73)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="H73" s="43"/>
       <c r="I73" s="43">
-        <f>SUM(G73:H73)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J73" s="43"/>
       <c r="K73" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L73" s="43">
         <v>19</v>
       </c>
       <c r="M73" s="43">
-        <f>L73+K73</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="N73" s="43">
         <v>31</v>
       </c>
       <c r="O73" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="P73" s="2">
@@ -27856,52 +28420,52 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="145" t="s">
+      <c r="B74" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="C74" s="146">
+      <c r="C74" s="143">
         <v>11</v>
       </c>
-      <c r="D74" s="146">
+      <c r="D74" s="143">
         <v>11</v>
       </c>
-      <c r="E74" s="146">
-        <f>SUM(C74:D74)</f>
+      <c r="E74" s="143">
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="F74" s="146">
+      <c r="F74" s="143">
         <v>8</v>
       </c>
-      <c r="G74" s="146">
-        <f>SUM(E74:F74)</f>
+      <c r="G74" s="143">
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="H74" s="146">
+      <c r="H74" s="143">
         <v>253</v>
       </c>
-      <c r="I74" s="146">
-        <f>SUM(G74:H74)</f>
+      <c r="I74" s="143">
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="J74" s="146">
+      <c r="J74" s="143">
         <v>518</v>
       </c>
-      <c r="K74" s="146">
-        <f t="shared" si="2"/>
+      <c r="K74" s="143">
+        <f t="shared" si="14"/>
         <v>801</v>
       </c>
-      <c r="L74" s="146">
+      <c r="L74" s="143">
         <v>2481</v>
       </c>
-      <c r="M74" s="146">
-        <f>L74+K74</f>
+      <c r="M74" s="143">
+        <f t="shared" si="13"/>
         <v>3282</v>
       </c>
-      <c r="N74" s="146">
+      <c r="N74" s="143">
         <v>1392</v>
       </c>
-      <c r="O74" s="146">
-        <f t="shared" si="3"/>
+      <c r="O74" s="143">
+        <f t="shared" si="15"/>
         <v>4674</v>
       </c>
       <c r="P74" s="2">
@@ -45026,25 +45590,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="11.42578125" style="129"/>
-    <col min="3" max="3" width="15.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="126"/>
+    <col min="3" max="3" width="15.7109375" style="125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:5" s="130" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="133" t="s">
+      <c r="C1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="129" t="s">
         <v>350</v>
       </c>
     </row>
@@ -45052,10 +45616,10 @@
       <c r="A2" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="129">
+      <c r="B2" s="126">
         <v>85</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3">
@@ -45066,10 +45630,10 @@
       <c r="A3" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="129">
+      <c r="B3" s="126">
         <v>70</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3">
@@ -45080,10 +45644,10 @@
       <c r="A4" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="126">
         <v>79</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3">
@@ -45094,10 +45658,10 @@
       <c r="A5" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="126">
         <v>83</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3">
@@ -45108,10 +45672,10 @@
       <c r="A6" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="126">
         <v>90</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3">
@@ -45122,10 +45686,10 @@
       <c r="A7" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="129">
+      <c r="B7" s="126">
         <v>77</v>
       </c>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="125" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3">
@@ -45136,10 +45700,10 @@
       <c r="A8" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B8" s="129">
+      <c r="B8" s="126">
         <v>60</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3">
@@ -45150,10 +45714,10 @@
       <c r="A9" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="129">
+      <c r="B9" s="126">
         <v>64</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3">
@@ -45164,10 +45728,10 @@
       <c r="A10" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="129">
+      <c r="B10" s="126">
         <v>69</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3">
@@ -45178,10 +45742,10 @@
       <c r="A11" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B11" s="129">
+      <c r="B11" s="126">
         <v>72</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="3">
@@ -45192,10 +45756,10 @@
       <c r="A12" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="129">
+      <c r="B12" s="126">
         <v>68</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3">
@@ -45206,10 +45770,10 @@
       <c r="A13" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B13" s="129">
+      <c r="B13" s="126">
         <v>93</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3">
@@ -45220,10 +45784,10 @@
       <c r="A14" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B14" s="129">
+      <c r="B14" s="126">
         <v>62</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3">
@@ -45234,10 +45798,10 @@
       <c r="A15" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B15" s="129">
+      <c r="B15" s="126">
         <v>86</v>
       </c>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="125" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3">
@@ -45248,10 +45812,10 @@
       <c r="A16" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B16" s="129">
+      <c r="B16" s="126">
         <v>52</v>
       </c>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3">
@@ -45262,10 +45826,10 @@
       <c r="A17" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B17" s="129">
+      <c r="B17" s="126">
         <v>64</v>
       </c>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="125" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3">
@@ -45276,10 +45840,10 @@
       <c r="A18" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="129">
+      <c r="B18" s="126">
         <v>88</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3">
@@ -45290,10 +45854,10 @@
       <c r="A19" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="129">
+      <c r="B19" s="126">
         <v>58</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="3">
@@ -45304,10 +45868,10 @@
       <c r="A20" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B20" s="129">
+      <c r="B20" s="126">
         <v>84</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="3">
@@ -45318,10 +45882,10 @@
       <c r="A21" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B21" s="129">
+      <c r="B21" s="126">
         <v>69</v>
       </c>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3">
@@ -45332,10 +45896,10 @@
       <c r="A22" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="129">
+      <c r="B22" s="126">
         <v>40</v>
       </c>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="3">
@@ -45346,10 +45910,10 @@
       <c r="A23" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B23" s="129">
+      <c r="B23" s="126">
         <v>65</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="3">
@@ -45360,10 +45924,10 @@
       <c r="A24" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="129">
+      <c r="B24" s="126">
         <v>32</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="3">
@@ -45374,10 +45938,10 @@
       <c r="A25" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="129">
+      <c r="B25" s="126">
         <v>73</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="125" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="3">
@@ -45388,10 +45952,10 @@
       <c r="A26" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B26" s="129">
+      <c r="B26" s="126">
         <v>71</v>
       </c>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3">
@@ -45402,10 +45966,10 @@
       <c r="A27" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="129">
+      <c r="B27" s="126">
         <v>87</v>
       </c>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3">
@@ -45416,10 +45980,10 @@
       <c r="A28" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="129">
+      <c r="B28" s="126">
         <v>57</v>
       </c>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3">
@@ -45430,10 +45994,10 @@
       <c r="A29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B29" s="129">
+      <c r="B29" s="126">
         <v>82</v>
       </c>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3">
@@ -45444,10 +46008,10 @@
       <c r="A30" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B30" s="129">
+      <c r="B30" s="126">
         <v>91</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="3">
@@ -45458,10 +46022,10 @@
       <c r="A31" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B31" s="129">
+      <c r="B31" s="126">
         <v>80</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="3">
@@ -45472,10 +46036,10 @@
       <c r="A32" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B32" s="129">
+      <c r="B32" s="126">
         <v>67</v>
       </c>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3">
@@ -45486,10 +46050,10 @@
       <c r="A33" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B33" s="129">
+      <c r="B33" s="126">
         <v>93</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="125" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="3">
@@ -45500,10 +46064,10 @@
       <c r="A34" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="129">
+      <c r="B34" s="126">
         <v>98</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="3">
@@ -45514,10 +46078,10 @@
       <c r="A35" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B35" s="129">
+      <c r="B35" s="126">
         <v>83</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="3">
@@ -45528,10 +46092,10 @@
       <c r="A36" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B36" s="129">
+      <c r="B36" s="126">
         <v>76</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="3">
@@ -45542,10 +46106,10 @@
       <c r="A37" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B37" s="129">
+      <c r="B37" s="126">
         <v>49</v>
       </c>
-      <c r="C37" s="128" t="s">
+      <c r="C37" s="125" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="3">
@@ -45556,10 +46120,10 @@
       <c r="A38" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B38" s="129">
+      <c r="B38" s="126">
         <v>64</v>
       </c>
-      <c r="C38" s="128" t="s">
+      <c r="C38" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="3">
@@ -45570,10 +46134,10 @@
       <c r="A39" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B39" s="129">
+      <c r="B39" s="126">
         <v>82</v>
       </c>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="3">
@@ -45584,10 +46148,10 @@
       <c r="A40" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B40" s="129">
+      <c r="B40" s="126">
         <v>62</v>
       </c>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="125" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="3">
@@ -45598,10 +46162,10 @@
       <c r="A41" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="129">
+      <c r="B41" s="126">
         <v>76</v>
       </c>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="3">
@@ -45612,10 +46176,10 @@
       <c r="A42" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="129">
+      <c r="B42" s="126">
         <v>68</v>
       </c>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="3">
@@ -45626,10 +46190,10 @@
       <c r="A43" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="129">
+      <c r="B43" s="126">
         <v>68</v>
       </c>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="3">
@@ -45640,10 +46204,10 @@
       <c r="A44" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B44" s="129">
+      <c r="B44" s="126">
         <v>77</v>
       </c>
-      <c r="C44" s="128" t="s">
+      <c r="C44" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="3">
@@ -45654,10 +46218,10 @@
       <c r="A45" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="129">
+      <c r="B45" s="126">
         <v>68</v>
       </c>
-      <c r="C45" s="128" t="s">
+      <c r="C45" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="3">
@@ -45668,10 +46232,10 @@
       <c r="A46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B46" s="129">
+      <c r="B46" s="126">
         <v>80</v>
       </c>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="3">
@@ -45682,10 +46246,10 @@
       <c r="A47" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B47" s="129">
+      <c r="B47" s="126">
         <v>79</v>
       </c>
-      <c r="C47" s="128" t="s">
+      <c r="C47" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="3">
@@ -45696,10 +46260,10 @@
       <c r="A48" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B48" s="129">
+      <c r="B48" s="126">
         <v>93</v>
       </c>
-      <c r="C48" s="128" t="s">
+      <c r="C48" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="3">
@@ -45710,10 +46274,10 @@
       <c r="A49" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B49" s="129">
+      <c r="B49" s="126">
         <v>59</v>
       </c>
-      <c r="C49" s="128" t="s">
+      <c r="C49" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="3">
@@ -45724,10 +46288,10 @@
       <c r="A50" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B50" s="129">
+      <c r="B50" s="126">
         <v>82</v>
       </c>
-      <c r="C50" s="128" t="s">
+      <c r="C50" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="3">
@@ -45738,10 +46302,10 @@
       <c r="A51" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="129">
+      <c r="B51" s="126">
         <v>89</v>
       </c>
-      <c r="C51" s="128" t="s">
+      <c r="C51" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="3">
@@ -45752,10 +46316,10 @@
       <c r="A52" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B52" s="129">
+      <c r="B52" s="126">
         <v>85</v>
       </c>
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="3">
@@ -45766,10 +46330,10 @@
       <c r="A53" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B53" s="129">
+      <c r="B53" s="126">
         <v>64</v>
       </c>
-      <c r="C53" s="128" t="s">
+      <c r="C53" s="125" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="3">
@@ -45780,10 +46344,10 @@
       <c r="A54" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B54" s="129">
+      <c r="B54" s="126">
         <v>79</v>
       </c>
-      <c r="C54" s="128" t="s">
+      <c r="C54" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="3">
@@ -45794,10 +46358,10 @@
       <c r="A55" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B55" s="129">
+      <c r="B55" s="126">
         <v>85</v>
       </c>
-      <c r="C55" s="128" t="s">
+      <c r="C55" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="3">
@@ -45808,10 +46372,10 @@
       <c r="A56" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B56" s="129">
+      <c r="B56" s="126">
         <v>67</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="3">
@@ -45822,10 +46386,10 @@
       <c r="A57" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B57" s="129">
+      <c r="B57" s="126">
         <v>75</v>
       </c>
-      <c r="C57" s="128" t="s">
+      <c r="C57" s="125" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="3">
@@ -45836,10 +46400,10 @@
       <c r="A58" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B58" s="129">
+      <c r="B58" s="126">
         <v>69</v>
       </c>
-      <c r="C58" s="128" t="s">
+      <c r="C58" s="125" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="3">
@@ -45850,10 +46414,10 @@
       <c r="A59" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B59" s="129">
+      <c r="B59" s="126">
         <v>58</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="C59" s="125" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="3">
@@ -45864,10 +46428,10 @@
       <c r="A60" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B60" s="129">
+      <c r="B60" s="126">
         <v>70</v>
       </c>
-      <c r="C60" s="128" t="s">
+      <c r="C60" s="125" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
@@ -45881,10 +46445,10 @@
       <c r="A61" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B61" s="129">
+      <c r="B61" s="126">
         <v>75</v>
       </c>
-      <c r="C61" s="128" t="s">
+      <c r="C61" s="125" t="s">
         <v>24</v>
       </c>
       <c r="D61" t="s">
@@ -45898,10 +46462,10 @@
       <c r="A62" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B62" s="129">
+      <c r="B62" s="126">
         <v>71</v>
       </c>
-      <c r="C62" s="128" t="s">
+      <c r="C62" s="125" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
@@ -45915,10 +46479,10 @@
       <c r="A63" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B63" s="129">
+      <c r="B63" s="126">
         <v>64</v>
       </c>
-      <c r="C63" s="128" t="s">
+      <c r="C63" s="125" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
@@ -45932,10 +46496,10 @@
       <c r="A64" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B64" s="129">
+      <c r="B64" s="126">
         <v>81</v>
       </c>
-      <c r="C64" s="128" t="s">
+      <c r="C64" s="125" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
@@ -45949,13 +46513,13 @@
       <c r="A65" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B65" s="129">
+      <c r="B65" s="126">
         <v>56</v>
       </c>
-      <c r="C65" s="128" t="s">
+      <c r="C65" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="128" t="s">
+      <c r="D65" s="125" t="s">
         <v>52</v>
       </c>
       <c r="E65" s="51">
@@ -45966,10 +46530,10 @@
       <c r="A66" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B66" s="129">
+      <c r="B66" s="126">
         <v>68</v>
       </c>
-      <c r="C66" s="128" t="s">
+      <c r="C66" s="125" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
@@ -45983,10 +46547,10 @@
       <c r="A67" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B67" s="129">
+      <c r="B67" s="126">
         <v>85</v>
       </c>
-      <c r="C67" s="128" t="s">
+      <c r="C67" s="125" t="s">
         <v>27</v>
       </c>
       <c r="D67" t="s">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F25361-E03A-4F18-AEBB-04AF08662F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F8163-83D0-4A1F-B63D-813DAEB0013F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="0" windowWidth="8745" windowHeight="10440" tabRatio="769" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="195" yWindow="345" windowWidth="10740" windowHeight="10440" firstSheet="1" activeTab="2" xr2:uid="{618BB22A-847D-4867-8051-9D180A1D796A}"/>
+    <workbookView xWindow="12135" yWindow="300" windowWidth="8745" windowHeight="10440" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="415">
   <si>
     <t>FECHA</t>
   </si>
@@ -1789,7 +1788,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2299,6 +2298,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2345,7 +2353,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2866,6 +2874,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4687,13 +4697,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F902"/>
+  <dimension ref="A1:F924"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A894" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D901" sqref="D901"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A902" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D924" sqref="A903:D924"/>
     </sheetView>
-    <sheetView topLeftCell="A19" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17332,6 +17341,314 @@
         <v>397</v>
       </c>
       <c r="D902" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B903" s="193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C903" s="193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D903" s="37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A904" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B904" s="193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C904" s="193" t="s">
+        <v>41</v>
+      </c>
+      <c r="D904" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A905" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B905" s="193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C905" s="193" t="s">
+        <v>31</v>
+      </c>
+      <c r="D905" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B906" s="193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C906" s="193" t="s">
+        <v>141</v>
+      </c>
+      <c r="D906" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B907" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C907" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D907" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B908" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C908" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="D908" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B909" s="193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C909" s="193" t="s">
+        <v>161</v>
+      </c>
+      <c r="D909" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B910" s="193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C910" s="193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D910" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B911" s="193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C911" s="193" t="s">
+        <v>237</v>
+      </c>
+      <c r="D911" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B912" s="193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C912" s="193" t="s">
+        <v>153</v>
+      </c>
+      <c r="D912" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B913" s="193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C913" s="193" t="s">
+        <v>323</v>
+      </c>
+      <c r="D913" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B914" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C914" s="193" t="s">
+        <v>44</v>
+      </c>
+      <c r="D914" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B915" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C915" s="188" t="s">
+        <v>248</v>
+      </c>
+      <c r="D915" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B916" s="193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C916" s="109" t="s">
+        <v>381</v>
+      </c>
+      <c r="D916" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B917" s="193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C917" s="193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D917" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B918" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C918" s="193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D918" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B919" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C919" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D919" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B920" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="C920" s="193" t="s">
+        <v>397</v>
+      </c>
+      <c r="D920" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B921" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="C921" s="193" t="s">
+        <v>52</v>
+      </c>
+      <c r="D921" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B922" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C922" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D922" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B923" s="193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C923" s="193" t="s">
+        <v>14</v>
+      </c>
+      <c r="D923" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" s="183">
+        <v>44091</v>
+      </c>
+      <c r="B924" s="193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C924" s="193" t="s">
+        <v>303</v>
+      </c>
+      <c r="D924" s="37">
         <v>1</v>
       </c>
     </row>
@@ -17360,7 +17677,6 @@
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18466,13 +18782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:B89"/>
-    </sheetView>
-    <sheetView topLeftCell="A77" workbookViewId="1">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20262,6 +20575,10 @@
       <c r="F89" s="1" t="s">
         <v>408</v>
       </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="194"/>
+      <c r="B90" s="195"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F80" xr:uid="{674EFE2F-09CE-43B8-B5AD-FD1E36B5E2CC}"/>
@@ -20278,10 +20595,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20477,7 +20791,7 @@
         <v>357</v>
       </c>
       <c r="E9" s="37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="37">
         <v>1039</v>
@@ -20498,7 +20812,9 @@
       <c r="D10" s="37">
         <v>48</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="37">
+        <v>1</v>
+      </c>
       <c r="F10" s="37">
         <v>172</v>
       </c>
@@ -20563,7 +20879,7 @@
         <v>1263</v>
       </c>
       <c r="E13" s="37">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="37">
         <v>2984</v>
@@ -20696,7 +21012,6 @@
     <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="G188" sqref="G188"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25650,10 +25965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25749,14 +26063,18 @@
       <c r="B3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
       <c r="D3" s="31">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="31">
         <v>44</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
       <c r="G3" s="50">
         <v>77039</v>
       </c>
@@ -25765,11 +26083,11 @@
       </c>
       <c r="I3" s="32">
         <f>D3/(D3+H3)</f>
-        <v>0.12803532008830021</v>
+        <v>0.12995594713656389</v>
       </c>
       <c r="J3" s="150">
         <f>D3/G3*100000</f>
-        <v>75.286543179428605</v>
+        <v>76.584587027349784</v>
       </c>
       <c r="K3" s="60" t="s">
         <v>251</v>
@@ -25815,14 +26133,12 @@
       <c r="B4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="35">
-        <v>5</v>
-      </c>
+      <c r="C4" s="35"/>
       <c r="D4" s="35">
         <v>109</v>
       </c>
       <c r="E4" s="35">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4" s="35">
         <v>7</v>
@@ -25887,13 +26203,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="33">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="E5" s="33">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="F5" s="33">
         <v>4</v>
@@ -25906,11 +26222,11 @@
       </c>
       <c r="I5" s="34">
         <f>D5/(D5+H5)</f>
-        <v>0.44117647058823528</v>
+        <v>0.45007235890014474</v>
       </c>
       <c r="J5" s="148">
         <f>D5/G5*100000</f>
-        <v>583.83932741709475</v>
+        <v>605.2467694223883</v>
       </c>
       <c r="K5" s="88">
         <v>15</v>
@@ -25920,7 +26236,7 @@
       </c>
       <c r="M5" s="124">
         <f>F5/D5</f>
-        <v>1.3333333333333334E-2</v>
+        <v>1.2861736334405145E-2</v>
       </c>
       <c r="N5" s="135">
         <f>F5/G5*1000000</f>
@@ -25956,13 +26272,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="35">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E6" s="35">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F6" s="35">
         <v>5</v>
@@ -25975,11 +26291,11 @@
       </c>
       <c r="I6" s="30">
         <f>D6/(D6+H6)</f>
-        <v>0.30555555555555558</v>
+        <v>0.31153184165232356</v>
       </c>
       <c r="J6" s="149">
         <f>D6/G6*100000</f>
-        <v>211.18057138743234</v>
+        <v>217.1800194382117</v>
       </c>
       <c r="K6" s="89">
         <v>77</v>
@@ -25989,7 +26305,7 @@
       </c>
       <c r="M6" s="126">
         <f>F6/D6</f>
-        <v>2.8409090909090908E-2</v>
+        <v>2.7624309392265192E-2</v>
       </c>
       <c r="N6" s="135">
         <f>F6/G6*1000000</f>
@@ -26024,16 +26340,16 @@
       <c r="B7" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="31">
-        <v>7</v>
-      </c>
+      <c r="C7" s="31"/>
       <c r="D7" s="31">
         <v>10</v>
       </c>
       <c r="E7" s="31">
         <v>2</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
       <c r="G7" s="50">
         <v>28189</v>
       </c>
@@ -26082,7 +26398,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="31">
         <v>0</v>
@@ -26129,14 +26445,18 @@
       <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="31">
+        <v>3</v>
+      </c>
       <c r="D9" s="31">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" s="31">
-        <v>32</v>
-      </c>
-      <c r="F9" s="31"/>
+        <v>34</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
       <c r="G9" s="50">
         <v>58565</v>
       </c>
@@ -26145,11 +26465,11 @@
       </c>
       <c r="I9" s="32">
         <f>D9/(D9+H9)</f>
-        <v>0.17898832684824903</v>
+        <v>0.18846153846153846</v>
       </c>
       <c r="J9" s="150">
         <f>D9/G9*100000</f>
-        <v>78.545206181166236</v>
+        <v>83.667719627764029</v>
       </c>
       <c r="K9" s="89">
         <v>34</v>
@@ -26195,16 +26515,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="33">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D10" s="33">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="E10" s="33">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="F10" s="33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="50">
         <v>124231</v>
@@ -26214,11 +26534,11 @@
       </c>
       <c r="I10" s="34">
         <f>D10/(D10+H10)</f>
-        <v>0.44642857142857145</v>
+        <v>0.44848986346710801</v>
       </c>
       <c r="J10" s="148">
         <f>D10/G10*100000</f>
-        <v>865.32346998736216</v>
+        <v>872.56803857330306</v>
       </c>
       <c r="K10" s="91">
         <v>29</v>
@@ -26228,16 +26548,16 @@
       </c>
       <c r="M10" s="124">
         <f>F10/D10</f>
-        <v>1.3023255813953489E-2</v>
+        <v>1.3837638376383764E-2</v>
       </c>
       <c r="N10" s="135">
         <f>F10/G10*1000000</f>
-        <v>112.69328911463322</v>
+        <v>120.74280976567844</v>
       </c>
       <c r="O10" s="29"/>
       <c r="P10" s="169">
         <f>D10*2</f>
-        <v>2150</v>
+        <v>2168</v>
       </c>
       <c r="Q10" s="18" t="s">
         <v>7</v>
@@ -26269,12 +26589,14 @@
         <v>1</v>
       </c>
       <c r="D11" s="160">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="160">
-        <v>66</v>
-      </c>
-      <c r="F11" s="160"/>
+        <v>70</v>
+      </c>
+      <c r="F11" s="160">
+        <v>1</v>
+      </c>
       <c r="G11" s="50">
         <v>13420</v>
       </c>
@@ -26283,11 +26605,11 @@
       </c>
       <c r="I11" s="30">
         <f>D11/(D11+H11)</f>
-        <v>0.28767123287671231</v>
+        <v>0.29010238907849828</v>
       </c>
       <c r="J11" s="148">
         <f>D11/G11*100000</f>
-        <v>625.93144560357678</v>
+        <v>633.38301043219076</v>
       </c>
       <c r="K11" s="134">
         <v>25</v>
@@ -26297,16 +26619,16 @@
       </c>
       <c r="M11" s="124">
         <f>F11/D11</f>
-        <v>0</v>
+        <v>1.1764705882352941E-2</v>
       </c>
       <c r="N11" s="131">
         <f>F11/G11*1000000</f>
-        <v>0</v>
+        <v>74.515648286140092</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="171">
         <f ca="1">TODAY()+26</f>
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="Q11" s="18" t="s">
         <v>9</v>
@@ -26340,14 +26662,12 @@
       <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="35">
-        <v>2</v>
-      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="35">
         <v>60</v>
       </c>
       <c r="E12" s="35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="35">
         <v>1</v>
@@ -26413,10 +26733,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="35">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="35">
         <v>1</v>
@@ -26429,11 +26749,11 @@
       </c>
       <c r="I13" s="30">
         <f>D13/(D13+H13)</f>
-        <v>0.29605263157894735</v>
+        <v>0.30065359477124182</v>
       </c>
       <c r="J13" s="149">
         <f>D13/G13*100000</f>
-        <v>108.94828588030214</v>
+        <v>111.36935889986441</v>
       </c>
       <c r="K13" s="60" t="s">
         <v>251</v>
@@ -26443,7 +26763,7 @@
       </c>
       <c r="M13" s="125">
         <f>F13/D13</f>
-        <v>2.2222222222222223E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="N13" s="136">
         <f>F13/G13*1000000</f>
@@ -26477,16 +26797,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="33">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="33">
-        <v>3562</v>
+        <v>3649</v>
       </c>
       <c r="E14" s="33">
-        <v>2591</v>
+        <v>2709</v>
       </c>
       <c r="F14" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="50">
         <v>376912</v>
@@ -26496,11 +26816,11 @@
       </c>
       <c r="I14" s="34">
         <f>D14/(D14+H14)</f>
-        <v>0.47594869053981825</v>
+        <v>0.4819706775855237</v>
       </c>
       <c r="J14" s="148">
         <f>D14/G14*100000</f>
-        <v>945.04818100776833</v>
+        <v>968.13049199813224</v>
       </c>
       <c r="K14" s="91">
         <v>23</v>
@@ -26510,16 +26830,16 @@
       </c>
       <c r="M14" s="124">
         <f>F14/D14</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4524527267744588E-2</v>
       </c>
       <c r="N14" s="135">
         <f>F14/G14*1000000</f>
-        <v>137.96323810332385</v>
+        <v>140.61637729761853</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="170">
         <f>D14*2</f>
-        <v>7124</v>
+        <v>7298</v>
       </c>
       <c r="Q14" s="18" t="s">
         <v>12</v>
@@ -26601,10 +26921,10 @@
         <v>51</v>
       </c>
       <c r="C16" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="31">
         <v>0</v>
@@ -26620,11 +26940,11 @@
       </c>
       <c r="I16" s="32">
         <f>D16/(D16+H16)</f>
-        <v>8.1632653061224483E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="J16" s="150">
         <f>D16/G16*100000</f>
-        <v>15.004313740200306</v>
+        <v>22.506470610300461</v>
       </c>
       <c r="K16" s="60">
         <v>23</v>
@@ -26634,7 +26954,7 @@
       </c>
       <c r="M16" s="126">
         <f>F16/D16</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N16" s="136">
         <f>F16/G16*1000000</f>
@@ -26656,13 +26976,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="35">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E17" s="35">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F17" s="35">
         <v>2</v>
@@ -26675,11 +26995,11 @@
       </c>
       <c r="I17" s="32">
         <f>D17/(D17+H17)</f>
-        <v>0.17695473251028807</v>
+        <v>0.19028340080971659</v>
       </c>
       <c r="J17" s="150">
         <f>D17/G17*100000</f>
-        <v>75.997914475835316</v>
+        <v>83.067487915447899</v>
       </c>
       <c r="K17" s="91">
         <v>21</v>
@@ -26689,7 +27009,7 @@
       </c>
       <c r="M17" s="125">
         <f>F17/D17</f>
-        <v>2.3255813953488372E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="N17" s="131">
         <f>F17/G17*1000000</f>
@@ -26698,7 +27018,7 @@
       <c r="O17" s="29"/>
       <c r="P17" s="14">
         <f>D17*2</f>
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="19"/>
@@ -26714,12 +27034,14 @@
       <c r="B18" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="35">
+        <v>1</v>
+      </c>
       <c r="D18" s="35">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="35">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F18" s="35">
         <v>2</v>
@@ -26732,11 +27054,11 @@
       </c>
       <c r="I18" s="34">
         <f>D18/(D18+H18)</f>
-        <v>0.3073170731707317</v>
+        <v>0.31067961165048541</v>
       </c>
       <c r="J18" s="149">
         <f>D18/G18*100000</f>
-        <v>158.83020294970376</v>
+        <v>161.35131728223874</v>
       </c>
       <c r="K18" s="90">
         <v>60</v>
@@ -26746,7 +27068,7 @@
       </c>
       <c r="M18" s="126">
         <f>F18/D18</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="N18" s="135">
         <f>F18/G18*1000000</f>
@@ -26783,10 +27105,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="152">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E19" s="152">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F19" s="152">
         <v>2</v>
@@ -26799,11 +27121,11 @@
       </c>
       <c r="I19" s="153">
         <f>D19/(D19+H19)</f>
-        <v>0.30555555555555558</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="J19" s="154">
         <f>D19/G19*100000</f>
-        <v>146.24603521300642</v>
+        <v>151.9439326888378</v>
       </c>
       <c r="K19" s="155">
         <v>14</v>
@@ -26813,7 +27135,7 @@
       </c>
       <c r="M19" s="157">
         <f>F19/D19</f>
-        <v>2.5974025974025976E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N19" s="158">
         <f>F19/G19*1000000</f>
@@ -26850,19 +27172,19 @@
       </c>
       <c r="C20" s="138">
         <f t="shared" ref="C20:H20" si="1">SUM(C3:C19)</f>
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D20" s="139">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>5892</v>
       </c>
       <c r="E20" s="140">
         <f t="shared" si="1"/>
-        <v>4039</v>
+        <v>4254</v>
       </c>
       <c r="F20" s="140">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G20" s="141">
         <f t="shared" si="1"/>
@@ -26874,11 +27196,11 @@
       </c>
       <c r="I20" s="147">
         <f t="shared" ref="I4:I20" si="2">D20/(D20+H20)</f>
-        <v>0.39438548442314275</v>
+        <v>0.3998100020356925</v>
       </c>
       <c r="J20" s="142">
         <f>D20/G20*100000</f>
-        <v>415.59610984724679</v>
+        <v>425.12018736457952</v>
       </c>
       <c r="K20" s="143">
         <v>24</v>
@@ -26888,11 +27210,11 @@
       </c>
       <c r="M20" s="145">
         <f>F20/D20</f>
-        <v>1.5972222222222221E-2</v>
+        <v>1.6123557365919892E-2</v>
       </c>
       <c r="N20" s="146">
         <f>F20/G3*1000000</f>
-        <v>1194.2003400874883</v>
+        <v>1233.1416555251237</v>
       </c>
       <c r="O20" s="29"/>
       <c r="Q20" s="18" t="s">
@@ -26950,19 +27272,19 @@
       </c>
       <c r="C22" s="92">
         <f ca="1">TODAY()+K20</f>
-        <v>44114</v>
+        <v>44115</v>
       </c>
       <c r="D22" s="24">
         <f>D20*2</f>
-        <v>11520</v>
+        <v>11784</v>
       </c>
       <c r="E22" s="96">
         <f>D22*M20</f>
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N22" s="107">
         <f>1000000/N20</f>
-        <v>837.38043478260863</v>
+        <v>810.93684210526305</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -26973,7 +27295,7 @@
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D26" s="24">
         <f>D14*2</f>
-        <v>7124</v>
+        <v>7298</v>
       </c>
     </row>
   </sheetData>
@@ -26992,10 +27314,6 @@
     <sheetView topLeftCell="AU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BD125" sqref="BD125"/>
-    </sheetView>
-    <sheetView topLeftCell="AT1" workbookViewId="1">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45327,7 +45645,6 @@
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46314,7 +46631,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -47042,7 +47358,6 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="C11:D11"/>
     </sheetView>
-    <sheetView topLeftCell="A7" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5CC6E2-B332-4128-BEB4-3DBD5402E69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6014B-F304-4304-8826-9EDB64475686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="1155" windowWidth="12180" windowHeight="8910" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12255" yWindow="690" windowWidth="7740" windowHeight="8595" tabRatio="769" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASOS1" sheetId="31" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="642">
   <si>
     <t>FECHA</t>
   </si>
@@ -3577,6 +3577,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="42" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3586,7 +3587,6 @@
     <xf numFmtId="0" fontId="13" fillId="42" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7013,12 +7013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F1055"/>
+  <dimension ref="A1:F1069"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1036" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1040" sqref="B1040:C1040"/>
+      <pane ySplit="1" topLeftCell="A1063" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1057" sqref="A1057:A1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7043,7 +7042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="180">
         <v>43903</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="180">
         <v>43907</v>
       </c>
@@ -7071,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="180">
         <v>43910</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="180">
         <v>43910</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="180">
         <v>43915</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="180">
         <v>43915</v>
       </c>
@@ -7127,7 +7126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="180">
         <v>43916</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="180">
         <v>43916</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="180">
         <v>43916</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="180">
         <v>43920</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="180">
         <v>43920</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="180">
         <v>43923</v>
       </c>
@@ -7211,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="180">
         <v>43923</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="180">
         <v>43924</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="180">
         <v>43924</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="180">
         <v>43926</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="180">
         <v>43929</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="180">
         <v>43930</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="180">
         <v>43936</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="180">
         <v>43948</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="180">
         <v>43951</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="180">
         <v>43951</v>
       </c>
@@ -7351,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="180">
         <v>43953</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="180">
         <v>43953</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="180">
         <v>43956</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="180">
         <v>43956</v>
       </c>
@@ -7407,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="180">
         <v>43963</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="180">
         <v>43979</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="180">
         <v>43981</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="180">
         <v>43981</v>
       </c>
@@ -7463,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="180">
         <v>43983</v>
       </c>
@@ -7477,7 +7476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="180">
         <v>43983</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="180">
         <v>43985</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="180">
         <v>43986</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="180">
         <v>43987</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="180">
         <v>43988</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="180">
         <v>43988</v>
       </c>
@@ -7561,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="180">
         <v>43989</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="180">
         <v>43990</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="180">
         <v>43991</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="180">
         <v>43992</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="180">
         <v>43992</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="180">
         <v>43992</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="180">
         <v>43992</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="180">
         <v>43992</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="180">
         <v>43993</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="180">
         <v>43993</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="180">
         <v>43993</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="180">
         <v>43993</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="180">
         <v>43993</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="180">
         <v>43994</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="180">
         <v>43994</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="180">
         <v>43995</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="180">
         <v>43995</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="180">
         <v>43995</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="180">
         <v>43995</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="180">
         <v>43995</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="180">
         <v>43996</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="180">
         <v>43998</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="180">
         <v>43998</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="180">
         <v>43999</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="180">
         <v>43999</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="180">
         <v>44000</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="180">
         <v>44000</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="180">
         <v>44001</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="180">
         <v>44001</v>
       </c>
@@ -7967,7 +7966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="180">
         <v>44002</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="180">
         <v>44002</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="180">
         <v>44002</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="180">
         <v>44002</v>
       </c>
@@ -8023,7 +8022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="180">
         <v>44003</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="180">
         <v>44003</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="180">
         <v>44004</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="180">
         <v>44004</v>
       </c>
@@ -8079,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="180">
         <v>44004</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="180">
         <v>44005</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="180">
         <v>44005</v>
       </c>
@@ -8121,7 +8120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="180">
         <v>44005</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="180">
         <v>44006</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="180">
         <v>44006</v>
       </c>
@@ -8163,7 +8162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="180">
         <v>44006</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="180">
         <v>44007</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="180">
         <v>44007</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="180">
         <v>44007</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="180">
         <v>44008</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="180">
         <v>44008</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="180">
         <v>44009</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="180">
         <v>44009</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="180">
         <v>44009</v>
       </c>
@@ -8289,7 +8288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="180">
         <v>44010</v>
       </c>
@@ -8303,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="180">
         <v>44010</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="180">
         <v>44010</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="180">
         <v>44010</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="180">
         <v>44011</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="180">
         <v>44011</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="180">
         <v>44012</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="180">
         <v>44012</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="180">
         <v>44013</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="180">
         <v>44013</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="180">
         <v>44013</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="180">
         <v>44014</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="180">
         <v>44014</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="180">
         <v>44014</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="180">
         <v>44014</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="180">
         <v>44015</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="180">
         <v>44015</v>
       </c>
@@ -8527,7 +8526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="180">
         <v>44016</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="180">
         <v>44016</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="180">
         <v>44016</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="180">
         <v>44017</v>
       </c>
@@ -8583,7 +8582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="180">
         <v>44017</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="180">
         <v>44018</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="180">
         <v>44019</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="180">
         <v>44019</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="180">
         <v>44019</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="180">
         <v>44020</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="180">
         <v>44020</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="180">
         <v>44020</v>
       </c>
@@ -8695,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="180">
         <v>44020</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="180">
         <v>44021</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="180">
         <v>44021</v>
       </c>
@@ -8737,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="180">
         <v>44021</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="180">
         <v>44021</v>
       </c>
@@ -8765,7 +8764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="180">
         <v>44021</v>
       </c>
@@ -8779,7 +8778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="180">
         <v>44021</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="180">
         <v>44022</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="180">
         <v>44022</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="180">
         <v>44022</v>
       </c>
@@ -8835,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="180">
         <v>44022</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="180">
         <v>44022</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="180">
         <v>44022</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="180">
         <v>44022</v>
       </c>
@@ -8891,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="180">
         <v>44023</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="180">
         <v>44023</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="180">
         <v>44023</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="180">
         <v>44023</v>
       </c>
@@ -8947,7 +8946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="180">
         <v>44023</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="180">
         <v>44023</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="180">
         <v>44023</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="180">
         <v>44024</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="180">
         <v>44024</v>
       </c>
@@ -9017,7 +9016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="180">
         <v>44024</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="180">
         <v>44024</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="180">
         <v>44024</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="180">
         <v>44024</v>
       </c>
@@ -9073,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="180">
         <v>44024</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="180">
         <v>44024</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="180">
         <v>44024</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="180">
         <v>44024</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="180">
         <v>44025</v>
       </c>
@@ -9143,7 +9142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="180">
         <v>44025</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="180">
         <v>44025</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="180">
         <v>44025</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="180">
         <v>44025</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="180">
         <v>44025</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="180">
         <v>44025</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="180">
         <v>44025</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="180">
         <v>44025</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="180">
         <v>44025</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="180">
         <v>44025</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="180">
         <v>44026</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="180">
         <v>44026</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="180">
         <v>44026</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="180">
         <v>44026</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="180">
         <v>44026</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="180">
         <v>44026</v>
       </c>
@@ -9381,7 +9380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="180">
         <v>44027</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="180">
         <v>44027</v>
       </c>
@@ -9409,7 +9408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="180">
         <v>44027</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="180">
         <v>44028</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="180">
         <v>44028</v>
       </c>
@@ -9451,7 +9450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="180">
         <v>44028</v>
       </c>
@@ -9465,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="180">
         <v>44028</v>
       </c>
@@ -9479,7 +9478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="180">
         <v>44028</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="180">
         <v>44029</v>
       </c>
@@ -9507,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="180">
         <v>44029</v>
       </c>
@@ -9521,7 +9520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="180">
         <v>44029</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="180">
         <v>44029</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="180">
         <v>44030</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="180">
         <v>44030</v>
       </c>
@@ -9591,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="180">
         <v>44030</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="180">
         <v>44031</v>
       </c>
@@ -9619,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="180">
         <v>44031</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="180">
         <v>44031</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="180">
         <v>44031</v>
       </c>
@@ -9661,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="180">
         <v>44031</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="180">
         <v>44032</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="180">
         <v>44032</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="180">
         <v>44032</v>
       </c>
@@ -9717,7 +9716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="180">
         <v>44032</v>
       </c>
@@ -9731,7 +9730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="180">
         <v>44033</v>
       </c>
@@ -9745,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="180">
         <v>44033</v>
       </c>
@@ -9759,7 +9758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="180">
         <v>44033</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="180">
         <v>44033</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="180">
         <v>44033</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="180">
         <v>44034</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="180">
         <v>44034</v>
       </c>
@@ -9829,7 +9828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="180">
         <v>44034</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="180">
         <v>44034</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="180">
         <v>44034</v>
       </c>
@@ -9871,7 +9870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="180">
         <v>44035</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="180">
         <v>44035</v>
       </c>
@@ -9899,7 +9898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="180">
         <v>44035</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="180">
         <v>44035</v>
       </c>
@@ -9927,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="180">
         <v>44035</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="180">
         <v>44035</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="180">
         <v>44035</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="180">
         <v>44035</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="180">
         <v>44036</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="180">
         <v>44036</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="180">
         <v>44036</v>
       </c>
@@ -10025,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="180">
         <v>44036</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="180">
         <v>44036</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="180">
         <v>44036</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="180">
         <v>44037</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="180">
         <v>44037</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="180">
         <v>44037</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="180">
         <v>44037</v>
       </c>
@@ -10123,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="180">
         <v>44037</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="180">
         <v>44037</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="180">
         <v>44037</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="180">
         <v>44037</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="180">
         <v>44038</v>
       </c>
@@ -10193,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="180">
         <v>44038</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="180">
         <v>44038</v>
       </c>
@@ -10221,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="180">
         <v>44038</v>
       </c>
@@ -10235,7 +10234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="180">
         <v>44038</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="180">
         <v>44038</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="180">
         <v>44039</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="180">
         <v>44040</v>
       </c>
@@ -10291,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="180">
         <v>44039</v>
       </c>
@@ -10305,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="180">
         <v>44040</v>
       </c>
@@ -10319,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="180">
         <v>44040</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="180">
         <v>44041</v>
       </c>
@@ -10347,7 +10346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="180">
         <v>44041</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="180">
         <v>44041</v>
       </c>
@@ -10375,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="180">
         <v>44041</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="180">
         <v>44042</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="180">
         <v>44042</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="180">
         <v>44042</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="180">
         <v>44042</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="180">
         <v>44042</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="180">
         <v>44042</v>
       </c>
@@ -10473,7 +10472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="180">
         <v>44042</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="180">
         <v>44043</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="180">
         <v>44043</v>
       </c>
@@ -10515,7 +10514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="180">
         <v>44043</v>
       </c>
@@ -10529,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="180">
         <v>44044</v>
       </c>
@@ -10543,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="180">
         <v>44044</v>
       </c>
@@ -10557,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="180">
         <v>44044</v>
       </c>
@@ -10571,7 +10570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="180">
         <v>44044</v>
       </c>
@@ -10585,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="180">
         <v>44044</v>
       </c>
@@ -10599,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="180">
         <v>44044</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="180">
         <v>44045</v>
       </c>
@@ -10627,7 +10626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="180">
         <v>44045</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="180">
         <v>44045</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="180">
         <v>44045</v>
       </c>
@@ -10669,7 +10668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="180">
         <v>44045</v>
       </c>
@@ -10683,7 +10682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="180">
         <v>44045</v>
       </c>
@@ -10697,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="180">
         <v>44046</v>
       </c>
@@ -10711,7 +10710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="180">
         <v>44046</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="180">
         <v>44046</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="180">
         <v>44046</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="180">
         <v>44046</v>
       </c>
@@ -10767,7 +10766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="180">
         <v>44047</v>
       </c>
@@ -10781,7 +10780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="180">
         <v>44047</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="180">
         <v>44047</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="180">
         <v>44047</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="180">
         <v>44047</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="180">
         <v>44047</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="180">
         <v>44048</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="180">
         <v>44048</v>
       </c>
@@ -10879,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="180">
         <v>44048</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="180">
         <v>44048</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="180">
         <v>44048</v>
       </c>
@@ -10921,7 +10920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="180">
         <v>44048</v>
       </c>
@@ -10935,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="180">
         <v>44048</v>
       </c>
@@ -10949,7 +10948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="180">
         <v>44048</v>
       </c>
@@ -10963,7 +10962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="180">
         <v>44049</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="180">
         <v>44049</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="180">
         <v>44049</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="180">
         <v>44049</v>
       </c>
@@ -11019,7 +11018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="180">
         <v>44049</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="180">
         <v>44049</v>
       </c>
@@ -11047,7 +11046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="180">
         <v>44049</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="180">
         <v>44049</v>
       </c>
@@ -11075,7 +11074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="180">
         <v>44050</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="180">
         <v>44050</v>
       </c>
@@ -11103,7 +11102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="180">
         <v>44050</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="180">
         <v>44050</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="180">
         <v>44050</v>
       </c>
@@ -11145,7 +11144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="180">
         <v>44050</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="180">
         <v>44050</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="180">
         <v>44050</v>
       </c>
@@ -11187,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="180">
         <v>44050</v>
       </c>
@@ -11201,7 +11200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="180">
         <v>44051</v>
       </c>
@@ -11215,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="180">
         <v>44051</v>
       </c>
@@ -11229,7 +11228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="180">
         <v>44051</v>
       </c>
@@ -11243,7 +11242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="180">
         <v>44051</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="180">
         <v>44051</v>
       </c>
@@ -11271,7 +11270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="180">
         <v>44052</v>
       </c>
@@ -11285,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="180">
         <v>44052</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="180">
         <v>44052</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="180">
         <v>44052</v>
       </c>
@@ -11327,7 +11326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="180">
         <v>44052</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="180">
         <v>44052</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="180">
         <v>44052</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="180">
         <v>44052</v>
       </c>
@@ -11383,7 +11382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="180">
         <v>44052</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="180">
         <v>44052</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="180">
         <v>44052</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="180">
         <v>44053</v>
       </c>
@@ -11439,7 +11438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="180">
         <v>44053</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="180">
         <v>44053</v>
       </c>
@@ -11467,7 +11466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="180">
         <v>44053</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="180">
         <v>44053</v>
       </c>
@@ -11495,7 +11494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="180">
         <v>44053</v>
       </c>
@@ -11509,7 +11508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="180">
         <v>44053</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="180">
         <v>44054</v>
       </c>
@@ -11537,7 +11536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="180">
         <v>44054</v>
       </c>
@@ -11551,7 +11550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="180">
         <v>44054</v>
       </c>
@@ -11565,7 +11564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="180">
         <v>44054</v>
       </c>
@@ -11579,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="180">
         <v>44055</v>
       </c>
@@ -11593,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="180">
         <v>44055</v>
       </c>
@@ -11607,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="180">
         <v>44054</v>
       </c>
@@ -11621,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="180">
         <v>44055</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="180">
         <v>44055</v>
       </c>
@@ -11649,7 +11648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="180">
         <v>44055</v>
       </c>
@@ -11663,7 +11662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="180">
         <v>44055</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="180">
         <v>44055</v>
       </c>
@@ -11691,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="180">
         <v>44055</v>
       </c>
@@ -11705,7 +11704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="180">
         <v>44056</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="180">
         <v>44056</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="180">
         <v>44056</v>
       </c>
@@ -11747,7 +11746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="180">
         <v>44056</v>
       </c>
@@ -11761,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="180">
         <v>44056</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="180">
         <v>44056</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="180">
         <v>44056</v>
       </c>
@@ -11803,7 +11802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="180">
         <v>44056</v>
       </c>
@@ -11817,7 +11816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="180">
         <v>44056</v>
       </c>
@@ -11831,7 +11830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="180">
         <v>44057</v>
       </c>
@@ -11845,7 +11844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="180">
         <v>44057</v>
       </c>
@@ -11859,7 +11858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="180">
         <v>44057</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="180">
         <v>44057</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="180">
         <v>44057</v>
       </c>
@@ -11901,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="180">
         <v>44057</v>
       </c>
@@ -11915,7 +11914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="180">
         <v>44057</v>
       </c>
@@ -11929,7 +11928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="180">
         <v>44057</v>
       </c>
@@ -11943,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="180">
         <v>44057</v>
       </c>
@@ -11957,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="180">
         <v>44058</v>
       </c>
@@ -11971,7 +11970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="180">
         <v>44058</v>
       </c>
@@ -11985,7 +11984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="180">
         <v>44058</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="180">
         <v>44058</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="180">
         <v>44058</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="180">
         <v>44058</v>
       </c>
@@ -12041,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="180">
         <v>44058</v>
       </c>
@@ -12055,7 +12054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="180">
         <v>44058</v>
       </c>
@@ -12069,7 +12068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="180">
         <v>44058</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="180">
         <v>44058</v>
       </c>
@@ -12097,7 +12096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="180">
         <v>44058</v>
       </c>
@@ -12111,7 +12110,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="180">
         <v>44058</v>
       </c>
@@ -12125,7 +12124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="180">
         <v>44059</v>
       </c>
@@ -12139,7 +12138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="180">
         <v>44059</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="180">
         <v>44059</v>
       </c>
@@ -12167,7 +12166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="180">
         <v>44059</v>
       </c>
@@ -12181,7 +12180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="180">
         <v>44059</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="180">
         <v>44059</v>
       </c>
@@ -12209,7 +12208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="180">
         <v>44059</v>
       </c>
@@ -12223,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="180">
         <v>44059</v>
       </c>
@@ -12237,7 +12236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="180">
         <v>44059</v>
       </c>
@@ -12251,7 +12250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="180">
         <v>44059</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="180">
         <v>44059</v>
       </c>
@@ -12279,7 +12278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="180">
         <v>44059</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="180">
         <v>44059</v>
       </c>
@@ -12307,7 +12306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="180">
         <v>44060</v>
       </c>
@@ -12321,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="180">
         <v>44060</v>
       </c>
@@ -12335,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="180">
         <v>44060</v>
       </c>
@@ -12349,7 +12348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="180">
         <v>44060</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="180">
         <v>44060</v>
       </c>
@@ -12377,7 +12376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="180">
         <v>44060</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="180">
         <v>44060</v>
       </c>
@@ -12405,7 +12404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="180">
         <v>44061</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="180">
         <v>44061</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="180">
         <v>44061</v>
       </c>
@@ -12447,7 +12446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="180">
         <v>44061</v>
       </c>
@@ -12461,7 +12460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="180">
         <v>44061</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="180">
         <v>44062</v>
       </c>
@@ -12489,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="180">
         <v>44062</v>
       </c>
@@ -12503,7 +12502,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="180">
         <v>44062</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="180">
         <v>44062</v>
       </c>
@@ -12531,7 +12530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="180">
         <v>44062</v>
       </c>
@@ -12545,7 +12544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="180">
         <v>44062</v>
       </c>
@@ -12559,7 +12558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="180">
         <v>44062</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="180">
         <v>44062</v>
       </c>
@@ -12587,7 +12586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="180">
         <v>44062</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="180">
         <v>44062</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="180">
         <v>44062</v>
       </c>
@@ -12629,7 +12628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="180">
         <v>44063</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="180">
         <v>44063</v>
       </c>
@@ -12657,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="180">
         <v>44063</v>
       </c>
@@ -12671,7 +12670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="180">
         <v>44063</v>
       </c>
@@ -12685,7 +12684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="180">
         <v>44063</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="180">
         <v>44063</v>
       </c>
@@ -12713,7 +12712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="180">
         <v>44063</v>
       </c>
@@ -12727,7 +12726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="180">
         <v>44063</v>
       </c>
@@ -12741,7 +12740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="180">
         <v>44064</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="180">
         <v>44064</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="180">
         <v>44064</v>
       </c>
@@ -12783,7 +12782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="180">
         <v>44064</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="180">
         <v>44064</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="180">
         <v>44064</v>
       </c>
@@ -12825,7 +12824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="180">
         <v>44064</v>
       </c>
@@ -12839,7 +12838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="180">
         <v>44064</v>
       </c>
@@ -12853,7 +12852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="180">
         <v>44064</v>
       </c>
@@ -12867,7 +12866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="180">
         <v>44064</v>
       </c>
@@ -12881,7 +12880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="180">
         <v>44064</v>
       </c>
@@ -12895,7 +12894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="180">
         <v>44064</v>
       </c>
@@ -12909,7 +12908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="180">
         <v>44064</v>
       </c>
@@ -12923,7 +12922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="180">
         <v>44064</v>
       </c>
@@ -12937,7 +12936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="180">
         <v>44065</v>
       </c>
@@ -12951,7 +12950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="180">
         <v>44065</v>
       </c>
@@ -12965,7 +12964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="180">
         <v>44065</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="180">
         <v>44065</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="180">
         <v>44065</v>
       </c>
@@ -13007,7 +13006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="180">
         <v>44065</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="180">
         <v>44065</v>
       </c>
@@ -13035,7 +13034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="180">
         <v>44065</v>
       </c>
@@ -13049,7 +13048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="180">
         <v>44065</v>
       </c>
@@ -13063,7 +13062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="180">
         <v>44065</v>
       </c>
@@ -13077,7 +13076,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="180">
         <v>44065</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="180">
         <v>44065</v>
       </c>
@@ -13105,7 +13104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="180">
         <v>44065</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="180">
         <v>44065</v>
       </c>
@@ -13133,7 +13132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="180">
         <v>44065</v>
       </c>
@@ -13147,7 +13146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="180">
         <v>44066</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="180">
         <v>44066</v>
       </c>
@@ -13175,7 +13174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="180">
         <v>44066</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="180">
         <v>44066</v>
       </c>
@@ -13203,7 +13202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="180">
         <v>44066</v>
       </c>
@@ -13217,7 +13216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="180">
         <v>44066</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="180">
         <v>44066</v>
       </c>
@@ -13245,7 +13244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="180">
         <v>44066</v>
       </c>
@@ -13259,7 +13258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="180">
         <v>44066</v>
       </c>
@@ -13273,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="180">
         <v>44066</v>
       </c>
@@ -13287,7 +13286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="180">
         <v>44066</v>
       </c>
@@ -13301,7 +13300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="180">
         <v>44066</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="180">
         <v>44066</v>
       </c>
@@ -13330,7 +13329,7 @@
       </c>
       <c r="F450" s="108"/>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="180">
         <v>44066</v>
       </c>
@@ -13344,7 +13343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="180">
         <v>44067</v>
       </c>
@@ -13358,7 +13357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="180">
         <v>44067</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="180">
         <v>44067</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="180">
         <v>44067</v>
       </c>
@@ -13400,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="180">
         <v>44067</v>
       </c>
@@ -13414,7 +13413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="180">
         <v>44067</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="180">
         <v>44067</v>
       </c>
@@ -13442,7 +13441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="180">
         <v>44067</v>
       </c>
@@ -13456,7 +13455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="180">
         <v>44067</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="180">
         <v>44067</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="180">
         <v>44067</v>
       </c>
@@ -13498,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="180">
         <v>44067</v>
       </c>
@@ -13512,7 +13511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="180">
         <v>44067</v>
       </c>
@@ -13526,7 +13525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="180">
         <v>44067</v>
       </c>
@@ -13540,7 +13539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="180">
         <v>44067</v>
       </c>
@@ -13554,7 +13553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="180">
         <v>44067</v>
       </c>
@@ -13568,7 +13567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="180">
         <v>44068</v>
       </c>
@@ -13582,7 +13581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="180">
         <v>44068</v>
       </c>
@@ -13596,7 +13595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="180">
         <v>44068</v>
       </c>
@@ -13610,7 +13609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="180">
         <v>44068</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="180">
         <v>44068</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="180">
         <v>44068</v>
       </c>
@@ -13652,7 +13651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="180">
         <v>44068</v>
       </c>
@@ -13666,7 +13665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="180">
         <v>44068</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="180">
         <v>44068</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="180">
         <v>44068</v>
       </c>
@@ -13708,7 +13707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="180">
         <v>44068</v>
       </c>
@@ -13722,7 +13721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="180">
         <v>44068</v>
       </c>
@@ -13736,7 +13735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="180">
         <v>44068</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="180">
         <v>44068</v>
       </c>
@@ -13764,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="180">
         <v>44068</v>
       </c>
@@ -13778,7 +13777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="180">
         <v>44068</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="180">
         <v>44068</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="180">
         <v>44069</v>
       </c>
@@ -13820,7 +13819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="180">
         <v>44069</v>
       </c>
@@ -13834,7 +13833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="180">
         <v>44069</v>
       </c>
@@ -13848,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="180">
         <v>44069</v>
       </c>
@@ -13862,7 +13861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="180">
         <v>44069</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="180">
         <v>44069</v>
       </c>
@@ -13890,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="180">
         <v>44069</v>
       </c>
@@ -13904,7 +13903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="180">
         <v>44069</v>
       </c>
@@ -13918,7 +13917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="180">
         <v>44069</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="180">
         <v>44069</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="180">
         <v>44069</v>
       </c>
@@ -13960,7 +13959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="180">
         <v>44069</v>
       </c>
@@ -13974,7 +13973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="180">
         <v>44069</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="180">
         <v>44069</v>
       </c>
@@ -14002,7 +14001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="180">
         <v>44069</v>
       </c>
@@ -14016,7 +14015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="180">
         <v>44069</v>
       </c>
@@ -14030,7 +14029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="180">
         <v>44069</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="180">
         <v>44070</v>
       </c>
@@ -14058,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="180">
         <v>44070</v>
       </c>
@@ -14072,7 +14071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="180">
         <v>44070</v>
       </c>
@@ -14086,7 +14085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="180">
         <v>44070</v>
       </c>
@@ -14100,7 +14099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="180">
         <v>44070</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="180">
         <v>44070</v>
       </c>
@@ -14128,7 +14127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="180">
         <v>44070</v>
       </c>
@@ -14142,7 +14141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="180">
         <v>44070</v>
       </c>
@@ -14156,7 +14155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="180">
         <v>44070</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="180">
         <v>44070</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="180">
         <v>44070</v>
       </c>
@@ -14198,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="180">
         <v>44070</v>
       </c>
@@ -14212,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="180">
         <v>44070</v>
       </c>
@@ -14226,7 +14225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="180">
         <v>44070</v>
       </c>
@@ -14240,7 +14239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="180">
         <v>44070</v>
       </c>
@@ -14254,7 +14253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="180">
         <v>44070</v>
       </c>
@@ -14269,7 +14268,7 @@
       </c>
       <c r="F517" s="110"/>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="180">
         <v>44070</v>
       </c>
@@ -14283,7 +14282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="180">
         <v>44070</v>
       </c>
@@ -14297,7 +14296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="180">
         <v>44071</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="180">
         <v>44071</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="180">
         <v>44071</v>
       </c>
@@ -14339,7 +14338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="180">
         <v>44071</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="180">
         <v>44071</v>
       </c>
@@ -14367,7 +14366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="180">
         <v>44071</v>
       </c>
@@ -14381,7 +14380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="180">
         <v>44071</v>
       </c>
@@ -14395,7 +14394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="180">
         <v>44071</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="180">
         <v>44071</v>
       </c>
@@ -14423,7 +14422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" s="180">
         <v>44071</v>
       </c>
@@ -14438,7 +14437,7 @@
       </c>
       <c r="E529" s="56"/>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" s="180">
         <v>44071</v>
       </c>
@@ -14452,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" s="180">
         <v>44071</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" s="180">
         <v>44071</v>
       </c>
@@ -14480,7 +14479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" s="180">
         <v>44071</v>
       </c>
@@ -14494,7 +14493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" s="180">
         <v>44072</v>
       </c>
@@ -14508,7 +14507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" s="180">
         <v>44072</v>
       </c>
@@ -14522,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" s="180">
         <v>44072</v>
       </c>
@@ -14536,7 +14535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" s="180">
         <v>44072</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" s="180">
         <v>44072</v>
       </c>
@@ -14564,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" s="180">
         <v>44072</v>
       </c>
@@ -14578,7 +14577,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" s="180">
         <v>44072</v>
       </c>
@@ -14592,7 +14591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" s="180">
         <v>44072</v>
       </c>
@@ -14606,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="180">
         <v>44072</v>
       </c>
@@ -14620,7 +14619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="180">
         <v>44072</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" s="180">
         <v>44072</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="180">
         <v>44072</v>
       </c>
@@ -14662,7 +14661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="180">
         <v>44072</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="180">
         <v>44072</v>
       </c>
@@ -14690,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="180">
         <v>44072</v>
       </c>
@@ -14704,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="180">
         <v>44072</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="180">
         <v>44072</v>
       </c>
@@ -14746,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="180">
         <v>44073</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="180">
         <v>44073</v>
       </c>
@@ -14774,7 +14773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="180">
         <v>44073</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="180">
         <v>44073</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="180">
         <v>44073</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="180">
         <v>44073</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="180">
         <v>44073</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="180">
         <v>44073</v>
       </c>
@@ -14858,7 +14857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="180">
         <v>44073</v>
       </c>
@@ -14872,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="180">
         <v>44073</v>
       </c>
@@ -14886,7 +14885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="180">
         <v>44073</v>
       </c>
@@ -14900,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="180">
         <v>44073</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="180">
         <v>44073</v>
       </c>
@@ -14928,7 +14927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="180">
         <v>44073</v>
       </c>
@@ -14942,7 +14941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="180">
         <v>44074</v>
       </c>
@@ -14956,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="180">
         <v>44074</v>
       </c>
@@ -14970,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="180">
         <v>44074</v>
       </c>
@@ -14984,7 +14983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="180">
         <v>44074</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="180">
         <v>44074</v>
       </c>
@@ -15012,7 +15011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="180">
         <v>44074</v>
       </c>
@@ -15026,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="180">
         <v>44074</v>
       </c>
@@ -15040,7 +15039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="180">
         <v>44074</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="180">
         <v>44074</v>
       </c>
@@ -15068,7 +15067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="180">
         <v>44074</v>
       </c>
@@ -15082,7 +15081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="180">
         <v>44074</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="180">
         <v>44074</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="180">
         <v>44074</v>
       </c>
@@ -15124,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="180">
         <v>44074</v>
       </c>
@@ -15138,7 +15137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="180">
         <v>44074</v>
       </c>
@@ -15152,7 +15151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="180">
         <v>44074</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="180">
         <v>44074</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="180">
         <v>44074</v>
       </c>
@@ -15194,7 +15193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="180">
         <v>44074</v>
       </c>
@@ -15208,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="180">
         <v>44074</v>
       </c>
@@ -15222,7 +15221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="180">
         <v>44074</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="180">
         <v>44074</v>
       </c>
@@ -15250,7 +15249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="180">
         <v>44075</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="180">
         <v>44075</v>
       </c>
@@ -15278,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="180">
         <v>44075</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="180">
         <v>44075</v>
       </c>
@@ -15306,7 +15305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="180">
         <v>44075</v>
       </c>
@@ -15320,7 +15319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="180">
         <v>44075</v>
       </c>
@@ -15334,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="180">
         <v>44075</v>
       </c>
@@ -15348,7 +15347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="180">
         <v>44075</v>
       </c>
@@ -15362,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="180">
         <v>44075</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="180">
         <v>44075</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="180">
         <v>44075</v>
       </c>
@@ -15404,7 +15403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="180">
         <v>44075</v>
       </c>
@@ -15418,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="180">
         <v>44075</v>
       </c>
@@ -15432,7 +15431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="180">
         <v>44075</v>
       </c>
@@ -15446,7 +15445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="180">
         <v>44075</v>
       </c>
@@ -15460,7 +15459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="180">
         <v>44075</v>
       </c>
@@ -15474,7 +15473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="180">
         <v>44075</v>
       </c>
@@ -15488,7 +15487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="180">
         <v>44075</v>
       </c>
@@ -15502,7 +15501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="180">
         <v>44075</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="180">
         <v>44075</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="180">
         <v>44075</v>
       </c>
@@ -15544,7 +15543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="180">
         <v>44075</v>
       </c>
@@ -15558,7 +15557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="180">
         <v>44075</v>
       </c>
@@ -15572,7 +15571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="180">
         <v>44075</v>
       </c>
@@ -15586,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="180">
         <v>44075</v>
       </c>
@@ -15600,7 +15599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="180">
         <v>44075</v>
       </c>
@@ -15614,7 +15613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="180">
         <v>44075</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="180">
         <v>44076</v>
       </c>
@@ -15642,7 +15641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="180">
         <v>44076</v>
       </c>
@@ -15656,7 +15655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="180">
         <v>44076</v>
       </c>
@@ -15670,7 +15669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="180">
         <v>44076</v>
       </c>
@@ -15684,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="180">
         <v>44076</v>
       </c>
@@ -15698,7 +15697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="180">
         <v>44076</v>
       </c>
@@ -15712,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="180">
         <v>44076</v>
       </c>
@@ -15726,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A622" s="180">
         <v>44076</v>
       </c>
@@ -15740,7 +15739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="180">
         <v>44076</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="180">
         <v>44076</v>
       </c>
@@ -15768,7 +15767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="180">
         <v>44076</v>
       </c>
@@ -15782,7 +15781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="180">
         <v>44076</v>
       </c>
@@ -15796,7 +15795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="180">
         <v>44076</v>
       </c>
@@ -15810,7 +15809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="180">
         <v>44076</v>
       </c>
@@ -15824,7 +15823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="180">
         <v>44076</v>
       </c>
@@ -15838,7 +15837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="180">
         <v>44076</v>
       </c>
@@ -15852,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A631" s="180">
         <v>44076</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A632" s="180">
         <v>44076</v>
       </c>
@@ -15880,7 +15879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="180">
         <v>44076</v>
       </c>
@@ -15894,7 +15893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="180">
         <v>44076</v>
       </c>
@@ -15908,7 +15907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="180">
         <v>44076</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="180">
         <v>44076</v>
       </c>
@@ -15936,7 +15935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="180">
         <v>44076</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="180">
         <v>44077</v>
       </c>
@@ -15964,7 +15963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="180">
         <v>44077</v>
       </c>
@@ -15978,7 +15977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="180">
         <v>44077</v>
       </c>
@@ -15992,7 +15991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="180">
         <v>44077</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="180">
         <v>44077</v>
       </c>
@@ -16020,7 +16019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="180">
         <v>44077</v>
       </c>
@@ -16034,7 +16033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="180">
         <v>44077</v>
       </c>
@@ -16048,7 +16047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" s="180">
         <v>44077</v>
       </c>
@@ -16062,7 +16061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="180">
         <v>44077</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="180">
         <v>44077</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" s="180">
         <v>44077</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" s="180">
         <v>44077</v>
       </c>
@@ -16118,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" s="180">
         <v>44077</v>
       </c>
@@ -16132,7 +16131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="180">
         <v>44077</v>
       </c>
@@ -16146,7 +16145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="180">
         <v>44077</v>
       </c>
@@ -16160,7 +16159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="180">
         <v>44077</v>
       </c>
@@ -16174,7 +16173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="180">
         <v>44077</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="180">
         <v>44077</v>
       </c>
@@ -16202,7 +16201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="180">
         <v>44078</v>
       </c>
@@ -16216,7 +16215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="180">
         <v>44078</v>
       </c>
@@ -16231,7 +16230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="180">
         <v>44078</v>
       </c>
@@ -16245,7 +16244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="180">
         <v>44078</v>
       </c>
@@ -16259,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="180">
         <v>44078</v>
       </c>
@@ -16273,7 +16272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="180">
         <v>44078</v>
       </c>
@@ -16287,7 +16286,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="180">
         <v>44078</v>
       </c>
@@ -16301,7 +16300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="180">
         <v>44078</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="180">
         <v>44078</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" s="180">
         <v>44079</v>
       </c>
@@ -16343,7 +16342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="666" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="180">
         <v>44079</v>
       </c>
@@ -16357,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="180">
         <v>44079</v>
       </c>
@@ -16371,7 +16370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="668" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A668" s="180">
         <v>44079</v>
       </c>
@@ -16385,7 +16384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A669" s="180">
         <v>44079</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="670" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="180">
         <v>44079</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="671" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="180">
         <v>44079</v>
       </c>
@@ -16427,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672" s="180">
         <v>44079</v>
       </c>
@@ -16441,7 +16440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="673" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="180">
         <v>44079</v>
       </c>
@@ -16455,7 +16454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A674" s="180">
         <v>44079</v>
       </c>
@@ -16469,7 +16468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675" s="180">
         <v>44079</v>
       </c>
@@ -16483,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="180">
         <v>44079</v>
       </c>
@@ -16497,7 +16496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="180">
         <v>44079</v>
       </c>
@@ -16511,7 +16510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="180">
         <v>44079</v>
       </c>
@@ -16525,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" s="180">
         <v>44079</v>
       </c>
@@ -16539,7 +16538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" s="180">
         <v>44079</v>
       </c>
@@ -16553,7 +16552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" s="180">
         <v>44079</v>
       </c>
@@ -16567,7 +16566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="682" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="180">
         <v>44079</v>
       </c>
@@ -16581,7 +16580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" s="180">
         <v>44079</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" s="180">
         <v>44079</v>
       </c>
@@ -16609,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685" s="180">
         <v>44079</v>
       </c>
@@ -16623,7 +16622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686" s="180">
         <v>44080</v>
       </c>
@@ -16637,7 +16636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="180">
         <v>44080</v>
       </c>
@@ -16651,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A688" s="180">
         <v>44080</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="180">
         <v>44080</v>
       </c>
@@ -16679,7 +16678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A690" s="180">
         <v>44080</v>
       </c>
@@ -16693,7 +16692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A691" s="180">
         <v>44080</v>
       </c>
@@ -16707,7 +16706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A692" s="180">
         <v>44080</v>
       </c>
@@ -16721,7 +16720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693" s="180">
         <v>44080</v>
       </c>
@@ -16735,7 +16734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A694" s="180">
         <v>44080</v>
       </c>
@@ -16749,7 +16748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" s="180">
         <v>44080</v>
       </c>
@@ -16763,7 +16762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="180">
         <v>44080</v>
       </c>
@@ -16777,7 +16776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="180">
         <v>44080</v>
       </c>
@@ -16791,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="180">
         <v>44080</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="699" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="180">
         <v>44080</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" s="180">
         <v>44080</v>
       </c>
@@ -16833,7 +16832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" s="180">
         <v>44080</v>
       </c>
@@ -16847,7 +16846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="180">
         <v>44080</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="180">
         <v>44080</v>
       </c>
@@ -16875,7 +16874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="180">
         <v>44080</v>
       </c>
@@ -16889,7 +16888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" s="180">
         <v>44081</v>
       </c>
@@ -16903,7 +16902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" s="180">
         <v>44081</v>
       </c>
@@ -16917,7 +16916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" s="180">
         <v>44081</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" s="180">
         <v>44081</v>
       </c>
@@ -16945,7 +16944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" s="180">
         <v>44081</v>
       </c>
@@ -16959,7 +16958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" s="180">
         <v>44081</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" s="180">
         <v>44081</v>
       </c>
@@ -16987,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" s="180">
         <v>44081</v>
       </c>
@@ -17001,7 +17000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" s="180">
         <v>44082</v>
       </c>
@@ -17015,7 +17014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" s="180">
         <v>44082</v>
       </c>
@@ -17029,7 +17028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" s="180">
         <v>44082</v>
       </c>
@@ -17043,7 +17042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" s="180">
         <v>44082</v>
       </c>
@@ -17057,7 +17056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" s="180">
         <v>44082</v>
       </c>
@@ -17071,7 +17070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" s="180">
         <v>44082</v>
       </c>
@@ -17085,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" s="180">
         <v>44082</v>
       </c>
@@ -17099,7 +17098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" s="180">
         <v>44082</v>
       </c>
@@ -17113,7 +17112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" s="180">
         <v>44082</v>
       </c>
@@ -17127,7 +17126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" s="180">
         <v>44082</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" s="180">
         <v>44082</v>
       </c>
@@ -17155,7 +17154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" s="180">
         <v>44082</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" s="180">
         <v>44082</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" s="180">
         <v>44082</v>
       </c>
@@ -17197,7 +17196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" s="180">
         <v>44082</v>
       </c>
@@ -17211,7 +17210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" s="180">
         <v>44082</v>
       </c>
@@ -17225,7 +17224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" s="180">
         <v>44082</v>
       </c>
@@ -17239,7 +17238,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" s="180">
         <v>44082</v>
       </c>
@@ -17253,7 +17252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" s="180">
         <v>44082</v>
       </c>
@@ -17267,7 +17266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" s="180">
         <v>44082</v>
       </c>
@@ -17281,7 +17280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" s="180">
         <v>44083</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" s="180">
         <v>44083</v>
       </c>
@@ -17309,7 +17308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A735" s="180">
         <v>44083</v>
       </c>
@@ -17323,7 +17322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="736" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A736" s="180">
         <v>44083</v>
       </c>
@@ -17337,7 +17336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A737" s="180">
         <v>44083</v>
       </c>
@@ -17351,7 +17350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="738" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A738" s="189">
         <v>44083</v>
       </c>
@@ -17365,7 +17364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="739" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A739" s="180">
         <v>44083</v>
       </c>
@@ -17379,7 +17378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="180">
         <v>44083</v>
       </c>
@@ -17393,7 +17392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="189">
         <v>44083</v>
       </c>
@@ -17407,7 +17406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A742" s="189">
         <v>44083</v>
       </c>
@@ -17421,7 +17420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A743" s="189">
         <v>44083</v>
       </c>
@@ -17435,7 +17434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="189">
         <v>44083</v>
       </c>
@@ -17449,7 +17448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="745" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="189">
         <v>44083</v>
       </c>
@@ -17463,7 +17462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="180">
         <v>44083</v>
       </c>
@@ -17477,7 +17476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" s="180">
         <v>44083</v>
       </c>
@@ -17491,7 +17490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" s="180">
         <v>44083</v>
       </c>
@@ -17505,7 +17504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" s="180">
         <v>44083</v>
       </c>
@@ -17519,7 +17518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="180">
         <v>44084</v>
       </c>
@@ -17533,7 +17532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="180">
         <v>44084</v>
       </c>
@@ -17547,7 +17546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="180">
         <v>44084</v>
       </c>
@@ -17561,7 +17560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="180">
         <v>44084</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="180">
         <v>44084</v>
       </c>
@@ -17589,7 +17588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="755" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="180">
         <v>44084</v>
       </c>
@@ -17603,7 +17602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" s="180">
         <v>44084</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" s="180">
         <v>44084</v>
       </c>
@@ -17631,7 +17630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" s="180">
         <v>44084</v>
       </c>
@@ -17645,7 +17644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" s="180">
         <v>44084</v>
       </c>
@@ -17659,7 +17658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" s="180">
         <v>44084</v>
       </c>
@@ -17673,7 +17672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" s="180">
         <v>44084</v>
       </c>
@@ -17687,7 +17686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" s="180">
         <v>44084</v>
       </c>
@@ -17701,7 +17700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" s="180">
         <v>44084</v>
       </c>
@@ -17715,7 +17714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" s="180">
         <v>44084</v>
       </c>
@@ -17729,7 +17728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" s="180">
         <v>44084</v>
       </c>
@@ -17743,7 +17742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="766" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" s="180">
         <v>44084</v>
       </c>
@@ -17757,7 +17756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" s="180">
         <v>44084</v>
       </c>
@@ -17771,7 +17770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" s="180">
         <v>44084</v>
       </c>
@@ -17785,7 +17784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" s="180">
         <v>44085</v>
       </c>
@@ -17799,7 +17798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="770" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A770" s="180">
         <v>44085</v>
       </c>
@@ -17813,7 +17812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="771" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A771" s="180">
         <v>44085</v>
       </c>
@@ -17827,7 +17826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A772" s="180">
         <v>44085</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A773" s="180">
         <v>44085</v>
       </c>
@@ -17855,7 +17854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="774" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A774" s="180">
         <v>44085</v>
       </c>
@@ -17869,7 +17868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="180">
         <v>44085</v>
       </c>
@@ -17883,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="180">
         <v>44085</v>
       </c>
@@ -17897,7 +17896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" s="180">
         <v>44085</v>
       </c>
@@ -17911,7 +17910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="778" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A778" s="180">
         <v>44085</v>
       </c>
@@ -17925,7 +17924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" s="180">
         <v>44085</v>
       </c>
@@ -17939,7 +17938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="780" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="180">
         <v>44085</v>
       </c>
@@ -17953,7 +17952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="781" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A781" s="180">
         <v>44085</v>
       </c>
@@ -17967,7 +17966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A782" s="180">
         <v>44085</v>
       </c>
@@ -17981,7 +17980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" s="180">
         <v>44085</v>
       </c>
@@ -17995,7 +17994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" s="180">
         <v>44085</v>
       </c>
@@ -18009,7 +18008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" s="180">
         <v>44085</v>
       </c>
@@ -18023,7 +18022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A786" s="180">
         <v>44085</v>
       </c>
@@ -18037,7 +18036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A787" s="180">
         <v>44085</v>
       </c>
@@ -18051,7 +18050,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" s="180">
         <v>44085</v>
       </c>
@@ -18065,7 +18064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="789" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A789" s="180">
         <v>44085</v>
       </c>
@@ -18079,7 +18078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" s="180">
         <v>44085</v>
       </c>
@@ -18093,7 +18092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" s="180">
         <v>44085</v>
       </c>
@@ -18107,7 +18106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" s="180">
         <v>44085</v>
       </c>
@@ -18121,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" s="180">
         <v>44085</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" s="180">
         <v>44086</v>
       </c>
@@ -18149,7 +18148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A795" s="180">
         <v>44086</v>
       </c>
@@ -18163,7 +18162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A796" s="180">
         <v>44086</v>
       </c>
@@ -18177,7 +18176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="797" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A797" s="180">
         <v>44086</v>
       </c>
@@ -18191,7 +18190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A798" s="180">
         <v>44086</v>
       </c>
@@ -18205,7 +18204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A799" s="180">
         <v>44086</v>
       </c>
@@ -18219,7 +18218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A800" s="180">
         <v>44086</v>
       </c>
@@ -18233,7 +18232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" s="180">
         <v>44086</v>
       </c>
@@ -18247,7 +18246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A802" s="180">
         <v>44086</v>
       </c>
@@ -18261,7 +18260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A803" s="180">
         <v>44086</v>
       </c>
@@ -18275,7 +18274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="804" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A804" s="180">
         <v>44086</v>
       </c>
@@ -18289,7 +18288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" s="180">
         <v>44086</v>
       </c>
@@ -18303,7 +18302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="806" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A806" s="180">
         <v>44086</v>
       </c>
@@ -18317,7 +18316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="807" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A807" s="180">
         <v>44086</v>
       </c>
@@ -18331,7 +18330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A808" s="180">
         <v>44086</v>
       </c>
@@ -18345,7 +18344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" s="180">
         <v>44086</v>
       </c>
@@ -18359,7 +18358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" s="180">
         <v>44086</v>
       </c>
@@ -18373,7 +18372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="811" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A811" s="180">
         <v>44086</v>
       </c>
@@ -18387,7 +18386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" s="180">
         <v>44086</v>
       </c>
@@ -18401,7 +18400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" s="180">
         <v>44086</v>
       </c>
@@ -18415,7 +18414,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="814" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A814" s="180">
         <v>44086</v>
       </c>
@@ -18429,7 +18428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" s="180">
         <v>44086</v>
       </c>
@@ -18443,7 +18442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" s="180">
         <v>44086</v>
       </c>
@@ -18457,7 +18456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" s="180">
         <v>44086</v>
       </c>
@@ -18471,7 +18470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" s="180">
         <v>44087</v>
       </c>
@@ -18485,7 +18484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" s="180">
         <v>44087</v>
       </c>
@@ -18499,7 +18498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" s="180">
         <v>44087</v>
       </c>
@@ -18513,7 +18512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="821" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" s="180">
         <v>44087</v>
       </c>
@@ -18527,7 +18526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" s="180">
         <v>44087</v>
       </c>
@@ -18541,7 +18540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" s="180">
         <v>44087</v>
       </c>
@@ -18555,7 +18554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" s="180">
         <v>44087</v>
       </c>
@@ -18569,7 +18568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" s="180">
         <v>44087</v>
       </c>
@@ -18583,7 +18582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" s="180">
         <v>44087</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" s="180">
         <v>44087</v>
       </c>
@@ -18611,7 +18610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" s="180">
         <v>44087</v>
       </c>
@@ -18625,7 +18624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" s="180">
         <v>44087</v>
       </c>
@@ -18639,7 +18638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" s="180">
         <v>44087</v>
       </c>
@@ -18653,7 +18652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" s="180">
         <v>44087</v>
       </c>
@@ -18667,7 +18666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" s="180">
         <v>44087</v>
       </c>
@@ -18681,7 +18680,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" s="180">
         <v>44087</v>
       </c>
@@ -18695,7 +18694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" s="180">
         <v>44087</v>
       </c>
@@ -18709,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835" s="180">
         <v>44087</v>
       </c>
@@ -18723,7 +18722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836" s="180">
         <v>44087</v>
       </c>
@@ -18737,7 +18736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" s="180">
         <v>44087</v>
       </c>
@@ -18751,7 +18750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" s="180">
         <v>44088</v>
       </c>
@@ -18765,7 +18764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A839" s="180">
         <v>44088</v>
       </c>
@@ -18779,7 +18778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="180">
         <v>44088</v>
       </c>
@@ -18793,7 +18792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A841" s="180">
         <v>44088</v>
       </c>
@@ -18807,7 +18806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="842" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A842" s="180">
         <v>44088</v>
       </c>
@@ -18821,7 +18820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="843" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A843" s="180">
         <v>44088</v>
       </c>
@@ -18835,7 +18834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="844" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A844" s="180">
         <v>44088</v>
       </c>
@@ -18849,7 +18848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" s="180">
         <v>44088</v>
       </c>
@@ -18863,7 +18862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" s="180">
         <v>44088</v>
       </c>
@@ -18877,7 +18876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="847" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A847" s="180">
         <v>44088</v>
       </c>
@@ -18891,7 +18890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848" s="180">
         <v>44088</v>
       </c>
@@ -18905,7 +18904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" s="180">
         <v>44088</v>
       </c>
@@ -18919,7 +18918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" s="180">
         <v>44089</v>
       </c>
@@ -18933,7 +18932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851" s="180">
         <v>44089</v>
       </c>
@@ -18947,7 +18946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" s="180">
         <v>44089</v>
       </c>
@@ -18961,7 +18960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="180">
         <v>44089</v>
       </c>
@@ -18975,7 +18974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="854" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A854" s="180">
         <v>44089</v>
       </c>
@@ -18989,7 +18988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="855" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A855" s="180">
         <v>44089</v>
       </c>
@@ -19003,7 +19002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="856" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A856" s="180">
         <v>44089</v>
       </c>
@@ -19017,7 +19016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="857" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A857" s="180">
         <v>44089</v>
       </c>
@@ -19031,7 +19030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" s="180">
         <v>44089</v>
       </c>
@@ -19045,7 +19044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859" s="180">
         <v>44089</v>
       </c>
@@ -19059,7 +19058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860" s="180">
         <v>44089</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="861" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A861" s="180">
         <v>44089</v>
       </c>
@@ -19087,7 +19086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" s="180">
         <v>44089</v>
       </c>
@@ -19101,7 +19100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863" s="180">
         <v>44089</v>
       </c>
@@ -19115,7 +19114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" s="180">
         <v>44089</v>
       </c>
@@ -19129,7 +19128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A865" s="180">
         <v>44089</v>
       </c>
@@ -19143,7 +19142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="866" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A866" s="180">
         <v>44089</v>
       </c>
@@ -19157,7 +19156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="867" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A867" s="180">
         <v>44089</v>
       </c>
@@ -19171,7 +19170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A868" s="180">
         <v>44089</v>
       </c>
@@ -19185,7 +19184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="869" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A869" s="180">
         <v>44089</v>
       </c>
@@ -19199,7 +19198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A870" s="180">
         <v>44089</v>
       </c>
@@ -19213,7 +19212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="871" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A871" s="180">
         <v>44089</v>
       </c>
@@ -19227,7 +19226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" s="180">
         <v>44089</v>
       </c>
@@ -19241,7 +19240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="873" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A873" s="180">
         <v>44089</v>
       </c>
@@ -19255,7 +19254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A874" s="180">
         <v>44089</v>
       </c>
@@ -19269,7 +19268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="875" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A875" s="180">
         <v>44089</v>
       </c>
@@ -19283,7 +19282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A876" s="180">
         <v>44089</v>
       </c>
@@ -19297,7 +19296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877" s="180">
         <v>44089</v>
       </c>
@@ -19311,7 +19310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" s="180">
         <v>44089</v>
       </c>
@@ -19325,7 +19324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" s="180">
         <v>44090</v>
       </c>
@@ -19339,7 +19338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="880" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A880" s="180">
         <v>44090</v>
       </c>
@@ -19353,7 +19352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A881" s="180">
         <v>44090</v>
       </c>
@@ -19367,7 +19366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A882" s="180">
         <v>44090</v>
       </c>
@@ -19381,7 +19380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A883" s="180">
         <v>44090</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="884" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A884" s="180">
         <v>44090</v>
       </c>
@@ -19409,7 +19408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A885" s="180">
         <v>44090</v>
       </c>
@@ -19423,7 +19422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" s="180">
         <v>44090</v>
       </c>
@@ -19437,7 +19436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A887" s="180">
         <v>44090</v>
       </c>
@@ -19451,7 +19450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="888" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A888" s="180">
         <v>44090</v>
       </c>
@@ -19465,7 +19464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A889" s="180">
         <v>44090</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" s="180">
         <v>44090</v>
       </c>
@@ -19493,7 +19492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A891" s="180">
         <v>44090</v>
       </c>
@@ -19507,7 +19506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="892" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A892" s="180">
         <v>44090</v>
       </c>
@@ -19521,7 +19520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A893" s="180">
         <v>44090</v>
       </c>
@@ -19535,7 +19534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="894" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A894" s="180">
         <v>44090</v>
       </c>
@@ -19549,7 +19548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" s="180">
         <v>44090</v>
       </c>
@@ -19563,7 +19562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" s="180">
         <v>44090</v>
       </c>
@@ -19577,7 +19576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="897" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A897" s="180">
         <v>44090</v>
       </c>
@@ -19591,7 +19590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" s="180">
         <v>44090</v>
       </c>
@@ -19605,7 +19604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="899" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="180">
         <v>44090</v>
       </c>
@@ -19619,7 +19618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" s="180">
         <v>44090</v>
       </c>
@@ -19633,7 +19632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="901" spans="1:4" s="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="180">
         <v>44090</v>
       </c>
@@ -19647,7 +19646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" s="180">
         <v>44090</v>
       </c>
@@ -19661,7 +19660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" s="180">
         <v>44090</v>
       </c>
@@ -19675,7 +19674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" s="180">
         <v>44090</v>
       </c>
@@ -19689,7 +19688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" s="180">
         <v>44090</v>
       </c>
@@ -19703,7 +19702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" s="180">
         <v>44091</v>
       </c>
@@ -19717,7 +19716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" s="180">
         <v>44091</v>
       </c>
@@ -19731,7 +19730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="908" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" s="180">
         <v>44091</v>
       </c>
@@ -19745,7 +19744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" s="180">
         <v>44091</v>
       </c>
@@ -19759,7 +19758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" s="180">
         <v>44091</v>
       </c>
@@ -19773,7 +19772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" s="180">
         <v>44091</v>
       </c>
@@ -19787,7 +19786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" s="180">
         <v>44091</v>
       </c>
@@ -19801,7 +19800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="913" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" s="180">
         <v>44091</v>
       </c>
@@ -19815,7 +19814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" s="180">
         <v>44091</v>
       </c>
@@ -19829,7 +19828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" s="180">
         <v>44091</v>
       </c>
@@ -19843,7 +19842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" s="180">
         <v>44091</v>
       </c>
@@ -19857,7 +19856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" s="180">
         <v>44091</v>
       </c>
@@ -19871,7 +19870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" s="180">
         <v>44091</v>
       </c>
@@ -19885,7 +19884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" s="180">
         <v>44091</v>
       </c>
@@ -19899,7 +19898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" s="180">
         <v>44091</v>
       </c>
@@ -19913,7 +19912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" s="180">
         <v>44091</v>
       </c>
@@ -19927,7 +19926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" s="180">
         <v>44091</v>
       </c>
@@ -19941,7 +19940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" s="180">
         <v>44091</v>
       </c>
@@ -19955,7 +19954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" s="180">
         <v>44091</v>
       </c>
@@ -19969,7 +19968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" s="180">
         <v>44091</v>
       </c>
@@ -19983,7 +19982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" s="180">
         <v>44091</v>
       </c>
@@ -19997,7 +19996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" s="180">
         <v>44091</v>
       </c>
@@ -20011,7 +20010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" s="180">
         <v>44092</v>
       </c>
@@ -20025,7 +20024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" s="180">
         <v>44092</v>
       </c>
@@ -20039,7 +20038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930" s="180">
         <v>44092</v>
       </c>
@@ -20053,7 +20052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931" s="180">
         <v>44092</v>
       </c>
@@ -20067,7 +20066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932" s="180">
         <v>44092</v>
       </c>
@@ -20081,7 +20080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933" s="180">
         <v>44092</v>
       </c>
@@ -20095,7 +20094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934" s="180">
         <v>44092</v>
       </c>
@@ -20109,7 +20108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935" s="180">
         <v>44092</v>
       </c>
@@ -20123,7 +20122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936" s="180">
         <v>44092</v>
       </c>
@@ -20137,7 +20136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937" s="180">
         <v>44092</v>
       </c>
@@ -20151,7 +20150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938" s="180">
         <v>44092</v>
       </c>
@@ -20165,7 +20164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" s="180">
         <v>44092</v>
       </c>
@@ -20179,7 +20178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940" s="180">
         <v>44092</v>
       </c>
@@ -20193,7 +20192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" s="180">
         <v>44092</v>
       </c>
@@ -20207,7 +20206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942" s="180">
         <v>44092</v>
       </c>
@@ -20221,7 +20220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="943" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" s="180">
         <v>44092</v>
       </c>
@@ -20235,7 +20234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944" s="180">
         <v>44092</v>
       </c>
@@ -20249,7 +20248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" s="180">
         <v>44092</v>
       </c>
@@ -20263,7 +20262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" s="180">
         <v>44092</v>
       </c>
@@ -20277,7 +20276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" s="180">
         <v>44092</v>
       </c>
@@ -20291,7 +20290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" s="180">
         <v>44092</v>
       </c>
@@ -20305,7 +20304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" s="180">
         <v>44092</v>
       </c>
@@ -20319,7 +20318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" s="180">
         <v>44092</v>
       </c>
@@ -20333,7 +20332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" s="180">
         <v>44093</v>
       </c>
@@ -20347,7 +20346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="952" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" s="180">
         <v>44093</v>
       </c>
@@ -20361,7 +20360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" s="180">
         <v>44093</v>
       </c>
@@ -20375,7 +20374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="954" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" s="180">
         <v>44093</v>
       </c>
@@ -20389,7 +20388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" s="180">
         <v>44093</v>
       </c>
@@ -20403,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" s="180">
         <v>44093</v>
       </c>
@@ -20417,7 +20416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" s="180">
         <v>44093</v>
       </c>
@@ -20431,7 +20430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958" s="180">
         <v>44093</v>
       </c>
@@ -20445,7 +20444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" s="180">
         <v>44093</v>
       </c>
@@ -20459,7 +20458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="180">
         <v>44093</v>
       </c>
@@ -20473,7 +20472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="961" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="180">
         <v>44093</v>
       </c>
@@ -20487,7 +20486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="180">
         <v>44093</v>
       </c>
@@ -20501,7 +20500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="180">
         <v>44093</v>
       </c>
@@ -20515,7 +20514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" s="180">
         <v>44093</v>
       </c>
@@ -20529,7 +20528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965" s="180">
         <v>44093</v>
       </c>
@@ -20557,7 +20556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" s="180">
         <v>44093</v>
       </c>
@@ -20571,7 +20570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" s="180">
         <v>44093</v>
       </c>
@@ -20585,7 +20584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" s="180">
         <v>44093</v>
       </c>
@@ -20599,7 +20598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" s="180">
         <v>44093</v>
       </c>
@@ -20613,7 +20612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="971" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" s="180">
         <v>44093</v>
       </c>
@@ -20627,7 +20626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" s="180">
         <v>44093</v>
       </c>
@@ -20641,7 +20640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="973" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" s="180">
         <v>44093</v>
       </c>
@@ -20655,7 +20654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" s="180">
         <v>44093</v>
       </c>
@@ -20669,7 +20668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" s="180">
         <v>44093</v>
       </c>
@@ -20683,7 +20682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="976" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" s="180">
         <v>44093</v>
       </c>
@@ -20697,7 +20696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" s="180">
         <v>44094</v>
       </c>
@@ -20711,7 +20710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="978" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" s="180">
         <v>44094</v>
       </c>
@@ -20725,7 +20724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="979" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" s="180">
         <v>44094</v>
       </c>
@@ -20739,7 +20738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="980" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" s="180">
         <v>44094</v>
       </c>
@@ -20753,7 +20752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="981" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" s="180">
         <v>44094</v>
       </c>
@@ -20767,7 +20766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="982" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" s="180">
         <v>44094</v>
       </c>
@@ -20781,7 +20780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="983" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" s="180">
         <v>44094</v>
       </c>
@@ -20795,7 +20794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" s="180">
         <v>44094</v>
       </c>
@@ -20809,7 +20808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" s="180">
         <v>44094</v>
       </c>
@@ -20823,7 +20822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="986" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" s="180">
         <v>44094</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A987" s="180">
         <v>44094</v>
       </c>
@@ -20851,7 +20850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="988" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" s="180">
         <v>44094</v>
       </c>
@@ -20865,7 +20864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="989" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" s="180">
         <v>44094</v>
       </c>
@@ -20879,7 +20878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="990" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" s="180">
         <v>44094</v>
       </c>
@@ -20893,7 +20892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" s="180">
         <v>44094</v>
       </c>
@@ -20907,7 +20906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="992" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" s="180">
         <v>44094</v>
       </c>
@@ -20921,7 +20920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="993" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" s="180">
         <v>44094</v>
       </c>
@@ -20935,7 +20934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" s="180">
         <v>44095</v>
       </c>
@@ -20949,7 +20948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="995" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A995" s="180">
         <v>44095</v>
       </c>
@@ -20963,7 +20962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="996" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" s="180">
         <v>44095</v>
       </c>
@@ -20977,7 +20976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A997" s="180">
         <v>44095</v>
       </c>
@@ -20991,7 +20990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" s="180">
         <v>44095</v>
       </c>
@@ -21005,7 +21004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" s="180">
         <v>44095</v>
       </c>
@@ -21019,7 +21018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" s="180">
         <v>44095</v>
       </c>
@@ -21033,7 +21032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" s="180">
         <v>44095</v>
       </c>
@@ -21047,7 +21046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" s="180">
         <v>44095</v>
       </c>
@@ -21061,7 +21060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" s="180">
         <v>44095</v>
       </c>
@@ -21075,7 +21074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" s="180">
         <v>44095</v>
       </c>
@@ -21089,7 +21088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" s="180">
         <v>44095</v>
       </c>
@@ -21103,7 +21102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" s="180">
         <v>44095</v>
       </c>
@@ -21117,7 +21116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" s="180">
         <v>44095</v>
       </c>
@@ -21131,7 +21130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" s="180">
         <v>44095</v>
       </c>
@@ -21145,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1009" s="180">
         <v>44095</v>
       </c>
@@ -21159,7 +21158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1010" s="180">
         <v>44096</v>
       </c>
@@ -21173,7 +21172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1011" s="180">
         <v>44096</v>
       </c>
@@ -21187,7 +21186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" s="180">
         <v>44096</v>
       </c>
@@ -21201,7 +21200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1013" s="180">
         <v>44096</v>
       </c>
@@ -21215,7 +21214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1014" s="180">
         <v>44096</v>
       </c>
@@ -21229,7 +21228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1015" s="180">
         <v>44096</v>
       </c>
@@ -21243,7 +21242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1016" s="180">
         <v>44096</v>
       </c>
@@ -21257,7 +21256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" s="180">
         <v>44096</v>
       </c>
@@ -21271,7 +21270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1018" s="180">
         <v>44096</v>
       </c>
@@ -21285,7 +21284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1019" s="180">
         <v>44096</v>
       </c>
@@ -21299,7 +21298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1020" s="180">
         <v>44096</v>
       </c>
@@ -21313,7 +21312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1021" s="180">
         <v>44096</v>
       </c>
@@ -21327,7 +21326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" s="180">
         <v>44096</v>
       </c>
@@ -21341,7 +21340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" s="180">
         <v>44096</v>
       </c>
@@ -21355,7 +21354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1024" s="180">
         <v>44096</v>
       </c>
@@ -21369,7 +21368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" s="180">
         <v>44096</v>
       </c>
@@ -21383,7 +21382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" s="180">
         <v>44096</v>
       </c>
@@ -21397,7 +21396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" s="180">
         <v>44096</v>
       </c>
@@ -21411,7 +21410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" s="180">
         <v>44096</v>
       </c>
@@ -21425,7 +21424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" s="180">
         <v>44096</v>
       </c>
@@ -21439,7 +21438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" s="180">
         <v>44096</v>
       </c>
@@ -21453,7 +21452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" s="180">
         <v>44096</v>
       </c>
@@ -21467,7 +21466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1032" s="180">
         <v>44096</v>
       </c>
@@ -21481,7 +21480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" s="180">
         <v>44097</v>
       </c>
@@ -21495,7 +21494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" s="180">
         <v>44097</v>
       </c>
@@ -21509,7 +21508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" s="180">
         <v>44097</v>
       </c>
@@ -21523,7 +21522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" s="180">
         <v>44097</v>
       </c>
@@ -21537,7 +21536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1037" s="180">
         <v>44097</v>
       </c>
@@ -21551,7 +21550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1038" s="180">
         <v>44097</v>
       </c>
@@ -21565,7 +21564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1039" s="180">
         <v>44097</v>
       </c>
@@ -21579,7 +21578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" s="180">
         <v>44097</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1041" s="180">
         <v>44097</v>
       </c>
@@ -21607,7 +21606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1042" s="180">
         <v>44097</v>
       </c>
@@ -21621,7 +21620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1043" s="180">
         <v>44097</v>
       </c>
@@ -21635,7 +21634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1044" s="180">
         <v>44097</v>
       </c>
@@ -21663,7 +21662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1046" s="180">
         <v>44097</v>
       </c>
@@ -21677,7 +21676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1047" s="180">
         <v>44097</v>
       </c>
@@ -21691,7 +21690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1048" s="180">
         <v>44097</v>
       </c>
@@ -21705,7 +21704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1049" s="180">
         <v>44097</v>
       </c>
@@ -21719,7 +21718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1050" s="180">
         <v>44097</v>
       </c>
@@ -21733,7 +21732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1051" s="180">
         <v>44097</v>
       </c>
@@ -21747,7 +21746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1052" s="180">
         <v>44097</v>
       </c>
@@ -21761,7 +21760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1053" s="180">
         <v>44097</v>
       </c>
@@ -21775,7 +21774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1054" s="180">
         <v>44097</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1055" s="180">
         <v>44097</v>
       </c>
@@ -21803,13 +21802,204 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1056" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1056" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1056" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1057" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1057" s="195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1057" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1058" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1058" s="195" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1058" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1059" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1059" s="195" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1059" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1060" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1060" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1060" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1061" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1061" s="195" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1061" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1062" s="195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1062" s="195" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1062" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1063" s="195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1063" s="195" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1063" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1064" s="195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1064" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1064" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1065" s="195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1065" s="195" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1065" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1066" s="195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1066" s="195" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1066" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1067" s="195" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1067" s="195" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1067" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1068" s="195" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1068" s="195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1068" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" s="180">
+        <v>44098</v>
+      </c>
+      <c r="B1069" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1069" s="195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1069" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1055" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Col. Ensayo"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D614">
       <sortCondition ref="A2:A614"/>
       <sortCondition ref="B2:B614"/>
@@ -21935,13 +22125,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="196" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="198"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
@@ -25155,10 +25345,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="198" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="198" t="s">
+      <c r="A91" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="195" t="s">
         <v>625</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -25175,10 +25365,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="198" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="198" t="s">
+      <c r="A92" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="195" t="s">
         <v>628</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -25228,7 +25418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -25641,10 +25831,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A4C952-0633-467E-8F1D-999F7AAFAC35}">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194:G195"/>
+    <sheetView tabSelected="1" topLeftCell="C193" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195:G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30758,7 +30948,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <f t="shared" ref="A195" si="34">A194+1</f>
+        <f t="shared" ref="A195:A197" si="34">A194+1</f>
         <v>194</v>
       </c>
       <c r="B195" s="3">
@@ -30780,8 +30970,64 @@
         <v>2.138957781892056E-2</v>
       </c>
       <c r="G195" s="95">
-        <f t="shared" ref="G195" si="38">LN(2)/F195</f>
+        <f t="shared" ref="G195:G197" si="38">LN(2)/F195</f>
         <v>32.405837386225016</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <f t="shared" si="34"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="3">
+        <v>44097</v>
+      </c>
+      <c r="C196" s="2">
+        <v>118</v>
+      </c>
+      <c r="D196" s="2">
+        <f t="shared" ref="D196:D198" si="39">D195+C196</f>
+        <v>6661</v>
+      </c>
+      <c r="E196" s="2">
+        <f t="shared" ref="E196:E198" si="40">LN(D196)</f>
+        <v>8.8040249024131789</v>
+      </c>
+      <c r="F196" s="2">
+        <f t="shared" ref="F196:F198" si="41">SLOPE(E190:E196,A190:A196)</f>
+        <v>1.9719738441039438E-2</v>
+      </c>
+      <c r="G196" s="95">
+        <f t="shared" si="38"/>
+        <v>35.149917562669714</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <f t="shared" si="34"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="3">
+        <v>44098</v>
+      </c>
+      <c r="C197" s="2">
+        <v>99</v>
+      </c>
+      <c r="D197" s="2">
+        <f t="shared" si="39"/>
+        <v>6760</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" si="40"/>
+        <v>8.8187781690370102</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" si="41"/>
+        <v>1.7682677192187475E-2</v>
+      </c>
+      <c r="G197" s="95">
+        <f t="shared" si="38"/>
+        <v>39.199221533388062</v>
       </c>
     </row>
   </sheetData>
@@ -31444,7 +31690,7 @@
       <c r="O11" s="29"/>
       <c r="P11" s="168">
         <f ca="1">TODAY()+26</f>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="Q11" s="18" t="s">
         <v>9</v>
@@ -32076,7 +32322,7 @@
       </c>
       <c r="C22" s="92">
         <f ca="1">TODAY()+K20</f>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="D22" s="24">
         <f>D20*2</f>
@@ -50070,7 +50316,7 @@
         <v>4.0604430105464191</v>
       </c>
       <c r="F125" s="116">
-        <f t="shared" ref="F125:F156" si="89">LN(2)/(SLOPE(E119:E125,B119:B125))</f>
+        <f t="shared" ref="F125:F126" si="89">LN(2)/(SLOPE(E119:E125,B119:B125))</f>
         <v>122.54714475060509</v>
       </c>
       <c r="G125" s="59">
@@ -50103,7 +50349,7 @@
         <v>5.1647859739235145</v>
       </c>
       <c r="O125" s="116">
-        <f t="shared" ref="O125:O156" si="90">LN(2)/(SLOPE(N119:N125,B119:B125))</f>
+        <f t="shared" ref="O125:O126" si="90">LN(2)/(SLOPE(N119:N125,B119:B125))</f>
         <v>60.676154793351984</v>
       </c>
       <c r="Q125" s="112">
@@ -50270,7 +50516,7 @@
         <v>4.6913478822291435</v>
       </c>
       <c r="I126" s="116">
-        <f t="shared" ref="I126:I157" si="92">LN(2)/(SLOPE(H120:H126,B120:B126))</f>
+        <f t="shared" ref="I126" si="92">LN(2)/(SLOPE(H120:H126,B120:B126))</f>
         <v>30.478590955377864</v>
       </c>
       <c r="J126" s="59">

--- a/data/entre_rios_casos.xlsx
+++ b/data/entre_rios_casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COVID\COVID\covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B311EC2-6720-4ECE-A905-629E7D68F719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12BA118-DBC2-4DC6-82CE-4EE91E37799F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{FC58C6DF-F0AA-4862-9839-4B4985836020}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{FC58C6DF-F0AA-4862-9839-4B4985836020}"/>
     <workbookView xWindow="10335" yWindow="90" windowWidth="11130" windowHeight="10695" xr2:uid="{CEF36032-F7D9-46FB-9FFC-A4B552F6AD1A}"/>
   </bookViews>
   <sheets>
@@ -29,7 +29,7 @@
     <sheet name="Hoja1" sheetId="67" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CASOS1!$A$1:$D$1382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CASOS1!$A$1:$D$1381</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DIA!$F$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LOCALIDADES!$A$1:$F$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TERAPISTAS!$A$1:$H$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="819">
   <si>
     <t>FECHA</t>
   </si>
@@ -7412,7 +7412,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="UNER" refreshedDate="44113.547003356478" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1418" xr:uid="{E1F43B4E-DF70-4DC3-B96F-795B704397E6}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1419" sheet="CASOS1"/>
+    <worksheetSource ref="A1:D1418" sheet="CASOS1"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="FECHA" numFmtId="14">
@@ -22635,11 +22635,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1419"/>
+  <dimension ref="A1:F1418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1392" sqref="B1392"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1379" sqref="A1379:XFD1379"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -41664,7 +41664,7 @@
         <v>8</v>
       </c>
       <c r="D1358" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.25">
@@ -41952,10 +41952,10 @@
         <v>44112</v>
       </c>
       <c r="B1379" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1379" s="161" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="C1379" s="49" t="s">
+        <v>7</v>
       </c>
       <c r="D1379" s="2">
         <v>1</v>
@@ -41966,10 +41966,10 @@
         <v>44112</v>
       </c>
       <c r="B1380" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1380" s="49" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>118</v>
       </c>
       <c r="D1380" s="2">
         <v>1</v>
@@ -41980,10 +41980,10 @@
         <v>44112</v>
       </c>
       <c r="B1381" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1381" t="s">
-        <v>118</v>
+        <v>615</v>
       </c>
       <c r="D1381" s="2">
         <v>1</v>
@@ -41991,30 +41991,30 @@
     </row>
     <row r="1382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1382" s="122">
-        <v>44112</v>
+        <v>44113</v>
       </c>
       <c r="B1382" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1382" t="s">
-        <v>615</v>
+        <v>8</v>
       </c>
       <c r="D1382" s="2">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1383" s="122">
         <v>44113</v>
       </c>
-      <c r="B1383" t="s">
+      <c r="B1383" s="49" t="s">
         <v>8</v>
       </c>
       <c r="C1383" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D1383" s="2">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.25">
@@ -42025,10 +42025,10 @@
         <v>8</v>
       </c>
       <c r="C1384" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="D1384" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.25">
@@ -42039,10 +42039,10 @@
         <v>8</v>
       </c>
       <c r="C1385" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="D1385" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1386" spans="1:4" x14ac:dyDescent="0.25">
@@ -42053,7 +42053,7 @@
         <v>8</v>
       </c>
       <c r="C1386" t="s">
-        <v>31</v>
+        <v>814</v>
       </c>
       <c r="D1386" s="2">
         <v>2</v>
@@ -42067,10 +42067,10 @@
         <v>8</v>
       </c>
       <c r="C1387" t="s">
-        <v>814</v>
+        <v>243</v>
       </c>
       <c r="D1387" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1388" spans="1:4" x14ac:dyDescent="0.25">
@@ -42081,7 +42081,7 @@
         <v>8</v>
       </c>
       <c r="C1388" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="D1388" s="2">
         <v>1</v>
@@ -42095,7 +42095,7 @@
         <v>8</v>
       </c>
       <c r="C1389" t="s">
-        <v>143</v>
+        <v>621</v>
       </c>
       <c r="D1389" s="2">
         <v>1</v>
@@ -42109,7 +42109,7 @@
         <v>8</v>
       </c>
       <c r="C1390" t="s">
-        <v>621</v>
+        <v>121</v>
       </c>
       <c r="D1390" s="2">
         <v>1</v>
@@ -42123,7 +42123,7 @@
         <v>8</v>
       </c>
       <c r="C1391" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="D1391" s="2">
         <v>1</v>
@@ -42137,7 +42137,7 @@
         <v>8</v>
       </c>
       <c r="C1392" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="D1392" s="2">
         <v>1</v>
@@ -42148,13 +42148,13 @@
         <v>44113</v>
       </c>
       <c r="B1393" s="49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1393" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D1393" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1394" spans="1:4" x14ac:dyDescent="0.25">
@@ -42165,10 +42165,10 @@
         <v>9</v>
       </c>
       <c r="C1394" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D1394" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1395" spans="1:4" x14ac:dyDescent="0.25">
@@ -42179,38 +42179,38 @@
         <v>9</v>
       </c>
       <c r="C1395" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D1395" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1396" s="122">
         <v>44113</v>
       </c>
-      <c r="B1396" s="49" t="s">
-        <v>9</v>
+      <c r="B1396" t="s">
+        <v>13</v>
       </c>
       <c r="C1396" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="D1396" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1397" s="122">
         <v>44113</v>
       </c>
-      <c r="B1397" t="s">
+      <c r="B1397" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C1397" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="D1397" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1398" spans="1:4" x14ac:dyDescent="0.25">
@@ -42221,10 +42221,10 @@
         <v>13</v>
       </c>
       <c r="C1398" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="D1398" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1399" spans="1:4" x14ac:dyDescent="0.25">
@@ -42235,7 +42235,7 @@
         <v>13</v>
       </c>
       <c r="C1399" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="D1399" s="2">
         <v>1</v>
@@ -42245,28 +42245,28 @@
       <c r="A1400" s="122">
         <v>44113</v>
       </c>
-      <c r="B1400" s="49" t="s">
-        <v>13</v>
+      <c r="B1400" t="s">
+        <v>27</v>
       </c>
       <c r="C1400" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="D1400" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1401" s="122">
         <v>44113</v>
       </c>
-      <c r="B1401" t="s">
+      <c r="B1401" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C1401" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="D1401" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1402" spans="1:4" x14ac:dyDescent="0.25">
@@ -42277,52 +42277,52 @@
         <v>27</v>
       </c>
       <c r="C1402" t="s">
-        <v>150</v>
+        <v>648</v>
       </c>
       <c r="D1402" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1403" s="122">
         <v>44113</v>
       </c>
-      <c r="B1403" s="49" t="s">
-        <v>27</v>
+      <c r="B1403" t="s">
+        <v>20</v>
       </c>
       <c r="C1403" t="s">
-        <v>648</v>
+        <v>20</v>
       </c>
       <c r="D1403" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1404" s="122">
         <v>44113</v>
       </c>
-      <c r="B1404" t="s">
+      <c r="B1404" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C1404" t="s">
-        <v>20</v>
+        <v>391</v>
       </c>
       <c r="D1404" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1405" s="122">
         <v>44113</v>
       </c>
-      <c r="B1405" s="49" t="s">
-        <v>20</v>
+      <c r="B1405" t="s">
+        <v>24</v>
       </c>
       <c r="C1405" t="s">
-        <v>391</v>
+        <v>23</v>
       </c>
       <c r="D1405" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1406" spans="1:4" x14ac:dyDescent="0.25">
@@ -42330,27 +42330,27 @@
         <v>44113</v>
       </c>
       <c r="B1406" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C1406" t="s">
-        <v>23</v>
+        <v>640</v>
       </c>
       <c r="D1406" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1407" s="122">
         <v>44113</v>
       </c>
-      <c r="B1407" t="s">
+      <c r="B1407" s="49" t="s">
         <v>50</v>
       </c>
       <c r="C1407" t="s">
-        <v>640</v>
+        <v>393</v>
       </c>
       <c r="D1407" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1408" spans="1:4" x14ac:dyDescent="0.25">
@@ -42358,38 +42358,38 @@
         <v>44113</v>
       </c>
       <c r="B1408" s="49" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C1408" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
       <c r="D1408" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1409" s="122">
         <v>44113</v>
       </c>
-      <c r="B1409" s="49" t="s">
-        <v>7</v>
+      <c r="B1409" t="s">
+        <v>12</v>
       </c>
       <c r="C1409" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D1409" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1410" s="122">
         <v>44113</v>
       </c>
-      <c r="B1410" t="s">
+      <c r="B1410" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C1410" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D1410" s="2">
         <v>3</v>
@@ -42399,11 +42399,11 @@
       <c r="A1411" s="122">
         <v>44113</v>
       </c>
-      <c r="B1411" s="49" t="s">
-        <v>12</v>
+      <c r="B1411" t="s">
+        <v>15</v>
       </c>
       <c r="C1411" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="D1411" s="2">
         <v>3</v>
@@ -42413,39 +42413,39 @@
       <c r="A1412" s="122">
         <v>44113</v>
       </c>
-      <c r="B1412" t="s">
+      <c r="B1412" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C1412" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="D1412" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1413" s="122">
         <v>44113</v>
       </c>
-      <c r="B1413" s="49" t="s">
-        <v>15</v>
+      <c r="B1413" t="s">
+        <v>11</v>
       </c>
       <c r="C1413" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="D1413" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1414" s="122">
         <v>44113</v>
       </c>
-      <c r="B1414" t="s">
+      <c r="B1414" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C1414" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="D1414" s="2">
         <v>2</v>
@@ -42455,42 +42455,42 @@
       <c r="A1415" s="122">
         <v>44113</v>
       </c>
-      <c r="B1415" s="49" t="s">
-        <v>11</v>
+      <c r="B1415" t="s">
+        <v>49</v>
       </c>
       <c r="C1415" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="D1415" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1416" s="122">
         <v>44113</v>
       </c>
-      <c r="B1416" t="s">
+      <c r="B1416" s="49" t="s">
         <v>49</v>
       </c>
       <c r="C1416" t="s">
-        <v>227</v>
+        <v>49</v>
       </c>
       <c r="D1416" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1417" s="122">
         <v>44113</v>
       </c>
-      <c r="B1417" s="49" t="s">
-        <v>49</v>
+      <c r="B1417" t="s">
+        <v>51</v>
       </c>
       <c r="C1417" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1417" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1418" spans="1:4" x14ac:dyDescent="0.25">
@@ -42498,31 +42498,17 @@
         <v>44113</v>
       </c>
       <c r="B1418" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C1418" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D1418" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1419" s="122">
-        <v>44113</v>
-      </c>
-      <c r="B1419" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1419" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1419" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1382" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:D1381" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1132">
       <sortCondition ref="A2:A1132"/>
       <sortCondition ref="B2:B1132"/>
@@ -76434,7 +76420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
